--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,15 @@
     <t>['22', '52', '59']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['51', '59', '72']</t>
+  </si>
+  <si>
+    <t>['22', '61']</t>
+  </si>
+  <si>
     <t>['30', '71']</t>
   </si>
   <si>
@@ -701,6 +710,12 @@
   </si>
   <si>
     <t>['20', '50', '68']</t>
+  </si>
+  <si>
+    <t>['3', '30', '76', '79']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK108"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1497,7 +1512,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1584,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT3">
         <v>1.29</v>
@@ -1688,7 +1703,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1778,7 +1793,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1879,7 +1894,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1966,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
         <v>2.5</v>
@@ -2070,7 +2085,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>12</v>
@@ -2351,7 +2366,7 @@
         <v>1.75</v>
       </c>
       <c r="AT7">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2452,7 +2467,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2643,7 +2658,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2733,7 +2748,7 @@
         <v>1.71</v>
       </c>
       <c r="AT9">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3025,7 +3040,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3216,7 +3231,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3407,7 +3422,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3494,7 +3509,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT13">
         <v>0.83</v>
@@ -3598,7 +3613,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3789,7 +3804,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -4171,7 +4186,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4362,7 +4377,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4553,7 +4568,7 @@
         <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4640,7 +4655,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT19">
         <v>2.29</v>
@@ -4744,7 +4759,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4831,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT20">
         <v>1.25</v>
@@ -4935,7 +4950,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5126,7 +5141,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5317,7 +5332,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5407,7 +5422,7 @@
         <v>1.38</v>
       </c>
       <c r="AT23">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU23">
         <v>2.02</v>
@@ -5598,7 +5613,7 @@
         <v>0.86</v>
       </c>
       <c r="AT24">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU24">
         <v>2.34</v>
@@ -5789,7 +5804,7 @@
         <v>1.71</v>
       </c>
       <c r="AT25">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU25">
         <v>2.13</v>
@@ -5890,7 +5905,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6081,7 +6096,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6272,7 +6287,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6463,7 +6478,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6654,7 +6669,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7036,7 +7051,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7123,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT32">
         <v>1.5</v>
@@ -7227,7 +7242,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7418,7 +7433,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7609,7 +7624,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7887,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT36">
         <v>0.57</v>
@@ -7991,7 +8006,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8182,7 +8197,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8272,7 +8287,7 @@
         <v>1.17</v>
       </c>
       <c r="AT38">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU38">
         <v>2.21</v>
@@ -8463,7 +8478,7 @@
         <v>1.75</v>
       </c>
       <c r="AT39">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU39">
         <v>1.07</v>
@@ -8564,7 +8579,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8651,10 +8666,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT40">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU40">
         <v>1.51</v>
@@ -8755,7 +8770,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8842,7 +8857,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT41">
         <v>1.86</v>
@@ -9137,7 +9152,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9609,7 +9624,7 @@
         <v>1.17</v>
       </c>
       <c r="AT45">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU45">
         <v>1.07</v>
@@ -9710,7 +9725,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9901,7 +9916,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10283,7 +10298,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10370,7 +10385,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT49">
         <v>0.83</v>
@@ -10474,7 +10489,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>11</v>
@@ -10665,7 +10680,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11238,7 +11253,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11328,7 +11343,7 @@
         <v>0.86</v>
       </c>
       <c r="AT54">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU54">
         <v>1.62</v>
@@ -11429,7 +11444,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11516,7 +11531,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT55">
         <v>2.29</v>
@@ -11620,7 +11635,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -11710,7 +11725,7 @@
         <v>1.17</v>
       </c>
       <c r="AT56">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU56">
         <v>2.12</v>
@@ -11811,7 +11826,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12002,7 +12017,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12193,7 +12208,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12280,7 +12295,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT59">
         <v>1.83</v>
@@ -12384,7 +12399,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -12471,10 +12486,10 @@
         <v>1.75</v>
       </c>
       <c r="AS60">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT60">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU60">
         <v>1.82</v>
@@ -12575,7 +12590,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -13148,7 +13163,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q64">
         <v>11</v>
@@ -13339,7 +13354,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13426,7 +13441,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT65">
         <v>0.67</v>
@@ -13530,7 +13545,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13620,7 +13635,7 @@
         <v>0.29</v>
       </c>
       <c r="AT66">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU66">
         <v>0.97</v>
@@ -13721,7 +13736,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -13912,7 +13927,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14485,7 +14500,7 @@
         <v>81</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14766,7 +14781,7 @@
         <v>3</v>
       </c>
       <c r="AT72">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU72">
         <v>1.59</v>
@@ -14867,7 +14882,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14954,7 +14969,7 @@
         <v>2.6</v>
       </c>
       <c r="AS73">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT73">
         <v>2.5</v>
@@ -15058,7 +15073,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15148,7 +15163,7 @@
         <v>1</v>
       </c>
       <c r="AT74">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU74">
         <v>1.6</v>
@@ -15249,7 +15264,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>15</v>
@@ -15440,7 +15455,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15909,7 +15924,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT78">
         <v>0.43</v>
@@ -16013,7 +16028,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -16294,7 +16309,7 @@
         <v>3</v>
       </c>
       <c r="AT80">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU80">
         <v>2.47</v>
@@ -16395,7 +16410,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16777,7 +16792,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -16864,7 +16879,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AT83">
         <v>1.83</v>
@@ -17159,7 +17174,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17350,7 +17365,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17822,7 +17837,7 @@
         <v>1.17</v>
       </c>
       <c r="AT88">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU88">
         <v>1.58</v>
@@ -17923,7 +17938,7 @@
         <v>81</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18010,7 +18025,7 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AT89">
         <v>1.86</v>
@@ -18114,7 +18129,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>14</v>
@@ -18305,7 +18320,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18392,10 +18407,10 @@
         <v>1.67</v>
       </c>
       <c r="AS91">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AT91">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU91">
         <v>1.91</v>
@@ -18496,7 +18511,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>10</v>
@@ -18878,7 +18893,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -18968,7 +18983,7 @@
         <v>1.14</v>
       </c>
       <c r="AT94">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AU94">
         <v>1.73</v>
@@ -19069,7 +19084,7 @@
         <v>81</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19260,7 +19275,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19833,7 +19848,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20024,7 +20039,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20215,7 +20230,7 @@
         <v>81</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20406,7 +20421,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20597,7 +20612,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q103">
         <v>13</v>
@@ -20979,7 +20994,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21361,7 +21376,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21552,7 +21567,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21694,6 +21709,579 @@
       </c>
       <c r="BK108">
         <v>10</v>
+      </c>
+    </row>
+    <row r="109" spans="1:63">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>2595244</v>
+      </c>
+      <c r="C109" t="s">
+        <v>63</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F109">
+        <v>14</v>
+      </c>
+      <c r="G109" t="s">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s">
+        <v>80</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>2</v>
+      </c>
+      <c r="K109">
+        <v>3</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>5</v>
+      </c>
+      <c r="O109" t="s">
+        <v>158</v>
+      </c>
+      <c r="P109" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q109">
+        <v>6</v>
+      </c>
+      <c r="R109">
+        <v>2</v>
+      </c>
+      <c r="S109">
+        <v>8</v>
+      </c>
+      <c r="T109">
+        <v>4.4</v>
+      </c>
+      <c r="U109">
+        <v>2.2</v>
+      </c>
+      <c r="V109">
+        <v>2.25</v>
+      </c>
+      <c r="W109">
+        <v>1.34</v>
+      </c>
+      <c r="X109">
+        <v>2.95</v>
+      </c>
+      <c r="Y109">
+        <v>2.55</v>
+      </c>
+      <c r="Z109">
+        <v>1.44</v>
+      </c>
+      <c r="AA109">
+        <v>6.25</v>
+      </c>
+      <c r="AB109">
+        <v>1.1</v>
+      </c>
+      <c r="AC109">
+        <v>4.6</v>
+      </c>
+      <c r="AD109">
+        <v>3.7</v>
+      </c>
+      <c r="AE109">
+        <v>1.7</v>
+      </c>
+      <c r="AF109">
+        <v>1.05</v>
+      </c>
+      <c r="AG109">
+        <v>9</v>
+      </c>
+      <c r="AH109">
+        <v>1.22</v>
+      </c>
+      <c r="AI109">
+        <v>4</v>
+      </c>
+      <c r="AJ109">
+        <v>1.68</v>
+      </c>
+      <c r="AK109">
+        <v>2.1</v>
+      </c>
+      <c r="AL109">
+        <v>1.73</v>
+      </c>
+      <c r="AM109">
+        <v>1.98</v>
+      </c>
+      <c r="AN109">
+        <v>2.05</v>
+      </c>
+      <c r="AO109">
+        <v>1.25</v>
+      </c>
+      <c r="AP109">
+        <v>1.2</v>
+      </c>
+      <c r="AQ109">
+        <v>0.5</v>
+      </c>
+      <c r="AR109">
+        <v>1.17</v>
+      </c>
+      <c r="AS109">
+        <v>0.43</v>
+      </c>
+      <c r="AT109">
+        <v>1.43</v>
+      </c>
+      <c r="AU109">
+        <v>1.97</v>
+      </c>
+      <c r="AV109">
+        <v>1.97</v>
+      </c>
+      <c r="AW109">
+        <v>3.94</v>
+      </c>
+      <c r="AX109">
+        <v>3.02</v>
+      </c>
+      <c r="AY109">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ109">
+        <v>1.58</v>
+      </c>
+      <c r="BA109">
+        <v>1.22</v>
+      </c>
+      <c r="BB109">
+        <v>1.42</v>
+      </c>
+      <c r="BC109">
+        <v>1.74</v>
+      </c>
+      <c r="BD109">
+        <v>2.23</v>
+      </c>
+      <c r="BE109">
+        <v>3</v>
+      </c>
+      <c r="BF109">
+        <v>6</v>
+      </c>
+      <c r="BG109">
+        <v>8</v>
+      </c>
+      <c r="BH109">
+        <v>2</v>
+      </c>
+      <c r="BI109">
+        <v>5</v>
+      </c>
+      <c r="BJ109">
+        <v>8</v>
+      </c>
+      <c r="BK109">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:63">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2595237</v>
+      </c>
+      <c r="C110" t="s">
+        <v>63</v>
+      </c>
+      <c r="D110" t="s">
+        <v>64</v>
+      </c>
+      <c r="E110" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F110">
+        <v>14</v>
+      </c>
+      <c r="G110" t="s">
+        <v>66</v>
+      </c>
+      <c r="H110" t="s">
+        <v>74</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>159</v>
+      </c>
+      <c r="P110" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q110">
+        <v>4</v>
+      </c>
+      <c r="R110">
+        <v>5</v>
+      </c>
+      <c r="S110">
+        <v>9</v>
+      </c>
+      <c r="T110">
+        <v>2.75</v>
+      </c>
+      <c r="U110">
+        <v>2.15</v>
+      </c>
+      <c r="V110">
+        <v>3.4</v>
+      </c>
+      <c r="W110">
+        <v>1.36</v>
+      </c>
+      <c r="X110">
+        <v>2.87</v>
+      </c>
+      <c r="Y110">
+        <v>2.65</v>
+      </c>
+      <c r="Z110">
+        <v>1.42</v>
+      </c>
+      <c r="AA110">
+        <v>6.5</v>
+      </c>
+      <c r="AB110">
+        <v>1.09</v>
+      </c>
+      <c r="AC110">
+        <v>2.25</v>
+      </c>
+      <c r="AD110">
+        <v>3.45</v>
+      </c>
+      <c r="AE110">
+        <v>2.95</v>
+      </c>
+      <c r="AF110">
+        <v>1.05</v>
+      </c>
+      <c r="AG110">
+        <v>9</v>
+      </c>
+      <c r="AH110">
+        <v>1.28</v>
+      </c>
+      <c r="AI110">
+        <v>3.5</v>
+      </c>
+      <c r="AJ110">
+        <v>1.88</v>
+      </c>
+      <c r="AK110">
+        <v>1.88</v>
+      </c>
+      <c r="AL110">
+        <v>1.68</v>
+      </c>
+      <c r="AM110">
+        <v>2.05</v>
+      </c>
+      <c r="AN110">
+        <v>1.37</v>
+      </c>
+      <c r="AO110">
+        <v>1.29</v>
+      </c>
+      <c r="AP110">
+        <v>1.62</v>
+      </c>
+      <c r="AQ110">
+        <v>0.83</v>
+      </c>
+      <c r="AR110">
+        <v>1.43</v>
+      </c>
+      <c r="AS110">
+        <v>1.14</v>
+      </c>
+      <c r="AT110">
+        <v>1.25</v>
+      </c>
+      <c r="AU110">
+        <v>1.47</v>
+      </c>
+      <c r="AV110">
+        <v>1.12</v>
+      </c>
+      <c r="AW110">
+        <v>2.59</v>
+      </c>
+      <c r="AX110">
+        <v>1.73</v>
+      </c>
+      <c r="AY110">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ110">
+        <v>2.6</v>
+      </c>
+      <c r="BA110">
+        <v>1.18</v>
+      </c>
+      <c r="BB110">
+        <v>1.34</v>
+      </c>
+      <c r="BC110">
+        <v>1.61</v>
+      </c>
+      <c r="BD110">
+        <v>2.02</v>
+      </c>
+      <c r="BE110">
+        <v>2.7</v>
+      </c>
+      <c r="BF110">
+        <v>7</v>
+      </c>
+      <c r="BG110">
+        <v>3</v>
+      </c>
+      <c r="BH110">
+        <v>6</v>
+      </c>
+      <c r="BI110">
+        <v>3</v>
+      </c>
+      <c r="BJ110">
+        <v>13</v>
+      </c>
+      <c r="BK110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:63">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>2595242</v>
+      </c>
+      <c r="C111" t="s">
+        <v>63</v>
+      </c>
+      <c r="D111" t="s">
+        <v>64</v>
+      </c>
+      <c r="E111" s="2">
+        <v>44864.45833333334</v>
+      </c>
+      <c r="F111">
+        <v>14</v>
+      </c>
+      <c r="G111" t="s">
+        <v>68</v>
+      </c>
+      <c r="H111" t="s">
+        <v>75</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>160</v>
+      </c>
+      <c r="P111" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q111">
+        <v>7</v>
+      </c>
+      <c r="R111">
+        <v>4</v>
+      </c>
+      <c r="S111">
+        <v>11</v>
+      </c>
+      <c r="T111">
+        <v>3.4</v>
+      </c>
+      <c r="U111">
+        <v>2.05</v>
+      </c>
+      <c r="V111">
+        <v>2.9</v>
+      </c>
+      <c r="W111">
+        <v>1.4</v>
+      </c>
+      <c r="X111">
+        <v>2.7</v>
+      </c>
+      <c r="Y111">
+        <v>2.85</v>
+      </c>
+      <c r="Z111">
+        <v>1.37</v>
+      </c>
+      <c r="AA111">
+        <v>7.25</v>
+      </c>
+      <c r="AB111">
+        <v>1.08</v>
+      </c>
+      <c r="AC111">
+        <v>2.95</v>
+      </c>
+      <c r="AD111">
+        <v>3.3</v>
+      </c>
+      <c r="AE111">
+        <v>2.3</v>
+      </c>
+      <c r="AF111">
+        <v>1.06</v>
+      </c>
+      <c r="AG111">
+        <v>8</v>
+      </c>
+      <c r="AH111">
+        <v>1.3</v>
+      </c>
+      <c r="AI111">
+        <v>3.3</v>
+      </c>
+      <c r="AJ111">
+        <v>1.91</v>
+      </c>
+      <c r="AK111">
+        <v>1.84</v>
+      </c>
+      <c r="AL111">
+        <v>1.75</v>
+      </c>
+      <c r="AM111">
+        <v>1.93</v>
+      </c>
+      <c r="AN111">
+        <v>1.57</v>
+      </c>
+      <c r="AO111">
+        <v>1.31</v>
+      </c>
+      <c r="AP111">
+        <v>1.39</v>
+      </c>
+      <c r="AQ111">
+        <v>1.29</v>
+      </c>
+      <c r="AR111">
+        <v>1.57</v>
+      </c>
+      <c r="AS111">
+        <v>1.5</v>
+      </c>
+      <c r="AT111">
+        <v>1.38</v>
+      </c>
+      <c r="AU111">
+        <v>1.56</v>
+      </c>
+      <c r="AV111">
+        <v>1.64</v>
+      </c>
+      <c r="AW111">
+        <v>3.2</v>
+      </c>
+      <c r="AX111">
+        <v>1.97</v>
+      </c>
+      <c r="AY111">
+        <v>7.2</v>
+      </c>
+      <c r="AZ111">
+        <v>2.24</v>
+      </c>
+      <c r="BA111">
+        <v>1.18</v>
+      </c>
+      <c r="BB111">
+        <v>1.34</v>
+      </c>
+      <c r="BC111">
+        <v>1.61</v>
+      </c>
+      <c r="BD111">
+        <v>2.02</v>
+      </c>
+      <c r="BE111">
+        <v>2.7</v>
+      </c>
+      <c r="BF111">
+        <v>7</v>
+      </c>
+      <c r="BG111">
+        <v>5</v>
+      </c>
+      <c r="BH111">
+        <v>6</v>
+      </c>
+      <c r="BI111">
+        <v>7</v>
+      </c>
+      <c r="BJ111">
+        <v>13</v>
+      </c>
+      <c r="BK111">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="831" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -499,6 +499,48 @@
     <t>['22', '61']</t>
   </si>
   <si>
+    <t>['55', '66', '86']</t>
+  </si>
+  <si>
+    <t>['45+2', '59', '81']</t>
+  </si>
+  <si>
+    <t>['32', '54', '72']</t>
+  </si>
+  <si>
+    <t>['14', '76']</t>
+  </si>
+  <si>
+    <t>['43', '47', '61']</t>
+  </si>
+  <si>
+    <t>['53', '73', '79']</t>
+  </si>
+  <si>
+    <t>['24', '53', '79', '90']</t>
+  </si>
+  <si>
+    <t>['9', '30', '65', '89']</t>
+  </si>
+  <si>
+    <t>['6', '61']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['9', '35', '73', '80']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['34', '65']</t>
+  </si>
+  <si>
     <t>['30', '71']</t>
   </si>
   <si>
@@ -716,6 +758,30 @@
   </si>
   <si>
     <t>['14']</t>
+  </si>
+  <si>
+    <t>['30', '36']</t>
+  </si>
+  <si>
+    <t>['47', '85']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['45', '87']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['52', '69']</t>
+  </si>
+  <si>
+    <t>['8', '45', '78']</t>
+  </si>
+  <si>
+    <t>['1', '5', '28', '56']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,10 +1474,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT2">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1512,7 +1578,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1599,10 +1665,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1703,7 +1769,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1790,10 +1856,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT4">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1894,7 +1960,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1981,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT5">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2085,7 +2151,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>12</v>
@@ -2172,10 +2238,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT6">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2363,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT7">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2467,7 +2533,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2554,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT8">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2658,7 +2724,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2745,10 +2811,10 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT9">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -2936,10 +3002,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT10">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3040,7 +3106,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3127,10 +3193,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT11">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3231,7 +3297,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3318,10 +3384,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT12">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3422,7 +3488,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3509,10 +3575,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT13">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3613,7 +3679,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3700,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT14">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3804,7 +3870,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -3891,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT15">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4082,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT16">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4186,7 +4252,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4276,7 +4342,7 @@
         <v>3</v>
       </c>
       <c r="AT17">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4377,7 +4443,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4464,10 +4530,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT18">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU18">
         <v>2.04</v>
@@ -4568,7 +4634,7 @@
         <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4655,10 +4721,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT19">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU19">
         <v>1.2</v>
@@ -4759,7 +4825,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4846,10 +4912,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT20">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU20">
         <v>1.13</v>
@@ -4950,7 +5016,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5037,10 +5103,10 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT21">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AU21">
         <v>0.68</v>
@@ -5141,7 +5207,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5228,10 +5294,10 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT22">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AU22">
         <v>1.15</v>
@@ -5332,7 +5398,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5419,10 +5485,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT23">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU23">
         <v>2.02</v>
@@ -5610,10 +5676,10 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT24">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU24">
         <v>2.34</v>
@@ -5801,10 +5867,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT25">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU25">
         <v>2.13</v>
@@ -5905,7 +5971,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -5992,10 +6058,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT26">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU26">
         <v>1.64</v>
@@ -6096,7 +6162,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6183,10 +6249,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT27">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU27">
         <v>1.89</v>
@@ -6287,7 +6353,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6374,10 +6440,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT28">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU28">
         <v>1.75</v>
@@ -6478,7 +6544,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6565,10 +6631,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT29">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AU29">
         <v>1.51</v>
@@ -6669,7 +6735,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6756,10 +6822,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT30">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU30">
         <v>1.34</v>
@@ -6950,7 +7016,7 @@
         <v>3</v>
       </c>
       <c r="AT31">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU31">
         <v>1.66</v>
@@ -7051,7 +7117,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7138,10 +7204,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU32">
         <v>2.04</v>
@@ -7242,7 +7308,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7329,10 +7395,10 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT33">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AU33">
         <v>1.23</v>
@@ -7433,7 +7499,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7520,10 +7586,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT34">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU34">
         <v>1.94</v>
@@ -7624,7 +7690,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7711,10 +7777,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT35">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU35">
         <v>1.67</v>
@@ -7902,10 +7968,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT36">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU36">
         <v>1.17</v>
@@ -8006,7 +8072,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8093,10 +8159,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT37">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU37">
         <v>1.94</v>
@@ -8197,7 +8263,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8284,10 +8350,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT38">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU38">
         <v>2.21</v>
@@ -8475,10 +8541,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT39">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU39">
         <v>1.07</v>
@@ -8579,7 +8645,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8666,10 +8732,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT40">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU40">
         <v>1.51</v>
@@ -8770,7 +8836,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8857,10 +8923,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT41">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU41">
         <v>1.79</v>
@@ -9048,10 +9114,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT42">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -9152,7 +9218,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9239,10 +9305,10 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT43">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU43">
         <v>1.48</v>
@@ -9430,10 +9496,10 @@
         <v>1.67</v>
       </c>
       <c r="AS44">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT44">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AU44">
         <v>1.69</v>
@@ -9621,10 +9687,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT45">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU45">
         <v>1.07</v>
@@ -9725,7 +9791,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9812,10 +9878,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT46">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU46">
         <v>1.33</v>
@@ -9916,7 +9982,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10003,10 +10069,10 @@
         <v>3</v>
       </c>
       <c r="AS47">
+        <v>1.67</v>
+      </c>
+      <c r="AT47">
         <v>1.5</v>
-      </c>
-      <c r="AT47">
-        <v>2</v>
       </c>
       <c r="AU47">
         <v>1.79</v>
@@ -10197,7 +10263,7 @@
         <v>3</v>
       </c>
       <c r="AT48">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU48">
         <v>2.41</v>
@@ -10298,7 +10364,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10385,10 +10451,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT49">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU49">
         <v>1.15</v>
@@ -10489,7 +10555,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>11</v>
@@ -10576,10 +10642,10 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT50">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AU50">
         <v>2.23</v>
@@ -10680,7 +10746,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10767,10 +10833,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT51">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU51">
         <v>1.11</v>
@@ -10958,10 +11024,10 @@
         <v>0.33</v>
       </c>
       <c r="AS52">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT52">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU52">
         <v>1.92</v>
@@ -11149,10 +11215,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT53">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU53">
         <v>1.2</v>
@@ -11253,7 +11319,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11340,10 +11406,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT54">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU54">
         <v>1.62</v>
@@ -11444,7 +11510,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11531,10 +11597,10 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT55">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU55">
         <v>1.36</v>
@@ -11635,7 +11701,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -11722,10 +11788,10 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT56">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU56">
         <v>2.12</v>
@@ -11826,7 +11892,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -11913,10 +11979,10 @@
         <v>2.5</v>
       </c>
       <c r="AS57">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT57">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AU57">
         <v>1.57</v>
@@ -12017,7 +12083,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12104,10 +12170,10 @@
         <v>3</v>
       </c>
       <c r="AS58">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT58">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU58">
         <v>1.65</v>
@@ -12208,7 +12274,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12295,10 +12361,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT59">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU59">
         <v>1.29</v>
@@ -12399,7 +12465,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -12486,10 +12552,10 @@
         <v>1.75</v>
       </c>
       <c r="AS60">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT60">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU60">
         <v>1.82</v>
@@ -12590,7 +12656,7 @@
         <v>122</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>8</v>
@@ -12677,10 +12743,10 @@
         <v>1.25</v>
       </c>
       <c r="AS61">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT61">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AU61">
         <v>1.42</v>
@@ -12868,10 +12934,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT62">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU62">
         <v>1.64</v>
@@ -13059,10 +13125,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT63">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU63">
         <v>1.45</v>
@@ -13163,7 +13229,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>11</v>
@@ -13253,7 +13319,7 @@
         <v>3</v>
       </c>
       <c r="AT64">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU64">
         <v>2.42</v>
@@ -13354,7 +13420,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13441,10 +13507,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT65">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU65">
         <v>1.34</v>
@@ -13545,7 +13611,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13632,10 +13698,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT66">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU66">
         <v>0.97</v>
@@ -13736,7 +13802,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -13823,10 +13889,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT67">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU67">
         <v>2.14</v>
@@ -13927,7 +13993,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14014,10 +14080,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT68">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU68">
         <v>2.01</v>
@@ -14205,10 +14271,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT69">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU69">
         <v>1.24</v>
@@ -14396,10 +14462,10 @@
         <v>2.5</v>
       </c>
       <c r="AS70">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT70">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU70">
         <v>1.45</v>
@@ -14500,7 +14566,7 @@
         <v>81</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14587,10 +14653,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT71">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -14778,10 +14844,10 @@
         <v>1.75</v>
       </c>
       <c r="AS72">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT72">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU72">
         <v>1.59</v>
@@ -14882,7 +14948,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -14969,10 +15035,10 @@
         <v>2.6</v>
       </c>
       <c r="AS73">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT73">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AU73">
         <v>1.96</v>
@@ -15073,7 +15139,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15160,10 +15226,10 @@
         <v>1.8</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT74">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU74">
         <v>1.6</v>
@@ -15264,7 +15330,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>15</v>
@@ -15351,10 +15417,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT75">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU75">
         <v>1.64</v>
@@ -15455,7 +15521,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15542,10 +15608,10 @@
         <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT76">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU76">
         <v>2.06</v>
@@ -15733,10 +15799,10 @@
         <v>3</v>
       </c>
       <c r="AS77">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT77">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU77">
         <v>1.51</v>
@@ -15924,10 +15990,10 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT78">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU78">
         <v>1.3</v>
@@ -16028,7 +16094,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -16115,10 +16181,10 @@
         <v>1.2</v>
       </c>
       <c r="AS79">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT79">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AU79">
         <v>1.79</v>
@@ -16309,7 +16375,7 @@
         <v>3</v>
       </c>
       <c r="AT80">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU80">
         <v>2.47</v>
@@ -16410,7 +16476,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16497,10 +16563,10 @@
         <v>1</v>
       </c>
       <c r="AS81">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT81">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU81">
         <v>1.29</v>
@@ -16688,10 +16754,10 @@
         <v>1.25</v>
       </c>
       <c r="AS82">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT82">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU82">
         <v>1.41</v>
@@ -16792,7 +16858,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -16879,10 +16945,10 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT83">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU83">
         <v>1.54</v>
@@ -17070,10 +17136,10 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT84">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU84">
         <v>1.55</v>
@@ -17174,7 +17240,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17261,10 +17327,10 @@
         <v>0.6</v>
       </c>
       <c r="AS85">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT85">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU85">
         <v>1.06</v>
@@ -17365,7 +17431,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17452,10 +17518,10 @@
         <v>2.6</v>
       </c>
       <c r="AS86">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT86">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU86">
         <v>1.88</v>
@@ -17643,10 +17709,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT87">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU87">
         <v>1.96</v>
@@ -17834,10 +17900,10 @@
         <v>1.4</v>
       </c>
       <c r="AS88">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT88">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU88">
         <v>1.58</v>
@@ -17938,7 +18004,7 @@
         <v>81</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18025,10 +18091,10 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT89">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18129,7 +18195,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>14</v>
@@ -18216,10 +18282,10 @@
         <v>2.25</v>
       </c>
       <c r="AS90">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT90">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU90">
         <v>1.3</v>
@@ -18320,7 +18386,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18407,10 +18473,10 @@
         <v>1.67</v>
       </c>
       <c r="AS91">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT91">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU91">
         <v>1.91</v>
@@ -18511,7 +18577,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>10</v>
@@ -18598,10 +18664,10 @@
         <v>0</v>
       </c>
       <c r="AS92">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AT92">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU92">
         <v>2.01</v>
@@ -18789,10 +18855,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT93">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AU93">
         <v>1.87</v>
@@ -18893,7 +18959,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -18980,10 +19046,10 @@
         <v>1.67</v>
       </c>
       <c r="AS94">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT94">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU94">
         <v>1.73</v>
@@ -19084,7 +19150,7 @@
         <v>81</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19171,10 +19237,10 @@
         <v>2.33</v>
       </c>
       <c r="AS95">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT95">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AU95">
         <v>1.58</v>
@@ -19275,7 +19341,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19365,7 +19431,7 @@
         <v>3</v>
       </c>
       <c r="AT96">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU96">
         <v>2.42</v>
@@ -19553,10 +19619,10 @@
         <v>0.67</v>
       </c>
       <c r="AS97">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT97">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU97">
         <v>1.5</v>
@@ -19744,10 +19810,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AT98">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU98">
         <v>1.93</v>
@@ -19848,7 +19914,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -19935,10 +20001,10 @@
         <v>1.8</v>
       </c>
       <c r="AS99">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AT99">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AU99">
         <v>1.37</v>
@@ -20039,7 +20105,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20126,10 +20192,10 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AT100">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AU100">
         <v>1.72</v>
@@ -20230,7 +20296,7 @@
         <v>81</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20317,10 +20383,10 @@
         <v>1.2</v>
       </c>
       <c r="AS101">
-        <v>0.29</v>
+        <v>0.63</v>
       </c>
       <c r="AT101">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AU101">
         <v>1.17</v>
@@ -20421,7 +20487,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20508,10 +20574,10 @@
         <v>2.67</v>
       </c>
       <c r="AS102">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT102">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="AU102">
         <v>1.54</v>
@@ -20612,7 +20678,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>215</v>
+        <v>229</v>
       </c>
       <c r="Q103">
         <v>13</v>
@@ -20699,10 +20765,10 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AT103">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU103">
         <v>1.76</v>
@@ -20893,7 +20959,7 @@
         <v>3</v>
       </c>
       <c r="AT104">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AU104">
         <v>2.29</v>
@@ -20994,7 +21060,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21081,10 +21147,10 @@
         <v>0</v>
       </c>
       <c r="AS105">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AT105">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU105">
         <v>1.44</v>
@@ -21272,10 +21338,10 @@
         <v>2.17</v>
       </c>
       <c r="AS106">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AT106">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21376,7 +21442,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21463,10 +21529,10 @@
         <v>1.43</v>
       </c>
       <c r="AS107">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT107">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AU107">
         <v>1.83</v>
@@ -21567,7 +21633,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21654,10 +21720,10 @@
         <v>2.43</v>
       </c>
       <c r="AS108">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT108">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AU108">
         <v>1.72</v>
@@ -21758,7 +21824,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21845,10 +21911,10 @@
         <v>1.17</v>
       </c>
       <c r="AS109">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AT109">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU109">
         <v>1.97</v>
@@ -22036,10 +22102,10 @@
         <v>1.43</v>
       </c>
       <c r="AS110">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AT110">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AU110">
         <v>1.47</v>
@@ -22140,7 +22206,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22227,10 +22293,10 @@
         <v>1.57</v>
       </c>
       <c r="AS111">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AT111">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU111">
         <v>1.56</v>
@@ -22282,6 +22348,3444 @@
       </c>
       <c r="BK111">
         <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:63">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2595246</v>
+      </c>
+      <c r="C112" t="s">
+        <v>63</v>
+      </c>
+      <c r="D112" t="s">
+        <v>64</v>
+      </c>
+      <c r="E112" s="2">
+        <v>44870.45833333334</v>
+      </c>
+      <c r="F112">
+        <v>15</v>
+      </c>
+      <c r="G112" t="s">
+        <v>76</v>
+      </c>
+      <c r="H112" t="s">
+        <v>65</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>2</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>3</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>5</v>
+      </c>
+      <c r="O112" t="s">
+        <v>161</v>
+      </c>
+      <c r="P112" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q112">
+        <v>14</v>
+      </c>
+      <c r="R112">
+        <v>3</v>
+      </c>
+      <c r="S112">
+        <v>17</v>
+      </c>
+      <c r="T112">
+        <v>2.3</v>
+      </c>
+      <c r="U112">
+        <v>2.15</v>
+      </c>
+      <c r="V112">
+        <v>4.75</v>
+      </c>
+      <c r="W112">
+        <v>1.36</v>
+      </c>
+      <c r="X112">
+        <v>2.87</v>
+      </c>
+      <c r="Y112">
+        <v>2.7</v>
+      </c>
+      <c r="Z112">
+        <v>1.41</v>
+      </c>
+      <c r="AA112">
+        <v>6.75</v>
+      </c>
+      <c r="AB112">
+        <v>1.09</v>
+      </c>
+      <c r="AC112">
+        <v>1.68</v>
+      </c>
+      <c r="AD112">
+        <v>3.5</v>
+      </c>
+      <c r="AE112">
+        <v>4.6</v>
+      </c>
+      <c r="AF112">
+        <v>1.01</v>
+      </c>
+      <c r="AG112">
+        <v>9.5</v>
+      </c>
+      <c r="AH112">
+        <v>1.28</v>
+      </c>
+      <c r="AI112">
+        <v>3.5</v>
+      </c>
+      <c r="AJ112">
+        <v>1.88</v>
+      </c>
+      <c r="AK112">
+        <v>1.98</v>
+      </c>
+      <c r="AL112">
+        <v>1.8</v>
+      </c>
+      <c r="AM112">
+        <v>1.95</v>
+      </c>
+      <c r="AN112">
+        <v>1.15</v>
+      </c>
+      <c r="AO112">
+        <v>1.22</v>
+      </c>
+      <c r="AP112">
+        <v>1.95</v>
+      </c>
+      <c r="AQ112">
+        <v>0.43</v>
+      </c>
+      <c r="AR112">
+        <v>0.57</v>
+      </c>
+      <c r="AS112">
+        <v>0.75</v>
+      </c>
+      <c r="AT112">
+        <v>0.5</v>
+      </c>
+      <c r="AU112">
+        <v>1.89</v>
+      </c>
+      <c r="AV112">
+        <v>1.23</v>
+      </c>
+      <c r="AW112">
+        <v>3.12</v>
+      </c>
+      <c r="AX112">
+        <v>1.18</v>
+      </c>
+      <c r="AY112">
+        <v>11.5</v>
+      </c>
+      <c r="AZ112">
+        <v>6.8</v>
+      </c>
+      <c r="BA112">
+        <v>1.27</v>
+      </c>
+      <c r="BB112">
+        <v>1.5</v>
+      </c>
+      <c r="BC112">
+        <v>1.88</v>
+      </c>
+      <c r="BD112">
+        <v>2.45</v>
+      </c>
+      <c r="BE112">
+        <v>3.4</v>
+      </c>
+      <c r="BF112">
+        <v>6</v>
+      </c>
+      <c r="BG112">
+        <v>6</v>
+      </c>
+      <c r="BH112">
+        <v>5</v>
+      </c>
+      <c r="BI112">
+        <v>2</v>
+      </c>
+      <c r="BJ112">
+        <v>11</v>
+      </c>
+      <c r="BK112">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:63">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>2595251</v>
+      </c>
+      <c r="C113" t="s">
+        <v>63</v>
+      </c>
+      <c r="D113" t="s">
+        <v>64</v>
+      </c>
+      <c r="E113" s="2">
+        <v>44870.45833333334</v>
+      </c>
+      <c r="F113">
+        <v>15</v>
+      </c>
+      <c r="G113" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" t="s">
+        <v>66</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>3</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>5</v>
+      </c>
+      <c r="O113" t="s">
+        <v>162</v>
+      </c>
+      <c r="P113" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q113">
+        <v>3</v>
+      </c>
+      <c r="R113">
+        <v>8</v>
+      </c>
+      <c r="S113">
+        <v>11</v>
+      </c>
+      <c r="T113">
+        <v>3.2</v>
+      </c>
+      <c r="U113">
+        <v>2.15</v>
+      </c>
+      <c r="V113">
+        <v>3</v>
+      </c>
+      <c r="W113">
+        <v>1.35</v>
+      </c>
+      <c r="X113">
+        <v>2.95</v>
+      </c>
+      <c r="Y113">
+        <v>2.6</v>
+      </c>
+      <c r="Z113">
+        <v>1.44</v>
+      </c>
+      <c r="AA113">
+        <v>6.5</v>
+      </c>
+      <c r="AB113">
+        <v>1.1</v>
+      </c>
+      <c r="AC113">
+        <v>2.34</v>
+      </c>
+      <c r="AD113">
+        <v>3.15</v>
+      </c>
+      <c r="AE113">
+        <v>2.85</v>
+      </c>
+      <c r="AF113">
+        <v>1.05</v>
+      </c>
+      <c r="AG113">
+        <v>9</v>
+      </c>
+      <c r="AH113">
+        <v>1.25</v>
+      </c>
+      <c r="AI113">
+        <v>3.75</v>
+      </c>
+      <c r="AJ113">
+        <v>1.75</v>
+      </c>
+      <c r="AK113">
+        <v>1.95</v>
+      </c>
+      <c r="AL113">
+        <v>1.62</v>
+      </c>
+      <c r="AM113">
+        <v>2.25</v>
+      </c>
+      <c r="AN113">
+        <v>1.45</v>
+      </c>
+      <c r="AO113">
+        <v>1.25</v>
+      </c>
+      <c r="AP113">
+        <v>1.45</v>
+      </c>
+      <c r="AQ113">
+        <v>0.29</v>
+      </c>
+      <c r="AR113">
+        <v>2</v>
+      </c>
+      <c r="AS113">
+        <v>0.63</v>
+      </c>
+      <c r="AT113">
+        <v>1.5</v>
+      </c>
+      <c r="AU113">
+        <v>1.16</v>
+      </c>
+      <c r="AV113">
+        <v>1.53</v>
+      </c>
+      <c r="AW113">
+        <v>2.69</v>
+      </c>
+      <c r="AX113">
+        <v>2.21</v>
+      </c>
+      <c r="AY113">
+        <v>8</v>
+      </c>
+      <c r="AZ113">
+        <v>1.94</v>
+      </c>
+      <c r="BA113">
+        <v>1.15</v>
+      </c>
+      <c r="BB113">
+        <v>1.21</v>
+      </c>
+      <c r="BC113">
+        <v>1.38</v>
+      </c>
+      <c r="BD113">
+        <v>1.67</v>
+      </c>
+      <c r="BE113">
+        <v>2.1</v>
+      </c>
+      <c r="BF113">
+        <v>9</v>
+      </c>
+      <c r="BG113">
+        <v>5</v>
+      </c>
+      <c r="BH113">
+        <v>5</v>
+      </c>
+      <c r="BI113">
+        <v>4</v>
+      </c>
+      <c r="BJ113">
+        <v>14</v>
+      </c>
+      <c r="BK113">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:63">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2595247</v>
+      </c>
+      <c r="C114" t="s">
+        <v>63</v>
+      </c>
+      <c r="D114" t="s">
+        <v>64</v>
+      </c>
+      <c r="E114" s="2">
+        <v>44870.45833333334</v>
+      </c>
+      <c r="F114">
+        <v>15</v>
+      </c>
+      <c r="G114" t="s">
+        <v>75</v>
+      </c>
+      <c r="H114" t="s">
+        <v>71</v>
+      </c>
+      <c r="I114">
+        <v>1</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>1</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>163</v>
+      </c>
+      <c r="P114" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q114">
+        <v>4</v>
+      </c>
+      <c r="R114">
+        <v>5</v>
+      </c>
+      <c r="S114">
+        <v>9</v>
+      </c>
+      <c r="T114">
+        <v>2.7</v>
+      </c>
+      <c r="U114">
+        <v>2.1</v>
+      </c>
+      <c r="V114">
+        <v>3.75</v>
+      </c>
+      <c r="W114">
+        <v>1.38</v>
+      </c>
+      <c r="X114">
+        <v>2.8</v>
+      </c>
+      <c r="Y114">
+        <v>2.7</v>
+      </c>
+      <c r="Z114">
+        <v>1.4</v>
+      </c>
+      <c r="AA114">
+        <v>7</v>
+      </c>
+      <c r="AB114">
+        <v>1.09</v>
+      </c>
+      <c r="AC114">
+        <v>1.97</v>
+      </c>
+      <c r="AD114">
+        <v>3.3</v>
+      </c>
+      <c r="AE114">
+        <v>3.45</v>
+      </c>
+      <c r="AF114">
+        <v>1.06</v>
+      </c>
+      <c r="AG114">
+        <v>8</v>
+      </c>
+      <c r="AH114">
+        <v>1.28</v>
+      </c>
+      <c r="AI114">
+        <v>3.5</v>
+      </c>
+      <c r="AJ114">
+        <v>1.9</v>
+      </c>
+      <c r="AK114">
+        <v>1.95</v>
+      </c>
+      <c r="AL114">
+        <v>1.72</v>
+      </c>
+      <c r="AM114">
+        <v>2.05</v>
+      </c>
+      <c r="AN114">
+        <v>1.25</v>
+      </c>
+      <c r="AO114">
+        <v>1.25</v>
+      </c>
+      <c r="AP114">
+        <v>1.72</v>
+      </c>
+      <c r="AQ114">
+        <v>1.17</v>
+      </c>
+      <c r="AR114">
+        <v>0.83</v>
+      </c>
+      <c r="AS114">
+        <v>1.43</v>
+      </c>
+      <c r="AT114">
+        <v>0.71</v>
+      </c>
+      <c r="AU114">
+        <v>1.57</v>
+      </c>
+      <c r="AV114">
+        <v>1.66</v>
+      </c>
+      <c r="AW114">
+        <v>3.23</v>
+      </c>
+      <c r="AX114">
+        <v>2.08</v>
+      </c>
+      <c r="AY114">
+        <v>7.6</v>
+      </c>
+      <c r="AZ114">
+        <v>2.08</v>
+      </c>
+      <c r="BA114">
+        <v>1.2</v>
+      </c>
+      <c r="BB114">
+        <v>1.38</v>
+      </c>
+      <c r="BC114">
+        <v>1.67</v>
+      </c>
+      <c r="BD114">
+        <v>2.12</v>
+      </c>
+      <c r="BE114">
+        <v>2.85</v>
+      </c>
+      <c r="BF114">
+        <v>9</v>
+      </c>
+      <c r="BG114">
+        <v>2</v>
+      </c>
+      <c r="BH114">
+        <v>8</v>
+      </c>
+      <c r="BI114">
+        <v>5</v>
+      </c>
+      <c r="BJ114">
+        <v>17</v>
+      </c>
+      <c r="BK114">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:63">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>2595249</v>
+      </c>
+      <c r="C115" t="s">
+        <v>63</v>
+      </c>
+      <c r="D115" t="s">
+        <v>64</v>
+      </c>
+      <c r="E115" s="2">
+        <v>44870.58333333334</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115" t="s">
+        <v>73</v>
+      </c>
+      <c r="H115" t="s">
+        <v>72</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>1</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>81</v>
+      </c>
+      <c r="P115" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q115">
+        <v>5</v>
+      </c>
+      <c r="R115">
+        <v>5</v>
+      </c>
+      <c r="S115">
+        <v>10</v>
+      </c>
+      <c r="T115">
+        <v>2.7</v>
+      </c>
+      <c r="U115">
+        <v>2.1</v>
+      </c>
+      <c r="V115">
+        <v>3.75</v>
+      </c>
+      <c r="W115">
+        <v>1.41</v>
+      </c>
+      <c r="X115">
+        <v>2.7</v>
+      </c>
+      <c r="Y115">
+        <v>2.8</v>
+      </c>
+      <c r="Z115">
+        <v>1.39</v>
+      </c>
+      <c r="AA115">
+        <v>6.95</v>
+      </c>
+      <c r="AB115">
+        <v>1.07</v>
+      </c>
+      <c r="AC115">
+        <v>1.87</v>
+      </c>
+      <c r="AD115">
+        <v>3.4</v>
+      </c>
+      <c r="AE115">
+        <v>3.65</v>
+      </c>
+      <c r="AF115">
+        <v>1.06</v>
+      </c>
+      <c r="AG115">
+        <v>8</v>
+      </c>
+      <c r="AH115">
+        <v>1.3</v>
+      </c>
+      <c r="AI115">
+        <v>3.3</v>
+      </c>
+      <c r="AJ115">
+        <v>1.93</v>
+      </c>
+      <c r="AK115">
+        <v>1.93</v>
+      </c>
+      <c r="AL115">
+        <v>1.75</v>
+      </c>
+      <c r="AM115">
+        <v>2</v>
+      </c>
+      <c r="AN115">
+        <v>1.25</v>
+      </c>
+      <c r="AO115">
+        <v>1.25</v>
+      </c>
+      <c r="AP115">
+        <v>1.72</v>
+      </c>
+      <c r="AQ115">
+        <v>3</v>
+      </c>
+      <c r="AR115">
+        <v>1.83</v>
+      </c>
+      <c r="AS115">
+        <v>2.57</v>
+      </c>
+      <c r="AT115">
+        <v>2</v>
+      </c>
+      <c r="AU115">
+        <v>1.76</v>
+      </c>
+      <c r="AV115">
+        <v>1.47</v>
+      </c>
+      <c r="AW115">
+        <v>3.23</v>
+      </c>
+      <c r="AX115">
+        <v>1.81</v>
+      </c>
+      <c r="AY115">
+        <v>7.8</v>
+      </c>
+      <c r="AZ115">
+        <v>2.47</v>
+      </c>
+      <c r="BA115">
+        <v>1.2</v>
+      </c>
+      <c r="BB115">
+        <v>1.36</v>
+      </c>
+      <c r="BC115">
+        <v>1.66</v>
+      </c>
+      <c r="BD115">
+        <v>2.11</v>
+      </c>
+      <c r="BE115">
+        <v>2.8</v>
+      </c>
+      <c r="BF115">
+        <v>3</v>
+      </c>
+      <c r="BG115">
+        <v>5</v>
+      </c>
+      <c r="BH115">
+        <v>5</v>
+      </c>
+      <c r="BI115">
+        <v>5</v>
+      </c>
+      <c r="BJ115">
+        <v>8</v>
+      </c>
+      <c r="BK115">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="116" spans="1:63">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2595250</v>
+      </c>
+      <c r="C116" t="s">
+        <v>63</v>
+      </c>
+      <c r="D116" t="s">
+        <v>64</v>
+      </c>
+      <c r="E116" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F116">
+        <v>15</v>
+      </c>
+      <c r="G116" t="s">
+        <v>74</v>
+      </c>
+      <c r="H116" t="s">
+        <v>70</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>164</v>
+      </c>
+      <c r="P116" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q116">
+        <v>3</v>
+      </c>
+      <c r="R116">
+        <v>8</v>
+      </c>
+      <c r="S116">
+        <v>11</v>
+      </c>
+      <c r="T116">
+        <v>3</v>
+      </c>
+      <c r="U116">
+        <v>2.2</v>
+      </c>
+      <c r="V116">
+        <v>3.4</v>
+      </c>
+      <c r="W116">
+        <v>1.4</v>
+      </c>
+      <c r="X116">
+        <v>2.75</v>
+      </c>
+      <c r="Y116">
+        <v>2.75</v>
+      </c>
+      <c r="Z116">
+        <v>1.4</v>
+      </c>
+      <c r="AA116">
+        <v>8</v>
+      </c>
+      <c r="AB116">
+        <v>1.08</v>
+      </c>
+      <c r="AC116">
+        <v>2.22</v>
+      </c>
+      <c r="AD116">
+        <v>3.26</v>
+      </c>
+      <c r="AE116">
+        <v>2.8</v>
+      </c>
+      <c r="AF116">
+        <v>1.05</v>
+      </c>
+      <c r="AG116">
+        <v>9.5</v>
+      </c>
+      <c r="AH116">
+        <v>1.28</v>
+      </c>
+      <c r="AI116">
+        <v>3.3</v>
+      </c>
+      <c r="AJ116">
+        <v>1.85</v>
+      </c>
+      <c r="AK116">
+        <v>1.85</v>
+      </c>
+      <c r="AL116">
+        <v>1.7</v>
+      </c>
+      <c r="AM116">
+        <v>2.05</v>
+      </c>
+      <c r="AN116">
+        <v>1.33</v>
+      </c>
+      <c r="AO116">
+        <v>1.25</v>
+      </c>
+      <c r="AP116">
+        <v>1.57</v>
+      </c>
+      <c r="AQ116">
+        <v>1.33</v>
+      </c>
+      <c r="AR116">
+        <v>1.5</v>
+      </c>
+      <c r="AS116">
+        <v>1.57</v>
+      </c>
+      <c r="AT116">
+        <v>1.29</v>
+      </c>
+      <c r="AU116">
+        <v>1.88</v>
+      </c>
+      <c r="AV116">
+        <v>1.63</v>
+      </c>
+      <c r="AW116">
+        <v>3.51</v>
+      </c>
+      <c r="AX116">
+        <v>2.14</v>
+      </c>
+      <c r="AY116">
+        <v>5.95</v>
+      </c>
+      <c r="AZ116">
+        <v>2.18</v>
+      </c>
+      <c r="BA116">
+        <v>1.25</v>
+      </c>
+      <c r="BB116">
+        <v>1.47</v>
+      </c>
+      <c r="BC116">
+        <v>1.8</v>
+      </c>
+      <c r="BD116">
+        <v>2.38</v>
+      </c>
+      <c r="BE116">
+        <v>3.25</v>
+      </c>
+      <c r="BF116">
+        <v>4</v>
+      </c>
+      <c r="BG116">
+        <v>2</v>
+      </c>
+      <c r="BH116">
+        <v>2</v>
+      </c>
+      <c r="BI116">
+        <v>3</v>
+      </c>
+      <c r="BJ116">
+        <v>6</v>
+      </c>
+      <c r="BK116">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:63">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2595252</v>
+      </c>
+      <c r="C117" t="s">
+        <v>63</v>
+      </c>
+      <c r="D117" t="s">
+        <v>64</v>
+      </c>
+      <c r="E117" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F117">
+        <v>15</v>
+      </c>
+      <c r="G117" t="s">
+        <v>79</v>
+      </c>
+      <c r="H117" t="s">
+        <v>69</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>113</v>
+      </c>
+      <c r="P117" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q117">
+        <v>10</v>
+      </c>
+      <c r="R117">
+        <v>2</v>
+      </c>
+      <c r="S117">
+        <v>12</v>
+      </c>
+      <c r="T117">
+        <v>1.91</v>
+      </c>
+      <c r="U117">
+        <v>2.5</v>
+      </c>
+      <c r="V117">
+        <v>7</v>
+      </c>
+      <c r="W117">
+        <v>1.3</v>
+      </c>
+      <c r="X117">
+        <v>3.4</v>
+      </c>
+      <c r="Y117">
+        <v>2.5</v>
+      </c>
+      <c r="Z117">
+        <v>1.5</v>
+      </c>
+      <c r="AA117">
+        <v>6</v>
+      </c>
+      <c r="AB117">
+        <v>1.13</v>
+      </c>
+      <c r="AC117">
+        <v>1.38</v>
+      </c>
+      <c r="AD117">
+        <v>4.27</v>
+      </c>
+      <c r="AE117">
+        <v>6.38</v>
+      </c>
+      <c r="AF117">
+        <v>1.02</v>
+      </c>
+      <c r="AG117">
+        <v>12</v>
+      </c>
+      <c r="AH117">
+        <v>1.15</v>
+      </c>
+      <c r="AI117">
+        <v>4.7</v>
+      </c>
+      <c r="AJ117">
+        <v>1.62</v>
+      </c>
+      <c r="AK117">
+        <v>2.15</v>
+      </c>
+      <c r="AL117">
+        <v>1.95</v>
+      </c>
+      <c r="AM117">
+        <v>1.8</v>
+      </c>
+      <c r="AN117">
+        <v>1.12</v>
+      </c>
+      <c r="AO117">
+        <v>1.19</v>
+      </c>
+      <c r="AP117">
+        <v>2.83</v>
+      </c>
+      <c r="AQ117">
+        <v>1.17</v>
+      </c>
+      <c r="AR117">
+        <v>0.43</v>
+      </c>
+      <c r="AS117">
+        <v>1.43</v>
+      </c>
+      <c r="AT117">
+        <v>0.38</v>
+      </c>
+      <c r="AU117">
+        <v>1.93</v>
+      </c>
+      <c r="AV117">
+        <v>1.34</v>
+      </c>
+      <c r="AW117">
+        <v>3.27</v>
+      </c>
+      <c r="AX117">
+        <v>1.14</v>
+      </c>
+      <c r="AY117">
+        <v>12</v>
+      </c>
+      <c r="AZ117">
+        <v>8</v>
+      </c>
+      <c r="BA117">
+        <v>1.22</v>
+      </c>
+      <c r="BB117">
+        <v>1.42</v>
+      </c>
+      <c r="BC117">
+        <v>1.74</v>
+      </c>
+      <c r="BD117">
+        <v>2.23</v>
+      </c>
+      <c r="BE117">
+        <v>3</v>
+      </c>
+      <c r="BF117">
+        <v>5</v>
+      </c>
+      <c r="BG117">
+        <v>3</v>
+      </c>
+      <c r="BH117">
+        <v>12</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>17</v>
+      </c>
+      <c r="BK117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:63">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>2595248</v>
+      </c>
+      <c r="C118" t="s">
+        <v>63</v>
+      </c>
+      <c r="D118" t="s">
+        <v>64</v>
+      </c>
+      <c r="E118" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F118">
+        <v>15</v>
+      </c>
+      <c r="G118" t="s">
+        <v>78</v>
+      </c>
+      <c r="H118" t="s">
+        <v>68</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>3</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>165</v>
+      </c>
+      <c r="P118" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q118">
+        <v>7</v>
+      </c>
+      <c r="R118">
+        <v>2</v>
+      </c>
+      <c r="S118">
+        <v>9</v>
+      </c>
+      <c r="T118">
+        <v>2.1</v>
+      </c>
+      <c r="U118">
+        <v>2.38</v>
+      </c>
+      <c r="V118">
+        <v>5.5</v>
+      </c>
+      <c r="W118">
+        <v>1.33</v>
+      </c>
+      <c r="X118">
+        <v>3.25</v>
+      </c>
+      <c r="Y118">
+        <v>2.5</v>
+      </c>
+      <c r="Z118">
+        <v>1.5</v>
+      </c>
+      <c r="AA118">
+        <v>6.5</v>
+      </c>
+      <c r="AB118">
+        <v>1.11</v>
+      </c>
+      <c r="AC118">
+        <v>1.63</v>
+      </c>
+      <c r="AD118">
+        <v>3.74</v>
+      </c>
+      <c r="AE118">
+        <v>4.27</v>
+      </c>
+      <c r="AF118">
+        <v>1.03</v>
+      </c>
+      <c r="AG118">
+        <v>9</v>
+      </c>
+      <c r="AH118">
+        <v>1.2</v>
+      </c>
+      <c r="AI118">
+        <v>4.2</v>
+      </c>
+      <c r="AJ118">
+        <v>1.65</v>
+      </c>
+      <c r="AK118">
+        <v>2.1</v>
+      </c>
+      <c r="AL118">
+        <v>1.75</v>
+      </c>
+      <c r="AM118">
+        <v>2</v>
+      </c>
+      <c r="AN118">
+        <v>1.11</v>
+      </c>
+      <c r="AO118">
+        <v>1.17</v>
+      </c>
+      <c r="AP118">
+        <v>2.35</v>
+      </c>
+      <c r="AQ118">
+        <v>1</v>
+      </c>
+      <c r="AR118">
+        <v>0.67</v>
+      </c>
+      <c r="AS118">
+        <v>1.29</v>
+      </c>
+      <c r="AT118">
+        <v>0.57</v>
+      </c>
+      <c r="AU118">
+        <v>1.6</v>
+      </c>
+      <c r="AV118">
+        <v>1.34</v>
+      </c>
+      <c r="AW118">
+        <v>2.94</v>
+      </c>
+      <c r="AX118">
+        <v>1.11</v>
+      </c>
+      <c r="AY118">
+        <v>13</v>
+      </c>
+      <c r="AZ118">
+        <v>9</v>
+      </c>
+      <c r="BA118">
+        <v>1.22</v>
+      </c>
+      <c r="BB118">
+        <v>1.42</v>
+      </c>
+      <c r="BC118">
+        <v>1.74</v>
+      </c>
+      <c r="BD118">
+        <v>2.23</v>
+      </c>
+      <c r="BE118">
+        <v>3</v>
+      </c>
+      <c r="BF118">
+        <v>6</v>
+      </c>
+      <c r="BG118">
+        <v>5</v>
+      </c>
+      <c r="BH118">
+        <v>6</v>
+      </c>
+      <c r="BI118">
+        <v>2</v>
+      </c>
+      <c r="BJ118">
+        <v>12</v>
+      </c>
+      <c r="BK118">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119" spans="1:63">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>2595245</v>
+      </c>
+      <c r="C119" t="s">
+        <v>63</v>
+      </c>
+      <c r="D119" t="s">
+        <v>64</v>
+      </c>
+      <c r="E119" s="2">
+        <v>44871.58333333334</v>
+      </c>
+      <c r="F119">
+        <v>15</v>
+      </c>
+      <c r="G119" t="s">
+        <v>80</v>
+      </c>
+      <c r="H119" t="s">
+        <v>67</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+      <c r="M119">
+        <v>1</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119" t="s">
+        <v>166</v>
+      </c>
+      <c r="P119" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q119">
+        <v>6</v>
+      </c>
+      <c r="R119">
+        <v>2</v>
+      </c>
+      <c r="S119">
+        <v>8</v>
+      </c>
+      <c r="T119">
+        <v>1.67</v>
+      </c>
+      <c r="U119">
+        <v>2.88</v>
+      </c>
+      <c r="V119">
+        <v>8.5</v>
+      </c>
+      <c r="W119">
+        <v>1.22</v>
+      </c>
+      <c r="X119">
+        <v>4</v>
+      </c>
+      <c r="Y119">
+        <v>2.1</v>
+      </c>
+      <c r="Z119">
+        <v>1.67</v>
+      </c>
+      <c r="AA119">
+        <v>4.5</v>
+      </c>
+      <c r="AB119">
+        <v>1.18</v>
+      </c>
+      <c r="AC119">
+        <v>1.23</v>
+      </c>
+      <c r="AD119">
+        <v>5.8</v>
+      </c>
+      <c r="AE119">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AF119">
+        <v>1.01</v>
+      </c>
+      <c r="AG119">
+        <v>17</v>
+      </c>
+      <c r="AH119">
+        <v>1.1</v>
+      </c>
+      <c r="AI119">
+        <v>5.7</v>
+      </c>
+      <c r="AJ119">
+        <v>1.46</v>
+      </c>
+      <c r="AK119">
+        <v>2.52</v>
+      </c>
+      <c r="AL119">
+        <v>1.95</v>
+      </c>
+      <c r="AM119">
+        <v>1.8</v>
+      </c>
+      <c r="AN119">
+        <v>1.02</v>
+      </c>
+      <c r="AO119">
+        <v>1.12</v>
+      </c>
+      <c r="AP119">
+        <v>3.9</v>
+      </c>
+      <c r="AQ119">
+        <v>3</v>
+      </c>
+      <c r="AR119">
+        <v>0.83</v>
+      </c>
+      <c r="AS119">
+        <v>3</v>
+      </c>
+      <c r="AT119">
+        <v>0.71</v>
+      </c>
+      <c r="AU119">
+        <v>2.15</v>
+      </c>
+      <c r="AV119">
+        <v>1.61</v>
+      </c>
+      <c r="AW119">
+        <v>3.76</v>
+      </c>
+      <c r="AX119">
+        <v>1.03</v>
+      </c>
+      <c r="AY119">
+        <v>18</v>
+      </c>
+      <c r="AZ119">
+        <v>16</v>
+      </c>
+      <c r="BA119">
+        <v>1.18</v>
+      </c>
+      <c r="BB119">
+        <v>1.33</v>
+      </c>
+      <c r="BC119">
+        <v>1.61</v>
+      </c>
+      <c r="BD119">
+        <v>2.04</v>
+      </c>
+      <c r="BE119">
+        <v>2.65</v>
+      </c>
+      <c r="BF119">
+        <v>9</v>
+      </c>
+      <c r="BG119">
+        <v>3</v>
+      </c>
+      <c r="BH119">
+        <v>8</v>
+      </c>
+      <c r="BI119">
+        <v>3</v>
+      </c>
+      <c r="BJ119">
+        <v>17</v>
+      </c>
+      <c r="BK119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:63">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>2595160</v>
+      </c>
+      <c r="C120" t="s">
+        <v>63</v>
+      </c>
+      <c r="D120" t="s">
+        <v>64</v>
+      </c>
+      <c r="E120" s="2">
+        <v>44874.54166666666</v>
+      </c>
+      <c r="F120">
+        <v>4</v>
+      </c>
+      <c r="G120" t="s">
+        <v>73</v>
+      </c>
+      <c r="H120" t="s">
+        <v>66</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>4</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>4</v>
+      </c>
+      <c r="O120" t="s">
+        <v>167</v>
+      </c>
+      <c r="P120" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q120">
+        <v>6</v>
+      </c>
+      <c r="R120">
+        <v>6</v>
+      </c>
+      <c r="S120">
+        <v>12</v>
+      </c>
+      <c r="T120">
+        <v>1.75</v>
+      </c>
+      <c r="U120">
+        <v>2.45</v>
+      </c>
+      <c r="V120">
+        <v>7</v>
+      </c>
+      <c r="W120">
+        <v>1.29</v>
+      </c>
+      <c r="X120">
+        <v>3.5</v>
+      </c>
+      <c r="Y120">
+        <v>2.2</v>
+      </c>
+      <c r="Z120">
+        <v>1.62</v>
+      </c>
+      <c r="AA120">
+        <v>4.75</v>
+      </c>
+      <c r="AB120">
+        <v>1.15</v>
+      </c>
+      <c r="AC120">
+        <v>1.27</v>
+      </c>
+      <c r="AD120">
+        <v>5.2</v>
+      </c>
+      <c r="AE120">
+        <v>8</v>
+      </c>
+      <c r="AF120">
+        <v>1.04</v>
+      </c>
+      <c r="AG120">
+        <v>10</v>
+      </c>
+      <c r="AH120">
+        <v>1.22</v>
+      </c>
+      <c r="AI120">
+        <v>4</v>
+      </c>
+      <c r="AJ120">
+        <v>1.5</v>
+      </c>
+      <c r="AK120">
+        <v>2.41</v>
+      </c>
+      <c r="AL120">
+        <v>1.91</v>
+      </c>
+      <c r="AM120">
+        <v>1.8</v>
+      </c>
+      <c r="AN120">
+        <v>1.04</v>
+      </c>
+      <c r="AO120">
+        <v>1.18</v>
+      </c>
+      <c r="AP120">
+        <v>3.2</v>
+      </c>
+      <c r="AQ120">
+        <v>2.5</v>
+      </c>
+      <c r="AR120">
+        <v>1.71</v>
+      </c>
+      <c r="AS120">
+        <v>2.57</v>
+      </c>
+      <c r="AT120">
+        <v>1.5</v>
+      </c>
+      <c r="AU120">
+        <v>1.7</v>
+      </c>
+      <c r="AV120">
+        <v>1.51</v>
+      </c>
+      <c r="AW120">
+        <v>3.21</v>
+      </c>
+      <c r="AX120">
+        <v>1.14</v>
+      </c>
+      <c r="AY120">
+        <v>12</v>
+      </c>
+      <c r="AZ120">
+        <v>6.5</v>
+      </c>
+      <c r="BA120">
+        <v>1.14</v>
+      </c>
+      <c r="BB120">
+        <v>1.29</v>
+      </c>
+      <c r="BC120">
+        <v>1.5</v>
+      </c>
+      <c r="BD120">
+        <v>1.87</v>
+      </c>
+      <c r="BE120">
+        <v>2.43</v>
+      </c>
+      <c r="BF120">
+        <v>10</v>
+      </c>
+      <c r="BG120">
+        <v>5</v>
+      </c>
+      <c r="BH120">
+        <v>14</v>
+      </c>
+      <c r="BI120">
+        <v>7</v>
+      </c>
+      <c r="BJ120">
+        <v>24</v>
+      </c>
+      <c r="BK120">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="121" spans="1:63">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>2595239</v>
+      </c>
+      <c r="C121" t="s">
+        <v>63</v>
+      </c>
+      <c r="D121" t="s">
+        <v>64</v>
+      </c>
+      <c r="E121" s="2">
+        <v>44874.64583333334</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>72</v>
+      </c>
+      <c r="H121" t="s">
+        <v>79</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>2</v>
+      </c>
+      <c r="L121">
+        <v>4</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>168</v>
+      </c>
+      <c r="P121" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q121">
+        <v>3</v>
+      </c>
+      <c r="R121">
+        <v>2</v>
+      </c>
+      <c r="S121">
+        <v>5</v>
+      </c>
+      <c r="T121">
+        <v>2.3</v>
+      </c>
+      <c r="U121">
+        <v>2.2</v>
+      </c>
+      <c r="V121">
+        <v>4.33</v>
+      </c>
+      <c r="W121">
+        <v>1.35</v>
+      </c>
+      <c r="X121">
+        <v>2.95</v>
+      </c>
+      <c r="Y121">
+        <v>2.55</v>
+      </c>
+      <c r="Z121">
+        <v>1.44</v>
+      </c>
+      <c r="AA121">
+        <v>6.25</v>
+      </c>
+      <c r="AB121">
+        <v>1.1</v>
+      </c>
+      <c r="AC121">
+        <v>1.63</v>
+      </c>
+      <c r="AD121">
+        <v>3.95</v>
+      </c>
+      <c r="AE121">
+        <v>4.3</v>
+      </c>
+      <c r="AF121">
+        <v>1.05</v>
+      </c>
+      <c r="AG121">
+        <v>9</v>
+      </c>
+      <c r="AH121">
+        <v>1.22</v>
+      </c>
+      <c r="AI121">
+        <v>4</v>
+      </c>
+      <c r="AJ121">
+        <v>1.78</v>
+      </c>
+      <c r="AK121">
+        <v>2.04</v>
+      </c>
+      <c r="AL121">
+        <v>1.73</v>
+      </c>
+      <c r="AM121">
+        <v>1.95</v>
+      </c>
+      <c r="AN121">
+        <v>1.21</v>
+      </c>
+      <c r="AO121">
+        <v>1.26</v>
+      </c>
+      <c r="AP121">
+        <v>2</v>
+      </c>
+      <c r="AQ121">
+        <v>1.71</v>
+      </c>
+      <c r="AR121">
+        <v>1.29</v>
+      </c>
+      <c r="AS121">
+        <v>2</v>
+      </c>
+      <c r="AT121">
+        <v>1.33</v>
+      </c>
+      <c r="AU121">
+        <v>2.16</v>
+      </c>
+      <c r="AV121">
+        <v>1.43</v>
+      </c>
+      <c r="AW121">
+        <v>3.59</v>
+      </c>
+      <c r="AX121">
+        <v>1.62</v>
+      </c>
+      <c r="AY121">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AZ121">
+        <v>2.89</v>
+      </c>
+      <c r="BA121">
+        <v>1.24</v>
+      </c>
+      <c r="BB121">
+        <v>1.47</v>
+      </c>
+      <c r="BC121">
+        <v>1.83</v>
+      </c>
+      <c r="BD121">
+        <v>2.33</v>
+      </c>
+      <c r="BE121">
+        <v>3.08</v>
+      </c>
+      <c r="BF121">
+        <v>9</v>
+      </c>
+      <c r="BG121">
+        <v>4</v>
+      </c>
+      <c r="BH121">
+        <v>3</v>
+      </c>
+      <c r="BI121">
+        <v>4</v>
+      </c>
+      <c r="BJ121">
+        <v>12</v>
+      </c>
+      <c r="BK121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:63">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>2595255</v>
+      </c>
+      <c r="C122" t="s">
+        <v>63</v>
+      </c>
+      <c r="D122" t="s">
+        <v>64</v>
+      </c>
+      <c r="E122" s="2">
+        <v>44877.45833333334</v>
+      </c>
+      <c r="F122">
+        <v>16</v>
+      </c>
+      <c r="G122" t="s">
+        <v>68</v>
+      </c>
+      <c r="H122" t="s">
+        <v>74</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>2</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>3</v>
+      </c>
+      <c r="O122" t="s">
+        <v>169</v>
+      </c>
+      <c r="P122" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q122">
+        <v>5</v>
+      </c>
+      <c r="R122">
+        <v>11</v>
+      </c>
+      <c r="S122">
+        <v>16</v>
+      </c>
+      <c r="T122">
+        <v>3.2</v>
+      </c>
+      <c r="U122">
+        <v>2.1</v>
+      </c>
+      <c r="V122">
+        <v>3.1</v>
+      </c>
+      <c r="W122">
+        <v>1.38</v>
+      </c>
+      <c r="X122">
+        <v>2.8</v>
+      </c>
+      <c r="Y122">
+        <v>2.7</v>
+      </c>
+      <c r="Z122">
+        <v>1.4</v>
+      </c>
+      <c r="AA122">
+        <v>7</v>
+      </c>
+      <c r="AB122">
+        <v>1.09</v>
+      </c>
+      <c r="AC122">
+        <v>2.59</v>
+      </c>
+      <c r="AD122">
+        <v>3.4</v>
+      </c>
+      <c r="AE122">
+        <v>2.57</v>
+      </c>
+      <c r="AF122">
+        <v>1.02</v>
+      </c>
+      <c r="AG122">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH122">
+        <v>1.28</v>
+      </c>
+      <c r="AI122">
+        <v>3.5</v>
+      </c>
+      <c r="AJ122">
+        <v>1.9</v>
+      </c>
+      <c r="AK122">
+        <v>1.9</v>
+      </c>
+      <c r="AL122">
+        <v>1.7</v>
+      </c>
+      <c r="AM122">
+        <v>2.1</v>
+      </c>
+      <c r="AN122">
+        <v>1.42</v>
+      </c>
+      <c r="AO122">
+        <v>1.25</v>
+      </c>
+      <c r="AP122">
+        <v>1.47</v>
+      </c>
+      <c r="AQ122">
+        <v>1.5</v>
+      </c>
+      <c r="AR122">
+        <v>1.25</v>
+      </c>
+      <c r="AS122">
+        <v>1.67</v>
+      </c>
+      <c r="AT122">
+        <v>1.11</v>
+      </c>
+      <c r="AU122">
+        <v>1.58</v>
+      </c>
+      <c r="AV122">
+        <v>1.11</v>
+      </c>
+      <c r="AW122">
+        <v>2.69</v>
+      </c>
+      <c r="AX122">
+        <v>1.94</v>
+      </c>
+      <c r="AY122">
+        <v>6.95</v>
+      </c>
+      <c r="AZ122">
+        <v>2.34</v>
+      </c>
+      <c r="BA122">
+        <v>1.22</v>
+      </c>
+      <c r="BB122">
+        <v>1.45</v>
+      </c>
+      <c r="BC122">
+        <v>1.8</v>
+      </c>
+      <c r="BD122">
+        <v>2.29</v>
+      </c>
+      <c r="BE122">
+        <v>3.04</v>
+      </c>
+      <c r="BF122">
+        <v>6</v>
+      </c>
+      <c r="BG122">
+        <v>6</v>
+      </c>
+      <c r="BH122">
+        <v>6</v>
+      </c>
+      <c r="BI122">
+        <v>7</v>
+      </c>
+      <c r="BJ122">
+        <v>12</v>
+      </c>
+      <c r="BK122">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:63">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>2595258</v>
+      </c>
+      <c r="C123" t="s">
+        <v>63</v>
+      </c>
+      <c r="D123" t="s">
+        <v>64</v>
+      </c>
+      <c r="E123" s="2">
+        <v>44877.45833333334</v>
+      </c>
+      <c r="F123">
+        <v>16</v>
+      </c>
+      <c r="G123" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" t="s">
+        <v>78</v>
+      </c>
+      <c r="I123">
+        <v>1</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>2</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>2</v>
+      </c>
+      <c r="N123">
+        <v>3</v>
+      </c>
+      <c r="O123" t="s">
+        <v>170</v>
+      </c>
+      <c r="P123" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q123">
+        <v>3</v>
+      </c>
+      <c r="R123">
+        <v>8</v>
+      </c>
+      <c r="S123">
+        <v>11</v>
+      </c>
+      <c r="T123">
+        <v>2.65</v>
+      </c>
+      <c r="U123">
+        <v>2.1</v>
+      </c>
+      <c r="V123">
+        <v>3.6</v>
+      </c>
+      <c r="W123">
+        <v>1.37</v>
+      </c>
+      <c r="X123">
+        <v>2.85</v>
+      </c>
+      <c r="Y123">
+        <v>2.7</v>
+      </c>
+      <c r="Z123">
+        <v>1.41</v>
+      </c>
+      <c r="AA123">
+        <v>6.75</v>
+      </c>
+      <c r="AB123">
+        <v>1.09</v>
+      </c>
+      <c r="AC123">
+        <v>2.21</v>
+      </c>
+      <c r="AD123">
+        <v>3.46</v>
+      </c>
+      <c r="AE123">
+        <v>3.09</v>
+      </c>
+      <c r="AF123">
+        <v>1.02</v>
+      </c>
+      <c r="AG123">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AH123">
+        <v>1.28</v>
+      </c>
+      <c r="AI123">
+        <v>3.5</v>
+      </c>
+      <c r="AJ123">
+        <v>1.88</v>
+      </c>
+      <c r="AK123">
+        <v>1.93</v>
+      </c>
+      <c r="AL123">
+        <v>1.71</v>
+      </c>
+      <c r="AM123">
+        <v>2</v>
+      </c>
+      <c r="AN123">
+        <v>1.32</v>
+      </c>
+      <c r="AO123">
+        <v>1.29</v>
+      </c>
+      <c r="AP123">
+        <v>1.68</v>
+      </c>
+      <c r="AQ123">
+        <v>1.38</v>
+      </c>
+      <c r="AR123">
+        <v>1.25</v>
+      </c>
+      <c r="AS123">
+        <v>1.22</v>
+      </c>
+      <c r="AT123">
+        <v>1.44</v>
+      </c>
+      <c r="AU123">
+        <v>1.66</v>
+      </c>
+      <c r="AV123">
+        <v>1.74</v>
+      </c>
+      <c r="AW123">
+        <v>3.4</v>
+      </c>
+      <c r="AX123">
+        <v>1.84</v>
+      </c>
+      <c r="AY123">
+        <v>7.1</v>
+      </c>
+      <c r="AZ123">
+        <v>2.49</v>
+      </c>
+      <c r="BA123">
+        <v>1.2</v>
+      </c>
+      <c r="BB123">
+        <v>1.4</v>
+      </c>
+      <c r="BC123">
+        <v>1.73</v>
+      </c>
+      <c r="BD123">
+        <v>2.17</v>
+      </c>
+      <c r="BE123">
+        <v>2.88</v>
+      </c>
+      <c r="BF123">
+        <v>4</v>
+      </c>
+      <c r="BG123">
+        <v>6</v>
+      </c>
+      <c r="BH123">
+        <v>4</v>
+      </c>
+      <c r="BI123">
+        <v>6</v>
+      </c>
+      <c r="BJ123">
+        <v>8</v>
+      </c>
+      <c r="BK123">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="124" spans="1:63">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>2595259</v>
+      </c>
+      <c r="C124" t="s">
+        <v>63</v>
+      </c>
+      <c r="D124" t="s">
+        <v>64</v>
+      </c>
+      <c r="E124" s="2">
+        <v>44877.45833333334</v>
+      </c>
+      <c r="F124">
+        <v>16</v>
+      </c>
+      <c r="G124" t="s">
+        <v>67</v>
+      </c>
+      <c r="H124" t="s">
+        <v>76</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>2</v>
+      </c>
+      <c r="L124">
+        <v>4</v>
+      </c>
+      <c r="M124">
+        <v>1</v>
+      </c>
+      <c r="N124">
+        <v>5</v>
+      </c>
+      <c r="O124" t="s">
+        <v>171</v>
+      </c>
+      <c r="P124" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q124">
+        <v>4</v>
+      </c>
+      <c r="R124">
+        <v>10</v>
+      </c>
+      <c r="S124">
+        <v>14</v>
+      </c>
+      <c r="T124">
+        <v>2.7</v>
+      </c>
+      <c r="U124">
+        <v>2.2</v>
+      </c>
+      <c r="V124">
+        <v>3.5</v>
+      </c>
+      <c r="W124">
+        <v>1.33</v>
+      </c>
+      <c r="X124">
+        <v>3.05</v>
+      </c>
+      <c r="Y124">
+        <v>2.5</v>
+      </c>
+      <c r="Z124">
+        <v>1.47</v>
+      </c>
+      <c r="AA124">
+        <v>5.95</v>
+      </c>
+      <c r="AB124">
+        <v>1.1</v>
+      </c>
+      <c r="AC124">
+        <v>2.07</v>
+      </c>
+      <c r="AD124">
+        <v>3.5</v>
+      </c>
+      <c r="AE124">
+        <v>3.36</v>
+      </c>
+      <c r="AF124">
+        <v>1</v>
+      </c>
+      <c r="AG124">
+        <v>10.5</v>
+      </c>
+      <c r="AH124">
+        <v>1.22</v>
+      </c>
+      <c r="AI124">
+        <v>4</v>
+      </c>
+      <c r="AJ124">
+        <v>1.9</v>
+      </c>
+      <c r="AK124">
+        <v>1.9</v>
+      </c>
+      <c r="AL124">
+        <v>1.57</v>
+      </c>
+      <c r="AM124">
+        <v>2.3</v>
+      </c>
+      <c r="AN124">
+        <v>1.3</v>
+      </c>
+      <c r="AO124">
+        <v>1.22</v>
+      </c>
+      <c r="AP124">
+        <v>1.68</v>
+      </c>
+      <c r="AQ124">
+        <v>1.5</v>
+      </c>
+      <c r="AR124">
+        <v>2.29</v>
+      </c>
+      <c r="AS124">
+        <v>1.67</v>
+      </c>
+      <c r="AT124">
+        <v>2</v>
+      </c>
+      <c r="AU124">
+        <v>1.89</v>
+      </c>
+      <c r="AV124">
+        <v>1.66</v>
+      </c>
+      <c r="AW124">
+        <v>3.55</v>
+      </c>
+      <c r="AX124">
+        <v>1.79</v>
+      </c>
+      <c r="AY124">
+        <v>7.3</v>
+      </c>
+      <c r="AZ124">
+        <v>2.57</v>
+      </c>
+      <c r="BA124">
+        <v>1.18</v>
+      </c>
+      <c r="BB124">
+        <v>1.37</v>
+      </c>
+      <c r="BC124">
+        <v>1.68</v>
+      </c>
+      <c r="BD124">
+        <v>2.09</v>
+      </c>
+      <c r="BE124">
+        <v>2.75</v>
+      </c>
+      <c r="BF124">
+        <v>6</v>
+      </c>
+      <c r="BG124">
+        <v>5</v>
+      </c>
+      <c r="BH124">
+        <v>7</v>
+      </c>
+      <c r="BI124">
+        <v>6</v>
+      </c>
+      <c r="BJ124">
+        <v>13</v>
+      </c>
+      <c r="BK124">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:63">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>2595253</v>
+      </c>
+      <c r="C125" t="s">
+        <v>63</v>
+      </c>
+      <c r="D125" t="s">
+        <v>64</v>
+      </c>
+      <c r="E125" s="2">
+        <v>44877.58333333334</v>
+      </c>
+      <c r="F125">
+        <v>16</v>
+      </c>
+      <c r="G125" t="s">
+        <v>72</v>
+      </c>
+      <c r="H125" t="s">
+        <v>77</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>172</v>
+      </c>
+      <c r="P125" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q125">
+        <v>9</v>
+      </c>
+      <c r="R125">
+        <v>3</v>
+      </c>
+      <c r="S125">
+        <v>12</v>
+      </c>
+      <c r="T125">
+        <v>1.72</v>
+      </c>
+      <c r="U125">
+        <v>2.65</v>
+      </c>
+      <c r="V125">
+        <v>6.5</v>
+      </c>
+      <c r="W125">
+        <v>1.26</v>
+      </c>
+      <c r="X125">
+        <v>3.5</v>
+      </c>
+      <c r="Y125">
+        <v>2.15</v>
+      </c>
+      <c r="Z125">
+        <v>1.6</v>
+      </c>
+      <c r="AA125">
+        <v>4.8</v>
+      </c>
+      <c r="AB125">
+        <v>1.16</v>
+      </c>
+      <c r="AC125">
+        <v>1.25</v>
+      </c>
+      <c r="AD125">
+        <v>5.75</v>
+      </c>
+      <c r="AE125">
+        <v>11.5</v>
+      </c>
+      <c r="AF125">
+        <v>1.02</v>
+      </c>
+      <c r="AG125">
+        <v>12</v>
+      </c>
+      <c r="AH125">
+        <v>1.15</v>
+      </c>
+      <c r="AI125">
+        <v>4.75</v>
+      </c>
+      <c r="AJ125">
+        <v>1.5</v>
+      </c>
+      <c r="AK125">
+        <v>2.4</v>
+      </c>
+      <c r="AL125">
+        <v>1.8</v>
+      </c>
+      <c r="AM125">
+        <v>1.95</v>
+      </c>
+      <c r="AN125">
+        <v>1.03</v>
+      </c>
+      <c r="AO125">
+        <v>1.1</v>
+      </c>
+      <c r="AP125">
+        <v>3.1</v>
+      </c>
+      <c r="AQ125">
+        <v>1.88</v>
+      </c>
+      <c r="AR125">
+        <v>1.86</v>
+      </c>
+      <c r="AS125">
+        <v>2</v>
+      </c>
+      <c r="AT125">
+        <v>1.63</v>
+      </c>
+      <c r="AU125">
+        <v>2.11</v>
+      </c>
+      <c r="AV125">
+        <v>1.1</v>
+      </c>
+      <c r="AW125">
+        <v>3.21</v>
+      </c>
+      <c r="AX125">
+        <v>1.06</v>
+      </c>
+      <c r="AY125">
+        <v>15</v>
+      </c>
+      <c r="AZ125">
+        <v>12</v>
+      </c>
+      <c r="BA125">
+        <v>1.12</v>
+      </c>
+      <c r="BB125">
+        <v>1.28</v>
+      </c>
+      <c r="BC125">
+        <v>1.52</v>
+      </c>
+      <c r="BD125">
+        <v>1.87</v>
+      </c>
+      <c r="BE125">
+        <v>2.34</v>
+      </c>
+      <c r="BF125">
+        <v>8</v>
+      </c>
+      <c r="BG125">
+        <v>2</v>
+      </c>
+      <c r="BH125">
+        <v>8</v>
+      </c>
+      <c r="BI125">
+        <v>4</v>
+      </c>
+      <c r="BJ125">
+        <v>16</v>
+      </c>
+      <c r="BK125">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:63">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2595254</v>
+      </c>
+      <c r="C126" t="s">
+        <v>63</v>
+      </c>
+      <c r="D126" t="s">
+        <v>64</v>
+      </c>
+      <c r="E126" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F126">
+        <v>16</v>
+      </c>
+      <c r="G126" t="s">
+        <v>70</v>
+      </c>
+      <c r="H126" t="s">
+        <v>79</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>3</v>
+      </c>
+      <c r="O126" t="s">
+        <v>173</v>
+      </c>
+      <c r="P126" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q126">
+        <v>6</v>
+      </c>
+      <c r="R126">
+        <v>1</v>
+      </c>
+      <c r="S126">
+        <v>7</v>
+      </c>
+      <c r="T126">
+        <v>3.1</v>
+      </c>
+      <c r="U126">
+        <v>2.1</v>
+      </c>
+      <c r="V126">
+        <v>3.4</v>
+      </c>
+      <c r="W126">
+        <v>1.4</v>
+      </c>
+      <c r="X126">
+        <v>2.75</v>
+      </c>
+      <c r="Y126">
+        <v>3</v>
+      </c>
+      <c r="Z126">
+        <v>1.36</v>
+      </c>
+      <c r="AA126">
+        <v>8</v>
+      </c>
+      <c r="AB126">
+        <v>1.08</v>
+      </c>
+      <c r="AC126">
+        <v>2.33</v>
+      </c>
+      <c r="AD126">
+        <v>3.2</v>
+      </c>
+      <c r="AE126">
+        <v>2.8</v>
+      </c>
+      <c r="AF126">
+        <v>1.06</v>
+      </c>
+      <c r="AG126">
+        <v>8</v>
+      </c>
+      <c r="AH126">
+        <v>1.3</v>
+      </c>
+      <c r="AI126">
+        <v>3.4</v>
+      </c>
+      <c r="AJ126">
+        <v>1.83</v>
+      </c>
+      <c r="AK126">
+        <v>1.81</v>
+      </c>
+      <c r="AL126">
+        <v>1.75</v>
+      </c>
+      <c r="AM126">
+        <v>2</v>
+      </c>
+      <c r="AN126">
+        <v>1.36</v>
+      </c>
+      <c r="AO126">
+        <v>1.25</v>
+      </c>
+      <c r="AP126">
+        <v>1.55</v>
+      </c>
+      <c r="AQ126">
+        <v>1.75</v>
+      </c>
+      <c r="AR126">
+        <v>1.13</v>
+      </c>
+      <c r="AS126">
+        <v>1.56</v>
+      </c>
+      <c r="AT126">
+        <v>1.33</v>
+      </c>
+      <c r="AU126">
+        <v>1.46</v>
+      </c>
+      <c r="AV126">
+        <v>1.39</v>
+      </c>
+      <c r="AW126">
+        <v>2.85</v>
+      </c>
+      <c r="AX126">
+        <v>1.97</v>
+      </c>
+      <c r="AY126">
+        <v>7.1</v>
+      </c>
+      <c r="AZ126">
+        <v>2.25</v>
+      </c>
+      <c r="BA126">
+        <v>1.18</v>
+      </c>
+      <c r="BB126">
+        <v>1.38</v>
+      </c>
+      <c r="BC126">
+        <v>1.69</v>
+      </c>
+      <c r="BD126">
+        <v>2.12</v>
+      </c>
+      <c r="BE126">
+        <v>2.79</v>
+      </c>
+      <c r="BF126">
+        <v>6</v>
+      </c>
+      <c r="BG126">
+        <v>6</v>
+      </c>
+      <c r="BH126">
+        <v>9</v>
+      </c>
+      <c r="BI126">
+        <v>2</v>
+      </c>
+      <c r="BJ126">
+        <v>15</v>
+      </c>
+      <c r="BK126">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="127" spans="1:63">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>2595256</v>
+      </c>
+      <c r="C127" t="s">
+        <v>63</v>
+      </c>
+      <c r="D127" t="s">
+        <v>64</v>
+      </c>
+      <c r="E127" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F127">
+        <v>16</v>
+      </c>
+      <c r="G127" t="s">
+        <v>69</v>
+      </c>
+      <c r="H127" t="s">
+        <v>73</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>90</v>
+      </c>
+      <c r="P127" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q127">
+        <v>7</v>
+      </c>
+      <c r="R127">
+        <v>12</v>
+      </c>
+      <c r="S127">
+        <v>19</v>
+      </c>
+      <c r="T127">
+        <v>6</v>
+      </c>
+      <c r="U127">
+        <v>2.38</v>
+      </c>
+      <c r="V127">
+        <v>2.05</v>
+      </c>
+      <c r="W127">
+        <v>1.33</v>
+      </c>
+      <c r="X127">
+        <v>3.25</v>
+      </c>
+      <c r="Y127">
+        <v>2.5</v>
+      </c>
+      <c r="Z127">
+        <v>1.5</v>
+      </c>
+      <c r="AA127">
+        <v>6.5</v>
+      </c>
+      <c r="AB127">
+        <v>1.11</v>
+      </c>
+      <c r="AC127">
+        <v>5.7</v>
+      </c>
+      <c r="AD127">
+        <v>4.1</v>
+      </c>
+      <c r="AE127">
+        <v>1.47</v>
+      </c>
+      <c r="AF127">
+        <v>1.05</v>
+      </c>
+      <c r="AG127">
+        <v>9</v>
+      </c>
+      <c r="AH127">
+        <v>1.25</v>
+      </c>
+      <c r="AI127">
+        <v>3.75</v>
+      </c>
+      <c r="AJ127">
+        <v>1.63</v>
+      </c>
+      <c r="AK127">
+        <v>2.05</v>
+      </c>
+      <c r="AL127">
+        <v>1.8</v>
+      </c>
+      <c r="AM127">
+        <v>1.95</v>
+      </c>
+      <c r="AN127">
+        <v>2.35</v>
+      </c>
+      <c r="AO127">
+        <v>1.16</v>
+      </c>
+      <c r="AP127">
+        <v>1.11</v>
+      </c>
+      <c r="AQ127">
+        <v>0.86</v>
+      </c>
+      <c r="AR127">
+        <v>2.5</v>
+      </c>
+      <c r="AS127">
+        <v>0.88</v>
+      </c>
+      <c r="AT127">
+        <v>2.33</v>
+      </c>
+      <c r="AU127">
+        <v>1.43</v>
+      </c>
+      <c r="AV127">
+        <v>1.63</v>
+      </c>
+      <c r="AW127">
+        <v>3.06</v>
+      </c>
+      <c r="AX127">
+        <v>3.76</v>
+      </c>
+      <c r="AY127">
+        <v>9.1</v>
+      </c>
+      <c r="AZ127">
+        <v>1.41</v>
+      </c>
+      <c r="BA127">
+        <v>1.18</v>
+      </c>
+      <c r="BB127">
+        <v>1.33</v>
+      </c>
+      <c r="BC127">
+        <v>1.6</v>
+      </c>
+      <c r="BD127">
+        <v>2.01</v>
+      </c>
+      <c r="BE127">
+        <v>2.58</v>
+      </c>
+      <c r="BF127">
+        <v>2</v>
+      </c>
+      <c r="BG127">
+        <v>7</v>
+      </c>
+      <c r="BH127">
+        <v>8</v>
+      </c>
+      <c r="BI127">
+        <v>11</v>
+      </c>
+      <c r="BJ127">
+        <v>10</v>
+      </c>
+      <c r="BK127">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="128" spans="1:63">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>2595257</v>
+      </c>
+      <c r="C128" t="s">
+        <v>63</v>
+      </c>
+      <c r="D128" t="s">
+        <v>64</v>
+      </c>
+      <c r="E128" s="2">
+        <v>44878.45833333334</v>
+      </c>
+      <c r="F128">
+        <v>16</v>
+      </c>
+      <c r="G128" t="s">
+        <v>66</v>
+      </c>
+      <c r="H128" t="s">
+        <v>75</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>2</v>
+      </c>
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>5</v>
+      </c>
+      <c r="O128" t="s">
+        <v>174</v>
+      </c>
+      <c r="P128" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q128">
+        <v>4</v>
+      </c>
+      <c r="R128">
+        <v>4</v>
+      </c>
+      <c r="S128">
+        <v>8</v>
+      </c>
+      <c r="T128">
+        <v>3.25</v>
+      </c>
+      <c r="U128">
+        <v>2.2</v>
+      </c>
+      <c r="V128">
+        <v>3.2</v>
+      </c>
+      <c r="W128">
+        <v>1.4</v>
+      </c>
+      <c r="X128">
+        <v>2.75</v>
+      </c>
+      <c r="Y128">
+        <v>2.75</v>
+      </c>
+      <c r="Z128">
+        <v>1.4</v>
+      </c>
+      <c r="AA128">
+        <v>8</v>
+      </c>
+      <c r="AB128">
+        <v>1.08</v>
+      </c>
+      <c r="AC128">
+        <v>2.26</v>
+      </c>
+      <c r="AD128">
+        <v>3.25</v>
+      </c>
+      <c r="AE128">
+        <v>2.86</v>
+      </c>
+      <c r="AF128">
+        <v>1.05</v>
+      </c>
+      <c r="AG128">
+        <v>9</v>
+      </c>
+      <c r="AH128">
+        <v>1.29</v>
+      </c>
+      <c r="AI128">
+        <v>3.5</v>
+      </c>
+      <c r="AJ128">
+        <v>1.76</v>
+      </c>
+      <c r="AK128">
+        <v>1.88</v>
+      </c>
+      <c r="AL128">
+        <v>1.7</v>
+      </c>
+      <c r="AM128">
+        <v>2.05</v>
+      </c>
+      <c r="AN128">
+        <v>1.46</v>
+      </c>
+      <c r="AO128">
+        <v>1.33</v>
+      </c>
+      <c r="AP128">
+        <v>1.51</v>
+      </c>
+      <c r="AQ128">
+        <v>1.14</v>
+      </c>
+      <c r="AR128">
+        <v>1.38</v>
+      </c>
+      <c r="AS128">
+        <v>1</v>
+      </c>
+      <c r="AT128">
+        <v>1.56</v>
+      </c>
+      <c r="AU128">
+        <v>1.51</v>
+      </c>
+      <c r="AV128">
+        <v>1.62</v>
+      </c>
+      <c r="AW128">
+        <v>3.13</v>
+      </c>
+      <c r="AX128">
+        <v>1.67</v>
+      </c>
+      <c r="AY128">
+        <v>8.4</v>
+      </c>
+      <c r="AZ128">
+        <v>2.66</v>
+      </c>
+      <c r="BA128">
+        <v>1.14</v>
+      </c>
+      <c r="BB128">
+        <v>1.29</v>
+      </c>
+      <c r="BC128">
+        <v>1.53</v>
+      </c>
+      <c r="BD128">
+        <v>1.89</v>
+      </c>
+      <c r="BE128">
+        <v>2.39</v>
+      </c>
+      <c r="BF128">
+        <v>7</v>
+      </c>
+      <c r="BG128">
+        <v>4</v>
+      </c>
+      <c r="BH128">
+        <v>10</v>
+      </c>
+      <c r="BI128">
+        <v>6</v>
+      </c>
+      <c r="BJ128">
+        <v>17</v>
+      </c>
+      <c r="BK128">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129" spans="1:63">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>2595260</v>
+      </c>
+      <c r="C129" t="s">
+        <v>63</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" s="2">
+        <v>44878.58333333334</v>
+      </c>
+      <c r="F129">
+        <v>16</v>
+      </c>
+      <c r="G129" t="s">
+        <v>65</v>
+      </c>
+      <c r="H129" t="s">
+        <v>80</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>3</v>
+      </c>
+      <c r="K129">
+        <v>3</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129">
+        <v>4</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129" t="s">
+        <v>81</v>
+      </c>
+      <c r="P129" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q129">
+        <v>7</v>
+      </c>
+      <c r="R129">
+        <v>3</v>
+      </c>
+      <c r="S129">
+        <v>10</v>
+      </c>
+      <c r="T129">
+        <v>6.5</v>
+      </c>
+      <c r="U129">
+        <v>2.4</v>
+      </c>
+      <c r="V129">
+        <v>1.95</v>
+      </c>
+      <c r="W129">
+        <v>1.33</v>
+      </c>
+      <c r="X129">
+        <v>3.25</v>
+      </c>
+      <c r="Y129">
+        <v>2.5</v>
+      </c>
+      <c r="Z129">
+        <v>1.5</v>
+      </c>
+      <c r="AA129">
+        <v>6</v>
+      </c>
+      <c r="AB129">
+        <v>1.13</v>
+      </c>
+      <c r="AC129">
+        <v>6.6</v>
+      </c>
+      <c r="AD129">
+        <v>4.44</v>
+      </c>
+      <c r="AE129">
+        <v>1.45</v>
+      </c>
+      <c r="AF129">
+        <v>1.04</v>
+      </c>
+      <c r="AG129">
+        <v>10</v>
+      </c>
+      <c r="AH129">
+        <v>1.22</v>
+      </c>
+      <c r="AI129">
+        <v>4</v>
+      </c>
+      <c r="AJ129">
+        <v>1.61</v>
+      </c>
+      <c r="AK129">
+        <v>2.25</v>
+      </c>
+      <c r="AL129">
+        <v>1.95</v>
+      </c>
+      <c r="AM129">
+        <v>1.8</v>
+      </c>
+      <c r="AN129">
+        <v>2.45</v>
+      </c>
+      <c r="AO129">
+        <v>1.16</v>
+      </c>
+      <c r="AP129">
+        <v>1.1</v>
+      </c>
+      <c r="AQ129">
+        <v>1.14</v>
+      </c>
+      <c r="AR129">
+        <v>1.43</v>
+      </c>
+      <c r="AS129">
+        <v>1</v>
+      </c>
+      <c r="AT129">
+        <v>1.63</v>
+      </c>
+      <c r="AU129">
+        <v>1.64</v>
+      </c>
+      <c r="AV129">
+        <v>1.95</v>
+      </c>
+      <c r="AW129">
+        <v>3.59</v>
+      </c>
+      <c r="AX129">
+        <v>5.3</v>
+      </c>
+      <c r="AY129">
+        <v>10</v>
+      </c>
+      <c r="AZ129">
+        <v>1.25</v>
+      </c>
+      <c r="BA129">
+        <v>1.23</v>
+      </c>
+      <c r="BB129">
+        <v>1.45</v>
+      </c>
+      <c r="BC129">
+        <v>1.79</v>
+      </c>
+      <c r="BD129">
+        <v>2.25</v>
+      </c>
+      <c r="BE129">
+        <v>2.98</v>
+      </c>
+      <c r="BF129">
+        <v>6</v>
+      </c>
+      <c r="BG129">
+        <v>8</v>
+      </c>
+      <c r="BH129">
+        <v>7</v>
+      </c>
+      <c r="BI129">
+        <v>2</v>
+      </c>
+      <c r="BJ129">
+        <v>13</v>
+      </c>
+      <c r="BK129">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK129"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1715,7 +1715,7 @@
         <v>0.88</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT10" t="n">
         <v>0.38</v>
@@ -2730,7 +2730,7 @@
         <v>1.57</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT12" t="n">
         <v>1.5</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
         <v>0.71</v>
@@ -3339,7 +3339,7 @@
         <v>0.63</v>
       </c>
       <c r="AT14" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -5775,7 +5775,7 @@
         <v>1.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU26" t="n">
         <v>1.64</v>
@@ -5978,7 +5978,7 @@
         <v>1.29</v>
       </c>
       <c r="AT27" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU27" t="n">
         <v>1.89</v>
@@ -6181,7 +6181,7 @@
         <v>1.57</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU28" t="n">
         <v>1.75</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT29" t="n">
         <v>1.33</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU32" t="n">
         <v>2.04</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT38" t="n">
         <v>1.11</v>
@@ -8817,10 +8817,10 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU41" t="n">
         <v>1.79</v>
@@ -9226,7 +9226,7 @@
         <v>1.22</v>
       </c>
       <c r="AT43" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9426,7 +9426,7 @@
         <v>1.67</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT44" t="n">
         <v>1.33</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT45" t="n">
         <v>1.11</v>
@@ -9835,7 +9835,7 @@
         <v>1.29</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU46" t="n">
         <v>1.33</v>
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU48" t="n">
         <v>2.41</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT56" t="n">
         <v>1.63</v>
@@ -12065,7 +12065,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT57" t="n">
         <v>2.33</v>
@@ -12474,7 +12474,7 @@
         <v>1.67</v>
       </c>
       <c r="AT59" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU59" t="n">
         <v>1.29</v>
@@ -12674,7 +12674,7 @@
         <v>1.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT60" t="n">
         <v>1.11</v>
@@ -13286,7 +13286,7 @@
         <v>1.22</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.45</v>
@@ -13489,7 +13489,7 @@
         <v>3</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU64" t="n">
         <v>2.42</v>
@@ -13692,7 +13692,7 @@
         <v>1</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU65" t="n">
         <v>1.34</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT71" t="n">
         <v>0.71</v>
@@ -15110,7 +15110,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT72" t="n">
         <v>1.63</v>
@@ -15313,7 +15313,7 @@
         <v>2.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT73" t="n">
         <v>2.33</v>
@@ -15722,7 +15722,7 @@
         <v>1.67</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU75" t="n">
         <v>1.64</v>
@@ -15925,7 +15925,7 @@
         <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU76" t="n">
         <v>2.06</v>
@@ -16940,7 +16940,7 @@
         <v>1.56</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1.29</v>
@@ -17346,7 +17346,7 @@
         <v>1</v>
       </c>
       <c r="AT83" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU83" t="n">
         <v>1.54</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT84" t="n">
         <v>1.44</v>
@@ -17952,7 +17952,7 @@
         <v>2.6</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT86" t="n">
         <v>2</v>
@@ -18358,7 +18358,7 @@
         <v>1.4</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT88" t="n">
         <v>1.63</v>
@@ -18564,7 +18564,7 @@
         <v>1.67</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU89" t="n">
         <v>1.48</v>
@@ -18967,7 +18967,7 @@
         <v>1.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT91" t="n">
         <v>1.56</v>
@@ -20185,7 +20185,7 @@
         <v>0.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT97" t="n">
         <v>0.5</v>
@@ -20794,7 +20794,7 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT100" t="n">
         <v>0.71</v>
@@ -21000,7 +21000,7 @@
         <v>0.63</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU101" t="n">
         <v>1.17</v>
@@ -21403,10 +21403,10 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU103" t="n">
         <v>1.76</v>
@@ -21609,7 +21609,7 @@
         <v>3</v>
       </c>
       <c r="AT104" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU104" t="n">
         <v>2.29</v>
@@ -22015,7 +22015,7 @@
         <v>1.22</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU106" t="n">
         <v>1.63</v>
@@ -22621,7 +22621,7 @@
         <v>1.17</v>
       </c>
       <c r="AS109" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
         <v>1.63</v>
@@ -23230,7 +23230,7 @@
         <v>0.57</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AT112" t="n">
         <v>0.5</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AT114" t="n">
         <v>0.71</v>
@@ -23839,10 +23839,10 @@
         <v>1.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT115" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AU115" t="n">
         <v>1.76</v>
@@ -24045,7 +24045,7 @@
         <v>1.57</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AU116" t="n">
         <v>1.88</v>
@@ -24245,7 +24245,7 @@
         <v>0.43</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT117" t="n">
         <v>0.38</v>
@@ -24451,7 +24451,7 @@
         <v>1.29</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.6</v>
@@ -24854,7 +24854,7 @@
         <v>1.71</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT120" t="n">
         <v>1.5</v>
@@ -25872,7 +25872,7 @@
         <v>2</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU125" t="n">
         <v>2.11</v>
@@ -26736,6 +26736,818 @@
       </c>
       <c r="BK129" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2595268</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>44954.45833333334</v>
+      </c>
+      <c r="F130" t="n">
+        <v>17</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="n">
+        <v>0</v>
+      </c>
+      <c r="N130" t="n">
+        <v>1</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['69']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>6</v>
+      </c>
+      <c r="R130" t="n">
+        <v>5</v>
+      </c>
+      <c r="S130" t="n">
+        <v>11</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V130" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X130" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2595263</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>44954.45833333334</v>
+      </c>
+      <c r="F131" t="n">
+        <v>17</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>2</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>2</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['56', '74']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>7</v>
+      </c>
+      <c r="R131" t="n">
+        <v>5</v>
+      </c>
+      <c r="S131" t="n">
+        <v>12</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V131" t="n">
+        <v>5</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X131" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2595265</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>44954.45833333334</v>
+      </c>
+      <c r="F132" t="n">
+        <v>17</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1</v>
+      </c>
+      <c r="K132" t="n">
+        <v>2</v>
+      </c>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="n">
+        <v>2</v>
+      </c>
+      <c r="N132" t="n">
+        <v>3</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>['43', '72']</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>9</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1</v>
+      </c>
+      <c r="S132" t="n">
+        <v>10</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V132" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X132" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2595264</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>44954.58333333334</v>
+      </c>
+      <c r="F133" t="n">
+        <v>17</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2</v>
+      </c>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>2</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['45+1']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>8</v>
+      </c>
+      <c r="R133" t="n">
+        <v>10</v>
+      </c>
+      <c r="S133" t="n">
+        <v>18</v>
+      </c>
+      <c r="T133" t="n">
+        <v>4</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X133" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2527,7 +2527,7 @@
         <v>2.25</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5</v>
@@ -2933,7 +2933,7 @@
         <v>1.38</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT27" t="n">
         <v>1.88</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT28" t="n">
         <v>1.44</v>
@@ -6587,7 +6587,7 @@
         <v>1</v>
       </c>
       <c r="AT30" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU30" t="n">
         <v>1.34</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -9023,7 +9023,7 @@
         <v>1</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU42" t="n">
         <v>1.81</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT46" t="n">
         <v>1.5</v>
@@ -10038,7 +10038,7 @@
         <v>1.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU47" t="n">
         <v>1.79</v>
@@ -10444,7 +10444,7 @@
         <v>1.67</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU49" t="n">
         <v>1.15</v>
@@ -10644,7 +10644,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT50" t="n">
         <v>2.33</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU58" t="n">
         <v>1.65</v>
@@ -12877,7 +12877,7 @@
         <v>1.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT61" t="n">
         <v>1.33</v>
@@ -13083,7 +13083,7 @@
         <v>1.67</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU62" t="n">
         <v>1.64</v>
@@ -14095,7 +14095,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT67" t="n">
         <v>1.44</v>
@@ -14910,7 +14910,7 @@
         <v>1.63</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU71" t="n">
         <v>1.88</v>
@@ -15516,7 +15516,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT74" t="n">
         <v>1.56</v>
@@ -16128,7 +16128,7 @@
         <v>1.22</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU77" t="n">
         <v>1.51</v>
@@ -16331,7 +16331,7 @@
         <v>1.67</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU78" t="n">
         <v>1.3</v>
@@ -17143,7 +17143,7 @@
         <v>0.88</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU82" t="n">
         <v>1.41</v>
@@ -18155,7 +18155,7 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT87" t="n">
         <v>0.71</v>
@@ -18767,7 +18767,7 @@
         <v>1.56</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU90" t="n">
         <v>1.3</v>
@@ -19173,7 +19173,7 @@
         <v>2</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU92" t="n">
         <v>2.01</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU98" t="n">
         <v>1.93</v>
@@ -20594,7 +20594,7 @@
         <v>0.88</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU99" t="n">
         <v>1.37</v>
@@ -21200,7 +21200,7 @@
         <v>2.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT102" t="n">
         <v>2</v>
@@ -21812,7 +21812,7 @@
         <v>1.56</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU105" t="n">
         <v>1.44</v>
@@ -23436,7 +23436,7 @@
         <v>0.63</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU113" t="n">
         <v>1.16</v>
@@ -23639,7 +23639,7 @@
         <v>1.38</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AU114" t="n">
         <v>1.57</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AT116" t="n">
         <v>1.5</v>
@@ -24248,7 +24248,7 @@
         <v>1.63</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AU117" t="n">
         <v>1.93</v>
@@ -24448,7 +24448,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT118" t="n">
         <v>0.5</v>
@@ -24857,7 +24857,7 @@
         <v>2.25</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU120" t="n">
         <v>1.7</v>
@@ -27412,10 +27412,10 @@
         <v>8</v>
       </c>
       <c r="R133" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S133" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="T133" t="n">
         <v>4</v>
@@ -27547,6 +27547,615 @@
         <v>8</v>
       </c>
       <c r="BK133" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2595266</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>44955.45833333334</v>
+      </c>
+      <c r="F134" t="n">
+        <v>17</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Zbrojovka Brno</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0</v>
+      </c>
+      <c r="N134" t="n">
+        <v>0</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q134" t="n">
+        <v>4</v>
+      </c>
+      <c r="R134" t="n">
+        <v>8</v>
+      </c>
+      <c r="S134" t="n">
+        <v>12</v>
+      </c>
+      <c r="T134" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U134" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB134" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC134" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD134" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE134" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AF134" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG134" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH134" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI134" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ134" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK134" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AL134" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM134" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN134" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO134" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP134" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT134" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU134" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV134" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW134" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AX134" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AY134" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AZ134" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BA134" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC134" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD134" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BE134" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF134" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2595267</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>44955.45833333334</v>
+      </c>
+      <c r="F135" t="n">
+        <v>17</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+      <c r="N135" t="n">
+        <v>2</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q135" t="n">
+        <v>12</v>
+      </c>
+      <c r="R135" t="n">
+        <v>6</v>
+      </c>
+      <c r="S135" t="n">
+        <v>18</v>
+      </c>
+      <c r="T135" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U135" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V135" t="n">
+        <v>5</v>
+      </c>
+      <c r="W135" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X135" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB135" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC135" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AD135" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AE135" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="AF135" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG135" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH135" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI135" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ135" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK135" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL135" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM135" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN135" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO135" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP135" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ135" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR135" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS135" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT135" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU135" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AV135" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW135" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AX135" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AY135" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ135" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BA135" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB135" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC135" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF135" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>2595262</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>44955.45833333334</v>
+      </c>
+      <c r="F136" t="n">
+        <v>17</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>1</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2</v>
+      </c>
+      <c r="L136" t="n">
+        <v>5</v>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+      <c r="N136" t="n">
+        <v>6</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>['11', '65', '67', '76', '85']</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>['45+6']</t>
+        </is>
+      </c>
+      <c r="Q136" t="n">
+        <v>9</v>
+      </c>
+      <c r="R136" t="n">
+        <v>4</v>
+      </c>
+      <c r="S136" t="n">
+        <v>13</v>
+      </c>
+      <c r="T136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="U136" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V136" t="n">
+        <v>10</v>
+      </c>
+      <c r="W136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X136" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB136" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC136" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD136" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE136" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="AF136" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG136" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH136" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI136" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ136" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK136" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL136" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM136" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN136" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO136" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AP136" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AQ136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR136" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS136" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT136" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AU136" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV136" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW136" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="AX136" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AY136" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AZ136" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="BA136" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB136" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC136" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD136" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG136" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK136" t="n">
         <v>4</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK136"/>
+  <dimension ref="A1:BK137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1.22</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -11256,7 +11256,7 @@
         <v>1.56</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU53" t="n">
         <v>1.2</v>
@@ -14301,7 +14301,7 @@
         <v>2</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU68" t="n">
         <v>2.01</v>
@@ -18158,7 +18158,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU87" t="n">
         <v>1.96</v>
@@ -20797,7 +20797,7 @@
         <v>2.25</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU100" t="n">
         <v>1.72</v>
@@ -24654,7 +24654,7 @@
         <v>3</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AU119" t="n">
         <v>2.15</v>
@@ -27735,22 +27735,22 @@
         <v>2.43</v>
       </c>
       <c r="BF134" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BG134" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI134" t="n">
         <v>5</v>
       </c>
-      <c r="BH134" t="n">
-        <v>3</v>
-      </c>
-      <c r="BI134" t="n">
-        <v>3</v>
-      </c>
       <c r="BJ134" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BK134" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="135">
@@ -27938,22 +27938,22 @@
         <v>2.5</v>
       </c>
       <c r="BF135" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG135" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH135" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BI135" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BJ135" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BK135" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136">
@@ -28141,22 +28141,225 @@
         <v>3</v>
       </c>
       <c r="BF136" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG136" t="n">
         <v>6</v>
       </c>
-      <c r="BG136" t="n">
-        <v>3</v>
-      </c>
       <c r="BH136" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>2595261</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>44955.58333333334</v>
+      </c>
+      <c r="F137" t="n">
+        <v>17</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>1</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>4</v>
+      </c>
+      <c r="S137" t="n">
+        <v>4</v>
+      </c>
+      <c r="T137" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U137" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V137" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W137" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X137" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB137" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC137" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AD137" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE137" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AF137" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG137" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH137" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI137" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ137" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK137" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL137" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM137" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN137" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO137" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP137" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR137" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT137" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU137" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV137" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW137" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX137" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY137" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ137" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BA137" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB137" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC137" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF137" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG137" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH137" t="n">
         <v>5</v>
       </c>
-      <c r="BI136" t="n">
-        <v>1</v>
-      </c>
-      <c r="BJ136" t="n">
+      <c r="BI137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ137" t="n">
         <v>11</v>
       </c>
-      <c r="BK136" t="n">
-        <v>4</v>
+      <c r="BK137" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK137"/>
+  <dimension ref="A1:BK141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
         <v>2.33</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT6" t="n">
         <v>1.44</v>
@@ -1918,7 +1918,7 @@
         <v>1.56</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
@@ -3136,7 +3136,7 @@
         <v>1</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT16" t="n">
         <v>1.5</v>
@@ -3948,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.67</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU18" t="n">
         <v>2.04</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT19" t="n">
         <v>2</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU23" t="n">
         <v>2.02</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT24" t="n">
         <v>1.11</v>
@@ -5572,7 +5572,7 @@
         <v>2</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU25" t="n">
         <v>2.13</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT34" t="n">
         <v>1.44</v>
@@ -7599,10 +7599,10 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -7802,10 +7802,10 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU36" t="n">
         <v>1.17</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT38" t="n">
         <v>1.11</v>
@@ -8414,7 +8414,7 @@
         <v>1.56</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU39" t="n">
         <v>1.07</v>
@@ -8617,7 +8617,7 @@
         <v>1</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU40" t="n">
         <v>1.51</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT43" t="n">
         <v>1.88</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT49" t="n">
         <v>0.63</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU52" t="n">
         <v>1.92</v>
@@ -11256,7 +11256,7 @@
         <v>1.56</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.2</v>
@@ -11456,10 +11456,10 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU54" t="n">
         <v>1.62</v>
@@ -11862,10 +11862,10 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU56" t="n">
         <v>2.12</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT59" t="n">
         <v>1.88</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.5</v>
@@ -13895,7 +13895,7 @@
         <v>0.63</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU66" t="n">
         <v>0.97</v>
@@ -14301,7 +14301,7 @@
         <v>2</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>2.01</v>
@@ -14504,7 +14504,7 @@
         <v>1.56</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU69" t="n">
         <v>1.24</v>
@@ -14704,7 +14704,7 @@
         <v>2.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT70" t="n">
         <v>2</v>
@@ -14907,7 +14907,7 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT71" t="n">
         <v>0.63</v>
@@ -15113,7 +15113,7 @@
         <v>2.25</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU72" t="n">
         <v>1.59</v>
@@ -15519,7 +15519,7 @@
         <v>1.25</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU74" t="n">
         <v>1.6</v>
@@ -16125,7 +16125,7 @@
         <v>3</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT77" t="n">
         <v>1.44</v>
@@ -16328,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT78" t="n">
         <v>0.44</v>
@@ -17140,7 +17140,7 @@
         <v>1.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT82" t="n">
         <v>0.63</v>
@@ -17752,7 +17752,7 @@
         <v>0.63</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU85" t="n">
         <v>1.06</v>
@@ -17952,7 +17952,7 @@
         <v>2.6</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT86" t="n">
         <v>2</v>
@@ -18158,7 +18158,7 @@
         <v>1.5</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU87" t="n">
         <v>1.96</v>
@@ -18361,7 +18361,7 @@
         <v>1.38</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU88" t="n">
         <v>1.58</v>
@@ -18561,7 +18561,7 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT89" t="n">
         <v>1.44</v>
@@ -18970,7 +18970,7 @@
         <v>1</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU91" t="n">
         <v>1.91</v>
@@ -19779,7 +19779,7 @@
         <v>2.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT95" t="n">
         <v>2.33</v>
@@ -20188,7 +20188,7 @@
         <v>1.38</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU97" t="n">
         <v>1.5</v>
@@ -20591,7 +20591,7 @@
         <v>1.8</v>
       </c>
       <c r="AS99" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT99" t="n">
         <v>1.44</v>
@@ -20797,7 +20797,7 @@
         <v>2.25</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.72</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT103" t="n">
         <v>0.5</v>
@@ -22012,7 +22012,7 @@
         <v>2.17</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT106" t="n">
         <v>1.44</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU109" t="n">
         <v>1.97</v>
@@ -23027,10 +23027,10 @@
         <v>1.57</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU111" t="n">
         <v>1.56</v>
@@ -23233,7 +23233,7 @@
         <v>1</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU112" t="n">
         <v>1.89</v>
@@ -24245,7 +24245,7 @@
         <v>0.43</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT117" t="n">
         <v>0.44</v>
@@ -24654,7 +24654,7 @@
         <v>3</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>2.15</v>
@@ -25260,7 +25260,7 @@
         <v>1.25</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT122" t="n">
         <v>1.11</v>
@@ -25463,7 +25463,7 @@
         <v>1.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AT123" t="n">
         <v>1.44</v>
@@ -26275,7 +26275,7 @@
         <v>2.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AT127" t="n">
         <v>2.33</v>
@@ -26481,7 +26481,7 @@
         <v>1</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU128" t="n">
         <v>1.51</v>
@@ -26684,7 +26684,7 @@
         <v>1</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU129" t="n">
         <v>1.64</v>
@@ -26884,7 +26884,7 @@
         <v>1.63</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AT130" t="n">
         <v>1.44</v>
@@ -28308,7 +28308,7 @@
         <v>1</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AU137" t="n">
         <v>1.64</v>
@@ -28360,6 +28360,818 @@
       </c>
       <c r="BK137" t="n">
         <v>15</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>2595269</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>44961.45833333334</v>
+      </c>
+      <c r="F138" t="n">
+        <v>18</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1</v>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>2</v>
+      </c>
+      <c r="M138" t="n">
+        <v>2</v>
+      </c>
+      <c r="N138" t="n">
+        <v>4</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>['59', '72']</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>['20', '52']</t>
+        </is>
+      </c>
+      <c r="Q138" t="n">
+        <v>7</v>
+      </c>
+      <c r="R138" t="n">
+        <v>0</v>
+      </c>
+      <c r="S138" t="n">
+        <v>7</v>
+      </c>
+      <c r="T138" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U138" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V138" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X138" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF138" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG138" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI138" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ138" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK138" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM138" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN138" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO138" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP138" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ138" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR138" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT138" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU138" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV138" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW138" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AX138" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AY138" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ138" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BA138" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB138" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BC138" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BD138" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE138" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF138" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG138" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>2595270</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>44961.45833333334</v>
+      </c>
+      <c r="F139" t="n">
+        <v>18</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0</v>
+      </c>
+      <c r="M139" t="n">
+        <v>5</v>
+      </c>
+      <c r="N139" t="n">
+        <v>5</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>['51', '63', '79', '83', '90+4']</t>
+        </is>
+      </c>
+      <c r="Q139" t="n">
+        <v>8</v>
+      </c>
+      <c r="R139" t="n">
+        <v>5</v>
+      </c>
+      <c r="S139" t="n">
+        <v>13</v>
+      </c>
+      <c r="T139" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U139" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V139" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W139" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AB139" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC139" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AD139" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE139" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AF139" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG139" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="AH139" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI139" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ139" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK139" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL139" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM139" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN139" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP139" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ139" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR139" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS139" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT139" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU139" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV139" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW139" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX139" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY139" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ139" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA139" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB139" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC139" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF139" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG139" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>2595273</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>44961.45833333334</v>
+      </c>
+      <c r="F140" t="n">
+        <v>18</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0</v>
+      </c>
+      <c r="M140" t="n">
+        <v>0</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>10</v>
+      </c>
+      <c r="R140" t="n">
+        <v>3</v>
+      </c>
+      <c r="S140" t="n">
+        <v>13</v>
+      </c>
+      <c r="T140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U140" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V140" t="n">
+        <v>4</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>2595275</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>44961.58333333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>18</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1</v>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2</v>
+      </c>
+      <c r="N141" t="n">
+        <v>2</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['19', '90+6']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>3</v>
+      </c>
+      <c r="R141" t="n">
+        <v>8</v>
+      </c>
+      <c r="S141" t="n">
+        <v>11</v>
+      </c>
+      <c r="T141" t="n">
+        <v>8</v>
+      </c>
+      <c r="U141" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V141" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X141" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK141"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT3" t="n">
         <v>1.33</v>
@@ -1512,7 +1512,7 @@
         <v>1.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT7" t="n">
         <v>1.78</v>
@@ -2121,7 +2121,7 @@
         <v>1.2</v>
       </c>
       <c r="AT8" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT14" t="n">
         <v>1.88</v>
@@ -4354,7 +4354,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU19" t="n">
         <v>1.2</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU20" t="n">
         <v>1.13</v>
@@ -4757,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU21" t="n">
         <v>0.68</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT22" t="n">
         <v>1.33</v>
@@ -5369,7 +5369,7 @@
         <v>0.78</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU24" t="n">
         <v>2.34</v>
@@ -5569,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT25" t="n">
         <v>1.5</v>
@@ -7193,10 +7193,10 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU33" t="n">
         <v>1.23</v>
@@ -7399,7 +7399,7 @@
         <v>0.78</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU34" t="n">
         <v>1.94</v>
@@ -8005,10 +8005,10 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT37" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU37" t="n">
         <v>1.94</v>
@@ -8211,7 +8211,7 @@
         <v>1.56</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU38" t="n">
         <v>2.21</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT39" t="n">
         <v>1.5</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT40" t="n">
         <v>1.78</v>
@@ -9632,7 +9632,7 @@
         <v>1.38</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU45" t="n">
         <v>1.07</v>
@@ -10647,7 +10647,7 @@
         <v>1.5</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU50" t="n">
         <v>2.23</v>
@@ -10847,10 +10847,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU51" t="n">
         <v>1.11</v>
@@ -11050,7 +11050,7 @@
         <v>0.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT52" t="n">
         <v>0.5600000000000001</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -11659,10 +11659,10 @@
         <v>2.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT55" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU55" t="n">
         <v>1.36</v>
@@ -12068,7 +12068,7 @@
         <v>1.38</v>
       </c>
       <c r="AT57" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12677,7 +12677,7 @@
         <v>1</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU60" t="n">
         <v>1.82</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT65" t="n">
         <v>0.5</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT66" t="n">
         <v>1.5</v>
@@ -14098,7 +14098,7 @@
         <v>1.5</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU67" t="n">
         <v>2.14</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT69" t="n">
         <v>0.5600000000000001</v>
@@ -14707,7 +14707,7 @@
         <v>0.78</v>
       </c>
       <c r="AT70" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU70" t="n">
         <v>1.45</v>
@@ -15316,7 +15316,7 @@
         <v>1</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU73" t="n">
         <v>1.96</v>
@@ -15922,7 +15922,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT76" t="n">
         <v>1.5</v>
@@ -16737,7 +16737,7 @@
         <v>3</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU80" t="n">
         <v>2.47</v>
@@ -16937,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT81" t="n">
         <v>0.5</v>
@@ -17343,7 +17343,7 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT83" t="n">
         <v>1.88</v>
@@ -17549,7 +17549,7 @@
         <v>2.25</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU84" t="n">
         <v>1.55</v>
@@ -17749,7 +17749,7 @@
         <v>0.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT85" t="n">
         <v>0.5600000000000001</v>
@@ -17955,7 +17955,7 @@
         <v>1.56</v>
       </c>
       <c r="AT86" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU86" t="n">
         <v>1.88</v>
@@ -18764,7 +18764,7 @@
         <v>2.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT90" t="n">
         <v>1.44</v>
@@ -19170,7 +19170,7 @@
         <v>0</v>
       </c>
       <c r="AS92" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT92" t="n">
         <v>0.44</v>
@@ -19579,7 +19579,7 @@
         <v>1</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU94" t="n">
         <v>1.73</v>
@@ -19782,7 +19782,7 @@
         <v>1.2</v>
       </c>
       <c r="AT95" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU95" t="n">
         <v>1.58</v>
@@ -19985,7 +19985,7 @@
         <v>3</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU96" t="n">
         <v>2.42</v>
@@ -20997,7 +20997,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT101" t="n">
         <v>1.5</v>
@@ -21203,7 +21203,7 @@
         <v>1.25</v>
       </c>
       <c r="AT102" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21809,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT105" t="n">
         <v>0.44</v>
@@ -22218,7 +22218,7 @@
         <v>1.67</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU107" t="n">
         <v>1.83</v>
@@ -22421,7 +22421,7 @@
         <v>1</v>
       </c>
       <c r="AT108" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU108" t="n">
         <v>1.72</v>
@@ -22824,10 +22824,10 @@
         <v>1.43</v>
       </c>
       <c r="AS110" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU110" t="n">
         <v>1.47</v>
@@ -23433,7 +23433,7 @@
         <v>2</v>
       </c>
       <c r="AS113" t="n">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AT113" t="n">
         <v>1.44</v>
@@ -25057,7 +25057,7 @@
         <v>1.29</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT121" t="n">
         <v>1.33</v>
@@ -25263,7 +25263,7 @@
         <v>1.5</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU122" t="n">
         <v>1.58</v>
@@ -25466,7 +25466,7 @@
         <v>1.2</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU123" t="n">
         <v>1.66</v>
@@ -25669,7 +25669,7 @@
         <v>1.67</v>
       </c>
       <c r="AT124" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AU124" t="n">
         <v>1.89</v>
@@ -25869,7 +25869,7 @@
         <v>1.86</v>
       </c>
       <c r="AS125" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AT125" t="n">
         <v>1.44</v>
@@ -26072,7 +26072,7 @@
         <v>1.13</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AT126" t="n">
         <v>1.33</v>
@@ -26278,7 +26278,7 @@
         <v>0.78</v>
       </c>
       <c r="AT127" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU127" t="n">
         <v>1.43</v>
@@ -26478,7 +26478,7 @@
         <v>1.38</v>
       </c>
       <c r="AS128" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AT128" t="n">
         <v>1.5</v>
@@ -29172,6 +29172,818 @@
       </c>
       <c r="BK141" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>2595276</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>44962.45833333334</v>
+      </c>
+      <c r="F142" t="n">
+        <v>18</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0</v>
+      </c>
+      <c r="M142" t="n">
+        <v>2</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>['7', '41']</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>5</v>
+      </c>
+      <c r="R142" t="n">
+        <v>5</v>
+      </c>
+      <c r="S142" t="n">
+        <v>10</v>
+      </c>
+      <c r="T142" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U142" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X142" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>11</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>2595272</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>44962.45833333334</v>
+      </c>
+      <c r="F143" t="n">
+        <v>18</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Zbrojovka Brno</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="n">
+        <v>3</v>
+      </c>
+      <c r="N143" t="n">
+        <v>4</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>['59', '69', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q143" t="n">
+        <v>3</v>
+      </c>
+      <c r="R143" t="n">
+        <v>11</v>
+      </c>
+      <c r="S143" t="n">
+        <v>14</v>
+      </c>
+      <c r="T143" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U143" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W143" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X143" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AB143" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC143" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="AD143" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AE143" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AJ143" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK143" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AL143" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM143" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AN143" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO143" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP143" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ143" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR143" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS143" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AT143" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU143" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV143" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW143" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX143" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AY143" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AZ143" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BA143" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BB143" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC143" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD143" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE143" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG143" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>2595271</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>44962.45833333334</v>
+      </c>
+      <c r="F144" t="n">
+        <v>18</v>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0</v>
+      </c>
+      <c r="M144" t="n">
+        <v>2</v>
+      </c>
+      <c r="N144" t="n">
+        <v>2</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>['41', '87']</t>
+        </is>
+      </c>
+      <c r="Q144" t="n">
+        <v>6</v>
+      </c>
+      <c r="R144" t="n">
+        <v>3</v>
+      </c>
+      <c r="S144" t="n">
+        <v>9</v>
+      </c>
+      <c r="T144" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U144" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="AB144" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC144" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AD144" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AE144" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AF144" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG144" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH144" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI144" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ144" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK144" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL144" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN144" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AO144" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP144" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ144" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR144" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS144" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AT144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU144" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV144" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW144" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AX144" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY144" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ144" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BA144" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB144" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC144" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG144" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>2595274</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>44962.58333333334</v>
+      </c>
+      <c r="F145" t="n">
+        <v>18</v>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1</v>
+      </c>
+      <c r="K145" t="n">
+        <v>3</v>
+      </c>
+      <c r="L145" t="n">
+        <v>4</v>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="n">
+        <v>5</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>['6', '36', '82', '90+5']</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="Q145" t="n">
+        <v>4</v>
+      </c>
+      <c r="R145" t="n">
+        <v>5</v>
+      </c>
+      <c r="S145" t="n">
+        <v>9</v>
+      </c>
+      <c r="T145" t="n">
+        <v>2</v>
+      </c>
+      <c r="U145" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V145" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="W145" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AB145" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG145" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH145" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI145" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ145" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL145" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM145" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN145" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AO145" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP145" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AQ145" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR145" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AT145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU145" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AV145" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW145" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AX145" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AY145" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ145" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BA145" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB145" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC145" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF145" t="n">
+        <v>13</v>
+      </c>
+      <c r="BG145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,18 @@
     <t>['6', '36', '82', '90+5']</t>
   </si>
   <si>
+    <t>['5', '17']</t>
+  </si>
+  <si>
+    <t>['58', '85']</t>
+  </si>
+  <si>
+    <t>['12', '57']</t>
+  </si>
+  <si>
+    <t>['25', '82']</t>
+  </si>
+  <si>
     <t>['30', '71']</t>
   </si>
   <si>
@@ -830,6 +842,15 @@
   </si>
   <si>
     <t>['7', '41']</t>
+  </si>
+  <si>
+    <t>['29', '83']</t>
+  </si>
+  <si>
+    <t>['8', '63']</t>
+  </si>
+  <si>
+    <t>['23']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1522,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT2">
         <v>1.3</v>
@@ -1626,7 +1647,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1716,7 +1737,7 @@
         <v>0.89</v>
       </c>
       <c r="AT3">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1817,7 +1838,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1904,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT4">
         <v>1.5</v>
@@ -2008,7 +2029,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2199,7 +2220,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>12</v>
@@ -2289,7 +2310,7 @@
         <v>0.78</v>
       </c>
       <c r="AT6">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2581,7 +2602,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2772,7 +2793,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3050,10 +3071,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT10">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3154,7 +3175,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3241,10 +3262,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT11">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3345,7 +3366,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3432,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3536,7 +3557,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3727,7 +3748,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3918,7 +3939,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -4005,10 +4026,10 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT15">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4199,7 +4220,7 @@
         <v>1.56</v>
       </c>
       <c r="AT16">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4300,7 +4321,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4491,7 +4512,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4578,7 +4599,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT18">
         <v>0.5600000000000001</v>
@@ -4682,7 +4703,7 @@
         <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4873,7 +4894,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5064,7 +5085,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5255,7 +5276,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5345,7 +5366,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT22">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU22">
         <v>1.15</v>
@@ -5446,7 +5467,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6019,7 +6040,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6106,10 +6127,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT26">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU26">
         <v>1.64</v>
@@ -6210,7 +6231,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6297,7 +6318,7 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT27">
         <v>1.88</v>
@@ -6401,7 +6422,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6488,10 +6509,10 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT28">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU28">
         <v>1.75</v>
@@ -6592,7 +6613,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6679,10 +6700,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT29">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU29">
         <v>1.51</v>
@@ -6783,7 +6804,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6870,10 +6891,10 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT30">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU30">
         <v>1.34</v>
@@ -7064,7 +7085,7 @@
         <v>3</v>
       </c>
       <c r="AT31">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU31">
         <v>1.66</v>
@@ -7165,7 +7186,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7255,7 +7276,7 @@
         <v>1</v>
       </c>
       <c r="AT32">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU32">
         <v>2.04</v>
@@ -7356,7 +7377,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7547,7 +7568,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7738,7 +7759,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8120,7 +8141,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8311,7 +8332,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8693,7 +8714,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8884,7 +8905,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8974,7 +8995,7 @@
         <v>1</v>
       </c>
       <c r="AT41">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU41">
         <v>1.79</v>
@@ -9162,10 +9183,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT42">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -9266,7 +9287,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9544,10 +9565,10 @@
         <v>1.67</v>
       </c>
       <c r="AS44">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT44">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU44">
         <v>1.69</v>
@@ -9735,7 +9756,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT45">
         <v>1.3</v>
@@ -9839,7 +9860,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9926,10 +9947,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT46">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU46">
         <v>1.33</v>
@@ -10030,7 +10051,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10117,10 +10138,10 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU47">
         <v>1.79</v>
@@ -10311,7 +10332,7 @@
         <v>3</v>
       </c>
       <c r="AT48">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU48">
         <v>2.41</v>
@@ -10412,7 +10433,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10502,7 +10523,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU49">
         <v>1.15</v>
@@ -10603,7 +10624,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>11</v>
@@ -10690,7 +10711,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT50">
         <v>2.4</v>
@@ -10794,7 +10815,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11367,7 +11388,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11558,7 +11579,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11749,7 +11770,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -11940,7 +11961,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12027,7 +12048,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT57">
         <v>2.4</v>
@@ -12131,7 +12152,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12218,10 +12239,10 @@
         <v>3</v>
       </c>
       <c r="AS58">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT58">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU58">
         <v>1.65</v>
@@ -12322,7 +12343,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12513,7 +12534,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -12791,10 +12812,10 @@
         <v>1.25</v>
       </c>
       <c r="AS61">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT61">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU61">
         <v>1.42</v>
@@ -12982,10 +13003,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU62">
         <v>1.64</v>
@@ -13176,7 +13197,7 @@
         <v>1.2</v>
       </c>
       <c r="AT63">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU63">
         <v>1.45</v>
@@ -13277,7 +13298,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>11</v>
@@ -13367,7 +13388,7 @@
         <v>3</v>
       </c>
       <c r="AT64">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU64">
         <v>2.42</v>
@@ -13468,7 +13489,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13558,7 +13579,7 @@
         <v>0.89</v>
       </c>
       <c r="AT65">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU65">
         <v>1.34</v>
@@ -13659,7 +13680,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13850,7 +13871,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -13937,7 +13958,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT67">
         <v>1.3</v>
@@ -14041,7 +14062,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14614,7 +14635,7 @@
         <v>81</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14704,7 +14725,7 @@
         <v>1.56</v>
       </c>
       <c r="AT71">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -14892,7 +14913,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT72">
         <v>1.78</v>
@@ -14996,7 +15017,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15187,7 +15208,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15274,7 +15295,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT74">
         <v>1.5</v>
@@ -15378,7 +15399,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q75">
         <v>15</v>
@@ -15465,10 +15486,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT75">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU75">
         <v>1.64</v>
@@ -15569,7 +15590,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15659,7 +15680,7 @@
         <v>2.1</v>
       </c>
       <c r="AT76">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU76">
         <v>2.06</v>
@@ -15850,7 +15871,7 @@
         <v>1.2</v>
       </c>
       <c r="AT77">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU77">
         <v>1.51</v>
@@ -16041,7 +16062,7 @@
         <v>1.5</v>
       </c>
       <c r="AT78">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU78">
         <v>1.3</v>
@@ -16142,7 +16163,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -16229,10 +16250,10 @@
         <v>1.2</v>
       </c>
       <c r="AS79">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT79">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU79">
         <v>1.79</v>
@@ -16524,7 +16545,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16614,7 +16635,7 @@
         <v>1.4</v>
       </c>
       <c r="AT81">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU81">
         <v>1.29</v>
@@ -16805,7 +16826,7 @@
         <v>0.78</v>
       </c>
       <c r="AT82">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU82">
         <v>1.41</v>
@@ -16906,7 +16927,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17184,7 +17205,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT84">
         <v>1.3</v>
@@ -17288,7 +17309,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17479,7 +17500,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17757,7 +17778,7 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT87">
         <v>1</v>
@@ -17948,7 +17969,7 @@
         <v>1.4</v>
       </c>
       <c r="AS88">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT88">
         <v>1.78</v>
@@ -18052,7 +18073,7 @@
         <v>81</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18142,7 +18163,7 @@
         <v>1.5</v>
       </c>
       <c r="AT89">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18243,7 +18264,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>14</v>
@@ -18333,7 +18354,7 @@
         <v>1.4</v>
       </c>
       <c r="AT90">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU90">
         <v>1.3</v>
@@ -18434,7 +18455,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18625,7 +18646,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>10</v>
@@ -18715,7 +18736,7 @@
         <v>2.1</v>
       </c>
       <c r="AT92">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU92">
         <v>2.01</v>
@@ -18903,10 +18924,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU93">
         <v>1.87</v>
@@ -19007,7 +19028,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19094,7 +19115,7 @@
         <v>1.67</v>
       </c>
       <c r="AS94">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT94">
         <v>1.3</v>
@@ -19198,7 +19219,7 @@
         <v>81</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19389,7 +19410,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19667,7 +19688,7 @@
         <v>0.67</v>
       </c>
       <c r="AS97">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT97">
         <v>0.5600000000000001</v>
@@ -19858,10 +19879,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT98">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU98">
         <v>1.93</v>
@@ -19962,7 +19983,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20052,7 +20073,7 @@
         <v>0.78</v>
       </c>
       <c r="AT99">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU99">
         <v>1.37</v>
@@ -20153,7 +20174,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20240,7 +20261,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT100">
         <v>1</v>
@@ -20344,7 +20365,7 @@
         <v>81</v>
       </c>
       <c r="P101" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20434,7 +20455,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT101">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU101">
         <v>1.17</v>
@@ -20535,7 +20556,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20622,7 +20643,7 @@
         <v>2.67</v>
       </c>
       <c r="AS102">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT102">
         <v>2.11</v>
@@ -20726,7 +20747,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>13</v>
@@ -20816,7 +20837,7 @@
         <v>1.56</v>
       </c>
       <c r="AT103">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU103">
         <v>1.76</v>
@@ -21108,7 +21129,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21198,7 +21219,7 @@
         <v>1.4</v>
       </c>
       <c r="AT105">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU105">
         <v>1.44</v>
@@ -21389,7 +21410,7 @@
         <v>1.2</v>
       </c>
       <c r="AT106">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21490,7 +21511,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21577,7 +21598,7 @@
         <v>1.43</v>
       </c>
       <c r="AS107">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT107">
         <v>1.3</v>
@@ -21681,7 +21702,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21768,7 +21789,7 @@
         <v>2.43</v>
       </c>
       <c r="AS108">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT108">
         <v>2.4</v>
@@ -21872,7 +21893,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22254,7 +22275,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22445,7 +22466,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q112">
         <v>14</v>
@@ -22636,7 +22657,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22726,7 +22747,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT113">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU113">
         <v>1.16</v>
@@ -22914,10 +22935,10 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT114">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU114">
         <v>1.57</v>
@@ -23105,7 +23126,7 @@
         <v>1.83</v>
       </c>
       <c r="AS115">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT115">
         <v>1.88</v>
@@ -23296,10 +23317,10 @@
         <v>1.5</v>
       </c>
       <c r="AS116">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT116">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU116">
         <v>1.88</v>
@@ -23490,7 +23511,7 @@
         <v>1.56</v>
       </c>
       <c r="AT117">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU117">
         <v>1.93</v>
@@ -23678,10 +23699,10 @@
         <v>0.67</v>
       </c>
       <c r="AS118">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT118">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU118">
         <v>1.6</v>
@@ -24060,10 +24081,10 @@
         <v>1.71</v>
       </c>
       <c r="AS120">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT120">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU120">
         <v>1.7</v>
@@ -24254,7 +24275,7 @@
         <v>2.1</v>
       </c>
       <c r="AT121">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU121">
         <v>2.16</v>
@@ -24355,7 +24376,7 @@
         <v>169</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24546,7 +24567,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24737,7 +24758,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -24824,7 +24845,7 @@
         <v>2.29</v>
       </c>
       <c r="AS124">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT124">
         <v>2.11</v>
@@ -25018,7 +25039,7 @@
         <v>2.1</v>
       </c>
       <c r="AT125">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU125">
         <v>2.11</v>
@@ -25119,7 +25140,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -25209,7 +25230,7 @@
         <v>1.4</v>
       </c>
       <c r="AT126">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AU126">
         <v>1.46</v>
@@ -25310,7 +25331,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25501,7 +25522,7 @@
         <v>174</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25692,7 +25713,7 @@
         <v>81</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25779,7 +25800,7 @@
         <v>1.43</v>
       </c>
       <c r="AS129">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT129">
         <v>1.78</v>
@@ -25973,7 +25994,7 @@
         <v>1.56</v>
       </c>
       <c r="AT130">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU130">
         <v>1.94</v>
@@ -26164,7 +26185,7 @@
         <v>1</v>
       </c>
       <c r="AT131">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU131">
         <v>1.88</v>
@@ -26265,7 +26286,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26352,10 +26373,10 @@
         <v>1.29</v>
       </c>
       <c r="AS132">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT132">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AU132">
         <v>1.87</v>
@@ -26456,7 +26477,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q133">
         <v>8</v>
@@ -26543,7 +26564,7 @@
         <v>2</v>
       </c>
       <c r="AS133">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="AT133">
         <v>1.88</v>
@@ -26647,7 +26668,7 @@
         <v>102</v>
       </c>
       <c r="P134" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q134">
         <v>12</v>
@@ -26734,10 +26755,10 @@
         <v>0.38</v>
       </c>
       <c r="AS134">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT134">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU134">
         <v>1.77</v>
@@ -26925,10 +26946,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AT135">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AU135">
         <v>1.6</v>
@@ -27029,7 +27050,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27119,7 +27140,7 @@
         <v>3</v>
       </c>
       <c r="AT136">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AU136">
         <v>2.19</v>
@@ -27220,7 +27241,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -27307,7 +27328,7 @@
         <v>0.71</v>
       </c>
       <c r="AS137">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT137">
         <v>1</v>
@@ -27411,7 +27432,7 @@
         <v>180</v>
       </c>
       <c r="P138" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27602,7 +27623,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27984,7 +28005,7 @@
         <v>81</v>
       </c>
       <c r="P141" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28175,7 +28196,7 @@
         <v>81</v>
       </c>
       <c r="P142" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28366,7 +28387,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28557,7 +28578,7 @@
         <v>81</v>
       </c>
       <c r="P144" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28748,7 +28769,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28890,6 +28911,1343 @@
       </c>
       <c r="BK145">
         <v>10</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>2595284</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44968.45833333334</v>
+      </c>
+      <c r="F146">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s">
+        <v>74</v>
+      </c>
+      <c r="H146" t="s">
+        <v>79</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>1</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>81</v>
+      </c>
+      <c r="P146" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q146">
+        <v>4</v>
+      </c>
+      <c r="R146">
+        <v>8</v>
+      </c>
+      <c r="S146">
+        <v>12</v>
+      </c>
+      <c r="T146">
+        <v>3.5</v>
+      </c>
+      <c r="U146">
+        <v>2</v>
+      </c>
+      <c r="V146">
+        <v>3.1</v>
+      </c>
+      <c r="W146">
+        <v>1.47</v>
+      </c>
+      <c r="X146">
+        <v>2.5</v>
+      </c>
+      <c r="Y146">
+        <v>3.15</v>
+      </c>
+      <c r="Z146">
+        <v>1.32</v>
+      </c>
+      <c r="AA146">
+        <v>8.35</v>
+      </c>
+      <c r="AB146">
+        <v>1.05</v>
+      </c>
+      <c r="AC146">
+        <v>2.3</v>
+      </c>
+      <c r="AD146">
+        <v>3.3</v>
+      </c>
+      <c r="AE146">
+        <v>3</v>
+      </c>
+      <c r="AF146">
+        <v>1.08</v>
+      </c>
+      <c r="AG146">
+        <v>7</v>
+      </c>
+      <c r="AH146">
+        <v>1.38</v>
+      </c>
+      <c r="AI146">
+        <v>2.9</v>
+      </c>
+      <c r="AJ146">
+        <v>2.09</v>
+      </c>
+      <c r="AK146">
+        <v>1.74</v>
+      </c>
+      <c r="AL146">
+        <v>1.87</v>
+      </c>
+      <c r="AM146">
+        <v>1.87</v>
+      </c>
+      <c r="AN146">
+        <v>1.53</v>
+      </c>
+      <c r="AO146">
+        <v>1.28</v>
+      </c>
+      <c r="AP146">
+        <v>1.4</v>
+      </c>
+      <c r="AQ146">
+        <v>1.5</v>
+      </c>
+      <c r="AR146">
+        <v>1.33</v>
+      </c>
+      <c r="AS146">
+        <v>1.33</v>
+      </c>
+      <c r="AT146">
+        <v>1.5</v>
+      </c>
+      <c r="AU146">
+        <v>1.78</v>
+      </c>
+      <c r="AV146">
+        <v>1.39</v>
+      </c>
+      <c r="AW146">
+        <v>3.17</v>
+      </c>
+      <c r="AX146">
+        <v>2.2</v>
+      </c>
+      <c r="AY146">
+        <v>8</v>
+      </c>
+      <c r="AZ146">
+        <v>1.83</v>
+      </c>
+      <c r="BA146">
+        <v>1.2</v>
+      </c>
+      <c r="BB146">
+        <v>1.41</v>
+      </c>
+      <c r="BC146">
+        <v>1.75</v>
+      </c>
+      <c r="BD146">
+        <v>2.19</v>
+      </c>
+      <c r="BE146">
+        <v>2.93</v>
+      </c>
+      <c r="BF146">
+        <v>7</v>
+      </c>
+      <c r="BG146">
+        <v>5</v>
+      </c>
+      <c r="BH146">
+        <v>7</v>
+      </c>
+      <c r="BI146">
+        <v>7</v>
+      </c>
+      <c r="BJ146">
+        <v>14</v>
+      </c>
+      <c r="BK146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>2595277</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44968.45833333334</v>
+      </c>
+      <c r="F147">
+        <v>19</v>
+      </c>
+      <c r="G147" t="s">
+        <v>67</v>
+      </c>
+      <c r="H147" t="s">
+        <v>71</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>3</v>
+      </c>
+      <c r="O147" t="s">
+        <v>122</v>
+      </c>
+      <c r="P147" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q147">
+        <v>7</v>
+      </c>
+      <c r="R147">
+        <v>7</v>
+      </c>
+      <c r="S147">
+        <v>14</v>
+      </c>
+      <c r="T147">
+        <v>2.35</v>
+      </c>
+      <c r="U147">
+        <v>2.15</v>
+      </c>
+      <c r="V147">
+        <v>4.33</v>
+      </c>
+      <c r="W147">
+        <v>1.36</v>
+      </c>
+      <c r="X147">
+        <v>2.85</v>
+      </c>
+      <c r="Y147">
+        <v>2.6</v>
+      </c>
+      <c r="Z147">
+        <v>1.42</v>
+      </c>
+      <c r="AA147">
+        <v>6.5</v>
+      </c>
+      <c r="AB147">
+        <v>1.09</v>
+      </c>
+      <c r="AC147">
+        <v>1.87</v>
+      </c>
+      <c r="AD147">
+        <v>3.3</v>
+      </c>
+      <c r="AE147">
+        <v>4.1</v>
+      </c>
+      <c r="AF147">
+        <v>1.05</v>
+      </c>
+      <c r="AG147">
+        <v>9</v>
+      </c>
+      <c r="AH147">
+        <v>1.25</v>
+      </c>
+      <c r="AI147">
+        <v>3.75</v>
+      </c>
+      <c r="AJ147">
+        <v>1.87</v>
+      </c>
+      <c r="AK147">
+        <v>1.92</v>
+      </c>
+      <c r="AL147">
+        <v>1.73</v>
+      </c>
+      <c r="AM147">
+        <v>1.98</v>
+      </c>
+      <c r="AN147">
+        <v>1.22</v>
+      </c>
+      <c r="AO147">
+        <v>1.27</v>
+      </c>
+      <c r="AP147">
+        <v>1.95</v>
+      </c>
+      <c r="AQ147">
+        <v>1.67</v>
+      </c>
+      <c r="AR147">
+        <v>0.63</v>
+      </c>
+      <c r="AS147">
+        <v>1.5</v>
+      </c>
+      <c r="AT147">
+        <v>0.89</v>
+      </c>
+      <c r="AU147">
+        <v>1.85</v>
+      </c>
+      <c r="AV147">
+        <v>1.53</v>
+      </c>
+      <c r="AW147">
+        <v>3.38</v>
+      </c>
+      <c r="AX147">
+        <v>1.64</v>
+      </c>
+      <c r="AY147">
+        <v>8.5</v>
+      </c>
+      <c r="AZ147">
+        <v>2.66</v>
+      </c>
+      <c r="BA147">
+        <v>1.18</v>
+      </c>
+      <c r="BB147">
+        <v>1.32</v>
+      </c>
+      <c r="BC147">
+        <v>1.6</v>
+      </c>
+      <c r="BD147">
+        <v>2.01</v>
+      </c>
+      <c r="BE147">
+        <v>2.62</v>
+      </c>
+      <c r="BF147">
+        <v>7</v>
+      </c>
+      <c r="BG147">
+        <v>4</v>
+      </c>
+      <c r="BH147">
+        <v>11</v>
+      </c>
+      <c r="BI147">
+        <v>4</v>
+      </c>
+      <c r="BJ147">
+        <v>18</v>
+      </c>
+      <c r="BK147">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>2595278</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44968.45833333334</v>
+      </c>
+      <c r="F148">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s">
+        <v>65</v>
+      </c>
+      <c r="H148" t="s">
+        <v>68</v>
+      </c>
+      <c r="I148">
+        <v>2</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>2</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>183</v>
+      </c>
+      <c r="P148" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q148">
+        <v>5</v>
+      </c>
+      <c r="R148">
+        <v>0</v>
+      </c>
+      <c r="S148">
+        <v>5</v>
+      </c>
+      <c r="T148">
+        <v>2.7</v>
+      </c>
+      <c r="U148">
+        <v>2.05</v>
+      </c>
+      <c r="V148">
+        <v>3.8</v>
+      </c>
+      <c r="W148">
+        <v>1.42</v>
+      </c>
+      <c r="X148">
+        <v>2.65</v>
+      </c>
+      <c r="Y148">
+        <v>2.9</v>
+      </c>
+      <c r="Z148">
+        <v>1.35</v>
+      </c>
+      <c r="AA148">
+        <v>7.75</v>
+      </c>
+      <c r="AB148">
+        <v>1.07</v>
+      </c>
+      <c r="AC148">
+        <v>2.1</v>
+      </c>
+      <c r="AD148">
+        <v>3.3</v>
+      </c>
+      <c r="AE148">
+        <v>3.4</v>
+      </c>
+      <c r="AF148">
+        <v>1.06</v>
+      </c>
+      <c r="AG148">
+        <v>8</v>
+      </c>
+      <c r="AH148">
+        <v>1.33</v>
+      </c>
+      <c r="AI148">
+        <v>3.2</v>
+      </c>
+      <c r="AJ148">
+        <v>1.92</v>
+      </c>
+      <c r="AK148">
+        <v>1.87</v>
+      </c>
+      <c r="AL148">
+        <v>1.82</v>
+      </c>
+      <c r="AM148">
+        <v>1.87</v>
+      </c>
+      <c r="AN148">
+        <v>1.3</v>
+      </c>
+      <c r="AO148">
+        <v>1.3</v>
+      </c>
+      <c r="AP148">
+        <v>1.7</v>
+      </c>
+      <c r="AQ148">
+        <v>1</v>
+      </c>
+      <c r="AR148">
+        <v>0.5</v>
+      </c>
+      <c r="AS148">
+        <v>1.2</v>
+      </c>
+      <c r="AT148">
+        <v>0.44</v>
+      </c>
+      <c r="AU148">
+        <v>1.63</v>
+      </c>
+      <c r="AV148">
+        <v>1.29</v>
+      </c>
+      <c r="AW148">
+        <v>2.92</v>
+      </c>
+      <c r="AX148">
+        <v>1.82</v>
+      </c>
+      <c r="AY148">
+        <v>8</v>
+      </c>
+      <c r="AZ148">
+        <v>2.33</v>
+      </c>
+      <c r="BA148">
+        <v>1.2</v>
+      </c>
+      <c r="BB148">
+        <v>1.35</v>
+      </c>
+      <c r="BC148">
+        <v>1.66</v>
+      </c>
+      <c r="BD148">
+        <v>2.11</v>
+      </c>
+      <c r="BE148">
+        <v>2.8</v>
+      </c>
+      <c r="BF148">
+        <v>5</v>
+      </c>
+      <c r="BG148">
+        <v>5</v>
+      </c>
+      <c r="BH148">
+        <v>7</v>
+      </c>
+      <c r="BI148">
+        <v>5</v>
+      </c>
+      <c r="BJ148">
+        <v>12</v>
+      </c>
+      <c r="BK148">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>2595281</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44968.58333333334</v>
+      </c>
+      <c r="F149">
+        <v>19</v>
+      </c>
+      <c r="G149" t="s">
+        <v>80</v>
+      </c>
+      <c r="H149" t="s">
+        <v>66</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>184</v>
+      </c>
+      <c r="P149" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q149">
+        <v>14</v>
+      </c>
+      <c r="R149">
+        <v>2</v>
+      </c>
+      <c r="S149">
+        <v>16</v>
+      </c>
+      <c r="T149">
+        <v>1.44</v>
+      </c>
+      <c r="U149">
+        <v>2.9</v>
+      </c>
+      <c r="V149">
+        <v>10</v>
+      </c>
+      <c r="W149">
+        <v>1.25</v>
+      </c>
+      <c r="X149">
+        <v>3.75</v>
+      </c>
+      <c r="Y149">
+        <v>2</v>
+      </c>
+      <c r="Z149">
+        <v>1.73</v>
+      </c>
+      <c r="AA149">
+        <v>4.33</v>
+      </c>
+      <c r="AB149">
+        <v>1.2</v>
+      </c>
+      <c r="AC149">
+        <v>1.17</v>
+      </c>
+      <c r="AD149">
+        <v>6</v>
+      </c>
+      <c r="AE149">
+        <v>17</v>
+      </c>
+      <c r="AF149">
+        <v>1.02</v>
+      </c>
+      <c r="AG149">
+        <v>15</v>
+      </c>
+      <c r="AH149">
+        <v>1.12</v>
+      </c>
+      <c r="AI149">
+        <v>5.5</v>
+      </c>
+      <c r="AJ149">
+        <v>1.44</v>
+      </c>
+      <c r="AK149">
+        <v>2.46</v>
+      </c>
+      <c r="AL149">
+        <v>2.1</v>
+      </c>
+      <c r="AM149">
+        <v>1.67</v>
+      </c>
+      <c r="AN149">
+        <v>1.02</v>
+      </c>
+      <c r="AO149">
+        <v>1.07</v>
+      </c>
+      <c r="AP149">
+        <v>5.5</v>
+      </c>
+      <c r="AQ149">
+        <v>3</v>
+      </c>
+      <c r="AR149">
+        <v>1.44</v>
+      </c>
+      <c r="AS149">
+        <v>3</v>
+      </c>
+      <c r="AT149">
+        <v>1.3</v>
+      </c>
+      <c r="AU149">
+        <v>2.31</v>
+      </c>
+      <c r="AV149">
+        <v>1.49</v>
+      </c>
+      <c r="AW149">
+        <v>3.8</v>
+      </c>
+      <c r="AX149">
+        <v>1.06</v>
+      </c>
+      <c r="AY149">
+        <v>15</v>
+      </c>
+      <c r="AZ149">
+        <v>11</v>
+      </c>
+      <c r="BA149">
+        <v>1.13</v>
+      </c>
+      <c r="BB149">
+        <v>1.22</v>
+      </c>
+      <c r="BC149">
+        <v>1.43</v>
+      </c>
+      <c r="BD149">
+        <v>1.75</v>
+      </c>
+      <c r="BE149">
+        <v>2.19</v>
+      </c>
+      <c r="BF149">
+        <v>12</v>
+      </c>
+      <c r="BG149">
+        <v>6</v>
+      </c>
+      <c r="BH149">
+        <v>7</v>
+      </c>
+      <c r="BI149">
+        <v>3</v>
+      </c>
+      <c r="BJ149">
+        <v>19</v>
+      </c>
+      <c r="BK149">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>2595283</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44969.45833333334</v>
+      </c>
+      <c r="F150">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s">
+        <v>73</v>
+      </c>
+      <c r="H150" t="s">
+        <v>77</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>3</v>
+      </c>
+      <c r="O150" t="s">
+        <v>185</v>
+      </c>
+      <c r="P150" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q150">
+        <v>1</v>
+      </c>
+      <c r="R150">
+        <v>3</v>
+      </c>
+      <c r="S150">
+        <v>4</v>
+      </c>
+      <c r="T150">
+        <v>1.57</v>
+      </c>
+      <c r="U150">
+        <v>2.75</v>
+      </c>
+      <c r="V150">
+        <v>11</v>
+      </c>
+      <c r="W150">
+        <v>1.25</v>
+      </c>
+      <c r="X150">
+        <v>3.75</v>
+      </c>
+      <c r="Y150">
+        <v>2.2</v>
+      </c>
+      <c r="Z150">
+        <v>1.62</v>
+      </c>
+      <c r="AA150">
+        <v>5</v>
+      </c>
+      <c r="AB150">
+        <v>1.17</v>
+      </c>
+      <c r="AC150">
+        <v>1.15</v>
+      </c>
+      <c r="AD150">
+        <v>6.8</v>
+      </c>
+      <c r="AE150">
+        <v>14.63</v>
+      </c>
+      <c r="AF150">
+        <v>1.02</v>
+      </c>
+      <c r="AG150">
+        <v>13</v>
+      </c>
+      <c r="AH150">
+        <v>1.15</v>
+      </c>
+      <c r="AI150">
+        <v>4.75</v>
+      </c>
+      <c r="AJ150">
+        <v>1.47</v>
+      </c>
+      <c r="AK150">
+        <v>2.5</v>
+      </c>
+      <c r="AL150">
+        <v>2.25</v>
+      </c>
+      <c r="AM150">
+        <v>1.57</v>
+      </c>
+      <c r="AN150">
+        <v>1.03</v>
+      </c>
+      <c r="AO150">
+        <v>1.1</v>
+      </c>
+      <c r="AP150">
+        <v>4.6</v>
+      </c>
+      <c r="AQ150">
+        <v>2.25</v>
+      </c>
+      <c r="AR150">
+        <v>1.44</v>
+      </c>
+      <c r="AS150">
+        <v>2.33</v>
+      </c>
+      <c r="AT150">
+        <v>1.3</v>
+      </c>
+      <c r="AU150">
+        <v>1.87</v>
+      </c>
+      <c r="AV150">
+        <v>1.1</v>
+      </c>
+      <c r="AW150">
+        <v>2.97</v>
+      </c>
+      <c r="AX150">
+        <v>1.11</v>
+      </c>
+      <c r="AY150">
+        <v>16</v>
+      </c>
+      <c r="AZ150">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>1.21</v>
+      </c>
+      <c r="BC150">
+        <v>1.39</v>
+      </c>
+      <c r="BD150">
+        <v>1.67</v>
+      </c>
+      <c r="BE150">
+        <v>2.04</v>
+      </c>
+      <c r="BF150">
+        <v>10</v>
+      </c>
+      <c r="BG150">
+        <v>14</v>
+      </c>
+      <c r="BH150">
+        <v>8</v>
+      </c>
+      <c r="BI150">
+        <v>3</v>
+      </c>
+      <c r="BJ150">
+        <v>18</v>
+      </c>
+      <c r="BK150">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>2595280</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44969.45833333334</v>
+      </c>
+      <c r="F151">
+        <v>19</v>
+      </c>
+      <c r="G151" t="s">
+        <v>75</v>
+      </c>
+      <c r="H151" t="s">
+        <v>70</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151" t="s">
+        <v>186</v>
+      </c>
+      <c r="P151" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q151">
+        <v>7</v>
+      </c>
+      <c r="R151">
+        <v>3</v>
+      </c>
+      <c r="S151">
+        <v>10</v>
+      </c>
+      <c r="T151">
+        <v>2.4</v>
+      </c>
+      <c r="U151">
+        <v>2.2</v>
+      </c>
+      <c r="V151">
+        <v>5</v>
+      </c>
+      <c r="W151">
+        <v>1.4</v>
+      </c>
+      <c r="X151">
+        <v>2.75</v>
+      </c>
+      <c r="Y151">
+        <v>3</v>
+      </c>
+      <c r="Z151">
+        <v>1.36</v>
+      </c>
+      <c r="AA151">
+        <v>8</v>
+      </c>
+      <c r="AB151">
+        <v>1.08</v>
+      </c>
+      <c r="AC151">
+        <v>1.77</v>
+      </c>
+      <c r="AD151">
+        <v>3.5</v>
+      </c>
+      <c r="AE151">
+        <v>4.27</v>
+      </c>
+      <c r="AF151">
+        <v>1.06</v>
+      </c>
+      <c r="AG151">
+        <v>8</v>
+      </c>
+      <c r="AH151">
+        <v>1.3</v>
+      </c>
+      <c r="AI151">
+        <v>3.3</v>
+      </c>
+      <c r="AJ151">
+        <v>1.89</v>
+      </c>
+      <c r="AK151">
+        <v>1.81</v>
+      </c>
+      <c r="AL151">
+        <v>1.91</v>
+      </c>
+      <c r="AM151">
+        <v>1.91</v>
+      </c>
+      <c r="AN151">
+        <v>1.22</v>
+      </c>
+      <c r="AO151">
+        <v>1.28</v>
+      </c>
+      <c r="AP151">
+        <v>1.93</v>
+      </c>
+      <c r="AQ151">
+        <v>1.38</v>
+      </c>
+      <c r="AR151">
+        <v>1.5</v>
+      </c>
+      <c r="AS151">
+        <v>1.33</v>
+      </c>
+      <c r="AT151">
+        <v>1.44</v>
+      </c>
+      <c r="AU151">
+        <v>1.61</v>
+      </c>
+      <c r="AV151">
+        <v>1.53</v>
+      </c>
+      <c r="AW151">
+        <v>3.14</v>
+      </c>
+      <c r="AX151">
+        <v>1.48</v>
+      </c>
+      <c r="AY151">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ151">
+        <v>3.36</v>
+      </c>
+      <c r="BA151">
+        <v>1.17</v>
+      </c>
+      <c r="BB151">
+        <v>1.29</v>
+      </c>
+      <c r="BC151">
+        <v>1.56</v>
+      </c>
+      <c r="BD151">
+        <v>1.95</v>
+      </c>
+      <c r="BE151">
+        <v>2.52</v>
+      </c>
+      <c r="BF151">
+        <v>7</v>
+      </c>
+      <c r="BG151">
+        <v>2</v>
+      </c>
+      <c r="BH151">
+        <v>5</v>
+      </c>
+      <c r="BI151">
+        <v>3</v>
+      </c>
+      <c r="BJ151">
+        <v>12</v>
+      </c>
+      <c r="BK151">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>2595282</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44969.45833333334</v>
+      </c>
+      <c r="F152">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s">
+        <v>78</v>
+      </c>
+      <c r="H152" t="s">
+        <v>69</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>81</v>
+      </c>
+      <c r="P152" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q152">
+        <v>14</v>
+      </c>
+      <c r="R152">
+        <v>2</v>
+      </c>
+      <c r="S152">
+        <v>16</v>
+      </c>
+      <c r="T152">
+        <v>2</v>
+      </c>
+      <c r="U152">
+        <v>2.5</v>
+      </c>
+      <c r="V152">
+        <v>5.5</v>
+      </c>
+      <c r="W152">
+        <v>1.29</v>
+      </c>
+      <c r="X152">
+        <v>3.5</v>
+      </c>
+      <c r="Y152">
+        <v>2.38</v>
+      </c>
+      <c r="Z152">
+        <v>1.53</v>
+      </c>
+      <c r="AA152">
+        <v>5.5</v>
+      </c>
+      <c r="AB152">
+        <v>1.14</v>
+      </c>
+      <c r="AC152">
+        <v>1.45</v>
+      </c>
+      <c r="AD152">
+        <v>4.35</v>
+      </c>
+      <c r="AE152">
+        <v>6.04</v>
+      </c>
+      <c r="AF152">
+        <v>1.03</v>
+      </c>
+      <c r="AG152">
+        <v>11</v>
+      </c>
+      <c r="AH152">
+        <v>1.2</v>
+      </c>
+      <c r="AI152">
+        <v>4.33</v>
+      </c>
+      <c r="AJ152">
+        <v>1.58</v>
+      </c>
+      <c r="AK152">
+        <v>2.23</v>
+      </c>
+      <c r="AL152">
+        <v>1.7</v>
+      </c>
+      <c r="AM152">
+        <v>2.05</v>
+      </c>
+      <c r="AN152">
+        <v>1.08</v>
+      </c>
+      <c r="AO152">
+        <v>1.2</v>
+      </c>
+      <c r="AP152">
+        <v>2.7</v>
+      </c>
+      <c r="AQ152">
+        <v>1.25</v>
+      </c>
+      <c r="AR152">
+        <v>0.44</v>
+      </c>
+      <c r="AS152">
+        <v>1.11</v>
+      </c>
+      <c r="AT152">
+        <v>0.7</v>
+      </c>
+      <c r="AU152">
+        <v>1.59</v>
+      </c>
+      <c r="AV152">
+        <v>1.3</v>
+      </c>
+      <c r="AW152">
+        <v>2.89</v>
+      </c>
+      <c r="AX152">
+        <v>1.27</v>
+      </c>
+      <c r="AY152">
+        <v>11</v>
+      </c>
+      <c r="AZ152">
+        <v>4.78</v>
+      </c>
+      <c r="BA152">
+        <v>1.13</v>
+      </c>
+      <c r="BB152">
+        <v>1.25</v>
+      </c>
+      <c r="BC152">
+        <v>1.46</v>
+      </c>
+      <c r="BD152">
+        <v>1.8</v>
+      </c>
+      <c r="BE152">
+        <v>2.23</v>
+      </c>
+      <c r="BF152">
+        <v>12</v>
+      </c>
+      <c r="BG152">
+        <v>8</v>
+      </c>
+      <c r="BH152">
+        <v>12</v>
+      </c>
+      <c r="BI152">
+        <v>5</v>
+      </c>
+      <c r="BJ152">
+        <v>24</v>
+      </c>
+      <c r="BK152">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,9 @@
     <t>['25', '82']</t>
   </si>
   <si>
+    <t>['48', '70']</t>
+  </si>
+  <si>
     <t>['30', '71']</t>
   </si>
   <si>
@@ -851,6 +854,9 @@
   </si>
   <si>
     <t>['23']</t>
+  </si>
+  <si>
+    <t>['15', '56', '60', '67', '81', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1647,7 +1653,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1838,7 +1844,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2029,7 +2035,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2220,7 +2226,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>12</v>
@@ -2602,7 +2608,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2793,7 +2799,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3175,7 +3181,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3366,7 +3372,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3557,7 +3563,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3644,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT13">
         <v>1</v>
@@ -3748,7 +3754,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3838,7 +3844,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AT14">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3939,7 +3945,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -4321,7 +4327,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4512,7 +4518,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4703,7 +4709,7 @@
         <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4894,7 +4900,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5085,7 +5091,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5276,7 +5282,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5467,7 +5473,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -6040,7 +6046,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6231,7 +6237,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6321,7 +6327,7 @@
         <v>1.11</v>
       </c>
       <c r="AT27">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU27">
         <v>1.89</v>
@@ -6422,7 +6428,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6613,7 +6619,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6804,7 +6810,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7186,7 +7192,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7273,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT32">
         <v>1.44</v>
@@ -7377,7 +7383,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7568,7 +7574,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7759,7 +7765,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8141,7 +8147,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8332,7 +8338,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8714,7 +8720,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8905,7 +8911,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -8992,7 +8998,7 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT41">
         <v>1.3</v>
@@ -9287,7 +9293,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9377,7 +9383,7 @@
         <v>1.2</v>
       </c>
       <c r="AT43">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU43">
         <v>1.48</v>
@@ -9860,7 +9866,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10051,7 +10057,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10433,7 +10439,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10624,7 +10630,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>11</v>
@@ -10815,7 +10821,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11388,7 +11394,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11579,7 +11585,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11770,7 +11776,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -11961,7 +11967,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12152,7 +12158,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12343,7 +12349,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12433,7 +12439,7 @@
         <v>1.5</v>
       </c>
       <c r="AT59">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU59">
         <v>1.29</v>
@@ -12534,7 +12540,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -12621,7 +12627,7 @@
         <v>1.75</v>
       </c>
       <c r="AS60">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT60">
         <v>1.3</v>
@@ -13298,7 +13304,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>11</v>
@@ -13489,7 +13495,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13680,7 +13686,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13871,7 +13877,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14062,7 +14068,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14635,7 +14641,7 @@
         <v>81</v>
       </c>
       <c r="P71" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -15017,7 +15023,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15104,7 +15110,7 @@
         <v>2.6</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT73">
         <v>2.4</v>
@@ -15208,7 +15214,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15399,7 +15405,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q75">
         <v>15</v>
@@ -15590,7 +15596,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -16163,7 +16169,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -16545,7 +16551,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16927,7 +16933,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17017,7 +17023,7 @@
         <v>0.89</v>
       </c>
       <c r="AT83">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU83">
         <v>1.54</v>
@@ -17309,7 +17315,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17500,7 +17506,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -18073,7 +18079,7 @@
         <v>81</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18264,7 +18270,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q90">
         <v>14</v>
@@ -18455,7 +18461,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18542,7 +18548,7 @@
         <v>1.67</v>
       </c>
       <c r="AS91">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT91">
         <v>1.5</v>
@@ -18646,7 +18652,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q92">
         <v>10</v>
@@ -19028,7 +19034,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19219,7 +19225,7 @@
         <v>81</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19410,7 +19416,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19983,7 +19989,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20174,7 +20180,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20365,7 +20371,7 @@
         <v>81</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20556,7 +20562,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20747,7 +20753,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q103">
         <v>13</v>
@@ -21028,7 +21034,7 @@
         <v>3</v>
       </c>
       <c r="AT104">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU104">
         <v>2.29</v>
@@ -21129,7 +21135,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21511,7 +21517,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21702,7 +21708,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21893,7 +21899,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21980,7 +21986,7 @@
         <v>1.17</v>
       </c>
       <c r="AS109">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT109">
         <v>1.78</v>
@@ -22275,7 +22281,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22466,7 +22472,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>14</v>
@@ -22553,7 +22559,7 @@
         <v>0.57</v>
       </c>
       <c r="AS112">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT112">
         <v>0.5600000000000001</v>
@@ -22657,7 +22663,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -23129,7 +23135,7 @@
         <v>2.33</v>
       </c>
       <c r="AT115">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU115">
         <v>1.76</v>
@@ -24376,7 +24382,7 @@
         <v>169</v>
       </c>
       <c r="P122" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24567,7 +24573,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24758,7 +24764,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25140,7 +25146,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -25331,7 +25337,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25522,7 +25528,7 @@
         <v>174</v>
       </c>
       <c r="P128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25713,7 +25719,7 @@
         <v>81</v>
       </c>
       <c r="P129" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -26182,7 +26188,7 @@
         <v>0.57</v>
       </c>
       <c r="AS131">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AT131">
         <v>0.44</v>
@@ -26286,7 +26292,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26477,7 +26483,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q133">
         <v>8</v>
@@ -26567,7 +26573,7 @@
         <v>1.33</v>
       </c>
       <c r="AT133">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="AU133">
         <v>1.68</v>
@@ -26668,7 +26674,7 @@
         <v>102</v>
       </c>
       <c r="P134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>12</v>
@@ -27050,7 +27056,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27241,7 +27247,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -27432,7 +27438,7 @@
         <v>180</v>
       </c>
       <c r="P138" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27623,7 +27629,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -28005,7 +28011,7 @@
         <v>81</v>
       </c>
       <c r="P141" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28196,7 +28202,7 @@
         <v>81</v>
       </c>
       <c r="P142" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28387,7 +28393,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28578,7 +28584,7 @@
         <v>81</v>
       </c>
       <c r="P144" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28769,7 +28775,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -29151,7 +29157,7 @@
         <v>122</v>
       </c>
       <c r="P147" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29850,22 +29856,22 @@
         <v>2.04</v>
       </c>
       <c r="BF150">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BG150">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BH150">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BI150">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BJ150">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BK150">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="151" spans="1:63">
@@ -29915,7 +29921,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q151">
         <v>7</v>
@@ -30041,19 +30047,19 @@
         <v>2.52</v>
       </c>
       <c r="BF151">
+        <v>8</v>
+      </c>
+      <c r="BG151">
+        <v>3</v>
+      </c>
+      <c r="BH151">
         <v>7</v>
       </c>
-      <c r="BG151">
-        <v>2</v>
-      </c>
-      <c r="BH151">
-        <v>5</v>
-      </c>
       <c r="BI151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BJ151">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BK151">
         <v>5</v>
@@ -30106,7 +30112,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q152">
         <v>14</v>
@@ -30232,22 +30238,213 @@
         <v>2.23</v>
       </c>
       <c r="BF152">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BG152">
         <v>8</v>
       </c>
       <c r="BH152">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BI152">
+        <v>7</v>
+      </c>
+      <c r="BJ152">
+        <v>13</v>
+      </c>
+      <c r="BK152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>2595279</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44969.58333333334</v>
+      </c>
+      <c r="F153">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s">
+        <v>76</v>
+      </c>
+      <c r="H153" t="s">
+        <v>72</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>6</v>
+      </c>
+      <c r="N153">
+        <v>8</v>
+      </c>
+      <c r="O153" t="s">
+        <v>187</v>
+      </c>
+      <c r="P153" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q153">
+        <v>2</v>
+      </c>
+      <c r="R153">
         <v>5</v>
       </c>
-      <c r="BJ152">
-        <v>24</v>
-      </c>
-      <c r="BK152">
-        <v>13</v>
+      <c r="S153">
+        <v>7</v>
+      </c>
+      <c r="T153">
+        <v>4</v>
+      </c>
+      <c r="U153">
+        <v>2.2</v>
+      </c>
+      <c r="V153">
+        <v>2.75</v>
+      </c>
+      <c r="W153">
+        <v>1.36</v>
+      </c>
+      <c r="X153">
+        <v>3</v>
+      </c>
+      <c r="Y153">
+        <v>2.75</v>
+      </c>
+      <c r="Z153">
+        <v>1.4</v>
+      </c>
+      <c r="AA153">
+        <v>7</v>
+      </c>
+      <c r="AB153">
+        <v>1.1</v>
+      </c>
+      <c r="AC153">
+        <v>3.68</v>
+      </c>
+      <c r="AD153">
+        <v>3.7</v>
+      </c>
+      <c r="AE153">
+        <v>1.95</v>
+      </c>
+      <c r="AF153">
+        <v>1.02</v>
+      </c>
+      <c r="AG153">
+        <v>9.5</v>
+      </c>
+      <c r="AH153">
+        <v>1.2</v>
+      </c>
+      <c r="AI153">
+        <v>3.9</v>
+      </c>
+      <c r="AJ153">
+        <v>1.77</v>
+      </c>
+      <c r="AK153">
+        <v>2.05</v>
+      </c>
+      <c r="AL153">
+        <v>1.7</v>
+      </c>
+      <c r="AM153">
+        <v>2.05</v>
+      </c>
+      <c r="AN153">
+        <v>1.79</v>
+      </c>
+      <c r="AO153">
+        <v>1.25</v>
+      </c>
+      <c r="AP153">
+        <v>1.26</v>
+      </c>
+      <c r="AQ153">
+        <v>1</v>
+      </c>
+      <c r="AR153">
+        <v>1.88</v>
+      </c>
+      <c r="AS153">
+        <v>0.9</v>
+      </c>
+      <c r="AT153">
+        <v>2</v>
+      </c>
+      <c r="AU153">
+        <v>1.9</v>
+      </c>
+      <c r="AV153">
+        <v>1.42</v>
+      </c>
+      <c r="AW153">
+        <v>3.32</v>
+      </c>
+      <c r="AX153">
+        <v>2.26</v>
+      </c>
+      <c r="AY153">
+        <v>8</v>
+      </c>
+      <c r="AZ153">
+        <v>1.9</v>
+      </c>
+      <c r="BA153">
+        <v>1.18</v>
+      </c>
+      <c r="BB153">
+        <v>1.3</v>
+      </c>
+      <c r="BC153">
+        <v>1.58</v>
+      </c>
+      <c r="BD153">
+        <v>1.97</v>
+      </c>
+      <c r="BE153">
+        <v>2.58</v>
+      </c>
+      <c r="BF153">
+        <v>7</v>
+      </c>
+      <c r="BG153">
+        <v>11</v>
+      </c>
+      <c r="BH153">
+        <v>3</v>
+      </c>
+      <c r="BI153">
+        <v>11</v>
+      </c>
+      <c r="BJ153">
+        <v>10</v>
+      </c>
+      <c r="BK153">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,27 @@
     <t>['48', '70']</t>
   </si>
   <si>
+    <t>['9', '65']</t>
+  </si>
+  <si>
+    <t>['2', '78']</t>
+  </si>
+  <si>
+    <t>['3']</t>
+  </si>
+  <si>
+    <t>['6', '69']</t>
+  </si>
+  <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['26', '63']</t>
+  </si>
+  <si>
+    <t>['31', '55', '71']</t>
+  </si>
+  <si>
     <t>['30', '71']</t>
   </si>
   <si>
@@ -757,9 +778,6 @@
     <t>['29']</t>
   </si>
   <si>
-    <t>['3']</t>
-  </si>
-  <si>
     <t>['14', '66']</t>
   </si>
   <si>
@@ -857,6 +875,9 @@
   </si>
   <si>
     <t>['15', '56', '60', '67', '81', '90+3']</t>
+  </si>
+  <si>
+    <t>['20', '55']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK153"/>
+  <dimension ref="A1:BK161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1552,7 +1573,7 @@
         <v>1.2</v>
       </c>
       <c r="AT2">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1653,7 +1674,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1740,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT3">
         <v>1.5</v>
@@ -1844,7 +1865,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1934,7 +1955,7 @@
         <v>1.5</v>
       </c>
       <c r="AT4">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2035,7 +2056,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2122,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT5">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2226,7 +2247,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q6">
         <v>12</v>
@@ -2313,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT6">
         <v>1.3</v>
@@ -2504,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT7">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2608,7 +2629,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2698,7 +2719,7 @@
         <v>1.2</v>
       </c>
       <c r="AT8">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2799,7 +2820,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2886,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT9">
         <v>1.3</v>
@@ -3181,7 +3202,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3268,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT11">
         <v>0.44</v>
@@ -3372,7 +3393,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3563,7 +3584,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3653,7 +3674,7 @@
         <v>0.9</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3754,7 +3775,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3841,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT14">
         <v>2</v>
@@ -3945,7 +3966,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -4035,7 +4056,7 @@
         <v>1.11</v>
       </c>
       <c r="AT15">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4223,7 +4244,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT16">
         <v>1.44</v>
@@ -4327,7 +4348,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4417,7 +4438,7 @@
         <v>3</v>
       </c>
       <c r="AT17">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4518,7 +4539,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4608,7 +4629,7 @@
         <v>1.5</v>
       </c>
       <c r="AT18">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU18">
         <v>2.04</v>
@@ -4709,7 +4730,7 @@
         <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4796,10 +4817,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT19">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU19">
         <v>1.2</v>
@@ -4900,7 +4921,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -4987,10 +5008,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT20">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU20">
         <v>1.13</v>
@@ -5091,7 +5112,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5178,10 +5199,10 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT21">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU21">
         <v>0.68</v>
@@ -5282,7 +5303,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5369,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT22">
         <v>1.5</v>
@@ -5473,7 +5494,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5563,7 +5584,7 @@
         <v>1.2</v>
       </c>
       <c r="AT23">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU23">
         <v>2.02</v>
@@ -5751,7 +5772,7 @@
         <v>3</v>
       </c>
       <c r="AS24">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT24">
         <v>1.3</v>
@@ -5942,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT25">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU25">
         <v>2.13</v>
@@ -6046,7 +6067,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6237,7 +6258,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6428,7 +6449,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6515,7 +6536,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT28">
         <v>1.3</v>
@@ -6619,7 +6640,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6810,7 +6831,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6900,7 +6921,7 @@
         <v>1.2</v>
       </c>
       <c r="AT30">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU30">
         <v>1.34</v>
@@ -7192,7 +7213,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7383,7 +7404,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7470,10 +7491,10 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT33">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU33">
         <v>1.23</v>
@@ -7574,7 +7595,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7661,10 +7682,10 @@
         <v>0.5</v>
       </c>
       <c r="AS34">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT34">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU34">
         <v>1.94</v>
@@ -7765,7 +7786,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7855,7 +7876,7 @@
         <v>1.2</v>
       </c>
       <c r="AT35">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU35">
         <v>1.67</v>
@@ -8043,10 +8064,10 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT36">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU36">
         <v>1.17</v>
@@ -8147,7 +8168,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8234,10 +8255,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT37">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU37">
         <v>1.94</v>
@@ -8338,7 +8359,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8425,7 +8446,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT38">
         <v>1.3</v>
@@ -8616,10 +8637,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT39">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU39">
         <v>1.07</v>
@@ -8720,7 +8741,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8807,10 +8828,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT40">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU40">
         <v>1.51</v>
@@ -8911,7 +8932,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9293,7 +9314,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9866,7 +9887,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10057,7 +10078,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10439,7 +10460,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10526,10 +10547,10 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT49">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU49">
         <v>1.15</v>
@@ -10630,7 +10651,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q50">
         <v>11</v>
@@ -10717,10 +10738,10 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT50">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU50">
         <v>2.23</v>
@@ -10821,7 +10842,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10908,10 +10929,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT51">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU51">
         <v>1.11</v>
@@ -11099,10 +11120,10 @@
         <v>0.33</v>
       </c>
       <c r="AS52">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT52">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU52">
         <v>1.92</v>
@@ -11290,10 +11311,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT53">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU53">
         <v>1.2</v>
@@ -11394,7 +11415,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11481,10 +11502,10 @@
         <v>1</v>
       </c>
       <c r="AS54">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT54">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU54">
         <v>1.62</v>
@@ -11585,7 +11606,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11672,10 +11693,10 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT55">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU55">
         <v>1.36</v>
@@ -11776,7 +11797,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -11863,10 +11884,10 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT56">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU56">
         <v>2.12</v>
@@ -11967,7 +11988,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12057,7 +12078,7 @@
         <v>1.33</v>
       </c>
       <c r="AT57">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU57">
         <v>1.57</v>
@@ -12158,7 +12179,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12349,7 +12370,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12436,7 +12457,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT59">
         <v>2</v>
@@ -12540,7 +12561,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -13304,7 +13325,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>11</v>
@@ -13495,7 +13516,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13582,7 +13603,7 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT65">
         <v>0.44</v>
@@ -13686,7 +13707,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13773,10 +13794,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT66">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU66">
         <v>0.97</v>
@@ -13877,7 +13898,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -13964,10 +13985,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT67">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU67">
         <v>2.14</v>
@@ -14068,7 +14089,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14155,10 +14176,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT68">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU68">
         <v>2.01</v>
@@ -14346,10 +14367,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT69">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU69">
         <v>1.24</v>
@@ -14537,10 +14558,10 @@
         <v>2.5</v>
       </c>
       <c r="AS70">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT70">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU70">
         <v>1.45</v>
@@ -14641,7 +14662,7 @@
         <v>81</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14728,10 +14749,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT71">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -14922,7 +14943,7 @@
         <v>2.33</v>
       </c>
       <c r="AT72">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU72">
         <v>1.59</v>
@@ -15023,7 +15044,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15113,7 +15134,7 @@
         <v>0.9</v>
       </c>
       <c r="AT73">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU73">
         <v>1.96</v>
@@ -15214,7 +15235,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15304,7 +15325,7 @@
         <v>1.11</v>
       </c>
       <c r="AT74">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU74">
         <v>1.6</v>
@@ -15405,7 +15426,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q75">
         <v>15</v>
@@ -15596,7 +15617,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15683,7 +15704,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT76">
         <v>1.44</v>
@@ -16065,7 +16086,7 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT78">
         <v>0.7</v>
@@ -16169,7 +16190,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -16551,7 +16572,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16638,7 +16659,7 @@
         <v>1</v>
       </c>
       <c r="AS81">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT81">
         <v>0.44</v>
@@ -16829,10 +16850,10 @@
         <v>1.25</v>
       </c>
       <c r="AS82">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT82">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU82">
         <v>1.41</v>
@@ -16933,7 +16954,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17020,7 +17041,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT83">
         <v>2</v>
@@ -17214,7 +17235,7 @@
         <v>2.33</v>
       </c>
       <c r="AT84">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU84">
         <v>1.55</v>
@@ -17315,7 +17336,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17402,10 +17423,10 @@
         <v>0.6</v>
       </c>
       <c r="AS85">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT85">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU85">
         <v>1.06</v>
@@ -17506,7 +17527,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17593,10 +17614,10 @@
         <v>2.6</v>
       </c>
       <c r="AS86">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT86">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU86">
         <v>1.88</v>
@@ -17784,10 +17805,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT87">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU87">
         <v>1.96</v>
@@ -17978,7 +17999,7 @@
         <v>1.33</v>
       </c>
       <c r="AT88">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU88">
         <v>1.58</v>
@@ -18079,7 +18100,7 @@
         <v>81</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18166,7 +18187,7 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT89">
         <v>1.3</v>
@@ -18270,7 +18291,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>14</v>
@@ -18357,7 +18378,7 @@
         <v>2.25</v>
       </c>
       <c r="AS90">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT90">
         <v>1.3</v>
@@ -18461,7 +18482,7 @@
         <v>143</v>
       </c>
       <c r="P91" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="Q91">
         <v>13</v>
@@ -18551,7 +18572,7 @@
         <v>0.9</v>
       </c>
       <c r="AT91">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU91">
         <v>1.91</v>
@@ -18652,7 +18673,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q92">
         <v>10</v>
@@ -18739,7 +18760,7 @@
         <v>0</v>
       </c>
       <c r="AS92">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT92">
         <v>0.7</v>
@@ -19034,7 +19055,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19225,7 +19246,7 @@
         <v>81</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19315,7 +19336,7 @@
         <v>1.2</v>
       </c>
       <c r="AT95">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU95">
         <v>1.58</v>
@@ -19416,7 +19437,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19506,7 +19527,7 @@
         <v>3</v>
       </c>
       <c r="AT96">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU96">
         <v>2.42</v>
@@ -19697,7 +19718,7 @@
         <v>1.33</v>
       </c>
       <c r="AT97">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU97">
         <v>1.5</v>
@@ -19885,10 +19906,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT98">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU98">
         <v>1.93</v>
@@ -19989,7 +20010,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20076,7 +20097,7 @@
         <v>1.8</v>
       </c>
       <c r="AS99">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT99">
         <v>1.3</v>
@@ -20180,7 +20201,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20270,7 +20291,7 @@
         <v>2.33</v>
       </c>
       <c r="AT100">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU100">
         <v>1.72</v>
@@ -20371,7 +20392,7 @@
         <v>81</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20458,7 +20479,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT101">
         <v>1.44</v>
@@ -20562,7 +20583,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20652,7 +20673,7 @@
         <v>1.11</v>
       </c>
       <c r="AT102">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU102">
         <v>1.54</v>
@@ -20753,7 +20774,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q103">
         <v>13</v>
@@ -20840,7 +20861,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT103">
         <v>0.44</v>
@@ -21135,7 +21156,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21222,7 +21243,7 @@
         <v>0</v>
       </c>
       <c r="AS105">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT105">
         <v>0.7</v>
@@ -21517,7 +21538,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21607,7 +21628,7 @@
         <v>1.5</v>
       </c>
       <c r="AT107">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU107">
         <v>1.83</v>
@@ -21708,7 +21729,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21798,7 +21819,7 @@
         <v>1.2</v>
       </c>
       <c r="AT108">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU108">
         <v>1.72</v>
@@ -21899,7 +21920,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -21989,7 +22010,7 @@
         <v>0.9</v>
       </c>
       <c r="AT109">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU109">
         <v>1.97</v>
@@ -22177,7 +22198,7 @@
         <v>1.43</v>
       </c>
       <c r="AS110">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT110">
         <v>1.3</v>
@@ -22281,7 +22302,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22368,10 +22389,10 @@
         <v>1.57</v>
       </c>
       <c r="AS111">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT111">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU111">
         <v>1.56</v>
@@ -22472,7 +22493,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q112">
         <v>14</v>
@@ -22562,7 +22583,7 @@
         <v>0.9</v>
       </c>
       <c r="AT112">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU112">
         <v>1.89</v>
@@ -22663,7 +22684,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22750,7 +22771,7 @@
         <v>2</v>
       </c>
       <c r="AS113">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT113">
         <v>1.3</v>
@@ -22944,7 +22965,7 @@
         <v>1.33</v>
       </c>
       <c r="AT114">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU114">
         <v>1.57</v>
@@ -23323,7 +23344,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT116">
         <v>1.44</v>
@@ -23514,7 +23535,7 @@
         <v>0.43</v>
       </c>
       <c r="AS117">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT117">
         <v>0.7</v>
@@ -23899,7 +23920,7 @@
         <v>3</v>
       </c>
       <c r="AT119">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU119">
         <v>2.15</v>
@@ -24278,7 +24299,7 @@
         <v>1.29</v>
       </c>
       <c r="AS121">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT121">
         <v>1.5</v>
@@ -24382,7 +24403,7 @@
         <v>169</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24469,7 +24490,7 @@
         <v>1.25</v>
       </c>
       <c r="AS122">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT122">
         <v>1.3</v>
@@ -24573,7 +24594,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24663,7 +24684,7 @@
         <v>1.2</v>
       </c>
       <c r="AT123">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU123">
         <v>1.66</v>
@@ -24764,7 +24785,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -24854,7 +24875,7 @@
         <v>1.5</v>
       </c>
       <c r="AT124">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU124">
         <v>1.89</v>
@@ -25042,7 +25063,7 @@
         <v>1.86</v>
       </c>
       <c r="AS125">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT125">
         <v>1.3</v>
@@ -25146,7 +25167,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -25233,7 +25254,7 @@
         <v>1.13</v>
       </c>
       <c r="AS126">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT126">
         <v>1.5</v>
@@ -25337,7 +25358,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25424,10 +25445,10 @@
         <v>2.5</v>
       </c>
       <c r="AS127">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT127">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU127">
         <v>1.43</v>
@@ -25528,7 +25549,7 @@
         <v>174</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25615,10 +25636,10 @@
         <v>1.38</v>
       </c>
       <c r="AS128">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT128">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU128">
         <v>1.51</v>
@@ -25719,7 +25740,7 @@
         <v>81</v>
       </c>
       <c r="P129" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25809,7 +25830,7 @@
         <v>1.2</v>
       </c>
       <c r="AT129">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU129">
         <v>1.64</v>
@@ -25997,7 +26018,7 @@
         <v>1.63</v>
       </c>
       <c r="AS130">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT130">
         <v>1.3</v>
@@ -26292,7 +26313,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26483,7 +26504,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q133">
         <v>8</v>
@@ -26674,7 +26695,7 @@
         <v>102</v>
       </c>
       <c r="P134" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q134">
         <v>12</v>
@@ -26761,7 +26782,7 @@
         <v>0.38</v>
       </c>
       <c r="AS134">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT134">
         <v>0.7</v>
@@ -27056,7 +27077,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27146,7 +27167,7 @@
         <v>3</v>
       </c>
       <c r="AT136">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU136">
         <v>2.19</v>
@@ -27247,7 +27268,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -27337,7 +27358,7 @@
         <v>1.2</v>
       </c>
       <c r="AT137">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU137">
         <v>1.64</v>
@@ -27438,7 +27459,7 @@
         <v>180</v>
       </c>
       <c r="P138" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27528,7 +27549,7 @@
         <v>1.2</v>
       </c>
       <c r="AT138">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU138">
         <v>1.6</v>
@@ -27629,7 +27650,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27716,10 +27737,10 @@
         <v>0.75</v>
       </c>
       <c r="AS139">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AT139">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AU139">
         <v>1.59</v>
@@ -27907,10 +27928,10 @@
         <v>1.56</v>
       </c>
       <c r="AS140">
-        <v>1.56</v>
+        <v>1.7</v>
       </c>
       <c r="AT140">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AU140">
         <v>1.88</v>
@@ -28011,7 +28032,7 @@
         <v>81</v>
       </c>
       <c r="P141" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28098,10 +28119,10 @@
         <v>1.63</v>
       </c>
       <c r="AS141">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AT141">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AU141">
         <v>1.4</v>
@@ -28202,7 +28223,7 @@
         <v>81</v>
       </c>
       <c r="P142" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28289,7 +28310,7 @@
         <v>1.11</v>
       </c>
       <c r="AS142">
-        <v>0.5600000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AT142">
         <v>1.3</v>
@@ -28393,7 +28414,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28480,10 +28501,10 @@
         <v>2.33</v>
       </c>
       <c r="AS143">
-        <v>0.89</v>
+        <v>1.1</v>
       </c>
       <c r="AT143">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="AU143">
         <v>1.59</v>
@@ -28584,7 +28605,7 @@
         <v>81</v>
       </c>
       <c r="P144" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28671,10 +28692,10 @@
         <v>2</v>
       </c>
       <c r="AS144">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AT144">
-        <v>2.11</v>
+        <v>1.9</v>
       </c>
       <c r="AU144">
         <v>1.53</v>
@@ -28775,7 +28796,7 @@
         <v>182</v>
       </c>
       <c r="P145" t="s">
-        <v>247</v>
+        <v>190</v>
       </c>
       <c r="Q145">
         <v>4</v>
@@ -28862,10 +28883,10 @@
         <v>1.44</v>
       </c>
       <c r="AS145">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AT145">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU145">
         <v>2.11</v>
@@ -29053,7 +29074,7 @@
         <v>1.33</v>
       </c>
       <c r="AS146">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT146">
         <v>1.5</v>
@@ -29157,7 +29178,7 @@
         <v>122</v>
       </c>
       <c r="P147" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29247,7 +29268,7 @@
         <v>1.5</v>
       </c>
       <c r="AT147">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AU147">
         <v>1.85</v>
@@ -29921,7 +29942,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="Q151">
         <v>7</v>
@@ -30112,7 +30133,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q152">
         <v>14</v>
@@ -30303,7 +30324,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30445,6 +30466,1534 @@
       </c>
       <c r="BK153">
         <v>22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>2595287</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44975.45833333334</v>
+      </c>
+      <c r="F154">
+        <v>20</v>
+      </c>
+      <c r="G154" t="s">
+        <v>70</v>
+      </c>
+      <c r="H154" t="s">
+        <v>78</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>81</v>
+      </c>
+      <c r="P154" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q154">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>6</v>
+      </c>
+      <c r="S154">
+        <v>9</v>
+      </c>
+      <c r="T154">
+        <v>3.6</v>
+      </c>
+      <c r="U154">
+        <v>2.05</v>
+      </c>
+      <c r="V154">
+        <v>2.8</v>
+      </c>
+      <c r="W154">
+        <v>1.4</v>
+      </c>
+      <c r="X154">
+        <v>2.75</v>
+      </c>
+      <c r="Y154">
+        <v>2.75</v>
+      </c>
+      <c r="Z154">
+        <v>1.4</v>
+      </c>
+      <c r="AA154">
+        <v>6.5</v>
+      </c>
+      <c r="AB154">
+        <v>1.1</v>
+      </c>
+      <c r="AC154">
+        <v>2.9</v>
+      </c>
+      <c r="AD154">
+        <v>3.3</v>
+      </c>
+      <c r="AE154">
+        <v>2.25</v>
+      </c>
+      <c r="AF154">
+        <v>1.06</v>
+      </c>
+      <c r="AG154">
+        <v>10.25</v>
+      </c>
+      <c r="AH154">
+        <v>1.3</v>
+      </c>
+      <c r="AI154">
+        <v>3.3</v>
+      </c>
+      <c r="AJ154">
+        <v>1.96</v>
+      </c>
+      <c r="AK154">
+        <v>1.8</v>
+      </c>
+      <c r="AL154">
+        <v>1.75</v>
+      </c>
+      <c r="AM154">
+        <v>2</v>
+      </c>
+      <c r="AN154">
+        <v>1.72</v>
+      </c>
+      <c r="AO154">
+        <v>1.35</v>
+      </c>
+      <c r="AP154">
+        <v>1.3</v>
+      </c>
+      <c r="AQ154">
+        <v>1.4</v>
+      </c>
+      <c r="AR154">
+        <v>1.3</v>
+      </c>
+      <c r="AS154">
+        <v>1.27</v>
+      </c>
+      <c r="AT154">
+        <v>1.45</v>
+      </c>
+      <c r="AU154">
+        <v>1.66</v>
+      </c>
+      <c r="AV154">
+        <v>1.69</v>
+      </c>
+      <c r="AW154">
+        <v>3.35</v>
+      </c>
+      <c r="AX154">
+        <v>2.33</v>
+      </c>
+      <c r="AY154">
+        <v>8</v>
+      </c>
+      <c r="AZ154">
+        <v>1.82</v>
+      </c>
+      <c r="BA154">
+        <v>1.17</v>
+      </c>
+      <c r="BB154">
+        <v>1.32</v>
+      </c>
+      <c r="BC154">
+        <v>1.65</v>
+      </c>
+      <c r="BD154">
+        <v>2</v>
+      </c>
+      <c r="BE154">
+        <v>2.5</v>
+      </c>
+      <c r="BF154">
+        <v>3</v>
+      </c>
+      <c r="BG154">
+        <v>9</v>
+      </c>
+      <c r="BH154">
+        <v>6</v>
+      </c>
+      <c r="BI154">
+        <v>6</v>
+      </c>
+      <c r="BJ154">
+        <v>9</v>
+      </c>
+      <c r="BK154">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>2595288</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44975.45833333334</v>
+      </c>
+      <c r="F155">
+        <v>20</v>
+      </c>
+      <c r="G155" t="s">
+        <v>66</v>
+      </c>
+      <c r="H155" t="s">
+        <v>67</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>188</v>
+      </c>
+      <c r="P155" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q155">
+        <v>2</v>
+      </c>
+      <c r="R155">
+        <v>13</v>
+      </c>
+      <c r="S155">
+        <v>15</v>
+      </c>
+      <c r="T155">
+        <v>3.2</v>
+      </c>
+      <c r="U155">
+        <v>2.1</v>
+      </c>
+      <c r="V155">
+        <v>3</v>
+      </c>
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>3.25</v>
+      </c>
+      <c r="Y155">
+        <v>2.65</v>
+      </c>
+      <c r="Z155">
+        <v>1.43</v>
+      </c>
+      <c r="AA155">
+        <v>5.5</v>
+      </c>
+      <c r="AB155">
+        <v>1.12</v>
+      </c>
+      <c r="AC155">
+        <v>2.6</v>
+      </c>
+      <c r="AD155">
+        <v>3.3</v>
+      </c>
+      <c r="AE155">
+        <v>2.4</v>
+      </c>
+      <c r="AF155">
+        <v>1.04</v>
+      </c>
+      <c r="AG155">
+        <v>13.5</v>
+      </c>
+      <c r="AH155">
+        <v>1.25</v>
+      </c>
+      <c r="AI155">
+        <v>3.75</v>
+      </c>
+      <c r="AJ155">
+        <v>1.77</v>
+      </c>
+      <c r="AK155">
+        <v>2</v>
+      </c>
+      <c r="AL155">
+        <v>1.62</v>
+      </c>
+      <c r="AM155">
+        <v>2.2</v>
+      </c>
+      <c r="AN155">
+        <v>1.52</v>
+      </c>
+      <c r="AO155">
+        <v>1.32</v>
+      </c>
+      <c r="AP155">
+        <v>1.45</v>
+      </c>
+      <c r="AQ155">
+        <v>0.89</v>
+      </c>
+      <c r="AR155">
+        <v>1</v>
+      </c>
+      <c r="AS155">
+        <v>1.1</v>
+      </c>
+      <c r="AT155">
+        <v>0.9</v>
+      </c>
+      <c r="AU155">
+        <v>1.5</v>
+      </c>
+      <c r="AV155">
+        <v>1.66</v>
+      </c>
+      <c r="AW155">
+        <v>3.16</v>
+      </c>
+      <c r="AX155">
+        <v>2.1</v>
+      </c>
+      <c r="AY155">
+        <v>8.5</v>
+      </c>
+      <c r="AZ155">
+        <v>1.91</v>
+      </c>
+      <c r="BA155">
+        <v>1.13</v>
+      </c>
+      <c r="BB155">
+        <v>1.22</v>
+      </c>
+      <c r="BC155">
+        <v>1.48</v>
+      </c>
+      <c r="BD155">
+        <v>1.73</v>
+      </c>
+      <c r="BE155">
+        <v>2.1</v>
+      </c>
+      <c r="BF155">
+        <v>5</v>
+      </c>
+      <c r="BG155">
+        <v>4</v>
+      </c>
+      <c r="BH155">
+        <v>5</v>
+      </c>
+      <c r="BI155">
+        <v>10</v>
+      </c>
+      <c r="BJ155">
+        <v>10</v>
+      </c>
+      <c r="BK155">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>2595292</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44975.45833333334</v>
+      </c>
+      <c r="F156">
+        <v>20</v>
+      </c>
+      <c r="G156" t="s">
+        <v>74</v>
+      </c>
+      <c r="H156" t="s">
+        <v>75</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>2</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>4</v>
+      </c>
+      <c r="O156" t="s">
+        <v>189</v>
+      </c>
+      <c r="P156" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q156">
+        <v>8</v>
+      </c>
+      <c r="R156">
+        <v>3</v>
+      </c>
+      <c r="S156">
+        <v>11</v>
+      </c>
+      <c r="T156">
+        <v>3.04</v>
+      </c>
+      <c r="U156">
+        <v>2.12</v>
+      </c>
+      <c r="V156">
+        <v>3.52</v>
+      </c>
+      <c r="W156">
+        <v>1.43</v>
+      </c>
+      <c r="X156">
+        <v>2.65</v>
+      </c>
+      <c r="Y156">
+        <v>2.75</v>
+      </c>
+      <c r="Z156">
+        <v>1.4</v>
+      </c>
+      <c r="AA156">
+        <v>7</v>
+      </c>
+      <c r="AB156">
+        <v>1.08</v>
+      </c>
+      <c r="AC156">
+        <v>2.3</v>
+      </c>
+      <c r="AD156">
+        <v>3.4</v>
+      </c>
+      <c r="AE156">
+        <v>2.75</v>
+      </c>
+      <c r="AF156">
+        <v>1.06</v>
+      </c>
+      <c r="AG156">
+        <v>11</v>
+      </c>
+      <c r="AH156">
+        <v>1.3</v>
+      </c>
+      <c r="AI156">
+        <v>3.3</v>
+      </c>
+      <c r="AJ156">
+        <v>1.93</v>
+      </c>
+      <c r="AK156">
+        <v>1.83</v>
+      </c>
+      <c r="AL156">
+        <v>1.75</v>
+      </c>
+      <c r="AM156">
+        <v>2</v>
+      </c>
+      <c r="AN156">
+        <v>1.45</v>
+      </c>
+      <c r="AO156">
+        <v>1.32</v>
+      </c>
+      <c r="AP156">
+        <v>1.55</v>
+      </c>
+      <c r="AQ156">
+        <v>1.33</v>
+      </c>
+      <c r="AR156">
+        <v>1.5</v>
+      </c>
+      <c r="AS156">
+        <v>1.3</v>
+      </c>
+      <c r="AT156">
+        <v>1.45</v>
+      </c>
+      <c r="AU156">
+        <v>1.78</v>
+      </c>
+      <c r="AV156">
+        <v>1.6</v>
+      </c>
+      <c r="AW156">
+        <v>3.38</v>
+      </c>
+      <c r="AX156">
+        <v>1.69</v>
+      </c>
+      <c r="AY156">
+        <v>8.5</v>
+      </c>
+      <c r="AZ156">
+        <v>2.53</v>
+      </c>
+      <c r="BA156">
+        <v>1.17</v>
+      </c>
+      <c r="BB156">
+        <v>1.27</v>
+      </c>
+      <c r="BC156">
+        <v>1.5</v>
+      </c>
+      <c r="BD156">
+        <v>1.83</v>
+      </c>
+      <c r="BE156">
+        <v>2.25</v>
+      </c>
+      <c r="BF156">
+        <v>5</v>
+      </c>
+      <c r="BG156">
+        <v>7</v>
+      </c>
+      <c r="BH156">
+        <v>4</v>
+      </c>
+      <c r="BI156">
+        <v>3</v>
+      </c>
+      <c r="BJ156">
+        <v>9</v>
+      </c>
+      <c r="BK156">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>2595285</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44975.58333333334</v>
+      </c>
+      <c r="F157">
+        <v>20</v>
+      </c>
+      <c r="G157" t="s">
+        <v>68</v>
+      </c>
+      <c r="H157" t="s">
+        <v>80</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>190</v>
+      </c>
+      <c r="P157" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q157">
+        <v>2</v>
+      </c>
+      <c r="R157">
+        <v>8</v>
+      </c>
+      <c r="S157">
+        <v>10</v>
+      </c>
+      <c r="T157">
+        <v>7</v>
+      </c>
+      <c r="U157">
+        <v>2.6</v>
+      </c>
+      <c r="V157">
+        <v>1.68</v>
+      </c>
+      <c r="W157">
+        <v>1.27</v>
+      </c>
+      <c r="X157">
+        <v>3.5</v>
+      </c>
+      <c r="Y157">
+        <v>2.21</v>
+      </c>
+      <c r="Z157">
+        <v>1.61</v>
+      </c>
+      <c r="AA157">
+        <v>5</v>
+      </c>
+      <c r="AB157">
+        <v>1.15</v>
+      </c>
+      <c r="AC157">
+        <v>10</v>
+      </c>
+      <c r="AD157">
+        <v>5.25</v>
+      </c>
+      <c r="AE157">
+        <v>1.25</v>
+      </c>
+      <c r="AF157">
+        <v>1.02</v>
+      </c>
+      <c r="AG157">
+        <v>21</v>
+      </c>
+      <c r="AH157">
+        <v>1.17</v>
+      </c>
+      <c r="AI157">
+        <v>5.05</v>
+      </c>
+      <c r="AJ157">
+        <v>1.5</v>
+      </c>
+      <c r="AK157">
+        <v>2.41</v>
+      </c>
+      <c r="AL157">
+        <v>1.95</v>
+      </c>
+      <c r="AM157">
+        <v>1.75</v>
+      </c>
+      <c r="AN157">
+        <v>3.5</v>
+      </c>
+      <c r="AO157">
+        <v>1.14</v>
+      </c>
+      <c r="AP157">
+        <v>1.08</v>
+      </c>
+      <c r="AQ157">
+        <v>1.5</v>
+      </c>
+      <c r="AR157">
+        <v>1.78</v>
+      </c>
+      <c r="AS157">
+        <v>1.45</v>
+      </c>
+      <c r="AT157">
+        <v>1.7</v>
+      </c>
+      <c r="AU157">
+        <v>1.6</v>
+      </c>
+      <c r="AV157">
+        <v>1.9</v>
+      </c>
+      <c r="AW157">
+        <v>3.5</v>
+      </c>
+      <c r="AX157">
+        <v>7</v>
+      </c>
+      <c r="AY157">
+        <v>12</v>
+      </c>
+      <c r="AZ157">
+        <v>1.14</v>
+      </c>
+      <c r="BA157">
+        <v>1.18</v>
+      </c>
+      <c r="BB157">
+        <v>1.33</v>
+      </c>
+      <c r="BC157">
+        <v>1.6</v>
+      </c>
+      <c r="BD157">
+        <v>2</v>
+      </c>
+      <c r="BE157">
+        <v>2.55</v>
+      </c>
+      <c r="BF157">
+        <v>3</v>
+      </c>
+      <c r="BG157">
+        <v>5</v>
+      </c>
+      <c r="BH157">
+        <v>1</v>
+      </c>
+      <c r="BI157">
+        <v>3</v>
+      </c>
+      <c r="BJ157">
+        <v>4</v>
+      </c>
+      <c r="BK157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:63">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>2595289</v>
+      </c>
+      <c r="C158" t="s">
+        <v>63</v>
+      </c>
+      <c r="D158" t="s">
+        <v>64</v>
+      </c>
+      <c r="E158" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F158">
+        <v>20</v>
+      </c>
+      <c r="G158" t="s">
+        <v>69</v>
+      </c>
+      <c r="H158" t="s">
+        <v>65</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>2</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>3</v>
+      </c>
+      <c r="O158" t="s">
+        <v>191</v>
+      </c>
+      <c r="P158" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q158">
+        <v>5</v>
+      </c>
+      <c r="R158">
+        <v>13</v>
+      </c>
+      <c r="S158">
+        <v>18</v>
+      </c>
+      <c r="T158">
+        <v>3</v>
+      </c>
+      <c r="U158">
+        <v>2.2</v>
+      </c>
+      <c r="V158">
+        <v>3.6</v>
+      </c>
+      <c r="W158">
+        <v>1.4</v>
+      </c>
+      <c r="X158">
+        <v>2.75</v>
+      </c>
+      <c r="Y158">
+        <v>2.75</v>
+      </c>
+      <c r="Z158">
+        <v>1.4</v>
+      </c>
+      <c r="AA158">
+        <v>8</v>
+      </c>
+      <c r="AB158">
+        <v>1.08</v>
+      </c>
+      <c r="AC158">
+        <v>2.51</v>
+      </c>
+      <c r="AD158">
+        <v>3.34</v>
+      </c>
+      <c r="AE158">
+        <v>2.77</v>
+      </c>
+      <c r="AF158">
+        <v>1.06</v>
+      </c>
+      <c r="AG158">
+        <v>8</v>
+      </c>
+      <c r="AH158">
+        <v>1.3</v>
+      </c>
+      <c r="AI158">
+        <v>3.3</v>
+      </c>
+      <c r="AJ158">
+        <v>1.95</v>
+      </c>
+      <c r="AK158">
+        <v>1.7</v>
+      </c>
+      <c r="AL158">
+        <v>1.75</v>
+      </c>
+      <c r="AM158">
+        <v>2</v>
+      </c>
+      <c r="AN158">
+        <v>1.33</v>
+      </c>
+      <c r="AO158">
+        <v>1.25</v>
+      </c>
+      <c r="AP158">
+        <v>1.57</v>
+      </c>
+      <c r="AQ158">
+        <v>0.78</v>
+      </c>
+      <c r="AR158">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS158">
+        <v>1</v>
+      </c>
+      <c r="AT158">
+        <v>0.5</v>
+      </c>
+      <c r="AU158">
+        <v>1.38</v>
+      </c>
+      <c r="AV158">
+        <v>1.23</v>
+      </c>
+      <c r="AW158">
+        <v>2.61</v>
+      </c>
+      <c r="AX158">
+        <v>1.55</v>
+      </c>
+      <c r="AY158">
+        <v>8.5</v>
+      </c>
+      <c r="AZ158">
+        <v>2.91</v>
+      </c>
+      <c r="BA158">
+        <v>1.24</v>
+      </c>
+      <c r="BB158">
+        <v>1.33</v>
+      </c>
+      <c r="BC158">
+        <v>1.6</v>
+      </c>
+      <c r="BD158">
+        <v>2.01</v>
+      </c>
+      <c r="BE158">
+        <v>2.58</v>
+      </c>
+      <c r="BF158">
+        <v>2</v>
+      </c>
+      <c r="BG158">
+        <v>2</v>
+      </c>
+      <c r="BH158">
+        <v>1</v>
+      </c>
+      <c r="BI158">
+        <v>3</v>
+      </c>
+      <c r="BJ158">
+        <v>3</v>
+      </c>
+      <c r="BK158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:63">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>2595290</v>
+      </c>
+      <c r="C159" t="s">
+        <v>63</v>
+      </c>
+      <c r="D159" t="s">
+        <v>64</v>
+      </c>
+      <c r="E159" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F159">
+        <v>20</v>
+      </c>
+      <c r="G159" t="s">
+        <v>77</v>
+      </c>
+      <c r="H159" t="s">
+        <v>76</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>0</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>192</v>
+      </c>
+      <c r="P159" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q159">
+        <v>4</v>
+      </c>
+      <c r="R159">
+        <v>8</v>
+      </c>
+      <c r="S159">
+        <v>12</v>
+      </c>
+      <c r="T159">
+        <v>3.5</v>
+      </c>
+      <c r="U159">
+        <v>2.2</v>
+      </c>
+      <c r="V159">
+        <v>3</v>
+      </c>
+      <c r="W159">
+        <v>1.36</v>
+      </c>
+      <c r="X159">
+        <v>3</v>
+      </c>
+      <c r="Y159">
+        <v>2.75</v>
+      </c>
+      <c r="Z159">
+        <v>1.4</v>
+      </c>
+      <c r="AA159">
+        <v>7</v>
+      </c>
+      <c r="AB159">
+        <v>1.1</v>
+      </c>
+      <c r="AC159">
+        <v>3.03</v>
+      </c>
+      <c r="AD159">
+        <v>3.54</v>
+      </c>
+      <c r="AE159">
+        <v>2.26</v>
+      </c>
+      <c r="AF159">
+        <v>1.06</v>
+      </c>
+      <c r="AG159">
+        <v>8</v>
+      </c>
+      <c r="AH159">
+        <v>1.28</v>
+      </c>
+      <c r="AI159">
+        <v>3.5</v>
+      </c>
+      <c r="AJ159">
+        <v>1.8</v>
+      </c>
+      <c r="AK159">
+        <v>1.85</v>
+      </c>
+      <c r="AL159">
+        <v>1.7</v>
+      </c>
+      <c r="AM159">
+        <v>2.05</v>
+      </c>
+      <c r="AN159">
+        <v>1.57</v>
+      </c>
+      <c r="AO159">
+        <v>1.31</v>
+      </c>
+      <c r="AP159">
+        <v>1.38</v>
+      </c>
+      <c r="AQ159">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AR159">
+        <v>2.11</v>
+      </c>
+      <c r="AS159">
+        <v>0.8</v>
+      </c>
+      <c r="AT159">
+        <v>1.9</v>
+      </c>
+      <c r="AU159">
+        <v>1.26</v>
+      </c>
+      <c r="AV159">
+        <v>1.63</v>
+      </c>
+      <c r="AW159">
+        <v>2.89</v>
+      </c>
+      <c r="AX159">
+        <v>2.28</v>
+      </c>
+      <c r="AY159">
+        <v>8.5</v>
+      </c>
+      <c r="AZ159">
+        <v>1.82</v>
+      </c>
+      <c r="BA159">
+        <v>1.17</v>
+      </c>
+      <c r="BB159">
+        <v>1.32</v>
+      </c>
+      <c r="BC159">
+        <v>1.62</v>
+      </c>
+      <c r="BD159">
+        <v>1.88</v>
+      </c>
+      <c r="BE159">
+        <v>2.45</v>
+      </c>
+      <c r="BF159">
+        <v>5</v>
+      </c>
+      <c r="BG159">
+        <v>6</v>
+      </c>
+      <c r="BH159">
+        <v>9</v>
+      </c>
+      <c r="BI159">
+        <v>5</v>
+      </c>
+      <c r="BJ159">
+        <v>14</v>
+      </c>
+      <c r="BK159">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="160" spans="1:63">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>2595291</v>
+      </c>
+      <c r="C160" t="s">
+        <v>63</v>
+      </c>
+      <c r="D160" t="s">
+        <v>64</v>
+      </c>
+      <c r="E160" s="2">
+        <v>44976.45833333334</v>
+      </c>
+      <c r="F160">
+        <v>20</v>
+      </c>
+      <c r="G160" t="s">
+        <v>79</v>
+      </c>
+      <c r="H160" t="s">
+        <v>73</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>2</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>193</v>
+      </c>
+      <c r="P160" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q160">
+        <v>6</v>
+      </c>
+      <c r="R160">
+        <v>7</v>
+      </c>
+      <c r="S160">
+        <v>13</v>
+      </c>
+      <c r="T160">
+        <v>3.5</v>
+      </c>
+      <c r="U160">
+        <v>2.05</v>
+      </c>
+      <c r="V160">
+        <v>3</v>
+      </c>
+      <c r="W160">
+        <v>1.44</v>
+      </c>
+      <c r="X160">
+        <v>2.63</v>
+      </c>
+      <c r="Y160">
+        <v>3.25</v>
+      </c>
+      <c r="Z160">
+        <v>1.33</v>
+      </c>
+      <c r="AA160">
+        <v>9</v>
+      </c>
+      <c r="AB160">
+        <v>1.07</v>
+      </c>
+      <c r="AC160">
+        <v>2.97</v>
+      </c>
+      <c r="AD160">
+        <v>3.36</v>
+      </c>
+      <c r="AE160">
+        <v>2.38</v>
+      </c>
+      <c r="AF160">
+        <v>1.07</v>
+      </c>
+      <c r="AG160">
+        <v>10</v>
+      </c>
+      <c r="AH160">
+        <v>1.35</v>
+      </c>
+      <c r="AI160">
+        <v>3.22</v>
+      </c>
+      <c r="AJ160">
+        <v>1.95</v>
+      </c>
+      <c r="AK160">
+        <v>1.73</v>
+      </c>
+      <c r="AL160">
+        <v>1.8</v>
+      </c>
+      <c r="AM160">
+        <v>1.95</v>
+      </c>
+      <c r="AN160">
+        <v>1.55</v>
+      </c>
+      <c r="AO160">
+        <v>1.35</v>
+      </c>
+      <c r="AP160">
+        <v>1.4</v>
+      </c>
+      <c r="AQ160">
+        <v>1.56</v>
+      </c>
+      <c r="AR160">
+        <v>2.4</v>
+      </c>
+      <c r="AS160">
+        <v>1.7</v>
+      </c>
+      <c r="AT160">
+        <v>2.18</v>
+      </c>
+      <c r="AU160">
+        <v>1.82</v>
+      </c>
+      <c r="AV160">
+        <v>1.74</v>
+      </c>
+      <c r="AW160">
+        <v>3.56</v>
+      </c>
+      <c r="AX160">
+        <v>1.91</v>
+      </c>
+      <c r="AY160">
+        <v>8</v>
+      </c>
+      <c r="AZ160">
+        <v>2.1</v>
+      </c>
+      <c r="BA160">
+        <v>1.17</v>
+      </c>
+      <c r="BB160">
+        <v>1.35</v>
+      </c>
+      <c r="BC160">
+        <v>1.66</v>
+      </c>
+      <c r="BD160">
+        <v>2.11</v>
+      </c>
+      <c r="BE160">
+        <v>2.76</v>
+      </c>
+      <c r="BF160">
+        <v>5</v>
+      </c>
+      <c r="BG160">
+        <v>3</v>
+      </c>
+      <c r="BH160">
+        <v>2</v>
+      </c>
+      <c r="BI160">
+        <v>4</v>
+      </c>
+      <c r="BJ160">
+        <v>7</v>
+      </c>
+      <c r="BK160">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161" spans="1:63">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>2595286</v>
+      </c>
+      <c r="C161" t="s">
+        <v>63</v>
+      </c>
+      <c r="D161" t="s">
+        <v>64</v>
+      </c>
+      <c r="E161" s="2">
+        <v>44976.58333333334</v>
+      </c>
+      <c r="F161">
+        <v>20</v>
+      </c>
+      <c r="G161" t="s">
+        <v>72</v>
+      </c>
+      <c r="H161" t="s">
+        <v>71</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>3</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>194</v>
+      </c>
+      <c r="P161" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q161">
+        <v>6</v>
+      </c>
+      <c r="R161">
+        <v>1</v>
+      </c>
+      <c r="S161">
+        <v>7</v>
+      </c>
+      <c r="T161">
+        <v>1.83</v>
+      </c>
+      <c r="U161">
+        <v>2.5</v>
+      </c>
+      <c r="V161">
+        <v>7.5</v>
+      </c>
+      <c r="W161">
+        <v>1.3</v>
+      </c>
+      <c r="X161">
+        <v>3.4</v>
+      </c>
+      <c r="Y161">
+        <v>2.5</v>
+      </c>
+      <c r="Z161">
+        <v>1.5</v>
+      </c>
+      <c r="AA161">
+        <v>6</v>
+      </c>
+      <c r="AB161">
+        <v>1.13</v>
+      </c>
+      <c r="AC161">
+        <v>1.38</v>
+      </c>
+      <c r="AD161">
+        <v>4.5</v>
+      </c>
+      <c r="AE161">
+        <v>6.5</v>
+      </c>
+      <c r="AF161">
+        <v>1.04</v>
+      </c>
+      <c r="AG161">
+        <v>10</v>
+      </c>
+      <c r="AH161">
+        <v>1.18</v>
+      </c>
+      <c r="AI161">
+        <v>4.5</v>
+      </c>
+      <c r="AJ161">
+        <v>1.61</v>
+      </c>
+      <c r="AK161">
+        <v>2.05</v>
+      </c>
+      <c r="AL161">
+        <v>1.95</v>
+      </c>
+      <c r="AM161">
+        <v>1.8</v>
+      </c>
+      <c r="AN161">
+        <v>1.09</v>
+      </c>
+      <c r="AO161">
+        <v>1.16</v>
+      </c>
+      <c r="AP161">
+        <v>3</v>
+      </c>
+      <c r="AQ161">
+        <v>2.1</v>
+      </c>
+      <c r="AR161">
+        <v>0.89</v>
+      </c>
+      <c r="AS161">
+        <v>2.18</v>
+      </c>
+      <c r="AT161">
+        <v>0.8</v>
+      </c>
+      <c r="AU161">
+        <v>2.16</v>
+      </c>
+      <c r="AV161">
+        <v>1.5</v>
+      </c>
+      <c r="AW161">
+        <v>3.66</v>
+      </c>
+      <c r="AX161">
+        <v>1.3</v>
+      </c>
+      <c r="AY161">
+        <v>10</v>
+      </c>
+      <c r="AZ161">
+        <v>4.42</v>
+      </c>
+      <c r="BA161">
+        <v>1.21</v>
+      </c>
+      <c r="BB161">
+        <v>1.42</v>
+      </c>
+      <c r="BC161">
+        <v>1.74</v>
+      </c>
+      <c r="BD161">
+        <v>2.17</v>
+      </c>
+      <c r="BE161">
+        <v>2.84</v>
+      </c>
+      <c r="BF161">
+        <v>12</v>
+      </c>
+      <c r="BG161">
+        <v>2</v>
+      </c>
+      <c r="BH161">
+        <v>7</v>
+      </c>
+      <c r="BI161">
+        <v>1</v>
+      </c>
+      <c r="BJ161">
+        <v>19</v>
+      </c>
+      <c r="BK161">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="294">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,18 @@
     <t>['31', '55', '71']</t>
   </si>
   <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['53', '59']</t>
+  </si>
+  <si>
+    <t>['13', '58']</t>
+  </si>
+  <si>
+    <t>['21', '68']</t>
+  </si>
+  <si>
     <t>['30', '71']</t>
   </si>
   <si>
@@ -878,6 +890,12 @@
   </si>
   <si>
     <t>['20', '55']</t>
+  </si>
+  <si>
+    <t>['2', '27', '50']</t>
+  </si>
+  <si>
+    <t>['44', '78']</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1257,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK161"/>
+  <dimension ref="A1:BK165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1570,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT2">
         <v>1.45</v>
@@ -1674,7 +1692,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1865,7 +1883,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2056,7 +2074,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2247,7 +2265,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <v>12</v>
@@ -2337,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2629,7 +2647,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2820,7 +2838,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2910,7 +2928,7 @@
         <v>2.18</v>
       </c>
       <c r="AT9">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3098,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT10">
         <v>0.7</v>
@@ -3202,7 +3220,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3393,7 +3411,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3483,7 +3501,7 @@
         <v>1.33</v>
       </c>
       <c r="AT12">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3584,7 +3602,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3671,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT13">
         <v>0.9</v>
@@ -3775,7 +3793,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3865,7 +3883,7 @@
         <v>0.8</v>
       </c>
       <c r="AT14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -3966,7 +3984,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -4053,7 +4071,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT15">
         <v>0.8</v>
@@ -4348,7 +4366,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4539,7 +4557,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4730,7 +4748,7 @@
         <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4921,7 +4939,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5112,7 +5130,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5303,7 +5321,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5494,7 +5512,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5775,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU24">
         <v>2.34</v>
@@ -6067,7 +6085,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6258,7 +6276,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6345,10 +6363,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT27">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU27">
         <v>1.89</v>
@@ -6449,7 +6467,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6539,7 +6557,7 @@
         <v>1.3</v>
       </c>
       <c r="AT28">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU28">
         <v>1.75</v>
@@ -6640,7 +6658,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6831,7 +6849,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6918,7 +6936,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT30">
         <v>0.8</v>
@@ -7213,7 +7231,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7300,7 +7318,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT32">
         <v>1.44</v>
@@ -7404,7 +7422,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7595,7 +7613,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7786,7 +7804,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8168,7 +8186,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8359,7 +8377,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8449,7 +8467,7 @@
         <v>1.7</v>
       </c>
       <c r="AT38">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU38">
         <v>2.21</v>
@@ -8741,7 +8759,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8932,7 +8950,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9019,10 +9037,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT41">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU41">
         <v>1.79</v>
@@ -9210,7 +9228,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT42">
         <v>0.7</v>
@@ -9314,7 +9332,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9404,7 +9422,7 @@
         <v>1.2</v>
       </c>
       <c r="AT43">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU43">
         <v>1.48</v>
@@ -9592,7 +9610,7 @@
         <v>1.67</v>
       </c>
       <c r="AS44">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT44">
         <v>1.5</v>
@@ -9786,7 +9804,7 @@
         <v>1.33</v>
       </c>
       <c r="AT45">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU45">
         <v>1.07</v>
@@ -9887,7 +9905,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9974,7 +9992,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT46">
         <v>1.44</v>
@@ -10078,7 +10096,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10168,7 +10186,7 @@
         <v>1.5</v>
       </c>
       <c r="AT47">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU47">
         <v>1.79</v>
@@ -10460,7 +10478,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10651,7 +10669,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q50">
         <v>11</v>
@@ -10842,7 +10860,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11415,7 +11433,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11606,7 +11624,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11797,7 +11815,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -11988,7 +12006,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12179,7 +12197,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12266,10 +12284,10 @@
         <v>3</v>
       </c>
       <c r="AS58">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT58">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU58">
         <v>1.65</v>
@@ -12370,7 +12388,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12460,7 +12478,7 @@
         <v>1.45</v>
       </c>
       <c r="AT59">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU59">
         <v>1.29</v>
@@ -12561,7 +12579,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -12648,10 +12666,10 @@
         <v>1.75</v>
       </c>
       <c r="AS60">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT60">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU60">
         <v>1.82</v>
@@ -12839,7 +12857,7 @@
         <v>1.25</v>
       </c>
       <c r="AS61">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT61">
         <v>1.5</v>
@@ -13325,7 +13343,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q64">
         <v>11</v>
@@ -13415,7 +13433,7 @@
         <v>3</v>
       </c>
       <c r="AT64">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU64">
         <v>2.42</v>
@@ -13516,7 +13534,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13707,7 +13725,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13898,7 +13916,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14089,7 +14107,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14662,7 +14680,7 @@
         <v>81</v>
       </c>
       <c r="P71" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14940,7 +14958,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT72">
         <v>1.7</v>
@@ -15044,7 +15062,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15131,7 +15149,7 @@
         <v>2.6</v>
       </c>
       <c r="AS73">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT73">
         <v>2.18</v>
@@ -15235,7 +15253,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15322,7 +15340,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT74">
         <v>1.45</v>
@@ -15426,7 +15444,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q75">
         <v>15</v>
@@ -15516,7 +15534,7 @@
         <v>1.5</v>
       </c>
       <c r="AT75">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU75">
         <v>1.64</v>
@@ -15617,7 +15635,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15898,7 +15916,7 @@
         <v>1.2</v>
       </c>
       <c r="AT77">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU77">
         <v>1.51</v>
@@ -16190,7 +16208,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -16277,7 +16295,7 @@
         <v>1.2</v>
       </c>
       <c r="AS79">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT79">
         <v>1.5</v>
@@ -16471,7 +16489,7 @@
         <v>3</v>
       </c>
       <c r="AT80">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU80">
         <v>2.47</v>
@@ -16572,7 +16590,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16954,7 +16972,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17044,7 +17062,7 @@
         <v>1.1</v>
       </c>
       <c r="AT83">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU83">
         <v>1.54</v>
@@ -17232,7 +17250,7 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT84">
         <v>1.45</v>
@@ -17336,7 +17354,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17527,7 +17545,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -18100,7 +18118,7 @@
         <v>81</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18190,7 +18208,7 @@
         <v>1.45</v>
       </c>
       <c r="AT89">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18291,7 +18309,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q90">
         <v>14</v>
@@ -18381,7 +18399,7 @@
         <v>1.27</v>
       </c>
       <c r="AT90">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU90">
         <v>1.3</v>
@@ -18569,7 +18587,7 @@
         <v>1.67</v>
       </c>
       <c r="AS91">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT91">
         <v>1.45</v>
@@ -18673,7 +18691,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q92">
         <v>10</v>
@@ -19055,7 +19073,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19142,10 +19160,10 @@
         <v>1.67</v>
       </c>
       <c r="AS94">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT94">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU94">
         <v>1.73</v>
@@ -19246,7 +19264,7 @@
         <v>81</v>
       </c>
       <c r="P95" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19437,7 +19455,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -20010,7 +20028,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20100,7 +20118,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU99">
         <v>1.37</v>
@@ -20201,7 +20219,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20288,7 +20306,7 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT100">
         <v>0.9</v>
@@ -20392,7 +20410,7 @@
         <v>81</v>
       </c>
       <c r="P101" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20583,7 +20601,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20670,7 +20688,7 @@
         <v>2.67</v>
       </c>
       <c r="AS102">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT102">
         <v>1.9</v>
@@ -20774,7 +20792,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q103">
         <v>13</v>
@@ -21055,7 +21073,7 @@
         <v>3</v>
       </c>
       <c r="AT104">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU104">
         <v>2.29</v>
@@ -21156,7 +21174,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21437,7 +21455,7 @@
         <v>1.2</v>
       </c>
       <c r="AT106">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21538,7 +21556,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21729,7 +21747,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21816,7 +21834,7 @@
         <v>2.43</v>
       </c>
       <c r="AS108">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT108">
         <v>2.18</v>
@@ -21920,7 +21938,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22007,7 +22025,7 @@
         <v>1.17</v>
       </c>
       <c r="AS109">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT109">
         <v>1.7</v>
@@ -22201,7 +22219,7 @@
         <v>1.1</v>
       </c>
       <c r="AT110">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU110">
         <v>1.47</v>
@@ -22302,7 +22320,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22493,7 +22511,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q112">
         <v>14</v>
@@ -22580,7 +22598,7 @@
         <v>0.57</v>
       </c>
       <c r="AS112">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT112">
         <v>0.5</v>
@@ -22684,7 +22702,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22774,7 +22792,7 @@
         <v>0.8</v>
       </c>
       <c r="AT113">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU113">
         <v>1.16</v>
@@ -23153,10 +23171,10 @@
         <v>1.83</v>
       </c>
       <c r="AS115">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT115">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU115">
         <v>1.76</v>
@@ -23726,7 +23744,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT118">
         <v>0.44</v>
@@ -24108,10 +24126,10 @@
         <v>1.71</v>
       </c>
       <c r="AS120">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT120">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU120">
         <v>1.7</v>
@@ -24403,7 +24421,7 @@
         <v>169</v>
       </c>
       <c r="P122" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24493,7 +24511,7 @@
         <v>1.45</v>
       </c>
       <c r="AT122">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU122">
         <v>1.58</v>
@@ -24594,7 +24612,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24785,7 +24803,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -25066,7 +25084,7 @@
         <v>2.18</v>
       </c>
       <c r="AT125">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU125">
         <v>2.11</v>
@@ -25167,7 +25185,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -25358,7 +25376,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25549,7 +25567,7 @@
         <v>174</v>
       </c>
       <c r="P128" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25740,7 +25758,7 @@
         <v>81</v>
       </c>
       <c r="P129" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25827,7 +25845,7 @@
         <v>1.43</v>
       </c>
       <c r="AS129">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT129">
         <v>1.7</v>
@@ -26021,7 +26039,7 @@
         <v>1.7</v>
       </c>
       <c r="AT130">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU130">
         <v>1.94</v>
@@ -26209,7 +26227,7 @@
         <v>0.57</v>
       </c>
       <c r="AS131">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT131">
         <v>0.44</v>
@@ -26313,7 +26331,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26400,7 +26418,7 @@
         <v>1.29</v>
       </c>
       <c r="AS132">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT132">
         <v>1.44</v>
@@ -26504,7 +26522,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q133">
         <v>8</v>
@@ -26594,7 +26612,7 @@
         <v>1.33</v>
       </c>
       <c r="AT133">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU133">
         <v>1.68</v>
@@ -26695,7 +26713,7 @@
         <v>102</v>
       </c>
       <c r="P134" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="Q134">
         <v>12</v>
@@ -26973,10 +26991,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT135">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU135">
         <v>1.6</v>
@@ -27077,7 +27095,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27268,7 +27286,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -27355,7 +27373,7 @@
         <v>0.71</v>
       </c>
       <c r="AS137">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT137">
         <v>0.9</v>
@@ -27459,7 +27477,7 @@
         <v>180</v>
       </c>
       <c r="P138" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27650,7 +27668,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -28032,7 +28050,7 @@
         <v>81</v>
       </c>
       <c r="P141" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28223,7 +28241,7 @@
         <v>81</v>
       </c>
       <c r="P142" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28313,7 +28331,7 @@
         <v>0.8</v>
       </c>
       <c r="AT142">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AU142">
         <v>1.26</v>
@@ -28414,7 +28432,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28605,7 +28623,7 @@
         <v>81</v>
       </c>
       <c r="P144" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29178,7 +29196,7 @@
         <v>122</v>
       </c>
       <c r="P147" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29456,7 +29474,7 @@
         <v>0.5</v>
       </c>
       <c r="AS148">
-        <v>1.2</v>
+        <v>1.09</v>
       </c>
       <c r="AT148">
         <v>0.44</v>
@@ -29650,7 +29668,7 @@
         <v>3</v>
       </c>
       <c r="AT149">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU149">
         <v>2.31</v>
@@ -29838,10 +29856,10 @@
         <v>1.44</v>
       </c>
       <c r="AS150">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AT150">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AU150">
         <v>1.87</v>
@@ -29942,7 +29960,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Q151">
         <v>7</v>
@@ -30133,7 +30151,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q152">
         <v>14</v>
@@ -30220,7 +30238,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="AT152">
         <v>0.7</v>
@@ -30324,7 +30342,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30411,10 +30429,10 @@
         <v>1.88</v>
       </c>
       <c r="AS153">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AT153">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AU153">
         <v>1.9</v>
@@ -30897,7 +30915,7 @@
         <v>189</v>
       </c>
       <c r="P156" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31088,7 +31106,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31279,7 +31297,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31994,6 +32012,770 @@
       </c>
       <c r="BK161">
         <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:63">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>2595300</v>
+      </c>
+      <c r="C162" t="s">
+        <v>63</v>
+      </c>
+      <c r="D162" t="s">
+        <v>64</v>
+      </c>
+      <c r="E162" s="2">
+        <v>44982.45833333334</v>
+      </c>
+      <c r="F162">
+        <v>21</v>
+      </c>
+      <c r="G162" t="s">
+        <v>76</v>
+      </c>
+      <c r="H162" t="s">
+        <v>66</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>0</v>
+      </c>
+      <c r="K162">
+        <v>0</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>1</v>
+      </c>
+      <c r="N162">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>195</v>
+      </c>
+      <c r="P162" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q162">
+        <v>5</v>
+      </c>
+      <c r="R162">
+        <v>7</v>
+      </c>
+      <c r="S162">
+        <v>12</v>
+      </c>
+      <c r="T162">
+        <v>2.4</v>
+      </c>
+      <c r="U162">
+        <v>2.2</v>
+      </c>
+      <c r="V162">
+        <v>4.2</v>
+      </c>
+      <c r="W162">
+        <v>1.32</v>
+      </c>
+      <c r="X162">
+        <v>3.1</v>
+      </c>
+      <c r="Y162">
+        <v>2.5</v>
+      </c>
+      <c r="Z162">
+        <v>1.48</v>
+      </c>
+      <c r="AA162">
+        <v>6.25</v>
+      </c>
+      <c r="AB162">
+        <v>1.11</v>
+      </c>
+      <c r="AC162">
+        <v>1.76</v>
+      </c>
+      <c r="AD162">
+        <v>3.27</v>
+      </c>
+      <c r="AE162">
+        <v>4.16</v>
+      </c>
+      <c r="AF162">
+        <v>1.04</v>
+      </c>
+      <c r="AG162">
+        <v>14.5</v>
+      </c>
+      <c r="AH162">
+        <v>1.24</v>
+      </c>
+      <c r="AI162">
+        <v>4.15</v>
+      </c>
+      <c r="AJ162">
+        <v>1.83</v>
+      </c>
+      <c r="AK162">
+        <v>1.97</v>
+      </c>
+      <c r="AL162">
+        <v>1.65</v>
+      </c>
+      <c r="AM162">
+        <v>2.1</v>
+      </c>
+      <c r="AN162">
+        <v>1.27</v>
+      </c>
+      <c r="AO162">
+        <v>1.28</v>
+      </c>
+      <c r="AP162">
+        <v>1.88</v>
+      </c>
+      <c r="AQ162">
+        <v>0.9</v>
+      </c>
+      <c r="AR162">
+        <v>1.3</v>
+      </c>
+      <c r="AS162">
+        <v>0.91</v>
+      </c>
+      <c r="AT162">
+        <v>1.27</v>
+      </c>
+      <c r="AU162">
+        <v>1.87</v>
+      </c>
+      <c r="AV162">
+        <v>1.47</v>
+      </c>
+      <c r="AW162">
+        <v>3.34</v>
+      </c>
+      <c r="AX162">
+        <v>1.37</v>
+      </c>
+      <c r="AY162">
+        <v>9.5</v>
+      </c>
+      <c r="AZ162">
+        <v>3.68</v>
+      </c>
+      <c r="BA162">
+        <v>1.14</v>
+      </c>
+      <c r="BB162">
+        <v>1.27</v>
+      </c>
+      <c r="BC162">
+        <v>1.48</v>
+      </c>
+      <c r="BD162">
+        <v>1.8</v>
+      </c>
+      <c r="BE162">
+        <v>2.35</v>
+      </c>
+      <c r="BF162">
+        <v>9</v>
+      </c>
+      <c r="BG162">
+        <v>7</v>
+      </c>
+      <c r="BH162">
+        <v>5</v>
+      </c>
+      <c r="BI162">
+        <v>3</v>
+      </c>
+      <c r="BJ162">
+        <v>14</v>
+      </c>
+      <c r="BK162">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="163" spans="1:63">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>2595293</v>
+      </c>
+      <c r="C163" t="s">
+        <v>63</v>
+      </c>
+      <c r="D163" t="s">
+        <v>64</v>
+      </c>
+      <c r="E163" s="2">
+        <v>44982.45833333334</v>
+      </c>
+      <c r="F163">
+        <v>21</v>
+      </c>
+      <c r="G163" t="s">
+        <v>65</v>
+      </c>
+      <c r="H163" t="s">
+        <v>72</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+      <c r="K163">
+        <v>2</v>
+      </c>
+      <c r="L163">
+        <v>2</v>
+      </c>
+      <c r="M163">
+        <v>3</v>
+      </c>
+      <c r="N163">
+        <v>5</v>
+      </c>
+      <c r="O163" t="s">
+        <v>196</v>
+      </c>
+      <c r="P163" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q163">
+        <v>3</v>
+      </c>
+      <c r="R163">
+        <v>6</v>
+      </c>
+      <c r="S163">
+        <v>9</v>
+      </c>
+      <c r="T163">
+        <v>5.5</v>
+      </c>
+      <c r="U163">
+        <v>2.37</v>
+      </c>
+      <c r="V163">
+        <v>1.95</v>
+      </c>
+      <c r="W163">
+        <v>1.29</v>
+      </c>
+      <c r="X163">
+        <v>3.25</v>
+      </c>
+      <c r="Y163">
+        <v>2.3</v>
+      </c>
+      <c r="Z163">
+        <v>1.53</v>
+      </c>
+      <c r="AA163">
+        <v>5.25</v>
+      </c>
+      <c r="AB163">
+        <v>1.13</v>
+      </c>
+      <c r="AC163">
+        <v>5.53</v>
+      </c>
+      <c r="AD163">
+        <v>4.42</v>
+      </c>
+      <c r="AE163">
+        <v>1.41</v>
+      </c>
+      <c r="AF163">
+        <v>1.04</v>
+      </c>
+      <c r="AG163">
+        <v>10</v>
+      </c>
+      <c r="AH163">
+        <v>1.22</v>
+      </c>
+      <c r="AI163">
+        <v>4</v>
+      </c>
+      <c r="AJ163">
+        <v>1.61</v>
+      </c>
+      <c r="AK163">
+        <v>2.05</v>
+      </c>
+      <c r="AL163">
+        <v>1.77</v>
+      </c>
+      <c r="AM163">
+        <v>1.93</v>
+      </c>
+      <c r="AN163">
+        <v>2.6</v>
+      </c>
+      <c r="AO163">
+        <v>1.2</v>
+      </c>
+      <c r="AP163">
+        <v>1.12</v>
+      </c>
+      <c r="AQ163">
+        <v>1.2</v>
+      </c>
+      <c r="AR163">
+        <v>2</v>
+      </c>
+      <c r="AS163">
+        <v>1.09</v>
+      </c>
+      <c r="AT163">
+        <v>2.1</v>
+      </c>
+      <c r="AU163">
+        <v>1.62</v>
+      </c>
+      <c r="AV163">
+        <v>1.57</v>
+      </c>
+      <c r="AW163">
+        <v>3.19</v>
+      </c>
+      <c r="AX163">
+        <v>3.48</v>
+      </c>
+      <c r="AY163">
+        <v>9</v>
+      </c>
+      <c r="AZ163">
+        <v>1.41</v>
+      </c>
+      <c r="BA163">
+        <v>1.22</v>
+      </c>
+      <c r="BB163">
+        <v>1.42</v>
+      </c>
+      <c r="BC163">
+        <v>1.74</v>
+      </c>
+      <c r="BD163">
+        <v>2.23</v>
+      </c>
+      <c r="BE163">
+        <v>3</v>
+      </c>
+      <c r="BF163">
+        <v>7</v>
+      </c>
+      <c r="BG163">
+        <v>7</v>
+      </c>
+      <c r="BH163">
+        <v>4</v>
+      </c>
+      <c r="BI163">
+        <v>11</v>
+      </c>
+      <c r="BJ163">
+        <v>11</v>
+      </c>
+      <c r="BK163">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>2595298</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>44982.45833333334</v>
+      </c>
+      <c r="F164">
+        <v>21</v>
+      </c>
+      <c r="G164" t="s">
+        <v>78</v>
+      </c>
+      <c r="H164" t="s">
+        <v>77</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>2</v>
+      </c>
+      <c r="N164">
+        <v>4</v>
+      </c>
+      <c r="O164" t="s">
+        <v>197</v>
+      </c>
+      <c r="P164" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q164">
+        <v>6</v>
+      </c>
+      <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>8</v>
+      </c>
+      <c r="T164">
+        <v>2.3</v>
+      </c>
+      <c r="U164">
+        <v>2.15</v>
+      </c>
+      <c r="V164">
+        <v>4.4</v>
+      </c>
+      <c r="W164">
+        <v>1.35</v>
+      </c>
+      <c r="X164">
+        <v>2.95</v>
+      </c>
+      <c r="Y164">
+        <v>2.55</v>
+      </c>
+      <c r="Z164">
+        <v>1.46</v>
+      </c>
+      <c r="AA164">
+        <v>6.25</v>
+      </c>
+      <c r="AB164">
+        <v>1.1</v>
+      </c>
+      <c r="AC164">
+        <v>1.68</v>
+      </c>
+      <c r="AD164">
+        <v>3.84</v>
+      </c>
+      <c r="AE164">
+        <v>3.84</v>
+      </c>
+      <c r="AF164">
+        <v>1.04</v>
+      </c>
+      <c r="AG164">
+        <v>10</v>
+      </c>
+      <c r="AH164">
+        <v>1.2</v>
+      </c>
+      <c r="AI164">
+        <v>4.2</v>
+      </c>
+      <c r="AJ164">
+        <v>1.67</v>
+      </c>
+      <c r="AK164">
+        <v>2.05</v>
+      </c>
+      <c r="AL164">
+        <v>1.7</v>
+      </c>
+      <c r="AM164">
+        <v>2</v>
+      </c>
+      <c r="AN164">
+        <v>1.2</v>
+      </c>
+      <c r="AO164">
+        <v>1.26</v>
+      </c>
+      <c r="AP164">
+        <v>2</v>
+      </c>
+      <c r="AQ164">
+        <v>1.11</v>
+      </c>
+      <c r="AR164">
+        <v>1.3</v>
+      </c>
+      <c r="AS164">
+        <v>1.1</v>
+      </c>
+      <c r="AT164">
+        <v>1.27</v>
+      </c>
+      <c r="AU164">
+        <v>1.64</v>
+      </c>
+      <c r="AV164">
+        <v>1.22</v>
+      </c>
+      <c r="AW164">
+        <v>2.86</v>
+      </c>
+      <c r="AX164">
+        <v>1.3</v>
+      </c>
+      <c r="AY164">
+        <v>10</v>
+      </c>
+      <c r="AZ164">
+        <v>4.42</v>
+      </c>
+      <c r="BA164">
+        <v>1.14</v>
+      </c>
+      <c r="BB164">
+        <v>1.29</v>
+      </c>
+      <c r="BC164">
+        <v>1.5</v>
+      </c>
+      <c r="BD164">
+        <v>1.85</v>
+      </c>
+      <c r="BE164">
+        <v>2.43</v>
+      </c>
+      <c r="BF164">
+        <v>4</v>
+      </c>
+      <c r="BG164">
+        <v>6</v>
+      </c>
+      <c r="BH164">
+        <v>11</v>
+      </c>
+      <c r="BI164">
+        <v>6</v>
+      </c>
+      <c r="BJ164">
+        <v>15</v>
+      </c>
+      <c r="BK164">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>2595296</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>44982.58333333334</v>
+      </c>
+      <c r="F165">
+        <v>21</v>
+      </c>
+      <c r="G165" t="s">
+        <v>73</v>
+      </c>
+      <c r="H165" t="s">
+        <v>74</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165" t="s">
+        <v>198</v>
+      </c>
+      <c r="P165" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q165">
+        <v>5</v>
+      </c>
+      <c r="R165">
+        <v>9</v>
+      </c>
+      <c r="S165">
+        <v>14</v>
+      </c>
+      <c r="T165">
+        <v>1.9</v>
+      </c>
+      <c r="U165">
+        <v>2.35</v>
+      </c>
+      <c r="V165">
+        <v>6</v>
+      </c>
+      <c r="W165">
+        <v>1.34</v>
+      </c>
+      <c r="X165">
+        <v>3</v>
+      </c>
+      <c r="Y165">
+        <v>2.55</v>
+      </c>
+      <c r="Z165">
+        <v>1.44</v>
+      </c>
+      <c r="AA165">
+        <v>6.25</v>
+      </c>
+      <c r="AB165">
+        <v>1.1</v>
+      </c>
+      <c r="AC165">
+        <v>1.38</v>
+      </c>
+      <c r="AD165">
+        <v>4.22</v>
+      </c>
+      <c r="AE165">
+        <v>6.48</v>
+      </c>
+      <c r="AF165">
+        <v>1.04</v>
+      </c>
+      <c r="AG165">
+        <v>10</v>
+      </c>
+      <c r="AH165">
+        <v>1.22</v>
+      </c>
+      <c r="AI165">
+        <v>4</v>
+      </c>
+      <c r="AJ165">
+        <v>1.8</v>
+      </c>
+      <c r="AK165">
+        <v>2</v>
+      </c>
+      <c r="AL165">
+        <v>1.98</v>
+      </c>
+      <c r="AM165">
+        <v>1.71</v>
+      </c>
+      <c r="AN165">
+        <v>1.1</v>
+      </c>
+      <c r="AO165">
+        <v>1.18</v>
+      </c>
+      <c r="AP165">
+        <v>2.8</v>
+      </c>
+      <c r="AQ165">
+        <v>2.33</v>
+      </c>
+      <c r="AR165">
+        <v>1.3</v>
+      </c>
+      <c r="AS165">
+        <v>2.4</v>
+      </c>
+      <c r="AT165">
+        <v>1.18</v>
+      </c>
+      <c r="AU165">
+        <v>1.93</v>
+      </c>
+      <c r="AV165">
+        <v>1.27</v>
+      </c>
+      <c r="AW165">
+        <v>3.2</v>
+      </c>
+      <c r="AX165">
+        <v>1.3</v>
+      </c>
+      <c r="AY165">
+        <v>10</v>
+      </c>
+      <c r="AZ165">
+        <v>4.42</v>
+      </c>
+      <c r="BA165">
+        <v>1.18</v>
+      </c>
+      <c r="BB165">
+        <v>1.34</v>
+      </c>
+      <c r="BC165">
+        <v>1.61</v>
+      </c>
+      <c r="BD165">
+        <v>2.02</v>
+      </c>
+      <c r="BE165">
+        <v>2.7</v>
+      </c>
+      <c r="BF165">
+        <v>4</v>
+      </c>
+      <c r="BG165">
+        <v>3</v>
+      </c>
+      <c r="BH165">
+        <v>2</v>
+      </c>
+      <c r="BI165">
+        <v>3</v>
+      </c>
+      <c r="BJ165">
+        <v>6</v>
+      </c>
+      <c r="BK165">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="299">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,15 @@
     <t>['21', '68']</t>
   </si>
   <si>
+    <t>['61', '90+8']</t>
+  </si>
+  <si>
+    <t>['12', '73']</t>
+  </si>
+  <si>
+    <t>['9', '41', '55', '83']</t>
+  </si>
+  <si>
     <t>['30', '71']</t>
   </si>
   <si>
@@ -896,6 +905,12 @@
   </si>
   <si>
     <t>['44', '78']</t>
+  </si>
+  <si>
+    <t>['59', '63']</t>
+  </si>
+  <si>
+    <t>['23', '70']</t>
   </si>
 </sst>
 </file>
@@ -1257,7 +1272,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK165"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1692,7 +1707,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1782,7 +1797,7 @@
         <v>1.1</v>
       </c>
       <c r="AT3">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1883,7 +1898,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1970,7 +1985,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT4">
         <v>1.45</v>
@@ -2074,7 +2089,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2265,7 +2280,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>12</v>
@@ -2647,7 +2662,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2734,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT8">
         <v>1.9</v>
@@ -2838,7 +2853,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -3119,7 +3134,7 @@
         <v>2.4</v>
       </c>
       <c r="AT10">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3220,7 +3235,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3310,7 +3325,7 @@
         <v>1.3</v>
       </c>
       <c r="AT11">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3411,7 +3426,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3498,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT12">
         <v>1.27</v>
@@ -3602,7 +3617,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3793,7 +3808,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3984,7 +3999,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -4265,7 +4280,7 @@
         <v>1.7</v>
       </c>
       <c r="AT16">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4366,7 +4381,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4557,7 +4572,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4644,7 +4659,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT18">
         <v>0.5</v>
@@ -4748,7 +4763,7 @@
         <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4939,7 +4954,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5130,7 +5145,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5321,7 +5336,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5411,7 +5426,7 @@
         <v>0.8</v>
       </c>
       <c r="AT22">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU22">
         <v>1.15</v>
@@ -5512,7 +5527,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5599,7 +5614,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT23">
         <v>1.7</v>
@@ -6085,7 +6100,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6172,10 +6187,10 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT26">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU26">
         <v>1.64</v>
@@ -6276,7 +6291,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6467,7 +6482,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6658,7 +6673,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6745,10 +6760,10 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT29">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU29">
         <v>1.51</v>
@@ -6849,7 +6864,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -7130,7 +7145,7 @@
         <v>3</v>
       </c>
       <c r="AT31">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU31">
         <v>1.66</v>
@@ -7231,7 +7246,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7321,7 +7336,7 @@
         <v>0.91</v>
       </c>
       <c r="AT32">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU32">
         <v>2.04</v>
@@ -7422,7 +7437,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7613,7 +7628,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7804,7 +7819,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7891,7 +7906,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT35">
         <v>0.9</v>
@@ -8186,7 +8201,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8377,7 +8392,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8759,7 +8774,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8950,7 +8965,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9231,7 +9246,7 @@
         <v>1.09</v>
       </c>
       <c r="AT42">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -9332,7 +9347,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9419,7 +9434,7 @@
         <v>3</v>
       </c>
       <c r="AS43">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT43">
         <v>2.1</v>
@@ -9613,7 +9628,7 @@
         <v>2.4</v>
       </c>
       <c r="AT44">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU44">
         <v>1.69</v>
@@ -9801,7 +9816,7 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT45">
         <v>1.18</v>
@@ -9905,7 +9920,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -9995,7 +10010,7 @@
         <v>1.1</v>
       </c>
       <c r="AT46">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU46">
         <v>1.33</v>
@@ -10096,7 +10111,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10183,7 +10198,7 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT47">
         <v>1.27</v>
@@ -10377,7 +10392,7 @@
         <v>3</v>
       </c>
       <c r="AT48">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU48">
         <v>2.41</v>
@@ -10478,7 +10493,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10669,7 +10684,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q50">
         <v>11</v>
@@ -10860,7 +10875,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11433,7 +11448,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11624,7 +11639,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11815,7 +11830,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12006,7 +12021,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12093,7 +12108,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT57">
         <v>2.18</v>
@@ -12197,7 +12212,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12388,7 +12403,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12579,7 +12594,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -12860,7 +12875,7 @@
         <v>1.1</v>
       </c>
       <c r="AT61">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU61">
         <v>1.42</v>
@@ -13048,10 +13063,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT62">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU62">
         <v>1.64</v>
@@ -13239,10 +13254,10 @@
         <v>2</v>
       </c>
       <c r="AS63">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT63">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU63">
         <v>1.45</v>
@@ -13343,7 +13358,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q64">
         <v>11</v>
@@ -13534,7 +13549,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13624,7 +13639,7 @@
         <v>1.1</v>
       </c>
       <c r="AT65">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU65">
         <v>1.34</v>
@@ -13725,7 +13740,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13916,7 +13931,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14107,7 +14122,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14680,7 +14695,7 @@
         <v>81</v>
       </c>
       <c r="P71" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -15062,7 +15077,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15253,7 +15268,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15444,7 +15459,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q75">
         <v>15</v>
@@ -15531,7 +15546,7 @@
         <v>1.75</v>
       </c>
       <c r="AS75">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT75">
         <v>1.27</v>
@@ -15635,7 +15650,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15725,7 +15740,7 @@
         <v>2.18</v>
       </c>
       <c r="AT76">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU76">
         <v>2.06</v>
@@ -15913,7 +15928,7 @@
         <v>3</v>
       </c>
       <c r="AS77">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT77">
         <v>1.27</v>
@@ -16107,7 +16122,7 @@
         <v>1.45</v>
       </c>
       <c r="AT78">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU78">
         <v>1.3</v>
@@ -16208,7 +16223,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -16298,7 +16313,7 @@
         <v>1.09</v>
       </c>
       <c r="AT79">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU79">
         <v>1.79</v>
@@ -16590,7 +16605,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16680,7 +16695,7 @@
         <v>1.27</v>
       </c>
       <c r="AT81">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU81">
         <v>1.29</v>
@@ -16972,7 +16987,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17354,7 +17369,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17545,7 +17560,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -18014,7 +18029,7 @@
         <v>1.4</v>
       </c>
       <c r="AS88">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT88">
         <v>1.7</v>
@@ -18118,7 +18133,7 @@
         <v>81</v>
       </c>
       <c r="P89" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18309,7 +18324,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q90">
         <v>14</v>
@@ -18691,7 +18706,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q92">
         <v>10</v>
@@ -18781,7 +18796,7 @@
         <v>2.18</v>
       </c>
       <c r="AT92">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU92">
         <v>2.01</v>
@@ -18969,10 +18984,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT93">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU93">
         <v>1.87</v>
@@ -19073,7 +19088,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19264,7 +19279,7 @@
         <v>81</v>
       </c>
       <c r="P95" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19351,7 +19366,7 @@
         <v>2.33</v>
       </c>
       <c r="AS95">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT95">
         <v>2.18</v>
@@ -19455,7 +19470,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19733,7 +19748,7 @@
         <v>0.67</v>
       </c>
       <c r="AS97">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT97">
         <v>0.5</v>
@@ -20028,7 +20043,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20219,7 +20234,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20410,7 +20425,7 @@
         <v>81</v>
       </c>
       <c r="P101" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20500,7 +20515,7 @@
         <v>0.8</v>
       </c>
       <c r="AT101">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU101">
         <v>1.17</v>
@@ -20601,7 +20616,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20792,7 +20807,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q103">
         <v>13</v>
@@ -20882,7 +20897,7 @@
         <v>1.7</v>
       </c>
       <c r="AT103">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU103">
         <v>1.76</v>
@@ -21174,7 +21189,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21264,7 +21279,7 @@
         <v>1.27</v>
       </c>
       <c r="AT105">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU105">
         <v>1.44</v>
@@ -21452,7 +21467,7 @@
         <v>2.17</v>
       </c>
       <c r="AS106">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT106">
         <v>1.27</v>
@@ -21556,7 +21571,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21643,7 +21658,7 @@
         <v>1.43</v>
       </c>
       <c r="AS107">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT107">
         <v>1.45</v>
@@ -21747,7 +21762,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21938,7 +21953,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22320,7 +22335,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22511,7 +22526,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q112">
         <v>14</v>
@@ -22702,7 +22717,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22980,7 +22995,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT114">
         <v>0.8</v>
@@ -23365,7 +23380,7 @@
         <v>1.3</v>
       </c>
       <c r="AT116">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU116">
         <v>1.88</v>
@@ -23556,7 +23571,7 @@
         <v>1.7</v>
       </c>
       <c r="AT117">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU117">
         <v>1.93</v>
@@ -23747,7 +23762,7 @@
         <v>1.1</v>
       </c>
       <c r="AT118">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU118">
         <v>1.6</v>
@@ -24320,7 +24335,7 @@
         <v>2.18</v>
       </c>
       <c r="AT121">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU121">
         <v>2.16</v>
@@ -24421,7 +24436,7 @@
         <v>169</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24612,7 +24627,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24699,7 +24714,7 @@
         <v>1.25</v>
       </c>
       <c r="AS123">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT123">
         <v>1.45</v>
@@ -24803,7 +24818,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -24890,7 +24905,7 @@
         <v>2.29</v>
       </c>
       <c r="AS124">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT124">
         <v>1.9</v>
@@ -25185,7 +25200,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -25275,7 +25290,7 @@
         <v>1.27</v>
       </c>
       <c r="AT126">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU126">
         <v>1.46</v>
@@ -25376,7 +25391,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25567,7 +25582,7 @@
         <v>174</v>
       </c>
       <c r="P128" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25758,7 +25773,7 @@
         <v>81</v>
       </c>
       <c r="P129" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -26230,7 +26245,7 @@
         <v>0.91</v>
       </c>
       <c r="AT131">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU131">
         <v>1.88</v>
@@ -26331,7 +26346,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26421,7 +26436,7 @@
         <v>2.4</v>
       </c>
       <c r="AT132">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU132">
         <v>1.87</v>
@@ -26522,7 +26537,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q133">
         <v>8</v>
@@ -26609,7 +26624,7 @@
         <v>2</v>
       </c>
       <c r="AS133">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT133">
         <v>2.1</v>
@@ -26713,7 +26728,7 @@
         <v>102</v>
       </c>
       <c r="P134" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q134">
         <v>12</v>
@@ -26803,7 +26818,7 @@
         <v>1.3</v>
       </c>
       <c r="AT134">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU134">
         <v>1.77</v>
@@ -27095,7 +27110,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27286,7 +27301,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -27477,7 +27492,7 @@
         <v>180</v>
       </c>
       <c r="P138" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27564,7 +27579,7 @@
         <v>0.5</v>
       </c>
       <c r="AS138">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT138">
         <v>0.5</v>
@@ -27668,7 +27683,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -28050,7 +28065,7 @@
         <v>81</v>
       </c>
       <c r="P141" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28241,7 +28256,7 @@
         <v>81</v>
       </c>
       <c r="P142" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28432,7 +28447,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28623,7 +28638,7 @@
         <v>81</v>
       </c>
       <c r="P144" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29095,7 +29110,7 @@
         <v>1.3</v>
       </c>
       <c r="AT146">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU146">
         <v>1.78</v>
@@ -29196,7 +29211,7 @@
         <v>122</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29283,7 +29298,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AT147">
         <v>0.8</v>
@@ -29477,7 +29492,7 @@
         <v>1.09</v>
       </c>
       <c r="AT148">
-        <v>0.44</v>
+        <v>0.4</v>
       </c>
       <c r="AU148">
         <v>1.63</v>
@@ -29960,7 +29975,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q151">
         <v>7</v>
@@ -30047,10 +30062,10 @@
         <v>1.5</v>
       </c>
       <c r="AS151">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT151">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU151">
         <v>1.61</v>
@@ -30151,7 +30166,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q152">
         <v>14</v>
@@ -30241,7 +30256,7 @@
         <v>1.1</v>
       </c>
       <c r="AT152">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
       <c r="AU152">
         <v>1.59</v>
@@ -30342,7 +30357,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30915,7 +30930,7 @@
         <v>189</v>
       </c>
       <c r="P156" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31106,7 +31121,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31297,7 +31312,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -32252,7 +32267,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32443,7 +32458,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32776,6 +32791,770 @@
       </c>
       <c r="BK165">
         <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>2595297</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F166">
+        <v>21</v>
+      </c>
+      <c r="G166" t="s">
+        <v>75</v>
+      </c>
+      <c r="H166" t="s">
+        <v>69</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>2</v>
+      </c>
+      <c r="M166">
+        <v>2</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166" t="s">
+        <v>199</v>
+      </c>
+      <c r="P166" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q166">
+        <v>8</v>
+      </c>
+      <c r="R166">
+        <v>3</v>
+      </c>
+      <c r="S166">
+        <v>11</v>
+      </c>
+      <c r="T166">
+        <v>2.2</v>
+      </c>
+      <c r="U166">
+        <v>2.15</v>
+      </c>
+      <c r="V166">
+        <v>4.8</v>
+      </c>
+      <c r="W166">
+        <v>1.36</v>
+      </c>
+      <c r="X166">
+        <v>2.85</v>
+      </c>
+      <c r="Y166">
+        <v>2.65</v>
+      </c>
+      <c r="Z166">
+        <v>1.42</v>
+      </c>
+      <c r="AA166">
+        <v>6.5</v>
+      </c>
+      <c r="AB166">
+        <v>1.09</v>
+      </c>
+      <c r="AC166">
+        <v>1.65</v>
+      </c>
+      <c r="AD166">
+        <v>3.6</v>
+      </c>
+      <c r="AE166">
+        <v>5</v>
+      </c>
+      <c r="AF166">
+        <v>1.04</v>
+      </c>
+      <c r="AG166">
+        <v>8.5</v>
+      </c>
+      <c r="AH166">
+        <v>1.2</v>
+      </c>
+      <c r="AI166">
+        <v>3.9</v>
+      </c>
+      <c r="AJ166">
+        <v>1.73</v>
+      </c>
+      <c r="AK166">
+        <v>2.04</v>
+      </c>
+      <c r="AL166">
+        <v>1.82</v>
+      </c>
+      <c r="AM166">
+        <v>1.87</v>
+      </c>
+      <c r="AN166">
+        <v>1.1</v>
+      </c>
+      <c r="AO166">
+        <v>1.22</v>
+      </c>
+      <c r="AP166">
+        <v>2.3</v>
+      </c>
+      <c r="AQ166">
+        <v>1.33</v>
+      </c>
+      <c r="AR166">
+        <v>0.7</v>
+      </c>
+      <c r="AS166">
+        <v>1.3</v>
+      </c>
+      <c r="AT166">
+        <v>0.73</v>
+      </c>
+      <c r="AU166">
+        <v>1.66</v>
+      </c>
+      <c r="AV166">
+        <v>1.37</v>
+      </c>
+      <c r="AW166">
+        <v>3.03</v>
+      </c>
+      <c r="AX166">
+        <v>1.21</v>
+      </c>
+      <c r="AY166">
+        <v>7.75</v>
+      </c>
+      <c r="AZ166">
+        <v>4.9</v>
+      </c>
+      <c r="BA166">
+        <v>1.13</v>
+      </c>
+      <c r="BB166">
+        <v>1.27</v>
+      </c>
+      <c r="BC166">
+        <v>1.48</v>
+      </c>
+      <c r="BD166">
+        <v>1.8</v>
+      </c>
+      <c r="BE166">
+        <v>2.35</v>
+      </c>
+      <c r="BF166">
+        <v>9</v>
+      </c>
+      <c r="BG166">
+        <v>6</v>
+      </c>
+      <c r="BH166">
+        <v>12</v>
+      </c>
+      <c r="BI166">
+        <v>2</v>
+      </c>
+      <c r="BJ166">
+        <v>21</v>
+      </c>
+      <c r="BK166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>2595299</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F167">
+        <v>21</v>
+      </c>
+      <c r="G167" t="s">
+        <v>80</v>
+      </c>
+      <c r="H167" t="s">
+        <v>79</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>2</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>200</v>
+      </c>
+      <c r="P167" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q167">
+        <v>14</v>
+      </c>
+      <c r="R167">
+        <v>5</v>
+      </c>
+      <c r="S167">
+        <v>19</v>
+      </c>
+      <c r="T167">
+        <v>1.71</v>
+      </c>
+      <c r="U167">
+        <v>2.56</v>
+      </c>
+      <c r="V167">
+        <v>8.5</v>
+      </c>
+      <c r="W167">
+        <v>1.31</v>
+      </c>
+      <c r="X167">
+        <v>3.28</v>
+      </c>
+      <c r="Y167">
+        <v>2.46</v>
+      </c>
+      <c r="Z167">
+        <v>1.51</v>
+      </c>
+      <c r="AA167">
+        <v>5.85</v>
+      </c>
+      <c r="AB167">
+        <v>1.12</v>
+      </c>
+      <c r="AC167">
+        <v>1.33</v>
+      </c>
+      <c r="AD167">
+        <v>4.75</v>
+      </c>
+      <c r="AE167">
+        <v>7.5</v>
+      </c>
+      <c r="AF167">
+        <v>1.04</v>
+      </c>
+      <c r="AG167">
+        <v>10</v>
+      </c>
+      <c r="AH167">
+        <v>1.19</v>
+      </c>
+      <c r="AI167">
+        <v>4.05</v>
+      </c>
+      <c r="AJ167">
+        <v>1.64</v>
+      </c>
+      <c r="AK167">
+        <v>2.18</v>
+      </c>
+      <c r="AL167">
+        <v>2.18</v>
+      </c>
+      <c r="AM167">
+        <v>1.64</v>
+      </c>
+      <c r="AN167">
+        <v>1.04</v>
+      </c>
+      <c r="AO167">
+        <v>1.14</v>
+      </c>
+      <c r="AP167">
+        <v>3.64</v>
+      </c>
+      <c r="AQ167">
+        <v>3</v>
+      </c>
+      <c r="AR167">
+        <v>1.5</v>
+      </c>
+      <c r="AS167">
+        <v>3</v>
+      </c>
+      <c r="AT167">
+        <v>1.36</v>
+      </c>
+      <c r="AU167">
+        <v>2.35</v>
+      </c>
+      <c r="AV167">
+        <v>1.42</v>
+      </c>
+      <c r="AW167">
+        <v>3.77</v>
+      </c>
+      <c r="AX167">
+        <v>1.15</v>
+      </c>
+      <c r="AY167">
+        <v>8.25</v>
+      </c>
+      <c r="AZ167">
+        <v>6.5</v>
+      </c>
+      <c r="BA167">
+        <v>1.18</v>
+      </c>
+      <c r="BB167">
+        <v>1.34</v>
+      </c>
+      <c r="BC167">
+        <v>1.61</v>
+      </c>
+      <c r="BD167">
+        <v>2.02</v>
+      </c>
+      <c r="BE167">
+        <v>2.7</v>
+      </c>
+      <c r="BF167">
+        <v>4</v>
+      </c>
+      <c r="BG167">
+        <v>3</v>
+      </c>
+      <c r="BH167">
+        <v>14</v>
+      </c>
+      <c r="BI167">
+        <v>4</v>
+      </c>
+      <c r="BJ167">
+        <v>18</v>
+      </c>
+      <c r="BK167">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>2595295</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>44983.45833333334</v>
+      </c>
+      <c r="F168">
+        <v>21</v>
+      </c>
+      <c r="G168" t="s">
+        <v>71</v>
+      </c>
+      <c r="H168" t="s">
+        <v>68</v>
+      </c>
+      <c r="I168">
+        <v>2</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>4</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>5</v>
+      </c>
+      <c r="O168" t="s">
+        <v>201</v>
+      </c>
+      <c r="P168" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q168">
+        <v>8</v>
+      </c>
+      <c r="R168">
+        <v>2</v>
+      </c>
+      <c r="S168">
+        <v>10</v>
+      </c>
+      <c r="T168">
+        <v>2.2</v>
+      </c>
+      <c r="U168">
+        <v>2.15</v>
+      </c>
+      <c r="V168">
+        <v>5</v>
+      </c>
+      <c r="W168">
+        <v>1.37</v>
+      </c>
+      <c r="X168">
+        <v>2.8</v>
+      </c>
+      <c r="Y168">
+        <v>2.7</v>
+      </c>
+      <c r="Z168">
+        <v>1.4</v>
+      </c>
+      <c r="AA168">
+        <v>6.75</v>
+      </c>
+      <c r="AB168">
+        <v>1.09</v>
+      </c>
+      <c r="AC168">
+        <v>1.5</v>
+      </c>
+      <c r="AD168">
+        <v>4</v>
+      </c>
+      <c r="AE168">
+        <v>6</v>
+      </c>
+      <c r="AF168">
+        <v>1.05</v>
+      </c>
+      <c r="AG168">
+        <v>9</v>
+      </c>
+      <c r="AH168">
+        <v>1.28</v>
+      </c>
+      <c r="AI168">
+        <v>3.5</v>
+      </c>
+      <c r="AJ168">
+        <v>1.92</v>
+      </c>
+      <c r="AK168">
+        <v>1.83</v>
+      </c>
+      <c r="AL168">
+        <v>1.87</v>
+      </c>
+      <c r="AM168">
+        <v>1.82</v>
+      </c>
+      <c r="AN168">
+        <v>1.16</v>
+      </c>
+      <c r="AO168">
+        <v>1.25</v>
+      </c>
+      <c r="AP168">
+        <v>2.2</v>
+      </c>
+      <c r="AQ168">
+        <v>1.2</v>
+      </c>
+      <c r="AR168">
+        <v>0.44</v>
+      </c>
+      <c r="AS168">
+        <v>1.36</v>
+      </c>
+      <c r="AT168">
+        <v>0.4</v>
+      </c>
+      <c r="AU168">
+        <v>1.72</v>
+      </c>
+      <c r="AV168">
+        <v>1.32</v>
+      </c>
+      <c r="AW168">
+        <v>3.04</v>
+      </c>
+      <c r="AX168">
+        <v>1.3</v>
+      </c>
+      <c r="AY168">
+        <v>10</v>
+      </c>
+      <c r="AZ168">
+        <v>4.42</v>
+      </c>
+      <c r="BA168">
+        <v>1.18</v>
+      </c>
+      <c r="BB168">
+        <v>1.34</v>
+      </c>
+      <c r="BC168">
+        <v>1.61</v>
+      </c>
+      <c r="BD168">
+        <v>2.02</v>
+      </c>
+      <c r="BE168">
+        <v>2.7</v>
+      </c>
+      <c r="BF168">
+        <v>7</v>
+      </c>
+      <c r="BG168">
+        <v>2</v>
+      </c>
+      <c r="BH168">
+        <v>4</v>
+      </c>
+      <c r="BI168">
+        <v>7</v>
+      </c>
+      <c r="BJ168">
+        <v>11</v>
+      </c>
+      <c r="BK168">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>2595294</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>44983.58333333334</v>
+      </c>
+      <c r="F169">
+        <v>21</v>
+      </c>
+      <c r="G169" t="s">
+        <v>67</v>
+      </c>
+      <c r="H169" t="s">
+        <v>70</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>81</v>
+      </c>
+      <c r="P169" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q169">
+        <v>3</v>
+      </c>
+      <c r="R169">
+        <v>5</v>
+      </c>
+      <c r="S169">
+        <v>8</v>
+      </c>
+      <c r="T169">
+        <v>2.3</v>
+      </c>
+      <c r="U169">
+        <v>2.15</v>
+      </c>
+      <c r="V169">
+        <v>4.4</v>
+      </c>
+      <c r="W169">
+        <v>1.38</v>
+      </c>
+      <c r="X169">
+        <v>2.8</v>
+      </c>
+      <c r="Y169">
+        <v>2.8</v>
+      </c>
+      <c r="Z169">
+        <v>1.38</v>
+      </c>
+      <c r="AA169">
+        <v>7.25</v>
+      </c>
+      <c r="AB169">
+        <v>1.08</v>
+      </c>
+      <c r="AC169">
+        <v>1.91</v>
+      </c>
+      <c r="AD169">
+        <v>3.5</v>
+      </c>
+      <c r="AE169">
+        <v>4.1</v>
+      </c>
+      <c r="AF169">
+        <v>1.05</v>
+      </c>
+      <c r="AG169">
+        <v>9</v>
+      </c>
+      <c r="AH169">
+        <v>1.28</v>
+      </c>
+      <c r="AI169">
+        <v>3.5</v>
+      </c>
+      <c r="AJ169">
+        <v>2</v>
+      </c>
+      <c r="AK169">
+        <v>1.85</v>
+      </c>
+      <c r="AL169">
+        <v>1.87</v>
+      </c>
+      <c r="AM169">
+        <v>1.82</v>
+      </c>
+      <c r="AN169">
+        <v>1.21</v>
+      </c>
+      <c r="AO169">
+        <v>1.25</v>
+      </c>
+      <c r="AP169">
+        <v>2</v>
+      </c>
+      <c r="AQ169">
+        <v>1.5</v>
+      </c>
+      <c r="AR169">
+        <v>1.44</v>
+      </c>
+      <c r="AS169">
+        <v>1.36</v>
+      </c>
+      <c r="AT169">
+        <v>1.6</v>
+      </c>
+      <c r="AU169">
+        <v>1.92</v>
+      </c>
+      <c r="AV169">
+        <v>1.46</v>
+      </c>
+      <c r="AW169">
+        <v>3.38</v>
+      </c>
+      <c r="AX169">
+        <v>1.25</v>
+      </c>
+      <c r="AY169">
+        <v>7</v>
+      </c>
+      <c r="AZ169">
+        <v>4.35</v>
+      </c>
+      <c r="BA169">
+        <v>1.16</v>
+      </c>
+      <c r="BB169">
+        <v>1.3</v>
+      </c>
+      <c r="BC169">
+        <v>1.55</v>
+      </c>
+      <c r="BD169">
+        <v>2</v>
+      </c>
+      <c r="BE169">
+        <v>2.5</v>
+      </c>
+      <c r="BF169">
+        <v>5</v>
+      </c>
+      <c r="BG169">
+        <v>3</v>
+      </c>
+      <c r="BH169">
+        <v>12</v>
+      </c>
+      <c r="BI169">
+        <v>5</v>
+      </c>
+      <c r="BJ169">
+        <v>17</v>
+      </c>
+      <c r="BK169">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="308">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,24 @@
     <t>['9', '41', '55', '83']</t>
   </si>
   <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['22', '30', '58', '71']</t>
+  </si>
+  <si>
+    <t>['10', '54']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['30', '71']</t>
   </si>
   <si>
@@ -847,9 +865,6 @@
     <t>['45', '87']</t>
   </si>
   <si>
-    <t>['63']</t>
-  </si>
-  <si>
     <t>['52', '69']</t>
   </si>
   <si>
@@ -911,6 +926,18 @@
   </si>
   <si>
     <t>['23', '70']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['60', '65', '81', '85']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
+    <t>['16', '45+1', '74']</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1299,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1606,7 +1633,7 @@
         <v>1.09</v>
       </c>
       <c r="AT2">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1707,7 +1734,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1794,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT3">
         <v>1.36</v>
@@ -1898,7 +1925,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -1988,7 +2015,7 @@
         <v>1.36</v>
       </c>
       <c r="AT4">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2089,7 +2116,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2280,7 +2307,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="Q6">
         <v>12</v>
@@ -2558,10 +2585,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT7">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2662,7 +2689,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2752,7 +2779,7 @@
         <v>1.36</v>
       </c>
       <c r="AT8">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -2853,7 +2880,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2940,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT9">
         <v>1.18</v>
@@ -3131,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT10">
         <v>0.73</v>
@@ -3235,7 +3262,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3322,10 +3349,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT11">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3426,7 +3453,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3617,7 +3644,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3707,7 +3734,7 @@
         <v>0.91</v>
       </c>
       <c r="AT13">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3808,7 +3835,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3895,7 +3922,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT14">
         <v>2.1</v>
@@ -3999,7 +4026,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -4089,7 +4116,7 @@
         <v>1.1</v>
       </c>
       <c r="AT15">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>0</v>
@@ -4277,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT16">
         <v>1.6</v>
@@ -4381,7 +4408,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4471,7 +4498,7 @@
         <v>3</v>
       </c>
       <c r="AT17">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -4572,7 +4599,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4662,7 +4689,7 @@
         <v>1.36</v>
       </c>
       <c r="AT18">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU18">
         <v>2.04</v>
@@ -4763,7 +4790,7 @@
         <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4853,7 +4880,7 @@
         <v>1.45</v>
       </c>
       <c r="AT19">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU19">
         <v>1.2</v>
@@ -4954,7 +4981,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5041,10 +5068,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT20">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU20">
         <v>1.13</v>
@@ -5145,7 +5172,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5232,7 +5259,7 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT21">
         <v>2.18</v>
@@ -5336,7 +5363,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5423,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="AS22">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT22">
         <v>1.36</v>
@@ -5527,7 +5554,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5617,7 +5644,7 @@
         <v>1.36</v>
       </c>
       <c r="AT23">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU23">
         <v>2.02</v>
@@ -5996,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="AS25">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT25">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU25">
         <v>2.13</v>
@@ -6100,7 +6127,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6190,7 +6217,7 @@
         <v>1.36</v>
       </c>
       <c r="AT26">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU26">
         <v>1.64</v>
@@ -6291,7 +6318,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6482,7 +6509,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6569,7 +6596,7 @@
         <v>3</v>
       </c>
       <c r="AS28">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT28">
         <v>1.27</v>
@@ -6673,7 +6700,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6864,7 +6891,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6954,7 +6981,7 @@
         <v>1.09</v>
       </c>
       <c r="AT30">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU30">
         <v>1.34</v>
@@ -7246,7 +7273,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7437,7 +7464,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7524,7 +7551,7 @@
         <v>2</v>
       </c>
       <c r="AS33">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT33">
         <v>2.18</v>
@@ -7628,7 +7655,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7718,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="AT34">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU34">
         <v>1.94</v>
@@ -7819,7 +7846,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7909,7 +7936,7 @@
         <v>1.36</v>
       </c>
       <c r="AT35">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU35">
         <v>1.67</v>
@@ -8100,7 +8127,7 @@
         <v>1.45</v>
       </c>
       <c r="AT36">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU36">
         <v>1.17</v>
@@ -8201,7 +8228,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8288,10 +8315,10 @@
         <v>3</v>
       </c>
       <c r="AS37">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT37">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU37">
         <v>1.94</v>
@@ -8392,7 +8419,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8479,7 +8506,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT38">
         <v>1.18</v>
@@ -8670,10 +8697,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT39">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU39">
         <v>1.07</v>
@@ -8774,7 +8801,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8861,10 +8888,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT40">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU40">
         <v>1.51</v>
@@ -8965,7 +8992,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9347,7 +9374,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9625,7 +9652,7 @@
         <v>1.67</v>
       </c>
       <c r="AS44">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT44">
         <v>1.36</v>
@@ -9920,7 +9947,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10111,7 +10138,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10392,7 +10419,7 @@
         <v>3</v>
       </c>
       <c r="AT48">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU48">
         <v>2.41</v>
@@ -10493,7 +10520,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10583,7 +10610,7 @@
         <v>1.45</v>
       </c>
       <c r="AT49">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU49">
         <v>1.15</v>
@@ -10684,7 +10711,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q50">
         <v>11</v>
@@ -10771,7 +10798,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT50">
         <v>2.18</v>
@@ -10875,7 +10902,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10962,10 +10989,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU51">
         <v>1.11</v>
@@ -11153,10 +11180,10 @@
         <v>0.33</v>
       </c>
       <c r="AS52">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT52">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU52">
         <v>1.92</v>
@@ -11344,10 +11371,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT53">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU53">
         <v>1.2</v>
@@ -11448,7 +11475,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11538,7 +11565,7 @@
         <v>1</v>
       </c>
       <c r="AT54">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU54">
         <v>1.62</v>
@@ -11639,7 +11666,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11726,10 +11753,10 @@
         <v>2.33</v>
       </c>
       <c r="AS55">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT55">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU55">
         <v>1.36</v>
@@ -11830,7 +11857,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -11917,10 +11944,10 @@
         <v>2</v>
       </c>
       <c r="AS56">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT56">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU56">
         <v>2.12</v>
@@ -12021,7 +12048,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12212,7 +12239,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12403,7 +12430,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12594,7 +12621,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -13358,7 +13385,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="Q64">
         <v>11</v>
@@ -13549,7 +13576,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13636,10 +13663,10 @@
         <v>1</v>
       </c>
       <c r="AS65">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT65">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU65">
         <v>1.34</v>
@@ -13740,7 +13767,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13827,10 +13854,10 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT66">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU66">
         <v>0.97</v>
@@ -13931,7 +13958,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14018,10 +14045,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT67">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU67">
         <v>2.14</v>
@@ -14122,7 +14149,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14209,10 +14236,10 @@
         <v>1</v>
       </c>
       <c r="AS68">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT68">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU68">
         <v>2.01</v>
@@ -14400,10 +14427,10 @@
         <v>0.5</v>
       </c>
       <c r="AS69">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT69">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU69">
         <v>1.24</v>
@@ -14594,7 +14621,7 @@
         <v>1</v>
       </c>
       <c r="AT70">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU70">
         <v>1.45</v>
@@ -14695,7 +14722,7 @@
         <v>81</v>
       </c>
       <c r="P71" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -14782,10 +14809,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT71">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU71">
         <v>1.88</v>
@@ -14973,10 +15000,10 @@
         <v>1.75</v>
       </c>
       <c r="AS72">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT72">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU72">
         <v>1.59</v>
@@ -15077,7 +15104,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15268,7 +15295,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15358,7 +15385,7 @@
         <v>1.1</v>
       </c>
       <c r="AT74">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU74">
         <v>1.6</v>
@@ -15459,7 +15486,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="Q75">
         <v>15</v>
@@ -15650,7 +15677,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15737,7 +15764,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT76">
         <v>1.6</v>
@@ -16223,7 +16250,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -16605,7 +16632,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -16692,10 +16719,10 @@
         <v>1</v>
       </c>
       <c r="AS81">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT81">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU81">
         <v>1.29</v>
@@ -16886,7 +16913,7 @@
         <v>1</v>
       </c>
       <c r="AT82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU82">
         <v>1.41</v>
@@ -16987,7 +17014,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17074,7 +17101,7 @@
         <v>2</v>
       </c>
       <c r="AS83">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT83">
         <v>2.1</v>
@@ -17265,10 +17292,10 @@
         <v>2</v>
       </c>
       <c r="AS84">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT84">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU84">
         <v>1.55</v>
@@ -17369,7 +17396,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17456,10 +17483,10 @@
         <v>0.6</v>
       </c>
       <c r="AS85">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT85">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU85">
         <v>1.06</v>
@@ -17560,7 +17587,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -17647,10 +17674,10 @@
         <v>2.6</v>
       </c>
       <c r="AS86">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT86">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU86">
         <v>1.88</v>
@@ -17838,10 +17865,10 @@
         <v>1</v>
       </c>
       <c r="AS87">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT87">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU87">
         <v>1.96</v>
@@ -18032,7 +18059,7 @@
         <v>1.3</v>
       </c>
       <c r="AT88">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU88">
         <v>1.58</v>
@@ -18133,7 +18160,7 @@
         <v>81</v>
       </c>
       <c r="P89" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18324,7 +18351,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="Q90">
         <v>14</v>
@@ -18411,7 +18438,7 @@
         <v>2.25</v>
       </c>
       <c r="AS90">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT90">
         <v>1.27</v>
@@ -18605,7 +18632,7 @@
         <v>0.91</v>
       </c>
       <c r="AT91">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU91">
         <v>1.91</v>
@@ -18706,7 +18733,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="Q92">
         <v>10</v>
@@ -18793,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="AS92">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT92">
         <v>0.73</v>
@@ -19088,7 +19115,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19279,7 +19306,7 @@
         <v>81</v>
       </c>
       <c r="P95" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19470,7 +19497,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19560,7 +19587,7 @@
         <v>3</v>
       </c>
       <c r="AT96">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU96">
         <v>2.42</v>
@@ -19751,7 +19778,7 @@
         <v>1.3</v>
       </c>
       <c r="AT97">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU97">
         <v>1.5</v>
@@ -19939,10 +19966,10 @@
         <v>1</v>
       </c>
       <c r="AS98">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT98">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>1.93</v>
@@ -20043,7 +20070,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20234,7 +20261,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20321,10 +20348,10 @@
         <v>1</v>
       </c>
       <c r="AS100">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT100">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU100">
         <v>1.72</v>
@@ -20425,7 +20452,7 @@
         <v>81</v>
       </c>
       <c r="P101" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20512,7 +20539,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT101">
         <v>1.6</v>
@@ -20616,7 +20643,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20706,7 +20733,7 @@
         <v>1.1</v>
       </c>
       <c r="AT102">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU102">
         <v>1.54</v>
@@ -20807,7 +20834,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="Q103">
         <v>13</v>
@@ -20894,10 +20921,10 @@
         <v>0.8</v>
       </c>
       <c r="AS103">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT103">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU103">
         <v>1.76</v>
@@ -21189,7 +21216,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21276,7 +21303,7 @@
         <v>0</v>
       </c>
       <c r="AS105">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT105">
         <v>0.73</v>
@@ -21571,7 +21598,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21661,7 +21688,7 @@
         <v>1.36</v>
       </c>
       <c r="AT107">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU107">
         <v>1.83</v>
@@ -21762,7 +21789,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21953,7 +21980,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22043,7 +22070,7 @@
         <v>0.91</v>
       </c>
       <c r="AT109">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU109">
         <v>1.97</v>
@@ -22231,7 +22258,7 @@
         <v>1.43</v>
       </c>
       <c r="AS110">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT110">
         <v>1.18</v>
@@ -22335,7 +22362,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22425,7 +22452,7 @@
         <v>1.45</v>
       </c>
       <c r="AT111">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU111">
         <v>1.56</v>
@@ -22526,7 +22553,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="Q112">
         <v>14</v>
@@ -22616,7 +22643,7 @@
         <v>0.91</v>
       </c>
       <c r="AT112">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU112">
         <v>1.89</v>
@@ -22717,7 +22744,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22804,7 +22831,7 @@
         <v>2</v>
       </c>
       <c r="AS113">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT113">
         <v>1.27</v>
@@ -22998,7 +23025,7 @@
         <v>1.3</v>
       </c>
       <c r="AT114">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU114">
         <v>1.57</v>
@@ -23186,7 +23213,7 @@
         <v>1.83</v>
       </c>
       <c r="AS115">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT115">
         <v>2.1</v>
@@ -23377,7 +23404,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT116">
         <v>1.6</v>
@@ -23568,7 +23595,7 @@
         <v>0.43</v>
       </c>
       <c r="AS117">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT117">
         <v>0.73</v>
@@ -23762,7 +23789,7 @@
         <v>1.1</v>
       </c>
       <c r="AT118">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU118">
         <v>1.6</v>
@@ -23953,7 +23980,7 @@
         <v>3</v>
       </c>
       <c r="AT119">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU119">
         <v>2.15</v>
@@ -24141,7 +24168,7 @@
         <v>1.71</v>
       </c>
       <c r="AS120">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT120">
         <v>1.27</v>
@@ -24332,7 +24359,7 @@
         <v>1.29</v>
       </c>
       <c r="AS121">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT121">
         <v>1.36</v>
@@ -24436,7 +24463,7 @@
         <v>169</v>
       </c>
       <c r="P122" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24627,7 +24654,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24717,7 +24744,7 @@
         <v>1.36</v>
       </c>
       <c r="AT123">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU123">
         <v>1.66</v>
@@ -24818,7 +24845,7 @@
         <v>171</v>
       </c>
       <c r="P124" t="s">
-        <v>277</v>
+        <v>204</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -24908,7 +24935,7 @@
         <v>1.36</v>
       </c>
       <c r="AT124">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU124">
         <v>1.89</v>
@@ -25096,7 +25123,7 @@
         <v>1.86</v>
       </c>
       <c r="AS125">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT125">
         <v>1.27</v>
@@ -25200,7 +25227,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -25287,7 +25314,7 @@
         <v>1.13</v>
       </c>
       <c r="AS126">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT126">
         <v>1.36</v>
@@ -25391,7 +25418,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25582,7 +25609,7 @@
         <v>174</v>
       </c>
       <c r="P128" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25669,10 +25696,10 @@
         <v>1.38</v>
       </c>
       <c r="AS128">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT128">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU128">
         <v>1.51</v>
@@ -25773,7 +25800,7 @@
         <v>81</v>
       </c>
       <c r="P129" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25863,7 +25890,7 @@
         <v>1.09</v>
       </c>
       <c r="AT129">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU129">
         <v>1.64</v>
@@ -26051,7 +26078,7 @@
         <v>1.63</v>
       </c>
       <c r="AS130">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT130">
         <v>1.27</v>
@@ -26245,7 +26272,7 @@
         <v>0.91</v>
       </c>
       <c r="AT131">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU131">
         <v>1.88</v>
@@ -26346,7 +26373,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26433,7 +26460,7 @@
         <v>1.29</v>
       </c>
       <c r="AS132">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT132">
         <v>1.6</v>
@@ -26537,7 +26564,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q133">
         <v>8</v>
@@ -26728,7 +26755,7 @@
         <v>102</v>
       </c>
       <c r="P134" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q134">
         <v>12</v>
@@ -26815,7 +26842,7 @@
         <v>0.38</v>
       </c>
       <c r="AS134">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT134">
         <v>0.73</v>
@@ -27110,7 +27137,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27200,7 +27227,7 @@
         <v>3</v>
       </c>
       <c r="AT136">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU136">
         <v>2.19</v>
@@ -27301,7 +27328,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -27391,7 +27418,7 @@
         <v>1.09</v>
       </c>
       <c r="AT137">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU137">
         <v>1.64</v>
@@ -27492,7 +27519,7 @@
         <v>180</v>
       </c>
       <c r="P138" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27582,7 +27609,7 @@
         <v>1.36</v>
       </c>
       <c r="AT138">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU138">
         <v>1.6</v>
@@ -27683,7 +27710,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27773,7 +27800,7 @@
         <v>1.45</v>
       </c>
       <c r="AT139">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU139">
         <v>1.59</v>
@@ -27961,10 +27988,10 @@
         <v>1.56</v>
       </c>
       <c r="AS140">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT140">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU140">
         <v>1.88</v>
@@ -28065,7 +28092,7 @@
         <v>81</v>
       </c>
       <c r="P141" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28155,7 +28182,7 @@
         <v>1</v>
       </c>
       <c r="AT141">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU141">
         <v>1.4</v>
@@ -28256,7 +28283,7 @@
         <v>81</v>
       </c>
       <c r="P142" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28343,7 +28370,7 @@
         <v>1.11</v>
       </c>
       <c r="AS142">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT142">
         <v>1.18</v>
@@ -28447,7 +28474,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28534,7 +28561,7 @@
         <v>2.33</v>
       </c>
       <c r="AS143">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT143">
         <v>2.18</v>
@@ -28638,7 +28665,7 @@
         <v>81</v>
       </c>
       <c r="P144" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -28725,10 +28752,10 @@
         <v>2</v>
       </c>
       <c r="AS144">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT144">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU144">
         <v>1.53</v>
@@ -28916,10 +28943,10 @@
         <v>1.44</v>
       </c>
       <c r="AS145">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT145">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU145">
         <v>2.11</v>
@@ -29107,7 +29134,7 @@
         <v>1.33</v>
       </c>
       <c r="AS146">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT146">
         <v>1.36</v>
@@ -29211,7 +29238,7 @@
         <v>122</v>
       </c>
       <c r="P147" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29301,7 +29328,7 @@
         <v>1.36</v>
       </c>
       <c r="AT147">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU147">
         <v>1.85</v>
@@ -29492,7 +29519,7 @@
         <v>1.09</v>
       </c>
       <c r="AT148">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU148">
         <v>1.63</v>
@@ -29871,7 +29898,7 @@
         <v>1.44</v>
       </c>
       <c r="AS150">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT150">
         <v>1.27</v>
@@ -29975,7 +30002,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q151">
         <v>7</v>
@@ -30166,7 +30193,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q152">
         <v>14</v>
@@ -30357,7 +30384,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30635,10 +30662,10 @@
         <v>1.3</v>
       </c>
       <c r="AS154">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AT154">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU154">
         <v>1.66</v>
@@ -30826,10 +30853,10 @@
         <v>1</v>
       </c>
       <c r="AS155">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AT155">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AU155">
         <v>1.5</v>
@@ -30930,7 +30957,7 @@
         <v>189</v>
       </c>
       <c r="P156" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31017,10 +31044,10 @@
         <v>1.5</v>
       </c>
       <c r="AS156">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AT156">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU156">
         <v>1.78</v>
@@ -31121,7 +31148,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31211,7 +31238,7 @@
         <v>1.45</v>
       </c>
       <c r="AT157">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AU157">
         <v>1.6</v>
@@ -31312,7 +31339,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31402,7 +31429,7 @@
         <v>1</v>
       </c>
       <c r="AT158">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AU158">
         <v>1.38</v>
@@ -31590,10 +31617,10 @@
         <v>2.11</v>
       </c>
       <c r="AS159">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AT159">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AU159">
         <v>1.26</v>
@@ -31781,7 +31808,7 @@
         <v>2.4</v>
       </c>
       <c r="AS160">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT160">
         <v>2.18</v>
@@ -31972,10 +31999,10 @@
         <v>0.89</v>
       </c>
       <c r="AS161">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AT161">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AU161">
         <v>2.16</v>
@@ -32267,7 +32294,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32458,7 +32485,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32736,7 +32763,7 @@
         <v>1.3</v>
       </c>
       <c r="AS165">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="AT165">
         <v>1.18</v>
@@ -32840,7 +32867,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q166">
         <v>8</v>
@@ -33312,7 +33339,7 @@
         <v>1.36</v>
       </c>
       <c r="AT168">
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="AU168">
         <v>1.72</v>
@@ -33413,7 +33440,7 @@
         <v>81</v>
       </c>
       <c r="P169" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33555,6 +33582,1534 @@
       </c>
       <c r="BK169">
         <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:63">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>2595301</v>
+      </c>
+      <c r="C170" t="s">
+        <v>63</v>
+      </c>
+      <c r="D170" t="s">
+        <v>64</v>
+      </c>
+      <c r="E170" s="2">
+        <v>44989.45833333334</v>
+      </c>
+      <c r="F170">
+        <v>22</v>
+      </c>
+      <c r="G170" t="s">
+        <v>66</v>
+      </c>
+      <c r="H170" t="s">
+        <v>65</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>202</v>
+      </c>
+      <c r="P170" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q170">
+        <v>8</v>
+      </c>
+      <c r="R170">
+        <v>4</v>
+      </c>
+      <c r="S170">
+        <v>12</v>
+      </c>
+      <c r="T170">
+        <v>2.55</v>
+      </c>
+      <c r="U170">
+        <v>2.1</v>
+      </c>
+      <c r="V170">
+        <v>3.9</v>
+      </c>
+      <c r="W170">
+        <v>1.36</v>
+      </c>
+      <c r="X170">
+        <v>3</v>
+      </c>
+      <c r="Y170">
+        <v>2.62</v>
+      </c>
+      <c r="Z170">
+        <v>1.44</v>
+      </c>
+      <c r="AA170">
+        <v>6.5</v>
+      </c>
+      <c r="AB170">
+        <v>1.1</v>
+      </c>
+      <c r="AC170">
+        <v>1.95</v>
+      </c>
+      <c r="AD170">
+        <v>3.5</v>
+      </c>
+      <c r="AE170">
+        <v>3.5</v>
+      </c>
+      <c r="AF170">
+        <v>1.05</v>
+      </c>
+      <c r="AG170">
+        <v>9</v>
+      </c>
+      <c r="AH170">
+        <v>1.3</v>
+      </c>
+      <c r="AI170">
+        <v>3.4</v>
+      </c>
+      <c r="AJ170">
+        <v>1.91</v>
+      </c>
+      <c r="AK170">
+        <v>1.8</v>
+      </c>
+      <c r="AL170">
+        <v>1.8</v>
+      </c>
+      <c r="AM170">
+        <v>1.91</v>
+      </c>
+      <c r="AN170">
+        <v>1.27</v>
+      </c>
+      <c r="AO170">
+        <v>1.28</v>
+      </c>
+      <c r="AP170">
+        <v>1.78</v>
+      </c>
+      <c r="AQ170">
+        <v>1.1</v>
+      </c>
+      <c r="AR170">
+        <v>0.5</v>
+      </c>
+      <c r="AS170">
+        <v>1.09</v>
+      </c>
+      <c r="AT170">
+        <v>0.55</v>
+      </c>
+      <c r="AU170">
+        <v>1.49</v>
+      </c>
+      <c r="AV170">
+        <v>1.2</v>
+      </c>
+      <c r="AW170">
+        <v>2.69</v>
+      </c>
+      <c r="AX170">
+        <v>1.55</v>
+      </c>
+      <c r="AY170">
+        <v>8.5</v>
+      </c>
+      <c r="AZ170">
+        <v>2.91</v>
+      </c>
+      <c r="BA170">
+        <v>1.17</v>
+      </c>
+      <c r="BB170">
+        <v>1.3</v>
+      </c>
+      <c r="BC170">
+        <v>1.55</v>
+      </c>
+      <c r="BD170">
+        <v>2</v>
+      </c>
+      <c r="BE170">
+        <v>2.5</v>
+      </c>
+      <c r="BF170">
+        <v>3</v>
+      </c>
+      <c r="BG170">
+        <v>7</v>
+      </c>
+      <c r="BH170">
+        <v>5</v>
+      </c>
+      <c r="BI170">
+        <v>3</v>
+      </c>
+      <c r="BJ170">
+        <v>8</v>
+      </c>
+      <c r="BK170">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="1:63">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>2595302</v>
+      </c>
+      <c r="C171" t="s">
+        <v>63</v>
+      </c>
+      <c r="D171" t="s">
+        <v>64</v>
+      </c>
+      <c r="E171" s="2">
+        <v>44989.45833333334</v>
+      </c>
+      <c r="F171">
+        <v>22</v>
+      </c>
+      <c r="G171" t="s">
+        <v>69</v>
+      </c>
+      <c r="H171" t="s">
+        <v>67</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>1</v>
+      </c>
+      <c r="N171">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>190</v>
+      </c>
+      <c r="P171" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q171">
+        <v>7</v>
+      </c>
+      <c r="R171">
+        <v>7</v>
+      </c>
+      <c r="S171">
+        <v>14</v>
+      </c>
+      <c r="T171">
+        <v>3.75</v>
+      </c>
+      <c r="U171">
+        <v>2.1</v>
+      </c>
+      <c r="V171">
+        <v>2.7</v>
+      </c>
+      <c r="W171">
+        <v>1.38</v>
+      </c>
+      <c r="X171">
+        <v>2.91</v>
+      </c>
+      <c r="Y171">
+        <v>2.75</v>
+      </c>
+      <c r="Z171">
+        <v>1.42</v>
+      </c>
+      <c r="AA171">
+        <v>6.8</v>
+      </c>
+      <c r="AB171">
+        <v>1.09</v>
+      </c>
+      <c r="AC171">
+        <v>2.8</v>
+      </c>
+      <c r="AD171">
+        <v>3.1</v>
+      </c>
+      <c r="AE171">
+        <v>2.35</v>
+      </c>
+      <c r="AF171">
+        <v>1.01</v>
+      </c>
+      <c r="AG171">
+        <v>9.4</v>
+      </c>
+      <c r="AH171">
+        <v>1.28</v>
+      </c>
+      <c r="AI171">
+        <v>3.5</v>
+      </c>
+      <c r="AJ171">
+        <v>1.82</v>
+      </c>
+      <c r="AK171">
+        <v>1.81</v>
+      </c>
+      <c r="AL171">
+        <v>1.72</v>
+      </c>
+      <c r="AM171">
+        <v>2.05</v>
+      </c>
+      <c r="AN171">
+        <v>1.75</v>
+      </c>
+      <c r="AO171">
+        <v>1.29</v>
+      </c>
+      <c r="AP171">
+        <v>1.31</v>
+      </c>
+      <c r="AQ171">
+        <v>1</v>
+      </c>
+      <c r="AR171">
+        <v>0.9</v>
+      </c>
+      <c r="AS171">
+        <v>1</v>
+      </c>
+      <c r="AT171">
+        <v>0.91</v>
+      </c>
+      <c r="AU171">
+        <v>1.32</v>
+      </c>
+      <c r="AV171">
+        <v>1.7</v>
+      </c>
+      <c r="AW171">
+        <v>3.02</v>
+      </c>
+      <c r="AX171">
+        <v>2.1</v>
+      </c>
+      <c r="AY171">
+        <v>8.5</v>
+      </c>
+      <c r="AZ171">
+        <v>1.91</v>
+      </c>
+      <c r="BA171">
+        <v>1.13</v>
+      </c>
+      <c r="BB171">
+        <v>1.29</v>
+      </c>
+      <c r="BC171">
+        <v>1.5</v>
+      </c>
+      <c r="BD171">
+        <v>1.85</v>
+      </c>
+      <c r="BE171">
+        <v>2.43</v>
+      </c>
+      <c r="BF171">
+        <v>4</v>
+      </c>
+      <c r="BG171">
+        <v>8</v>
+      </c>
+      <c r="BH171">
+        <v>5</v>
+      </c>
+      <c r="BI171">
+        <v>7</v>
+      </c>
+      <c r="BJ171">
+        <v>9</v>
+      </c>
+      <c r="BK171">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:63">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>2595303</v>
+      </c>
+      <c r="C172" t="s">
+        <v>63</v>
+      </c>
+      <c r="D172" t="s">
+        <v>64</v>
+      </c>
+      <c r="E172" s="2">
+        <v>44989.45833333334</v>
+      </c>
+      <c r="F172">
+        <v>22</v>
+      </c>
+      <c r="G172" t="s">
+        <v>70</v>
+      </c>
+      <c r="H172" t="s">
+        <v>71</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+      <c r="M172">
+        <v>4</v>
+      </c>
+      <c r="N172">
+        <v>5</v>
+      </c>
+      <c r="O172" t="s">
+        <v>203</v>
+      </c>
+      <c r="P172" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q172">
+        <v>3</v>
+      </c>
+      <c r="R172">
+        <v>3</v>
+      </c>
+      <c r="S172">
+        <v>6</v>
+      </c>
+      <c r="T172">
+        <v>2.8</v>
+      </c>
+      <c r="U172">
+        <v>2.05</v>
+      </c>
+      <c r="V172">
+        <v>3.6</v>
+      </c>
+      <c r="W172">
+        <v>1.41</v>
+      </c>
+      <c r="X172">
+        <v>2.65</v>
+      </c>
+      <c r="Y172">
+        <v>2.87</v>
+      </c>
+      <c r="Z172">
+        <v>1.36</v>
+      </c>
+      <c r="AA172">
+        <v>7.5</v>
+      </c>
+      <c r="AB172">
+        <v>1.07</v>
+      </c>
+      <c r="AC172">
+        <v>2.25</v>
+      </c>
+      <c r="AD172">
+        <v>3.15</v>
+      </c>
+      <c r="AE172">
+        <v>2.95</v>
+      </c>
+      <c r="AF172">
+        <v>1.06</v>
+      </c>
+      <c r="AG172">
+        <v>11</v>
+      </c>
+      <c r="AH172">
+        <v>1.3</v>
+      </c>
+      <c r="AI172">
+        <v>3.3</v>
+      </c>
+      <c r="AJ172">
+        <v>1.87</v>
+      </c>
+      <c r="AK172">
+        <v>1.77</v>
+      </c>
+      <c r="AL172">
+        <v>1.75</v>
+      </c>
+      <c r="AM172">
+        <v>1.93</v>
+      </c>
+      <c r="AN172">
+        <v>1.34</v>
+      </c>
+      <c r="AO172">
+        <v>1.3</v>
+      </c>
+      <c r="AP172">
+        <v>1.63</v>
+      </c>
+      <c r="AQ172">
+        <v>1.27</v>
+      </c>
+      <c r="AR172">
+        <v>0.8</v>
+      </c>
+      <c r="AS172">
+        <v>1.17</v>
+      </c>
+      <c r="AT172">
+        <v>1</v>
+      </c>
+      <c r="AU172">
+        <v>1.62</v>
+      </c>
+      <c r="AV172">
+        <v>1.4</v>
+      </c>
+      <c r="AW172">
+        <v>3.02</v>
+      </c>
+      <c r="AX172">
+        <v>1.91</v>
+      </c>
+      <c r="AY172">
+        <v>8</v>
+      </c>
+      <c r="AZ172">
+        <v>2.2</v>
+      </c>
+      <c r="BA172">
+        <v>1.2</v>
+      </c>
+      <c r="BB172">
+        <v>1.38</v>
+      </c>
+      <c r="BC172">
+        <v>1.67</v>
+      </c>
+      <c r="BD172">
+        <v>2.12</v>
+      </c>
+      <c r="BE172">
+        <v>2.85</v>
+      </c>
+      <c r="BF172">
+        <v>5</v>
+      </c>
+      <c r="BG172">
+        <v>10</v>
+      </c>
+      <c r="BH172">
+        <v>4</v>
+      </c>
+      <c r="BI172">
+        <v>3</v>
+      </c>
+      <c r="BJ172">
+        <v>9</v>
+      </c>
+      <c r="BK172">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="173" spans="1:63">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>2595305</v>
+      </c>
+      <c r="C173" t="s">
+        <v>63</v>
+      </c>
+      <c r="D173" t="s">
+        <v>64</v>
+      </c>
+      <c r="E173" s="2">
+        <v>44989.45833333334</v>
+      </c>
+      <c r="F173">
+        <v>22</v>
+      </c>
+      <c r="G173" t="s">
+        <v>73</v>
+      </c>
+      <c r="H173" t="s">
+        <v>75</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>0</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+      <c r="M173">
+        <v>1</v>
+      </c>
+      <c r="N173">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>204</v>
+      </c>
+      <c r="P173" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q173">
+        <v>8</v>
+      </c>
+      <c r="R173">
+        <v>1</v>
+      </c>
+      <c r="S173">
+        <v>9</v>
+      </c>
+      <c r="T173">
+        <v>1.98</v>
+      </c>
+      <c r="U173">
+        <v>2.3</v>
+      </c>
+      <c r="V173">
+        <v>5.5</v>
+      </c>
+      <c r="W173">
+        <v>1.35</v>
+      </c>
+      <c r="X173">
+        <v>2.95</v>
+      </c>
+      <c r="Y173">
+        <v>2.65</v>
+      </c>
+      <c r="Z173">
+        <v>1.41</v>
+      </c>
+      <c r="AA173">
+        <v>6.75</v>
+      </c>
+      <c r="AB173">
+        <v>1.09</v>
+      </c>
+      <c r="AC173">
+        <v>1.47</v>
+      </c>
+      <c r="AD173">
+        <v>4.2</v>
+      </c>
+      <c r="AE173">
+        <v>6</v>
+      </c>
+      <c r="AF173">
+        <v>1.01</v>
+      </c>
+      <c r="AG173">
+        <v>9.9</v>
+      </c>
+      <c r="AH173">
+        <v>1.24</v>
+      </c>
+      <c r="AI173">
+        <v>3.55</v>
+      </c>
+      <c r="AJ173">
+        <v>1.77</v>
+      </c>
+      <c r="AK173">
+        <v>1.87</v>
+      </c>
+      <c r="AL173">
+        <v>1.98</v>
+      </c>
+      <c r="AM173">
+        <v>1.72</v>
+      </c>
+      <c r="AN173">
+        <v>1.12</v>
+      </c>
+      <c r="AO173">
+        <v>1.19</v>
+      </c>
+      <c r="AP173">
+        <v>2.6</v>
+      </c>
+      <c r="AQ173">
+        <v>2.4</v>
+      </c>
+      <c r="AR173">
+        <v>1.45</v>
+      </c>
+      <c r="AS173">
+        <v>2.27</v>
+      </c>
+      <c r="AT173">
+        <v>1.42</v>
+      </c>
+      <c r="AU173">
+        <v>1.85</v>
+      </c>
+      <c r="AV173">
+        <v>1.59</v>
+      </c>
+      <c r="AW173">
+        <v>3.44</v>
+      </c>
+      <c r="AX173">
+        <v>1.23</v>
+      </c>
+      <c r="AY173">
+        <v>11</v>
+      </c>
+      <c r="AZ173">
+        <v>5.1</v>
+      </c>
+      <c r="BA173">
+        <v>0</v>
+      </c>
+      <c r="BB173">
+        <v>1.29</v>
+      </c>
+      <c r="BC173">
+        <v>1.5</v>
+      </c>
+      <c r="BD173">
+        <v>1.93</v>
+      </c>
+      <c r="BE173">
+        <v>2.43</v>
+      </c>
+      <c r="BF173">
+        <v>6</v>
+      </c>
+      <c r="BG173">
+        <v>4</v>
+      </c>
+      <c r="BH173">
+        <v>12</v>
+      </c>
+      <c r="BI173">
+        <v>6</v>
+      </c>
+      <c r="BJ173">
+        <v>18</v>
+      </c>
+      <c r="BK173">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="174" spans="1:63">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>2595304</v>
+      </c>
+      <c r="C174" t="s">
+        <v>63</v>
+      </c>
+      <c r="D174" t="s">
+        <v>64</v>
+      </c>
+      <c r="E174" s="2">
+        <v>44989.58333333334</v>
+      </c>
+      <c r="F174">
+        <v>22</v>
+      </c>
+      <c r="G174" t="s">
+        <v>72</v>
+      </c>
+      <c r="H174" t="s">
+        <v>68</v>
+      </c>
+      <c r="I174">
+        <v>2</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>4</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>5</v>
+      </c>
+      <c r="O174" t="s">
+        <v>205</v>
+      </c>
+      <c r="P174" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q174">
+        <v>11</v>
+      </c>
+      <c r="R174">
+        <v>1</v>
+      </c>
+      <c r="S174">
+        <v>12</v>
+      </c>
+      <c r="T174">
+        <v>1.5</v>
+      </c>
+      <c r="U174">
+        <v>3</v>
+      </c>
+      <c r="V174">
+        <v>8.5</v>
+      </c>
+      <c r="W174">
+        <v>1.2</v>
+      </c>
+      <c r="X174">
+        <v>4.1</v>
+      </c>
+      <c r="Y174">
+        <v>1.98</v>
+      </c>
+      <c r="Z174">
+        <v>1.71</v>
+      </c>
+      <c r="AA174">
+        <v>4.2</v>
+      </c>
+      <c r="AB174">
+        <v>1.19</v>
+      </c>
+      <c r="AC174">
+        <v>1.15</v>
+      </c>
+      <c r="AD174">
+        <v>7.5</v>
+      </c>
+      <c r="AE174">
+        <v>14</v>
+      </c>
+      <c r="AF174">
+        <v>1.02</v>
+      </c>
+      <c r="AG174">
+        <v>15</v>
+      </c>
+      <c r="AH174">
+        <v>1.09</v>
+      </c>
+      <c r="AI174">
+        <v>5.6</v>
+      </c>
+      <c r="AJ174">
+        <v>1.34</v>
+      </c>
+      <c r="AK174">
+        <v>2.83</v>
+      </c>
+      <c r="AL174">
+        <v>2.05</v>
+      </c>
+      <c r="AM174">
+        <v>1.66</v>
+      </c>
+      <c r="AN174">
+        <v>1.04</v>
+      </c>
+      <c r="AO174">
+        <v>1.08</v>
+      </c>
+      <c r="AP174">
+        <v>5</v>
+      </c>
+      <c r="AQ174">
+        <v>2.18</v>
+      </c>
+      <c r="AR174">
+        <v>0.4</v>
+      </c>
+      <c r="AS174">
+        <v>2.25</v>
+      </c>
+      <c r="AT174">
+        <v>0.36</v>
+      </c>
+      <c r="AU174">
+        <v>2.22</v>
+      </c>
+      <c r="AV174">
+        <v>1.32</v>
+      </c>
+      <c r="AW174">
+        <v>3.54</v>
+      </c>
+      <c r="AX174">
+        <v>1.09</v>
+      </c>
+      <c r="AY174">
+        <v>13</v>
+      </c>
+      <c r="AZ174">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BA174">
+        <v>1.13</v>
+      </c>
+      <c r="BB174">
+        <v>1.3</v>
+      </c>
+      <c r="BC174">
+        <v>1.55</v>
+      </c>
+      <c r="BD174">
+        <v>2</v>
+      </c>
+      <c r="BE174">
+        <v>2.5</v>
+      </c>
+      <c r="BF174">
+        <v>8</v>
+      </c>
+      <c r="BG174">
+        <v>2</v>
+      </c>
+      <c r="BH174">
+        <v>10</v>
+      </c>
+      <c r="BI174">
+        <v>1</v>
+      </c>
+      <c r="BJ174">
+        <v>18</v>
+      </c>
+      <c r="BK174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:63">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>2595308</v>
+      </c>
+      <c r="C175" t="s">
+        <v>63</v>
+      </c>
+      <c r="D175" t="s">
+        <v>64</v>
+      </c>
+      <c r="E175" s="2">
+        <v>44990.41666666666</v>
+      </c>
+      <c r="F175">
+        <v>22</v>
+      </c>
+      <c r="G175" t="s">
+        <v>74</v>
+      </c>
+      <c r="H175" t="s">
+        <v>76</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>2</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>3</v>
+      </c>
+      <c r="N175">
+        <v>4</v>
+      </c>
+      <c r="O175" t="s">
+        <v>84</v>
+      </c>
+      <c r="P175" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q175">
+        <v>6</v>
+      </c>
+      <c r="R175">
+        <v>7</v>
+      </c>
+      <c r="S175">
+        <v>13</v>
+      </c>
+      <c r="T175">
+        <v>2.65</v>
+      </c>
+      <c r="U175">
+        <v>2.15</v>
+      </c>
+      <c r="V175">
+        <v>3.5</v>
+      </c>
+      <c r="W175">
+        <v>1.35</v>
+      </c>
+      <c r="X175">
+        <v>2.9</v>
+      </c>
+      <c r="Y175">
+        <v>2.65</v>
+      </c>
+      <c r="Z175">
+        <v>1.42</v>
+      </c>
+      <c r="AA175">
+        <v>5.8</v>
+      </c>
+      <c r="AB175">
+        <v>1.1</v>
+      </c>
+      <c r="AC175">
+        <v>2.11</v>
+      </c>
+      <c r="AD175">
+        <v>3.46</v>
+      </c>
+      <c r="AE175">
+        <v>2.83</v>
+      </c>
+      <c r="AF175">
+        <v>1.05</v>
+      </c>
+      <c r="AG175">
+        <v>12.5</v>
+      </c>
+      <c r="AH175">
+        <v>1.27</v>
+      </c>
+      <c r="AI175">
+        <v>3.8</v>
+      </c>
+      <c r="AJ175">
+        <v>1.88</v>
+      </c>
+      <c r="AK175">
+        <v>1.92</v>
+      </c>
+      <c r="AL175">
+        <v>1.62</v>
+      </c>
+      <c r="AM175">
+        <v>2.15</v>
+      </c>
+      <c r="AN175">
+        <v>1.3</v>
+      </c>
+      <c r="AO175">
+        <v>1.25</v>
+      </c>
+      <c r="AP175">
+        <v>1.6</v>
+      </c>
+      <c r="AQ175">
+        <v>1.3</v>
+      </c>
+      <c r="AR175">
+        <v>1.9</v>
+      </c>
+      <c r="AS175">
+        <v>1.18</v>
+      </c>
+      <c r="AT175">
+        <v>2</v>
+      </c>
+      <c r="AU175">
+        <v>1.75</v>
+      </c>
+      <c r="AV175">
+        <v>1.65</v>
+      </c>
+      <c r="AW175">
+        <v>3.4</v>
+      </c>
+      <c r="AX175">
+        <v>1.95</v>
+      </c>
+      <c r="AY175">
+        <v>8</v>
+      </c>
+      <c r="AZ175">
+        <v>2.05</v>
+      </c>
+      <c r="BA175">
+        <v>1.16</v>
+      </c>
+      <c r="BB175">
+        <v>1.3</v>
+      </c>
+      <c r="BC175">
+        <v>1.55</v>
+      </c>
+      <c r="BD175">
+        <v>2</v>
+      </c>
+      <c r="BE175">
+        <v>2.5</v>
+      </c>
+      <c r="BF175">
+        <v>7</v>
+      </c>
+      <c r="BG175">
+        <v>5</v>
+      </c>
+      <c r="BH175">
+        <v>5</v>
+      </c>
+      <c r="BI175">
+        <v>2</v>
+      </c>
+      <c r="BJ175">
+        <v>12</v>
+      </c>
+      <c r="BK175">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="176" spans="1:63">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>2595306</v>
+      </c>
+      <c r="C176" t="s">
+        <v>63</v>
+      </c>
+      <c r="D176" t="s">
+        <v>64</v>
+      </c>
+      <c r="E176" s="2">
+        <v>44990.45833333334</v>
+      </c>
+      <c r="F176">
+        <v>22</v>
+      </c>
+      <c r="G176" t="s">
+        <v>79</v>
+      </c>
+      <c r="H176" t="s">
+        <v>78</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>2</v>
+      </c>
+      <c r="L176">
+        <v>2</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>3</v>
+      </c>
+      <c r="O176" t="s">
+        <v>206</v>
+      </c>
+      <c r="P176" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q176">
+        <v>8</v>
+      </c>
+      <c r="R176">
+        <v>6</v>
+      </c>
+      <c r="S176">
+        <v>14</v>
+      </c>
+      <c r="T176">
+        <v>2.45</v>
+      </c>
+      <c r="U176">
+        <v>2.15</v>
+      </c>
+      <c r="V176">
+        <v>3.9</v>
+      </c>
+      <c r="W176">
+        <v>1.37</v>
+      </c>
+      <c r="X176">
+        <v>2.8</v>
+      </c>
+      <c r="Y176">
+        <v>2.9</v>
+      </c>
+      <c r="Z176">
+        <v>1.35</v>
+      </c>
+      <c r="AA176">
+        <v>6.5</v>
+      </c>
+      <c r="AB176">
+        <v>1.08</v>
+      </c>
+      <c r="AC176">
+        <v>1.7</v>
+      </c>
+      <c r="AD176">
+        <v>3.65</v>
+      </c>
+      <c r="AE176">
+        <v>3.94</v>
+      </c>
+      <c r="AF176">
+        <v>1.05</v>
+      </c>
+      <c r="AG176">
+        <v>8</v>
+      </c>
+      <c r="AH176">
+        <v>1.25</v>
+      </c>
+      <c r="AI176">
+        <v>3.5</v>
+      </c>
+      <c r="AJ176">
+        <v>1.95</v>
+      </c>
+      <c r="AK176">
+        <v>1.85</v>
+      </c>
+      <c r="AL176">
+        <v>1.67</v>
+      </c>
+      <c r="AM176">
+        <v>2.05</v>
+      </c>
+      <c r="AN176">
+        <v>1.18</v>
+      </c>
+      <c r="AO176">
+        <v>1.28</v>
+      </c>
+      <c r="AP176">
+        <v>1.85</v>
+      </c>
+      <c r="AQ176">
+        <v>1.7</v>
+      </c>
+      <c r="AR176">
+        <v>1.45</v>
+      </c>
+      <c r="AS176">
+        <v>1.82</v>
+      </c>
+      <c r="AT176">
+        <v>1.33</v>
+      </c>
+      <c r="AU176">
+        <v>1.77</v>
+      </c>
+      <c r="AV176">
+        <v>1.73</v>
+      </c>
+      <c r="AW176">
+        <v>3.5</v>
+      </c>
+      <c r="AX176">
+        <v>1.64</v>
+      </c>
+      <c r="AY176">
+        <v>8.5</v>
+      </c>
+      <c r="AZ176">
+        <v>2.76</v>
+      </c>
+      <c r="BA176">
+        <v>1.18</v>
+      </c>
+      <c r="BB176">
+        <v>1.32</v>
+      </c>
+      <c r="BC176">
+        <v>1.6</v>
+      </c>
+      <c r="BD176">
+        <v>2.01</v>
+      </c>
+      <c r="BE176">
+        <v>2.62</v>
+      </c>
+      <c r="BF176">
+        <v>4</v>
+      </c>
+      <c r="BG176">
+        <v>3</v>
+      </c>
+      <c r="BH176">
+        <v>5</v>
+      </c>
+      <c r="BI176">
+        <v>4</v>
+      </c>
+      <c r="BJ176">
+        <v>9</v>
+      </c>
+      <c r="BK176">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="177" spans="1:63">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>2595307</v>
+      </c>
+      <c r="C177" t="s">
+        <v>63</v>
+      </c>
+      <c r="D177" t="s">
+        <v>64</v>
+      </c>
+      <c r="E177" s="2">
+        <v>44990.54166666666</v>
+      </c>
+      <c r="F177">
+        <v>22</v>
+      </c>
+      <c r="G177" t="s">
+        <v>77</v>
+      </c>
+      <c r="H177" t="s">
+        <v>80</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>0</v>
+      </c>
+      <c r="K177">
+        <v>0</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>1</v>
+      </c>
+      <c r="O177" t="s">
+        <v>207</v>
+      </c>
+      <c r="P177" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q177">
+        <v>2</v>
+      </c>
+      <c r="R177">
+        <v>13</v>
+      </c>
+      <c r="S177">
+        <v>15</v>
+      </c>
+      <c r="T177">
+        <v>8</v>
+      </c>
+      <c r="U177">
+        <v>2.63</v>
+      </c>
+      <c r="V177">
+        <v>1.73</v>
+      </c>
+      <c r="W177">
+        <v>1.29</v>
+      </c>
+      <c r="X177">
+        <v>3.5</v>
+      </c>
+      <c r="Y177">
+        <v>2.25</v>
+      </c>
+      <c r="Z177">
+        <v>1.57</v>
+      </c>
+      <c r="AA177">
+        <v>5.5</v>
+      </c>
+      <c r="AB177">
+        <v>1.14</v>
+      </c>
+      <c r="AC177">
+        <v>6.96</v>
+      </c>
+      <c r="AD177">
+        <v>4.61</v>
+      </c>
+      <c r="AE177">
+        <v>1.33</v>
+      </c>
+      <c r="AF177">
+        <v>1.02</v>
+      </c>
+      <c r="AG177">
+        <v>10</v>
+      </c>
+      <c r="AH177">
+        <v>1.17</v>
+      </c>
+      <c r="AI177">
+        <v>4.5</v>
+      </c>
+      <c r="AJ177">
+        <v>1.49</v>
+      </c>
+      <c r="AK177">
+        <v>2.33</v>
+      </c>
+      <c r="AL177">
+        <v>2</v>
+      </c>
+      <c r="AM177">
+        <v>1.75</v>
+      </c>
+      <c r="AN177">
+        <v>3.3</v>
+      </c>
+      <c r="AO177">
+        <v>1.11</v>
+      </c>
+      <c r="AP177">
+        <v>1.03</v>
+      </c>
+      <c r="AQ177">
+        <v>0.8</v>
+      </c>
+      <c r="AR177">
+        <v>1.7</v>
+      </c>
+      <c r="AS177">
+        <v>1</v>
+      </c>
+      <c r="AT177">
+        <v>1.55</v>
+      </c>
+      <c r="AU177">
+        <v>1.32</v>
+      </c>
+      <c r="AV177">
+        <v>1.86</v>
+      </c>
+      <c r="AW177">
+        <v>3.18</v>
+      </c>
+      <c r="AX177">
+        <v>5.65</v>
+      </c>
+      <c r="AY177">
+        <v>11</v>
+      </c>
+      <c r="AZ177">
+        <v>1.19</v>
+      </c>
+      <c r="BA177">
+        <v>1.16</v>
+      </c>
+      <c r="BB177">
+        <v>1.26</v>
+      </c>
+      <c r="BC177">
+        <v>1.51</v>
+      </c>
+      <c r="BD177">
+        <v>1.87</v>
+      </c>
+      <c r="BE177">
+        <v>2.39</v>
+      </c>
+      <c r="BF177">
+        <v>3</v>
+      </c>
+      <c r="BG177">
+        <v>5</v>
+      </c>
+      <c r="BH177">
+        <v>2</v>
+      </c>
+      <c r="BI177">
+        <v>6</v>
+      </c>
+      <c r="BJ177">
+        <v>5</v>
+      </c>
+      <c r="BK177">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="317">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -640,6 +640,21 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['5', '45+5']</t>
+  </si>
+  <si>
+    <t>['59', '63', '69']</t>
+  </si>
+  <si>
+    <t>['50', '75']</t>
+  </si>
+  <si>
+    <t>['4', '7', '19', '66']</t>
+  </si>
+  <si>
+    <t>['37', '61']</t>
+  </si>
+  <si>
     <t>['30', '71']</t>
   </si>
   <si>
@@ -938,6 +953,18 @@
   </si>
   <si>
     <t>['16', '45+1', '74']</t>
+  </si>
+  <si>
+    <t>['17', '20', '51']</t>
+  </si>
+  <si>
+    <t>['38', '72']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
 </sst>
 </file>
@@ -1299,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK177"/>
+  <dimension ref="A1:BK184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1630,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT2">
         <v>1.33</v>
@@ -1734,7 +1761,7 @@
         <v>82</v>
       </c>
       <c r="P3" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q3">
         <v>6</v>
@@ -1925,7 +1952,7 @@
         <v>81</v>
       </c>
       <c r="P4" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -2012,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT4">
         <v>1.42</v>
@@ -2116,7 +2143,7 @@
         <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2203,10 +2230,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT5">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2307,7 +2334,7 @@
         <v>81</v>
       </c>
       <c r="P6" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q6">
         <v>12</v>
@@ -2397,7 +2424,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2689,7 +2716,7 @@
         <v>81</v>
       </c>
       <c r="P8" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2880,7 +2907,7 @@
         <v>85</v>
       </c>
       <c r="P9" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q9">
         <v>5</v>
@@ -2970,7 +2997,7 @@
         <v>2.25</v>
       </c>
       <c r="AT9">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU9">
         <v>0</v>
@@ -3161,7 +3188,7 @@
         <v>2.27</v>
       </c>
       <c r="AT10">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3262,7 +3289,7 @@
         <v>87</v>
       </c>
       <c r="P11" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q11">
         <v>6</v>
@@ -3453,7 +3480,7 @@
         <v>81</v>
       </c>
       <c r="P12" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q12">
         <v>3</v>
@@ -3540,10 +3567,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT12">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3644,7 +3671,7 @@
         <v>88</v>
       </c>
       <c r="P13" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3731,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT13">
         <v>0.91</v>
@@ -3835,7 +3862,7 @@
         <v>81</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q14">
         <v>6</v>
@@ -3925,7 +3952,7 @@
         <v>1</v>
       </c>
       <c r="AT14">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU14">
         <v>0</v>
@@ -4026,7 +4053,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q15">
         <v>8</v>
@@ -4113,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT15">
         <v>1</v>
@@ -4307,7 +4334,7 @@
         <v>1.82</v>
       </c>
       <c r="AT16">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4408,7 +4435,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4599,7 +4626,7 @@
         <v>92</v>
       </c>
       <c r="P18" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q18">
         <v>4</v>
@@ -4686,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT18">
         <v>0.55</v>
@@ -4790,7 +4817,7 @@
         <v>81</v>
       </c>
       <c r="P19" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q19">
         <v>1</v>
@@ -4877,7 +4904,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT19">
         <v>2</v>
@@ -4981,7 +5008,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q20">
         <v>4</v>
@@ -5172,7 +5199,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q21">
         <v>5</v>
@@ -5262,7 +5289,7 @@
         <v>1.17</v>
       </c>
       <c r="AT21">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU21">
         <v>0.68</v>
@@ -5363,7 +5390,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q22">
         <v>5</v>
@@ -5554,7 +5581,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q23">
         <v>3</v>
@@ -5835,7 +5862,7 @@
         <v>1</v>
       </c>
       <c r="AT24">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU24">
         <v>2.34</v>
@@ -6127,7 +6154,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q26">
         <v>8</v>
@@ -6214,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT26">
         <v>0.36</v>
@@ -6318,7 +6345,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -6405,10 +6432,10 @@
         <v>3</v>
       </c>
       <c r="AS27">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT27">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU27">
         <v>1.89</v>
@@ -6509,7 +6536,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -6599,7 +6626,7 @@
         <v>1.18</v>
       </c>
       <c r="AT28">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU28">
         <v>1.75</v>
@@ -6700,7 +6727,7 @@
         <v>102</v>
       </c>
       <c r="P29" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q29">
         <v>6</v>
@@ -6787,7 +6814,7 @@
         <v>1</v>
       </c>
       <c r="AS29">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT29">
         <v>1.36</v>
@@ -6891,7 +6918,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q30">
         <v>3</v>
@@ -6978,7 +7005,7 @@
         <v>1</v>
       </c>
       <c r="AS30">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT30">
         <v>1</v>
@@ -7172,7 +7199,7 @@
         <v>3</v>
       </c>
       <c r="AT31">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU31">
         <v>1.66</v>
@@ -7273,7 +7300,7 @@
         <v>99</v>
       </c>
       <c r="P32" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q32">
         <v>4</v>
@@ -7360,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT32">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU32">
         <v>2.04</v>
@@ -7464,7 +7491,7 @@
         <v>81</v>
       </c>
       <c r="P33" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -7554,7 +7581,7 @@
         <v>1</v>
       </c>
       <c r="AT33">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU33">
         <v>1.23</v>
@@ -7655,7 +7682,7 @@
         <v>81</v>
       </c>
       <c r="P34" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q34">
         <v>4</v>
@@ -7846,7 +7873,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -8124,7 +8151,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT36">
         <v>0.55</v>
@@ -8228,7 +8255,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q37">
         <v>7</v>
@@ -8419,7 +8446,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q38">
         <v>8</v>
@@ -8509,7 +8536,7 @@
         <v>1.82</v>
       </c>
       <c r="AT38">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU38">
         <v>2.21</v>
@@ -8801,7 +8828,7 @@
         <v>81</v>
       </c>
       <c r="P40" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q40">
         <v>4</v>
@@ -8992,7 +9019,7 @@
         <v>108</v>
       </c>
       <c r="P41" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q41">
         <v>3</v>
@@ -9079,10 +9106,10 @@
         <v>2</v>
       </c>
       <c r="AS41">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT41">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU41">
         <v>1.79</v>
@@ -9270,10 +9297,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT42">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU42">
         <v>1.81</v>
@@ -9374,7 +9401,7 @@
         <v>110</v>
       </c>
       <c r="P43" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9464,7 +9491,7 @@
         <v>1.36</v>
       </c>
       <c r="AT43">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU43">
         <v>1.48</v>
@@ -9843,10 +9870,10 @@
         <v>2</v>
       </c>
       <c r="AS45">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT45">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU45">
         <v>1.07</v>
@@ -9947,7 +9974,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q46">
         <v>3</v>
@@ -10034,10 +10061,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT46">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU46">
         <v>1.33</v>
@@ -10138,7 +10165,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10225,10 +10252,10 @@
         <v>3</v>
       </c>
       <c r="AS47">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT47">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU47">
         <v>1.79</v>
@@ -10520,7 +10547,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q49">
         <v>3</v>
@@ -10607,7 +10634,7 @@
         <v>1</v>
       </c>
       <c r="AS49">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT49">
         <v>1</v>
@@ -10711,7 +10738,7 @@
         <v>81</v>
       </c>
       <c r="P50" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q50">
         <v>11</v>
@@ -10801,7 +10828,7 @@
         <v>1.18</v>
       </c>
       <c r="AT50">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU50">
         <v>2.23</v>
@@ -10902,7 +10929,7 @@
         <v>81</v>
       </c>
       <c r="P51" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -11475,7 +11502,7 @@
         <v>81</v>
       </c>
       <c r="P54" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11666,7 +11693,7 @@
         <v>117</v>
       </c>
       <c r="P55" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q55">
         <v>2</v>
@@ -11857,7 +11884,7 @@
         <v>118</v>
       </c>
       <c r="P56" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q56">
         <v>0</v>
@@ -12048,7 +12075,7 @@
         <v>119</v>
       </c>
       <c r="P57" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q57">
         <v>8</v>
@@ -12135,10 +12162,10 @@
         <v>2.5</v>
       </c>
       <c r="AS57">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT57">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU57">
         <v>1.57</v>
@@ -12239,7 +12266,7 @@
         <v>120</v>
       </c>
       <c r="P58" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q58">
         <v>5</v>
@@ -12326,10 +12353,10 @@
         <v>3</v>
       </c>
       <c r="AS58">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT58">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU58">
         <v>1.65</v>
@@ -12430,7 +12457,7 @@
         <v>121</v>
       </c>
       <c r="P59" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q59">
         <v>2</v>
@@ -12517,10 +12544,10 @@
         <v>2.33</v>
       </c>
       <c r="AS59">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT59">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU59">
         <v>1.29</v>
@@ -12621,7 +12648,7 @@
         <v>81</v>
       </c>
       <c r="P60" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q60">
         <v>10</v>
@@ -12708,10 +12735,10 @@
         <v>1.75</v>
       </c>
       <c r="AS60">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT60">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU60">
         <v>1.82</v>
@@ -12899,7 +12926,7 @@
         <v>1.25</v>
       </c>
       <c r="AS61">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT61">
         <v>1.36</v>
@@ -13090,10 +13117,10 @@
         <v>0</v>
       </c>
       <c r="AS62">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT62">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU62">
         <v>1.64</v>
@@ -13284,7 +13311,7 @@
         <v>1.36</v>
       </c>
       <c r="AT63">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU63">
         <v>1.45</v>
@@ -13385,7 +13412,7 @@
         <v>125</v>
       </c>
       <c r="P64" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q64">
         <v>11</v>
@@ -13475,7 +13502,7 @@
         <v>3</v>
       </c>
       <c r="AT64">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU64">
         <v>2.42</v>
@@ -13576,7 +13603,7 @@
         <v>126</v>
       </c>
       <c r="P65" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q65">
         <v>10</v>
@@ -13767,7 +13794,7 @@
         <v>81</v>
       </c>
       <c r="P66" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q66">
         <v>10</v>
@@ -13958,7 +13985,7 @@
         <v>127</v>
       </c>
       <c r="P67" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q67">
         <v>2</v>
@@ -14149,7 +14176,7 @@
         <v>101</v>
       </c>
       <c r="P68" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q68">
         <v>9</v>
@@ -14722,7 +14749,7 @@
         <v>81</v>
       </c>
       <c r="P71" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q71">
         <v>6</v>
@@ -15104,7 +15131,7 @@
         <v>129</v>
       </c>
       <c r="P73" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q73">
         <v>8</v>
@@ -15191,10 +15218,10 @@
         <v>2.6</v>
       </c>
       <c r="AS73">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT73">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU73">
         <v>1.96</v>
@@ -15295,7 +15322,7 @@
         <v>130</v>
       </c>
       <c r="P74" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q74">
         <v>3</v>
@@ -15382,7 +15409,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT74">
         <v>1.42</v>
@@ -15486,7 +15513,7 @@
         <v>131</v>
       </c>
       <c r="P75" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q75">
         <v>15</v>
@@ -15573,10 +15600,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT75">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU75">
         <v>1.64</v>
@@ -15677,7 +15704,7 @@
         <v>132</v>
       </c>
       <c r="P76" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q76">
         <v>7</v>
@@ -15767,7 +15794,7 @@
         <v>2.25</v>
       </c>
       <c r="AT76">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU76">
         <v>2.06</v>
@@ -15958,7 +15985,7 @@
         <v>1.36</v>
       </c>
       <c r="AT77">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU77">
         <v>1.51</v>
@@ -16146,10 +16173,10 @@
         <v>0</v>
       </c>
       <c r="AS78">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT78">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU78">
         <v>1.3</v>
@@ -16250,7 +16277,7 @@
         <v>81</v>
       </c>
       <c r="P79" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q79">
         <v>6</v>
@@ -16337,7 +16364,7 @@
         <v>1.2</v>
       </c>
       <c r="AS79">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT79">
         <v>1.36</v>
@@ -16531,7 +16558,7 @@
         <v>3</v>
       </c>
       <c r="AT80">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU80">
         <v>2.47</v>
@@ -16632,7 +16659,7 @@
         <v>136</v>
       </c>
       <c r="P81" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q81">
         <v>1</v>
@@ -17014,7 +17041,7 @@
         <v>81</v>
       </c>
       <c r="P83" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q83">
         <v>6</v>
@@ -17104,7 +17131,7 @@
         <v>1.09</v>
       </c>
       <c r="AT83">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU83">
         <v>1.54</v>
@@ -17396,7 +17423,7 @@
         <v>139</v>
       </c>
       <c r="P85" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q85">
         <v>5</v>
@@ -17587,7 +17614,7 @@
         <v>140</v>
       </c>
       <c r="P86" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q86">
         <v>0</v>
@@ -18056,7 +18083,7 @@
         <v>1.4</v>
       </c>
       <c r="AS88">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT88">
         <v>1.55</v>
@@ -18160,7 +18187,7 @@
         <v>81</v>
       </c>
       <c r="P89" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18247,10 +18274,10 @@
         <v>2</v>
       </c>
       <c r="AS89">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT89">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU89">
         <v>1.48</v>
@@ -18351,7 +18378,7 @@
         <v>142</v>
       </c>
       <c r="P90" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q90">
         <v>14</v>
@@ -18441,7 +18468,7 @@
         <v>1.17</v>
       </c>
       <c r="AT90">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU90">
         <v>1.3</v>
@@ -18629,7 +18656,7 @@
         <v>1.67</v>
       </c>
       <c r="AS91">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT91">
         <v>1.42</v>
@@ -18733,7 +18760,7 @@
         <v>144</v>
       </c>
       <c r="P92" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q92">
         <v>10</v>
@@ -18823,7 +18850,7 @@
         <v>2.25</v>
       </c>
       <c r="AT92">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU92">
         <v>2.01</v>
@@ -19011,7 +19038,7 @@
         <v>1.5</v>
       </c>
       <c r="AS93">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT93">
         <v>1.36</v>
@@ -19115,7 +19142,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q94">
         <v>5</v>
@@ -19202,10 +19229,10 @@
         <v>1.67</v>
       </c>
       <c r="AS94">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT94">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU94">
         <v>1.73</v>
@@ -19306,7 +19333,7 @@
         <v>81</v>
       </c>
       <c r="P95" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q95">
         <v>4</v>
@@ -19396,7 +19423,7 @@
         <v>1.36</v>
       </c>
       <c r="AT95">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU95">
         <v>1.58</v>
@@ -19497,7 +19524,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q96">
         <v>8</v>
@@ -19775,7 +19802,7 @@
         <v>0.67</v>
       </c>
       <c r="AS97">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT97">
         <v>0.55</v>
@@ -20070,7 +20097,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q99">
         <v>8</v>
@@ -20160,7 +20187,7 @@
         <v>1</v>
       </c>
       <c r="AT99">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU99">
         <v>1.37</v>
@@ -20261,7 +20288,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q100">
         <v>7</v>
@@ -20452,7 +20479,7 @@
         <v>81</v>
       </c>
       <c r="P101" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20542,7 +20569,7 @@
         <v>1</v>
       </c>
       <c r="AT101">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU101">
         <v>1.17</v>
@@ -20643,7 +20670,7 @@
         <v>152</v>
       </c>
       <c r="P102" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="Q102">
         <v>7</v>
@@ -20730,7 +20757,7 @@
         <v>2.67</v>
       </c>
       <c r="AS102">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT102">
         <v>2</v>
@@ -20834,7 +20861,7 @@
         <v>153</v>
       </c>
       <c r="P103" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q103">
         <v>13</v>
@@ -21115,7 +21142,7 @@
         <v>3</v>
       </c>
       <c r="AT104">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU104">
         <v>2.29</v>
@@ -21216,7 +21243,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="Q105">
         <v>3</v>
@@ -21306,7 +21333,7 @@
         <v>1.17</v>
       </c>
       <c r="AT105">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU105">
         <v>1.44</v>
@@ -21497,7 +21524,7 @@
         <v>1.36</v>
       </c>
       <c r="AT106">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU106">
         <v>1.63</v>
@@ -21598,7 +21625,7 @@
         <v>157</v>
       </c>
       <c r="P107" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="Q107">
         <v>10</v>
@@ -21685,7 +21712,7 @@
         <v>1.43</v>
       </c>
       <c r="AS107">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT107">
         <v>1.33</v>
@@ -21789,7 +21816,7 @@
         <v>81</v>
       </c>
       <c r="P108" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="Q108">
         <v>6</v>
@@ -21876,10 +21903,10 @@
         <v>2.43</v>
       </c>
       <c r="AS108">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT108">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU108">
         <v>1.72</v>
@@ -21980,7 +22007,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="Q109">
         <v>6</v>
@@ -22067,7 +22094,7 @@
         <v>1.17</v>
       </c>
       <c r="AS109">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT109">
         <v>1.55</v>
@@ -22261,7 +22288,7 @@
         <v>1.09</v>
       </c>
       <c r="AT110">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU110">
         <v>1.47</v>
@@ -22362,7 +22389,7 @@
         <v>160</v>
       </c>
       <c r="P111" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="Q111">
         <v>7</v>
@@ -22449,7 +22476,7 @@
         <v>1.57</v>
       </c>
       <c r="AS111">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT111">
         <v>1.42</v>
@@ -22553,7 +22580,7 @@
         <v>161</v>
       </c>
       <c r="P112" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q112">
         <v>14</v>
@@ -22640,7 +22667,7 @@
         <v>0.57</v>
       </c>
       <c r="AS112">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT112">
         <v>0.55</v>
@@ -22744,7 +22771,7 @@
         <v>162</v>
       </c>
       <c r="P113" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -22834,7 +22861,7 @@
         <v>1</v>
       </c>
       <c r="AT113">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU113">
         <v>1.16</v>
@@ -23022,7 +23049,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT114">
         <v>1</v>
@@ -23216,7 +23243,7 @@
         <v>2.27</v>
       </c>
       <c r="AT115">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU115">
         <v>1.76</v>
@@ -23407,7 +23434,7 @@
         <v>1.18</v>
       </c>
       <c r="AT116">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU116">
         <v>1.88</v>
@@ -23598,7 +23625,7 @@
         <v>1.82</v>
       </c>
       <c r="AT117">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU117">
         <v>1.93</v>
@@ -23786,7 +23813,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT118">
         <v>0.36</v>
@@ -24171,7 +24198,7 @@
         <v>2.27</v>
       </c>
       <c r="AT120">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU120">
         <v>1.7</v>
@@ -24463,7 +24490,7 @@
         <v>169</v>
       </c>
       <c r="P122" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="Q122">
         <v>5</v>
@@ -24550,10 +24577,10 @@
         <v>1.25</v>
       </c>
       <c r="AS122">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT122">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU122">
         <v>1.58</v>
@@ -24654,7 +24681,7 @@
         <v>170</v>
       </c>
       <c r="P123" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="Q123">
         <v>3</v>
@@ -24932,7 +24959,7 @@
         <v>2.29</v>
       </c>
       <c r="AS124">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT124">
         <v>2</v>
@@ -25126,7 +25153,7 @@
         <v>2.25</v>
       </c>
       <c r="AT125">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU125">
         <v>2.11</v>
@@ -25227,7 +25254,7 @@
         <v>173</v>
       </c>
       <c r="P126" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -25418,7 +25445,7 @@
         <v>90</v>
       </c>
       <c r="P127" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q127">
         <v>7</v>
@@ -25508,7 +25535,7 @@
         <v>1</v>
       </c>
       <c r="AT127">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU127">
         <v>1.43</v>
@@ -25609,7 +25636,7 @@
         <v>174</v>
       </c>
       <c r="P128" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q128">
         <v>4</v>
@@ -25800,7 +25827,7 @@
         <v>81</v>
       </c>
       <c r="P129" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="Q129">
         <v>7</v>
@@ -25887,7 +25914,7 @@
         <v>1.43</v>
       </c>
       <c r="AS129">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT129">
         <v>1.55</v>
@@ -26081,7 +26108,7 @@
         <v>1.82</v>
       </c>
       <c r="AT130">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU130">
         <v>1.94</v>
@@ -26269,7 +26296,7 @@
         <v>0.57</v>
       </c>
       <c r="AS131">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT131">
         <v>0.36</v>
@@ -26373,7 +26400,7 @@
         <v>177</v>
       </c>
       <c r="P132" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="Q132">
         <v>9</v>
@@ -26463,7 +26490,7 @@
         <v>2.27</v>
       </c>
       <c r="AT132">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU132">
         <v>1.87</v>
@@ -26564,7 +26591,7 @@
         <v>178</v>
       </c>
       <c r="P133" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q133">
         <v>8</v>
@@ -26651,10 +26678,10 @@
         <v>2</v>
       </c>
       <c r="AS133">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT133">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU133">
         <v>1.68</v>
@@ -26755,7 +26782,7 @@
         <v>102</v>
       </c>
       <c r="P134" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="Q134">
         <v>12</v>
@@ -26845,7 +26872,7 @@
         <v>1.18</v>
       </c>
       <c r="AT134">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU134">
         <v>1.77</v>
@@ -27033,10 +27060,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT135">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU135">
         <v>1.6</v>
@@ -27137,7 +27164,7 @@
         <v>179</v>
       </c>
       <c r="P136" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q136">
         <v>9</v>
@@ -27328,7 +27355,7 @@
         <v>90</v>
       </c>
       <c r="P137" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q137">
         <v>0</v>
@@ -27415,7 +27442,7 @@
         <v>0.71</v>
       </c>
       <c r="AS137">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT137">
         <v>0.91</v>
@@ -27519,7 +27546,7 @@
         <v>180</v>
       </c>
       <c r="P138" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="Q138">
         <v>7</v>
@@ -27710,7 +27737,7 @@
         <v>81</v>
       </c>
       <c r="P139" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="Q139">
         <v>8</v>
@@ -27797,7 +27824,7 @@
         <v>0.75</v>
       </c>
       <c r="AS139">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT139">
         <v>0.91</v>
@@ -28092,7 +28119,7 @@
         <v>81</v>
       </c>
       <c r="P141" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q141">
         <v>3</v>
@@ -28283,7 +28310,7 @@
         <v>81</v>
       </c>
       <c r="P142" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="Q142">
         <v>6</v>
@@ -28373,7 +28400,7 @@
         <v>1</v>
       </c>
       <c r="AT142">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU142">
         <v>1.26</v>
@@ -28474,7 +28501,7 @@
         <v>181</v>
       </c>
       <c r="P143" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -28564,7 +28591,7 @@
         <v>1.09</v>
       </c>
       <c r="AT143">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU143">
         <v>1.59</v>
@@ -28665,7 +28692,7 @@
         <v>81</v>
       </c>
       <c r="P144" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="Q144">
         <v>5</v>
@@ -29238,7 +29265,7 @@
         <v>122</v>
       </c>
       <c r="P147" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q147">
         <v>7</v>
@@ -29325,7 +29352,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT147">
         <v>1</v>
@@ -29516,7 +29543,7 @@
         <v>0.5</v>
       </c>
       <c r="AS148">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT148">
         <v>0.36</v>
@@ -29710,7 +29737,7 @@
         <v>3</v>
       </c>
       <c r="AT149">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU149">
         <v>2.31</v>
@@ -29901,7 +29928,7 @@
         <v>2.27</v>
       </c>
       <c r="AT150">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU150">
         <v>1.87</v>
@@ -30002,7 +30029,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="Q151">
         <v>7</v>
@@ -30089,10 +30116,10 @@
         <v>1.5</v>
       </c>
       <c r="AS151">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT151">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU151">
         <v>1.61</v>
@@ -30193,7 +30220,7 @@
         <v>81</v>
       </c>
       <c r="P152" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="Q152">
         <v>14</v>
@@ -30280,10 +30307,10 @@
         <v>0.44</v>
       </c>
       <c r="AS152">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT152">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU152">
         <v>1.59</v>
@@ -30384,7 +30411,7 @@
         <v>187</v>
       </c>
       <c r="P153" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="Q153">
         <v>2</v>
@@ -30471,10 +30498,10 @@
         <v>1.88</v>
       </c>
       <c r="AS153">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT153">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU153">
         <v>1.9</v>
@@ -30957,7 +30984,7 @@
         <v>189</v>
       </c>
       <c r="P156" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="Q156">
         <v>8</v>
@@ -31148,7 +31175,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q157">
         <v>2</v>
@@ -31235,7 +31262,7 @@
         <v>1.78</v>
       </c>
       <c r="AS157">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AT157">
         <v>1.55</v>
@@ -31339,7 +31366,7 @@
         <v>191</v>
       </c>
       <c r="P158" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q158">
         <v>5</v>
@@ -31811,7 +31838,7 @@
         <v>1.82</v>
       </c>
       <c r="AT160">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="AU160">
         <v>1.82</v>
@@ -32190,10 +32217,10 @@
         <v>1.3</v>
       </c>
       <c r="AS162">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AT162">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AU162">
         <v>1.87</v>
@@ -32294,7 +32321,7 @@
         <v>196</v>
       </c>
       <c r="P163" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="Q163">
         <v>3</v>
@@ -32381,10 +32408,10 @@
         <v>2</v>
       </c>
       <c r="AS163">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AT163">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AU163">
         <v>1.62</v>
@@ -32485,7 +32512,7 @@
         <v>197</v>
       </c>
       <c r="P164" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="Q164">
         <v>6</v>
@@ -32572,10 +32599,10 @@
         <v>1.3</v>
       </c>
       <c r="AS164">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT164">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AU164">
         <v>1.64</v>
@@ -32766,7 +32793,7 @@
         <v>2.27</v>
       </c>
       <c r="AT165">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AU165">
         <v>1.93</v>
@@ -32867,7 +32894,7 @@
         <v>199</v>
       </c>
       <c r="P166" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="Q166">
         <v>8</v>
@@ -32954,10 +32981,10 @@
         <v>0.7</v>
       </c>
       <c r="AS166">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AT166">
-        <v>0.73</v>
+        <v>0.67</v>
       </c>
       <c r="AU166">
         <v>1.66</v>
@@ -33440,7 +33467,7 @@
         <v>81</v>
       </c>
       <c r="P169" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="Q169">
         <v>3</v>
@@ -33527,10 +33554,10 @@
         <v>1.44</v>
       </c>
       <c r="AS169">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AT169">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AU169">
         <v>1.92</v>
@@ -33822,7 +33849,7 @@
         <v>190</v>
       </c>
       <c r="P171" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q171">
         <v>7</v>
@@ -34013,7 +34040,7 @@
         <v>203</v>
       </c>
       <c r="P172" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="Q172">
         <v>3</v>
@@ -34204,7 +34231,7 @@
         <v>204</v>
       </c>
       <c r="P173" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="Q173">
         <v>8</v>
@@ -34395,7 +34422,7 @@
         <v>205</v>
       </c>
       <c r="P174" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q174">
         <v>11</v>
@@ -34586,7 +34613,7 @@
         <v>84</v>
       </c>
       <c r="P175" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="Q175">
         <v>6</v>
@@ -35110,6 +35137,1343 @@
       </c>
       <c r="BK177">
         <v>11</v>
+      </c>
+    </row>
+    <row r="178" spans="1:63">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>2595316</v>
+      </c>
+      <c r="C178" t="s">
+        <v>63</v>
+      </c>
+      <c r="D178" t="s">
+        <v>64</v>
+      </c>
+      <c r="E178" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F178">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>67</v>
+      </c>
+      <c r="H178" t="s">
+        <v>72</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>2</v>
+      </c>
+      <c r="K178">
+        <v>2</v>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+      <c r="M178">
+        <v>3</v>
+      </c>
+      <c r="N178">
+        <v>3</v>
+      </c>
+      <c r="O178" t="s">
+        <v>81</v>
+      </c>
+      <c r="P178" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q178">
+        <v>11</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>13</v>
+      </c>
+      <c r="T178">
+        <v>4.5</v>
+      </c>
+      <c r="U178">
+        <v>2.27</v>
+      </c>
+      <c r="V178">
+        <v>2.33</v>
+      </c>
+      <c r="W178">
+        <v>1.34</v>
+      </c>
+      <c r="X178">
+        <v>3.1</v>
+      </c>
+      <c r="Y178">
+        <v>2.58</v>
+      </c>
+      <c r="Z178">
+        <v>1.47</v>
+      </c>
+      <c r="AA178">
+        <v>6.2</v>
+      </c>
+      <c r="AB178">
+        <v>1.1</v>
+      </c>
+      <c r="AC178">
+        <v>3.8</v>
+      </c>
+      <c r="AD178">
+        <v>3.4</v>
+      </c>
+      <c r="AE178">
+        <v>1.85</v>
+      </c>
+      <c r="AF178">
+        <v>1</v>
+      </c>
+      <c r="AG178">
+        <v>10.5</v>
+      </c>
+      <c r="AH178">
+        <v>1.25</v>
+      </c>
+      <c r="AI178">
+        <v>3.75</v>
+      </c>
+      <c r="AJ178">
+        <v>1.7</v>
+      </c>
+      <c r="AK178">
+        <v>2</v>
+      </c>
+      <c r="AL178">
+        <v>1.69</v>
+      </c>
+      <c r="AM178">
+        <v>2.11</v>
+      </c>
+      <c r="AN178">
+        <v>1.9</v>
+      </c>
+      <c r="AO178">
+        <v>1.22</v>
+      </c>
+      <c r="AP178">
+        <v>1.25</v>
+      </c>
+      <c r="AQ178">
+        <v>1.36</v>
+      </c>
+      <c r="AR178">
+        <v>2.1</v>
+      </c>
+      <c r="AS178">
+        <v>1.25</v>
+      </c>
+      <c r="AT178">
+        <v>2.18</v>
+      </c>
+      <c r="AU178">
+        <v>1.93</v>
+      </c>
+      <c r="AV178">
+        <v>1.63</v>
+      </c>
+      <c r="AW178">
+        <v>3.56</v>
+      </c>
+      <c r="AX178">
+        <v>2.66</v>
+      </c>
+      <c r="AY178">
+        <v>8.5</v>
+      </c>
+      <c r="AZ178">
+        <v>1.64</v>
+      </c>
+      <c r="BA178">
+        <v>1.17</v>
+      </c>
+      <c r="BB178">
+        <v>1.3</v>
+      </c>
+      <c r="BC178">
+        <v>1.55</v>
+      </c>
+      <c r="BD178">
+        <v>1.93</v>
+      </c>
+      <c r="BE178">
+        <v>2.25</v>
+      </c>
+      <c r="BF178">
+        <v>5</v>
+      </c>
+      <c r="BG178">
+        <v>9</v>
+      </c>
+      <c r="BH178">
+        <v>3</v>
+      </c>
+      <c r="BI178">
+        <v>2</v>
+      </c>
+      <c r="BJ178">
+        <v>8</v>
+      </c>
+      <c r="BK178">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:63">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>2595315</v>
+      </c>
+      <c r="C179" t="s">
+        <v>63</v>
+      </c>
+      <c r="D179" t="s">
+        <v>64</v>
+      </c>
+      <c r="E179" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F179">
+        <v>23</v>
+      </c>
+      <c r="G179" t="s">
+        <v>65</v>
+      </c>
+      <c r="H179" t="s">
+        <v>70</v>
+      </c>
+      <c r="I179">
+        <v>2</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>3</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>4</v>
+      </c>
+      <c r="O179" t="s">
+        <v>208</v>
+      </c>
+      <c r="P179" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q179">
+        <v>3</v>
+      </c>
+      <c r="R179">
+        <v>7</v>
+      </c>
+      <c r="S179">
+        <v>10</v>
+      </c>
+      <c r="T179">
+        <v>2.9</v>
+      </c>
+      <c r="U179">
+        <v>2.05</v>
+      </c>
+      <c r="V179">
+        <v>3.5</v>
+      </c>
+      <c r="W179">
+        <v>1.42</v>
+      </c>
+      <c r="X179">
+        <v>2.65</v>
+      </c>
+      <c r="Y179">
+        <v>2.95</v>
+      </c>
+      <c r="Z179">
+        <v>1.35</v>
+      </c>
+      <c r="AA179">
+        <v>7.75</v>
+      </c>
+      <c r="AB179">
+        <v>1.07</v>
+      </c>
+      <c r="AC179">
+        <v>2.35</v>
+      </c>
+      <c r="AD179">
+        <v>3.15</v>
+      </c>
+      <c r="AE179">
+        <v>2.75</v>
+      </c>
+      <c r="AF179">
+        <v>1.04</v>
+      </c>
+      <c r="AG179">
+        <v>8</v>
+      </c>
+      <c r="AH179">
+        <v>1.28</v>
+      </c>
+      <c r="AI179">
+        <v>3.3</v>
+      </c>
+      <c r="AJ179">
+        <v>1.95</v>
+      </c>
+      <c r="AK179">
+        <v>1.75</v>
+      </c>
+      <c r="AL179">
+        <v>1.82</v>
+      </c>
+      <c r="AM179">
+        <v>1.87</v>
+      </c>
+      <c r="AN179">
+        <v>1.38</v>
+      </c>
+      <c r="AO179">
+        <v>1.31</v>
+      </c>
+      <c r="AP179">
+        <v>1.58</v>
+      </c>
+      <c r="AQ179">
+        <v>1.09</v>
+      </c>
+      <c r="AR179">
+        <v>1.6</v>
+      </c>
+      <c r="AS179">
+        <v>1.08</v>
+      </c>
+      <c r="AT179">
+        <v>1.55</v>
+      </c>
+      <c r="AU179">
+        <v>1.62</v>
+      </c>
+      <c r="AV179">
+        <v>1.44</v>
+      </c>
+      <c r="AW179">
+        <v>3.06</v>
+      </c>
+      <c r="AX179">
+        <v>2</v>
+      </c>
+      <c r="AY179">
+        <v>8</v>
+      </c>
+      <c r="AZ179">
+        <v>2.05</v>
+      </c>
+      <c r="BA179">
+        <v>1.19</v>
+      </c>
+      <c r="BB179">
+        <v>1.48</v>
+      </c>
+      <c r="BC179">
+        <v>1.73</v>
+      </c>
+      <c r="BD179">
+        <v>2.1</v>
+      </c>
+      <c r="BE179">
+        <v>2.7</v>
+      </c>
+      <c r="BF179">
+        <v>4</v>
+      </c>
+      <c r="BG179">
+        <v>4</v>
+      </c>
+      <c r="BH179">
+        <v>3</v>
+      </c>
+      <c r="BI179">
+        <v>10</v>
+      </c>
+      <c r="BJ179">
+        <v>7</v>
+      </c>
+      <c r="BK179">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:63">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>2595310</v>
+      </c>
+      <c r="C180" t="s">
+        <v>63</v>
+      </c>
+      <c r="D180" t="s">
+        <v>64</v>
+      </c>
+      <c r="E180" s="2">
+        <v>44996.45833333334</v>
+      </c>
+      <c r="F180">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>75</v>
+      </c>
+      <c r="H180" t="s">
+        <v>77</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>3</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>3</v>
+      </c>
+      <c r="O180" t="s">
+        <v>209</v>
+      </c>
+      <c r="P180" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q180">
+        <v>9</v>
+      </c>
+      <c r="R180">
+        <v>1</v>
+      </c>
+      <c r="S180">
+        <v>10</v>
+      </c>
+      <c r="T180">
+        <v>2.2</v>
+      </c>
+      <c r="U180">
+        <v>2.25</v>
+      </c>
+      <c r="V180">
+        <v>4.5</v>
+      </c>
+      <c r="W180">
+        <v>1.32</v>
+      </c>
+      <c r="X180">
+        <v>3.22</v>
+      </c>
+      <c r="Y180">
+        <v>2.49</v>
+      </c>
+      <c r="Z180">
+        <v>1.5</v>
+      </c>
+      <c r="AA180">
+        <v>5.95</v>
+      </c>
+      <c r="AB180">
+        <v>1.11</v>
+      </c>
+      <c r="AC180">
+        <v>1.7</v>
+      </c>
+      <c r="AD180">
+        <v>3.75</v>
+      </c>
+      <c r="AE180">
+        <v>4.4</v>
+      </c>
+      <c r="AF180">
+        <v>1.04</v>
+      </c>
+      <c r="AG180">
+        <v>15.25</v>
+      </c>
+      <c r="AH180">
+        <v>1.23</v>
+      </c>
+      <c r="AI180">
+        <v>4.23</v>
+      </c>
+      <c r="AJ180">
+        <v>1.75</v>
+      </c>
+      <c r="AK180">
+        <v>1.95</v>
+      </c>
+      <c r="AL180">
+        <v>1.71</v>
+      </c>
+      <c r="AM180">
+        <v>1.98</v>
+      </c>
+      <c r="AN180">
+        <v>1.2</v>
+      </c>
+      <c r="AO180">
+        <v>1.23</v>
+      </c>
+      <c r="AP180">
+        <v>2.1</v>
+      </c>
+      <c r="AQ180">
+        <v>1.3</v>
+      </c>
+      <c r="AR180">
+        <v>1.27</v>
+      </c>
+      <c r="AS180">
+        <v>1.45</v>
+      </c>
+      <c r="AT180">
+        <v>1.17</v>
+      </c>
+      <c r="AU180">
+        <v>1.74</v>
+      </c>
+      <c r="AV180">
+        <v>1.26</v>
+      </c>
+      <c r="AW180">
+        <v>3</v>
+      </c>
+      <c r="AX180">
+        <v>1.37</v>
+      </c>
+      <c r="AY180">
+        <v>10</v>
+      </c>
+      <c r="AZ180">
+        <v>3.66</v>
+      </c>
+      <c r="BA180">
+        <v>0</v>
+      </c>
+      <c r="BB180">
+        <v>1.24</v>
+      </c>
+      <c r="BC180">
+        <v>1.43</v>
+      </c>
+      <c r="BD180">
+        <v>1.67</v>
+      </c>
+      <c r="BE180">
+        <v>2.05</v>
+      </c>
+      <c r="BF180">
+        <v>13</v>
+      </c>
+      <c r="BG180">
+        <v>2</v>
+      </c>
+      <c r="BH180">
+        <v>5</v>
+      </c>
+      <c r="BI180">
+        <v>1</v>
+      </c>
+      <c r="BJ180">
+        <v>18</v>
+      </c>
+      <c r="BK180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:63">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>2595309</v>
+      </c>
+      <c r="C181" t="s">
+        <v>63</v>
+      </c>
+      <c r="D181" t="s">
+        <v>64</v>
+      </c>
+      <c r="E181" s="2">
+        <v>44996.58333333334</v>
+      </c>
+      <c r="F181">
+        <v>23</v>
+      </c>
+      <c r="G181" t="s">
+        <v>80</v>
+      </c>
+      <c r="H181" t="s">
+        <v>73</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>2</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>3</v>
+      </c>
+      <c r="O181" t="s">
+        <v>210</v>
+      </c>
+      <c r="P181" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q181">
+        <v>15</v>
+      </c>
+      <c r="R181">
+        <v>5</v>
+      </c>
+      <c r="S181">
+        <v>20</v>
+      </c>
+      <c r="T181">
+        <v>2.14</v>
+      </c>
+      <c r="U181">
+        <v>2.31</v>
+      </c>
+      <c r="V181">
+        <v>5.4</v>
+      </c>
+      <c r="W181">
+        <v>1.33</v>
+      </c>
+      <c r="X181">
+        <v>3.05</v>
+      </c>
+      <c r="Y181">
+        <v>2.55</v>
+      </c>
+      <c r="Z181">
+        <v>1.46</v>
+      </c>
+      <c r="AA181">
+        <v>5.95</v>
+      </c>
+      <c r="AB181">
+        <v>1.1</v>
+      </c>
+      <c r="AC181">
+        <v>1.63</v>
+      </c>
+      <c r="AD181">
+        <v>3.75</v>
+      </c>
+      <c r="AE181">
+        <v>4.9</v>
+      </c>
+      <c r="AF181">
+        <v>1.05</v>
+      </c>
+      <c r="AG181">
+        <v>13.25</v>
+      </c>
+      <c r="AH181">
+        <v>1.22</v>
+      </c>
+      <c r="AI181">
+        <v>4</v>
+      </c>
+      <c r="AJ181">
+        <v>1.8</v>
+      </c>
+      <c r="AK181">
+        <v>1.9</v>
+      </c>
+      <c r="AL181">
+        <v>1.8</v>
+      </c>
+      <c r="AM181">
+        <v>1.95</v>
+      </c>
+      <c r="AN181">
+        <v>1.1</v>
+      </c>
+      <c r="AO181">
+        <v>1.18</v>
+      </c>
+      <c r="AP181">
+        <v>2.35</v>
+      </c>
+      <c r="AQ181">
+        <v>3</v>
+      </c>
+      <c r="AR181">
+        <v>2.18</v>
+      </c>
+      <c r="AS181">
+        <v>3</v>
+      </c>
+      <c r="AT181">
+        <v>2</v>
+      </c>
+      <c r="AU181">
+        <v>2.32</v>
+      </c>
+      <c r="AV181">
+        <v>1.69</v>
+      </c>
+      <c r="AW181">
+        <v>4.01</v>
+      </c>
+      <c r="AX181">
+        <v>1.31</v>
+      </c>
+      <c r="AY181">
+        <v>10</v>
+      </c>
+      <c r="AZ181">
+        <v>4.1</v>
+      </c>
+      <c r="BA181">
+        <v>1.13</v>
+      </c>
+      <c r="BB181">
+        <v>1.23</v>
+      </c>
+      <c r="BC181">
+        <v>1.55</v>
+      </c>
+      <c r="BD181">
+        <v>1.9</v>
+      </c>
+      <c r="BE181">
+        <v>2.25</v>
+      </c>
+      <c r="BF181">
+        <v>5</v>
+      </c>
+      <c r="BG181">
+        <v>2</v>
+      </c>
+      <c r="BH181">
+        <v>9</v>
+      </c>
+      <c r="BI181">
+        <v>1</v>
+      </c>
+      <c r="BJ181">
+        <v>14</v>
+      </c>
+      <c r="BK181">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:63">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>2595312</v>
+      </c>
+      <c r="C182" t="s">
+        <v>63</v>
+      </c>
+      <c r="D182" t="s">
+        <v>64</v>
+      </c>
+      <c r="E182" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F182">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>68</v>
+      </c>
+      <c r="H182" t="s">
+        <v>66</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>1</v>
+      </c>
+      <c r="N182">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>106</v>
+      </c>
+      <c r="P182" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q182">
+        <v>4</v>
+      </c>
+      <c r="R182">
+        <v>4</v>
+      </c>
+      <c r="S182">
+        <v>8</v>
+      </c>
+      <c r="T182">
+        <v>3.1</v>
+      </c>
+      <c r="U182">
+        <v>2.13</v>
+      </c>
+      <c r="V182">
+        <v>3.05</v>
+      </c>
+      <c r="W182">
+        <v>1.36</v>
+      </c>
+      <c r="X182">
+        <v>2.85</v>
+      </c>
+      <c r="Y182">
+        <v>2.65</v>
+      </c>
+      <c r="Z182">
+        <v>1.41</v>
+      </c>
+      <c r="AA182">
+        <v>6.75</v>
+      </c>
+      <c r="AB182">
+        <v>1.09</v>
+      </c>
+      <c r="AC182">
+        <v>2.61</v>
+      </c>
+      <c r="AD182">
+        <v>3.4</v>
+      </c>
+      <c r="AE182">
+        <v>2.27</v>
+      </c>
+      <c r="AF182">
+        <v>1.05</v>
+      </c>
+      <c r="AG182">
+        <v>9.75</v>
+      </c>
+      <c r="AH182">
+        <v>1.26</v>
+      </c>
+      <c r="AI182">
+        <v>3.5</v>
+      </c>
+      <c r="AJ182">
+        <v>1.88</v>
+      </c>
+      <c r="AK182">
+        <v>1.92</v>
+      </c>
+      <c r="AL182">
+        <v>1.66</v>
+      </c>
+      <c r="AM182">
+        <v>2.05</v>
+      </c>
+      <c r="AN182">
+        <v>1.51</v>
+      </c>
+      <c r="AO182">
+        <v>1.29</v>
+      </c>
+      <c r="AP182">
+        <v>1.44</v>
+      </c>
+      <c r="AQ182">
+        <v>1.45</v>
+      </c>
+      <c r="AR182">
+        <v>1.27</v>
+      </c>
+      <c r="AS182">
+        <v>1.42</v>
+      </c>
+      <c r="AT182">
+        <v>1.25</v>
+      </c>
+      <c r="AU182">
+        <v>1.52</v>
+      </c>
+      <c r="AV182">
+        <v>1.48</v>
+      </c>
+      <c r="AW182">
+        <v>3</v>
+      </c>
+      <c r="AX182">
+        <v>1.95</v>
+      </c>
+      <c r="AY182">
+        <v>8.5</v>
+      </c>
+      <c r="AZ182">
+        <v>2.05</v>
+      </c>
+      <c r="BA182">
+        <v>1.17</v>
+      </c>
+      <c r="BB182">
+        <v>1.31</v>
+      </c>
+      <c r="BC182">
+        <v>1.65</v>
+      </c>
+      <c r="BD182">
+        <v>1.8</v>
+      </c>
+      <c r="BE182">
+        <v>2.35</v>
+      </c>
+      <c r="BF182">
+        <v>3</v>
+      </c>
+      <c r="BG182">
+        <v>5</v>
+      </c>
+      <c r="BH182">
+        <v>3</v>
+      </c>
+      <c r="BI182">
+        <v>7</v>
+      </c>
+      <c r="BJ182">
+        <v>6</v>
+      </c>
+      <c r="BK182">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:63">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>2595313</v>
+      </c>
+      <c r="C183" t="s">
+        <v>63</v>
+      </c>
+      <c r="D183" t="s">
+        <v>64</v>
+      </c>
+      <c r="E183" s="2">
+        <v>44997.45833333334</v>
+      </c>
+      <c r="F183">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>78</v>
+      </c>
+      <c r="H183" t="s">
+        <v>74</v>
+      </c>
+      <c r="I183">
+        <v>3</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>3</v>
+      </c>
+      <c r="L183">
+        <v>4</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>4</v>
+      </c>
+      <c r="O183" t="s">
+        <v>211</v>
+      </c>
+      <c r="P183" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q183">
+        <v>8</v>
+      </c>
+      <c r="R183">
+        <v>2</v>
+      </c>
+      <c r="S183">
+        <v>10</v>
+      </c>
+      <c r="T183">
+        <v>2.41</v>
+      </c>
+      <c r="U183">
+        <v>2.15</v>
+      </c>
+      <c r="V183">
+        <v>4.15</v>
+      </c>
+      <c r="W183">
+        <v>1.37</v>
+      </c>
+      <c r="X183">
+        <v>2.85</v>
+      </c>
+      <c r="Y183">
+        <v>2.7</v>
+      </c>
+      <c r="Z183">
+        <v>1.41</v>
+      </c>
+      <c r="AA183">
+        <v>6.75</v>
+      </c>
+      <c r="AB183">
+        <v>1.09</v>
+      </c>
+      <c r="AC183">
+        <v>1.93</v>
+      </c>
+      <c r="AD183">
+        <v>3.4</v>
+      </c>
+      <c r="AE183">
+        <v>3.25</v>
+      </c>
+      <c r="AF183">
+        <v>1.04</v>
+      </c>
+      <c r="AG183">
+        <v>8.5</v>
+      </c>
+      <c r="AH183">
+        <v>1.22</v>
+      </c>
+      <c r="AI183">
+        <v>3.7</v>
+      </c>
+      <c r="AJ183">
+        <v>1.88</v>
+      </c>
+      <c r="AK183">
+        <v>1.92</v>
+      </c>
+      <c r="AL183">
+        <v>1.73</v>
+      </c>
+      <c r="AM183">
+        <v>1.95</v>
+      </c>
+      <c r="AN183">
+        <v>1.25</v>
+      </c>
+      <c r="AO183">
+        <v>1.29</v>
+      </c>
+      <c r="AP183">
+        <v>1.83</v>
+      </c>
+      <c r="AQ183">
+        <v>1.1</v>
+      </c>
+      <c r="AR183">
+        <v>1.18</v>
+      </c>
+      <c r="AS183">
+        <v>1.27</v>
+      </c>
+      <c r="AT183">
+        <v>1.08</v>
+      </c>
+      <c r="AU183">
+        <v>1.65</v>
+      </c>
+      <c r="AV183">
+        <v>1.26</v>
+      </c>
+      <c r="AW183">
+        <v>2.91</v>
+      </c>
+      <c r="AX183">
+        <v>1.45</v>
+      </c>
+      <c r="AY183">
+        <v>9</v>
+      </c>
+      <c r="AZ183">
+        <v>3.19</v>
+      </c>
+      <c r="BA183">
+        <v>1.18</v>
+      </c>
+      <c r="BB183">
+        <v>1.24</v>
+      </c>
+      <c r="BC183">
+        <v>1.46</v>
+      </c>
+      <c r="BD183">
+        <v>1.85</v>
+      </c>
+      <c r="BE183">
+        <v>2.18</v>
+      </c>
+      <c r="BF183">
+        <v>11</v>
+      </c>
+      <c r="BG183">
+        <v>6</v>
+      </c>
+      <c r="BH183">
+        <v>0</v>
+      </c>
+      <c r="BI183">
+        <v>4</v>
+      </c>
+      <c r="BJ183">
+        <v>11</v>
+      </c>
+      <c r="BK183">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184" spans="1:63">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>2595314</v>
+      </c>
+      <c r="C184" t="s">
+        <v>63</v>
+      </c>
+      <c r="D184" t="s">
+        <v>64</v>
+      </c>
+      <c r="E184" s="2">
+        <v>44997.58333333334</v>
+      </c>
+      <c r="F184">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>76</v>
+      </c>
+      <c r="H184" t="s">
+        <v>69</v>
+      </c>
+      <c r="I184">
+        <v>1</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>2</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
+        <v>212</v>
+      </c>
+      <c r="P184" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q184">
+        <v>10</v>
+      </c>
+      <c r="R184">
+        <v>5</v>
+      </c>
+      <c r="S184">
+        <v>15</v>
+      </c>
+      <c r="T184">
+        <v>2.45</v>
+      </c>
+      <c r="U184">
+        <v>2.15</v>
+      </c>
+      <c r="V184">
+        <v>4.1</v>
+      </c>
+      <c r="W184">
+        <v>1.35</v>
+      </c>
+      <c r="X184">
+        <v>2.95</v>
+      </c>
+      <c r="Y184">
+        <v>2.65</v>
+      </c>
+      <c r="Z184">
+        <v>1.42</v>
+      </c>
+      <c r="AA184">
+        <v>7</v>
+      </c>
+      <c r="AB184">
+        <v>1.1</v>
+      </c>
+      <c r="AC184">
+        <v>1.78</v>
+      </c>
+      <c r="AD184">
+        <v>3.65</v>
+      </c>
+      <c r="AE184">
+        <v>3.8</v>
+      </c>
+      <c r="AF184">
+        <v>1.05</v>
+      </c>
+      <c r="AG184">
+        <v>12.75</v>
+      </c>
+      <c r="AH184">
+        <v>1.25</v>
+      </c>
+      <c r="AI184">
+        <v>3.6</v>
+      </c>
+      <c r="AJ184">
+        <v>1.71</v>
+      </c>
+      <c r="AK184">
+        <v>1.94</v>
+      </c>
+      <c r="AL184">
+        <v>1.7</v>
+      </c>
+      <c r="AM184">
+        <v>2.05</v>
+      </c>
+      <c r="AN184">
+        <v>1.28</v>
+      </c>
+      <c r="AO184">
+        <v>1.3</v>
+      </c>
+      <c r="AP184">
+        <v>1.82</v>
+      </c>
+      <c r="AQ184">
+        <v>0.91</v>
+      </c>
+      <c r="AR184">
+        <v>0.73</v>
+      </c>
+      <c r="AS184">
+        <v>1.08</v>
+      </c>
+      <c r="AT184">
+        <v>0.67</v>
+      </c>
+      <c r="AU184">
+        <v>1.89</v>
+      </c>
+      <c r="AV184">
+        <v>1.35</v>
+      </c>
+      <c r="AW184">
+        <v>3.24</v>
+      </c>
+      <c r="AX184">
+        <v>1.45</v>
+      </c>
+      <c r="AY184">
+        <v>9.5</v>
+      </c>
+      <c r="AZ184">
+        <v>3.26</v>
+      </c>
+      <c r="BA184">
+        <v>1.12</v>
+      </c>
+      <c r="BB184">
+        <v>1.21</v>
+      </c>
+      <c r="BC184">
+        <v>1.41</v>
+      </c>
+      <c r="BD184">
+        <v>1.72</v>
+      </c>
+      <c r="BE184">
+        <v>2.09</v>
+      </c>
+      <c r="BF184">
+        <v>6</v>
+      </c>
+      <c r="BG184">
+        <v>5</v>
+      </c>
+      <c r="BH184">
+        <v>6</v>
+      </c>
+      <c r="BI184">
+        <v>3</v>
+      </c>
+      <c r="BJ184">
+        <v>12</v>
+      </c>
+      <c r="BK184">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK184"/>
+  <dimension ref="A1:BK188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.08</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT11" t="n">
         <v>0.36</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT12" t="n">
         <v>1.25</v>
@@ -3136,7 +3136,7 @@
         <v>1.08</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>1.09</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU20" t="n">
         <v>1.13</v>
@@ -4757,7 +4757,7 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT21" t="n">
         <v>2</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT22" t="n">
         <v>1.36</v>
@@ -5166,7 +5166,7 @@
         <v>1.36</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU23" t="n">
         <v>2.02</v>
@@ -5978,7 +5978,7 @@
         <v>1.27</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU27" t="n">
         <v>1.89</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT28" t="n">
         <v>1.17</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT29" t="n">
         <v>1.36</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT33" t="n">
         <v>2</v>
@@ -7399,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU34" t="n">
         <v>1.94</v>
@@ -7602,7 +7602,7 @@
         <v>1.36</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT39" t="n">
         <v>1.42</v>
@@ -8617,7 +8617,7 @@
         <v>1.09</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU40" t="n">
         <v>1.51</v>
@@ -9226,7 +9226,7 @@
         <v>1.36</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT45" t="n">
         <v>1.08</v>
@@ -10644,7 +10644,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT50" t="n">
         <v>2</v>
@@ -10847,10 +10847,10 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU51" t="n">
         <v>1.11</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU53" t="n">
         <v>1.2</v>
@@ -11865,7 +11865,7 @@
         <v>1.82</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU56" t="n">
         <v>2.12</v>
@@ -12065,7 +12065,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT57" t="n">
         <v>2</v>
@@ -12474,7 +12474,7 @@
         <v>1.42</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU59" t="n">
         <v>1.29</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT66" t="n">
         <v>1.42</v>
@@ -14095,10 +14095,10 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU67" t="n">
         <v>2.14</v>
@@ -14301,7 +14301,7 @@
         <v>2.25</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU68" t="n">
         <v>2.01</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT69" t="n">
         <v>0.55</v>
@@ -15113,7 +15113,7 @@
         <v>2.27</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU72" t="n">
         <v>1.59</v>
@@ -16937,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT81" t="n">
         <v>0.36</v>
@@ -17346,7 +17346,7 @@
         <v>1.09</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU83" t="n">
         <v>1.54</v>
@@ -17549,7 +17549,7 @@
         <v>2.27</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU84" t="n">
         <v>1.55</v>
@@ -17749,7 +17749,7 @@
         <v>0.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT85" t="n">
         <v>0.55</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU87" t="n">
         <v>1.96</v>
@@ -18358,10 +18358,10 @@
         <v>1.4</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU88" t="n">
         <v>1.58</v>
@@ -18764,7 +18764,7 @@
         <v>2.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT90" t="n">
         <v>1.25</v>
@@ -19985,7 +19985,7 @@
         <v>3</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU96" t="n">
         <v>2.42</v>
@@ -20185,7 +20185,7 @@
         <v>0.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT97" t="n">
         <v>0.55</v>
@@ -20388,7 +20388,7 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -20797,7 +20797,7 @@
         <v>2.27</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU100" t="n">
         <v>1.72</v>
@@ -20997,7 +20997,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT101" t="n">
         <v>1.55</v>
@@ -21609,7 +21609,7 @@
         <v>3</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU104" t="n">
         <v>2.29</v>
@@ -21809,7 +21809,7 @@
         <v>0</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT105" t="n">
         <v>0.67</v>
@@ -22218,7 +22218,7 @@
         <v>1.25</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU107" t="n">
         <v>1.83</v>
@@ -22624,7 +22624,7 @@
         <v>1.08</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU109" t="n">
         <v>1.97</v>
@@ -23433,7 +23433,7 @@
         <v>2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT113" t="n">
         <v>1.25</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT114" t="n">
         <v>1</v>
@@ -23842,7 +23842,7 @@
         <v>2.27</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU115" t="n">
         <v>1.76</v>
@@ -24042,7 +24042,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT116" t="n">
         <v>1.55</v>
@@ -24654,7 +24654,7 @@
         <v>3</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU119" t="n">
         <v>2.15</v>
@@ -25466,7 +25466,7 @@
         <v>1.36</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU123" t="n">
         <v>1.66</v>
@@ -26072,7 +26072,7 @@
         <v>1.13</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT126" t="n">
         <v>1.36</v>
@@ -26684,7 +26684,7 @@
         <v>1.08</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.64</v>
@@ -27493,10 +27493,10 @@
         <v>2</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU133" t="n">
         <v>1.68</v>
@@ -27696,7 +27696,7 @@
         <v>0.38</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT134" t="n">
         <v>0.67</v>
@@ -28308,7 +28308,7 @@
         <v>1.08</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU137" t="n">
         <v>1.64</v>
@@ -28714,7 +28714,7 @@
         <v>1.42</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU139" t="n">
         <v>1.59</v>
@@ -29120,7 +29120,7 @@
         <v>1</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU141" t="n">
         <v>1.4</v>
@@ -29320,7 +29320,7 @@
         <v>1.11</v>
       </c>
       <c r="AS142" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT142" t="n">
         <v>1.08</v>
@@ -29726,7 +29726,7 @@
         <v>2</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT144" t="n">
         <v>2</v>
@@ -29932,7 +29932,7 @@
         <v>2.25</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU145" t="n">
         <v>2.11</v>
@@ -30132,7 +30132,7 @@
         <v>1.33</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT146" t="n">
         <v>1.36</v>
@@ -31147,7 +31147,7 @@
         <v>1.5</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT151" t="n">
         <v>1.55</v>
@@ -31556,7 +31556,7 @@
         <v>1.08</v>
       </c>
       <c r="AT153" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU153" t="n">
         <v>1.9</v>
@@ -31756,10 +31756,10 @@
         <v>1.3</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU154" t="n">
         <v>1.66</v>
@@ -31962,7 +31962,7 @@
         <v>1.09</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU155" t="n">
         <v>1.5</v>
@@ -32162,7 +32162,7 @@
         <v>1.5</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT156" t="n">
         <v>1.42</v>
@@ -32368,7 +32368,7 @@
         <v>1.42</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU157" t="n">
         <v>1.6</v>
@@ -32771,7 +32771,7 @@
         <v>2.11</v>
       </c>
       <c r="AS159" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT159" t="n">
         <v>2</v>
@@ -33586,7 +33586,7 @@
         <v>1.08</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -34192,7 +34192,7 @@
         <v>0.7</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT166" t="n">
         <v>0.67</v>
@@ -35210,7 +35210,7 @@
         <v>1</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU171" t="n">
         <v>1.32</v>
@@ -35410,7 +35410,7 @@
         <v>0.8</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT172" t="n">
         <v>1</v>
@@ -36019,7 +36019,7 @@
         <v>1.9</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="AT175" t="n">
         <v>2</v>
@@ -36225,7 +36225,7 @@
         <v>1.82</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU176" t="n">
         <v>1.77</v>
@@ -36425,10 +36425,10 @@
         <v>1.7</v>
       </c>
       <c r="AS177" t="n">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AU177" t="n">
         <v>1.32</v>
@@ -36631,7 +36631,7 @@
         <v>1.25</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="AU178" t="n">
         <v>1.93</v>
@@ -37034,7 +37034,7 @@
         <v>1.27</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT180" t="n">
         <v>1.17</v>
@@ -37901,6 +37901,818 @@
       </c>
       <c r="BK184" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>2595322</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F185" t="n">
+        <v>24</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="n">
+        <v>2</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="n">
+        <v>2</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['3', '47']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>4</v>
+      </c>
+      <c r="R185" t="n">
+        <v>8</v>
+      </c>
+      <c r="S185" t="n">
+        <v>12</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X185" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>2595318</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>24</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>2</v>
+      </c>
+      <c r="L186" t="n">
+        <v>2</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>3</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['29', '61']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>4</v>
+      </c>
+      <c r="R186" t="n">
+        <v>8</v>
+      </c>
+      <c r="S186" t="n">
+        <v>12</v>
+      </c>
+      <c r="T186" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V186" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>2595321</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45003.45833333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>24</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0</v>
+      </c>
+      <c r="M187" t="n">
+        <v>2</v>
+      </c>
+      <c r="N187" t="n">
+        <v>2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['45', '89']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>3</v>
+      </c>
+      <c r="R187" t="n">
+        <v>4</v>
+      </c>
+      <c r="S187" t="n">
+        <v>7</v>
+      </c>
+      <c r="T187" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="V187" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>2595323</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45003.58333333334</v>
+      </c>
+      <c r="F188" t="n">
+        <v>24</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1</v>
+      </c>
+      <c r="K188" t="n">
+        <v>2</v>
+      </c>
+      <c r="L188" t="n">
+        <v>2</v>
+      </c>
+      <c r="M188" t="n">
+        <v>2</v>
+      </c>
+      <c r="N188" t="n">
+        <v>4</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>['25', '90+5']</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>['30', '65']</t>
+        </is>
+      </c>
+      <c r="Q188" t="n">
+        <v>2</v>
+      </c>
+      <c r="R188" t="n">
+        <v>6</v>
+      </c>
+      <c r="S188" t="n">
+        <v>8</v>
+      </c>
+      <c r="T188" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U188" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="V188" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W188" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X188" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB188" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC188" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD188" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE188" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF188" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG188" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="AH188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI188" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ188" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL188" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM188" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN188" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AO188" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP188" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AQ188" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR188" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS188" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AT188" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU188" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AV188" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AW188" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AX188" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="AY188" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ188" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BA188" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB188" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC188" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD188" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE188" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF188" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH188" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI188" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ188" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK188" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK192"/>
+  <dimension ref="A1:BK200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT2" t="n">
         <v>1.23</v>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT5" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.17</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT8" t="n">
         <v>2.08</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT9" t="n">
         <v>1.08</v>
@@ -2527,7 +2527,7 @@
         <v>2.08</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>1.58</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT13" t="n">
         <v>0.83</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT15" t="n">
         <v>1.17</v>
@@ -3745,7 +3745,7 @@
         <v>1.92</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT18" t="n">
         <v>0.5</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT19" t="n">
         <v>2.08</v>
@@ -4760,7 +4760,7 @@
         <v>1.08</v>
       </c>
       <c r="AT21" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU21" t="n">
         <v>0.68</v>
@@ -4963,7 +4963,7 @@
         <v>1.17</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT23" t="n">
         <v>1.5</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU25" t="n">
         <v>2.13</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT26" t="n">
         <v>0.33</v>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT27" t="n">
         <v>2.25</v>
@@ -6181,7 +6181,7 @@
         <v>1.17</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU28" t="n">
         <v>1.75</v>
@@ -6384,7 +6384,7 @@
         <v>1.58</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU29" t="n">
         <v>1.51</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT30" t="n">
         <v>1.17</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU32" t="n">
         <v>2.04</v>
@@ -7196,7 +7196,7 @@
         <v>1.17</v>
       </c>
       <c r="AT33" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU33" t="n">
         <v>1.23</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
         <v>0.83</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT36" t="n">
         <v>0.5</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT37" t="n">
         <v>2.08</v>
@@ -8414,7 +8414,7 @@
         <v>1.08</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU39" t="n">
         <v>1.07</v>
@@ -8817,10 +8817,10 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT41" t="n">
         <v>1.08</v>
-      </c>
-      <c r="AT41" t="n">
-        <v>1.17</v>
       </c>
       <c r="AU41" t="n">
         <v>1.79</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU42" t="n">
         <v>1.81</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT43" t="n">
         <v>2.25</v>
@@ -9429,7 +9429,7 @@
         <v>2.08</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU44" t="n">
         <v>1.69</v>
@@ -9832,10 +9832,10 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU46" t="n">
         <v>1.33</v>
@@ -10035,10 +10035,10 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU47" t="n">
         <v>1.79</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT49" t="n">
         <v>1.17</v>
@@ -10647,7 +10647,7 @@
         <v>1.17</v>
       </c>
       <c r="AT50" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU50" t="n">
         <v>2.23</v>
@@ -11050,7 +11050,7 @@
         <v>0.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT52" t="n">
         <v>0.5</v>
@@ -11459,7 +11459,7 @@
         <v>1.17</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU54" t="n">
         <v>1.62</v>
@@ -12068,7 +12068,7 @@
         <v>1.58</v>
       </c>
       <c r="AT57" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12268,10 +12268,10 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU58" t="n">
         <v>1.65</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT59" t="n">
         <v>2.25</v>
@@ -12674,7 +12674,7 @@
         <v>1.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT60" t="n">
         <v>1.08</v>
@@ -12877,10 +12877,10 @@
         <v>1.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU61" t="n">
         <v>1.42</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU62" t="n">
         <v>1.64</v>
@@ -13283,10 +13283,10 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU63" t="n">
         <v>1.45</v>
@@ -13489,7 +13489,7 @@
         <v>3</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU64" t="n">
         <v>2.42</v>
@@ -13895,7 +13895,7 @@
         <v>1.17</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU66" t="n">
         <v>0.97</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT68" t="n">
         <v>0.83</v>
@@ -15313,10 +15313,10 @@
         <v>2.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT73" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU73" t="n">
         <v>1.96</v>
@@ -15516,10 +15516,10 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU74" t="n">
         <v>1.6</v>
@@ -15719,10 +15719,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU75" t="n">
         <v>1.64</v>
@@ -15922,10 +15922,10 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU76" t="n">
         <v>2.06</v>
@@ -16125,10 +16125,10 @@
         <v>3</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU77" t="n">
         <v>1.51</v>
@@ -16328,10 +16328,10 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU78" t="n">
         <v>1.3</v>
@@ -16531,10 +16531,10 @@
         <v>1.2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU79" t="n">
         <v>1.79</v>
@@ -18561,10 +18561,10 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU89" t="n">
         <v>1.48</v>
@@ -18767,7 +18767,7 @@
         <v>1.08</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU90" t="n">
         <v>1.3</v>
@@ -18967,10 +18967,10 @@
         <v>1.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU91" t="n">
         <v>1.91</v>
@@ -19170,10 +19170,10 @@
         <v>0</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU92" t="n">
         <v>2.01</v>
@@ -19373,10 +19373,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT93" t="n">
         <v>1.25</v>
-      </c>
-      <c r="AT93" t="n">
-        <v>1.36</v>
       </c>
       <c r="AU93" t="n">
         <v>1.87</v>
@@ -19576,7 +19576,7 @@
         <v>1.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT94" t="n">
         <v>1.08</v>
@@ -19779,10 +19779,10 @@
         <v>2.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT95" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU95" t="n">
         <v>1.58</v>
@@ -20594,7 +20594,7 @@
         <v>1.17</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU99" t="n">
         <v>1.37</v>
@@ -21000,7 +21000,7 @@
         <v>1.17</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU101" t="n">
         <v>1.17</v>
@@ -21200,7 +21200,7 @@
         <v>2.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT102" t="n">
         <v>2.08</v>
@@ -21812,7 +21812,7 @@
         <v>1.08</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU105" t="n">
         <v>1.44</v>
@@ -22012,10 +22012,10 @@
         <v>2.17</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU106" t="n">
         <v>1.63</v>
@@ -22215,7 +22215,7 @@
         <v>1.43</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT107" t="n">
         <v>1.23</v>
@@ -22418,10 +22418,10 @@
         <v>2.43</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT108" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU108" t="n">
         <v>1.72</v>
@@ -22621,7 +22621,7 @@
         <v>1.17</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT109" t="n">
         <v>1.5</v>
@@ -23027,10 +23027,10 @@
         <v>1.57</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU111" t="n">
         <v>1.56</v>
@@ -23230,7 +23230,7 @@
         <v>0.57</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT112" t="n">
         <v>0.5</v>
@@ -23436,7 +23436,7 @@
         <v>1.17</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU113" t="n">
         <v>1.16</v>
@@ -24045,7 +24045,7 @@
         <v>1.17</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU116" t="n">
         <v>1.88</v>
@@ -24248,7 +24248,7 @@
         <v>1.92</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU117" t="n">
         <v>1.93</v>
@@ -24448,7 +24448,7 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT118" t="n">
         <v>0.33</v>
@@ -24857,7 +24857,7 @@
         <v>2.08</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU120" t="n">
         <v>1.7</v>
@@ -25057,10 +25057,10 @@
         <v>1.29</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU121" t="n">
         <v>2.16</v>
@@ -25260,7 +25260,7 @@
         <v>1.25</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT122" t="n">
         <v>1.08</v>
@@ -25463,7 +25463,7 @@
         <v>1.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT123" t="n">
         <v>1.23</v>
@@ -25666,7 +25666,7 @@
         <v>2.29</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT124" t="n">
         <v>2.08</v>
@@ -25869,10 +25869,10 @@
         <v>1.86</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU125" t="n">
         <v>2.11</v>
@@ -26075,7 +26075,7 @@
         <v>1.08</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU126" t="n">
         <v>1.46</v>
@@ -26278,7 +26278,7 @@
         <v>1.17</v>
       </c>
       <c r="AT127" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU127" t="n">
         <v>1.43</v>
@@ -26481,7 +26481,7 @@
         <v>1</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU128" t="n">
         <v>1.51</v>
@@ -26681,7 +26681,7 @@
         <v>1.43</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT129" t="n">
         <v>1.5</v>
@@ -26887,7 +26887,7 @@
         <v>1.92</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU130" t="n">
         <v>1.94</v>
@@ -27087,7 +27087,7 @@
         <v>0.57</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT131" t="n">
         <v>0.33</v>
@@ -27293,7 +27293,7 @@
         <v>2.08</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU132" t="n">
         <v>1.87</v>
@@ -27699,7 +27699,7 @@
         <v>1.17</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU134" t="n">
         <v>1.77</v>
@@ -27899,10 +27899,10 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU135" t="n">
         <v>1.6</v>
@@ -28305,7 +28305,7 @@
         <v>0.71</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT137" t="n">
         <v>0.83</v>
@@ -28508,7 +28508,7 @@
         <v>0.5</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT138" t="n">
         <v>0.5</v>
@@ -28711,7 +28711,7 @@
         <v>0.75</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT139" t="n">
         <v>0.83</v>
@@ -28917,7 +28917,7 @@
         <v>1.92</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU140" t="n">
         <v>1.88</v>
@@ -29526,7 +29526,7 @@
         <v>1</v>
       </c>
       <c r="AT143" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU143" t="n">
         <v>1.59</v>
@@ -29929,7 +29929,7 @@
         <v>1.44</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT145" t="n">
         <v>1.23</v>
@@ -30135,7 +30135,7 @@
         <v>1.17</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU146" t="n">
         <v>1.78</v>
@@ -30335,7 +30335,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT147" t="n">
         <v>1.17</v>
@@ -30538,7 +30538,7 @@
         <v>0.5</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT148" t="n">
         <v>0.33</v>
@@ -30744,7 +30744,7 @@
         <v>3</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU149" t="n">
         <v>2.31</v>
@@ -30947,7 +30947,7 @@
         <v>2.08</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU150" t="n">
         <v>1.87</v>
@@ -31150,7 +31150,7 @@
         <v>1.58</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU151" t="n">
         <v>1.61</v>
@@ -31350,10 +31350,10 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU152" t="n">
         <v>1.59</v>
@@ -31553,7 +31553,7 @@
         <v>1.88</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT153" t="n">
         <v>2.25</v>
@@ -32165,7 +32165,7 @@
         <v>1.17</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU156" t="n">
         <v>1.78</v>
@@ -32365,7 +32365,7 @@
         <v>1.78</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT157" t="n">
         <v>1.5</v>
@@ -32977,7 +32977,7 @@
         <v>1.92</v>
       </c>
       <c r="AT160" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU160" t="n">
         <v>1.82</v>
@@ -33177,7 +33177,7 @@
         <v>0.89</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT161" t="n">
         <v>1.17</v>
@@ -33380,10 +33380,10 @@
         <v>1.3</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT162" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU162" t="n">
         <v>1.87</v>
@@ -33583,7 +33583,7 @@
         <v>2</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT163" t="n">
         <v>2.25</v>
@@ -33786,10 +33786,10 @@
         <v>1.3</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU164" t="n">
         <v>1.64</v>
@@ -34195,7 +34195,7 @@
         <v>1.58</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU166" t="n">
         <v>1.66</v>
@@ -34398,7 +34398,7 @@
         <v>3</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AU167" t="n">
         <v>2.35</v>
@@ -34598,7 +34598,7 @@
         <v>0.44</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT168" t="n">
         <v>0.33</v>
@@ -34801,10 +34801,10 @@
         <v>1.44</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU169" t="n">
         <v>1.92</v>
@@ -35616,7 +35616,7 @@
         <v>2.08</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU173" t="n">
         <v>1.85</v>
@@ -35816,7 +35816,7 @@
         <v>0.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AT174" t="n">
         <v>0.33</v>
@@ -36628,7 +36628,7 @@
         <v>2.1</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT178" t="n">
         <v>2.25</v>
@@ -36831,10 +36831,10 @@
         <v>1.6</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AU179" t="n">
         <v>1.62</v>
@@ -37037,7 +37037,7 @@
         <v>1.58</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU180" t="n">
         <v>1.74</v>
@@ -37240,7 +37240,7 @@
         <v>3</v>
       </c>
       <c r="AT181" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AU181" t="n">
         <v>2.32</v>
@@ -37440,10 +37440,10 @@
         <v>1.27</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT182" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AU182" t="n">
         <v>1.52</v>
@@ -37643,7 +37643,7 @@
         <v>1.18</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AT183" t="n">
         <v>1.08</v>
@@ -37846,10 +37846,10 @@
         <v>0.73</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AU184" t="n">
         <v>1.89</v>
@@ -39525,6 +39525,1630 @@
       </c>
       <c r="BK192" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>2595331</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F193" t="n">
+        <v>25</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>0</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0</v>
+      </c>
+      <c r="M193" t="n">
+        <v>0</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q193" t="n">
+        <v>10</v>
+      </c>
+      <c r="R193" t="n">
+        <v>8</v>
+      </c>
+      <c r="S193" t="n">
+        <v>18</v>
+      </c>
+      <c r="T193" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V193" t="n">
+        <v>3</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X193" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB193" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC193" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD193" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE193" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF193" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG193" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH193" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI193" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ193" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK193" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL193" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM193" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO193" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AP193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ193" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR193" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT193" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AU193" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV193" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW193" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX193" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AY193" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ193" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA193" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB193" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC193" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BD193" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE193" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BF193" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH193" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI193" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ193" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK193" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2595328</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F194" t="n">
+        <v>25</v>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>2</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>2</v>
+      </c>
+      <c r="L194" t="n">
+        <v>5</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1</v>
+      </c>
+      <c r="N194" t="n">
+        <v>6</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>['26', '43', '56', '82', '90+3']</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q194" t="n">
+        <v>6</v>
+      </c>
+      <c r="R194" t="n">
+        <v>1</v>
+      </c>
+      <c r="S194" t="n">
+        <v>7</v>
+      </c>
+      <c r="T194" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U194" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V194" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W194" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X194" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB194" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC194" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD194" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE194" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AF194" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG194" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH194" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI194" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ194" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL194" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM194" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN194" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO194" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP194" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ194" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR194" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS194" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT194" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU194" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AV194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW194" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AX194" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AY194" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ194" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BA194" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB194" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC194" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD194" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE194" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BF194" t="n">
+        <v>14</v>
+      </c>
+      <c r="BG194" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH194" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI194" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ194" t="n">
+        <v>22</v>
+      </c>
+      <c r="BK194" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2595330</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45017.45833333334</v>
+      </c>
+      <c r="F195" t="n">
+        <v>25</v>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>0</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0</v>
+      </c>
+      <c r="M195" t="n">
+        <v>0</v>
+      </c>
+      <c r="N195" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q195" t="n">
+        <v>8</v>
+      </c>
+      <c r="R195" t="n">
+        <v>6</v>
+      </c>
+      <c r="S195" t="n">
+        <v>14</v>
+      </c>
+      <c r="T195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U195" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V195" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W195" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X195" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB195" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC195" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD195" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE195" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF195" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG195" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AH195" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI195" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="AJ195" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK195" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL195" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM195" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO195" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP195" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS195" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT195" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU195" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AV195" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW195" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AX195" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AY195" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AZ195" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA195" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB195" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC195" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD195" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BE195" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BF195" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG195" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH195" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI195" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ195" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>2595332</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45017.58333333334</v>
+      </c>
+      <c r="F196" t="n">
+        <v>25</v>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
+        <v>4</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0</v>
+      </c>
+      <c r="N196" t="n">
+        <v>4</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>['45+3', '62', '75', '90+4']</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q196" t="n">
+        <v>9</v>
+      </c>
+      <c r="R196" t="n">
+        <v>2</v>
+      </c>
+      <c r="S196" t="n">
+        <v>11</v>
+      </c>
+      <c r="T196" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U196" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V196" t="n">
+        <v>9</v>
+      </c>
+      <c r="W196" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X196" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB196" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC196" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD196" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE196" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF196" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG196" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH196" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI196" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ196" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK196" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL196" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM196" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN196" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO196" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP196" t="n">
+        <v>4</v>
+      </c>
+      <c r="AQ196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR196" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS196" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT196" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AU196" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AV196" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW196" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX196" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AY196" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ196" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA196" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="BB196" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BC196" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BD196" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BE196" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF196" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH196" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI196" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ196" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>2595325</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45018.45833333334</v>
+      </c>
+      <c r="F197" t="n">
+        <v>25</v>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0</v>
+      </c>
+      <c r="N197" t="n">
+        <v>1</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q197" t="n">
+        <v>5</v>
+      </c>
+      <c r="R197" t="n">
+        <v>7</v>
+      </c>
+      <c r="S197" t="n">
+        <v>12</v>
+      </c>
+      <c r="T197" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U197" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V197" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W197" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X197" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB197" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD197" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE197" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AF197" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG197" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH197" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AI197" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AJ197" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK197" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AL197" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM197" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN197" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO197" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP197" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AQ197" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AR197" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AS197" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT197" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU197" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV197" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW197" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX197" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AY197" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ197" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BA197" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB197" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC197" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD197" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE197" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BF197" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG197" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH197" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI197" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ197" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK197" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>2595326</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45018.45833333334</v>
+      </c>
+      <c r="F198" t="n">
+        <v>25</v>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Zbrojovka Brno</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>2</v>
+      </c>
+      <c r="J198" t="n">
+        <v>1</v>
+      </c>
+      <c r="K198" t="n">
+        <v>3</v>
+      </c>
+      <c r="L198" t="n">
+        <v>3</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1</v>
+      </c>
+      <c r="N198" t="n">
+        <v>4</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>['20', '24', '51']</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="Q198" t="n">
+        <v>7</v>
+      </c>
+      <c r="R198" t="n">
+        <v>1</v>
+      </c>
+      <c r="S198" t="n">
+        <v>8</v>
+      </c>
+      <c r="T198" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U198" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V198" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="W198" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X198" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB198" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC198" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD198" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE198" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF198" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG198" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH198" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AI198" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ198" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK198" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL198" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM198" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN198" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO198" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AP198" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AQ198" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS198" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AT198" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AU198" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AV198" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW198" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AX198" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AY198" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ198" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="BA198" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="BB198" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BC198" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD198" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE198" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BF198" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH198" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI198" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ198" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2595327</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45018.45833333334</v>
+      </c>
+      <c r="F199" t="n">
+        <v>25</v>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="n">
+        <v>0</v>
+      </c>
+      <c r="N199" t="n">
+        <v>1</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q199" t="n">
+        <v>3</v>
+      </c>
+      <c r="R199" t="n">
+        <v>3</v>
+      </c>
+      <c r="S199" t="n">
+        <v>6</v>
+      </c>
+      <c r="T199" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U199" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V199" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W199" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X199" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB199" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC199" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD199" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE199" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF199" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG199" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH199" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI199" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ199" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK199" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL199" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM199" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN199" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO199" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP199" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AQ199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR199" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS199" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT199" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AU199" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV199" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW199" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX199" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AY199" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AZ199" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BA199" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB199" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC199" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD199" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE199" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG199" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH199" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI199" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ199" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK199" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>2595329</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45018.58333333334</v>
+      </c>
+      <c r="F200" t="n">
+        <v>25</v>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="n">
+        <v>0</v>
+      </c>
+      <c r="N200" t="n">
+        <v>1</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q200" t="n">
+        <v>2</v>
+      </c>
+      <c r="R200" t="n">
+        <v>3</v>
+      </c>
+      <c r="S200" t="n">
+        <v>5</v>
+      </c>
+      <c r="T200" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U200" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V200" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X200" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB200" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC200" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AD200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE200" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF200" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG200" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AH200" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI200" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ200" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK200" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL200" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM200" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN200" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO200" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP200" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ200" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR200" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS200" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU200" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AV200" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW200" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX200" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AY200" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AZ200" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BA200" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB200" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC200" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD200" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE200" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF200" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH200" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI200" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ200" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK200" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK200"/>
+  <dimension ref="A1:BK201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT8" t="n">
         <v>2.08</v>
@@ -4963,7 +4963,7 @@
         <v>1.17</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT23" t="n">
         <v>1.5</v>
@@ -6384,7 +6384,7 @@
         <v>1.58</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU29" t="n">
         <v>1.51</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT35" t="n">
         <v>0.83</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT43" t="n">
         <v>2.25</v>
@@ -9429,7 +9429,7 @@
         <v>2.08</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU44" t="n">
         <v>1.69</v>
@@ -12880,7 +12880,7 @@
         <v>1.25</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU61" t="n">
         <v>1.42</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT63" t="n">
         <v>1.42</v>
@@ -16125,7 +16125,7 @@
         <v>3</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT77" t="n">
         <v>1.15</v>
@@ -16534,7 +16534,7 @@
         <v>1.23</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU79" t="n">
         <v>1.79</v>
@@ -19376,7 +19376,7 @@
         <v>1.23</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU93" t="n">
         <v>1.87</v>
@@ -19779,7 +19779,7 @@
         <v>2.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT95" t="n">
         <v>1.92</v>
@@ -22012,7 +22012,7 @@
         <v>2.17</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT106" t="n">
         <v>1.08</v>
@@ -25060,7 +25060,7 @@
         <v>2.31</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU121" t="n">
         <v>2.16</v>
@@ -25463,7 +25463,7 @@
         <v>1.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT123" t="n">
         <v>1.23</v>
@@ -26075,7 +26075,7 @@
         <v>1.08</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU126" t="n">
         <v>1.46</v>
@@ -28508,7 +28508,7 @@
         <v>0.5</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT138" t="n">
         <v>0.5</v>
@@ -30135,7 +30135,7 @@
         <v>1.17</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU146" t="n">
         <v>1.78</v>
@@ -34398,7 +34398,7 @@
         <v>3</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU167" t="n">
         <v>2.35</v>
@@ -34598,7 +34598,7 @@
         <v>0.44</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT168" t="n">
         <v>0.33</v>
@@ -40891,7 +40891,7 @@
         <v>0.67</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT199" t="n">
         <v>0.62</v>
@@ -41097,7 +41097,7 @@
         <v>1.23</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU200" t="n">
         <v>1.88</v>
@@ -41149,6 +41149,209 @@
       </c>
       <c r="BK200" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2595311</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45021.5</v>
+      </c>
+      <c r="F201" t="n">
+        <v>23</v>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>0</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1</v>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q201" t="n">
+        <v>5</v>
+      </c>
+      <c r="R201" t="n">
+        <v>6</v>
+      </c>
+      <c r="S201" t="n">
+        <v>11</v>
+      </c>
+      <c r="T201" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U201" t="n">
+        <v>2</v>
+      </c>
+      <c r="V201" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="W201" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X201" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB201" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC201" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AD201" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AE201" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AF201" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG201" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH201" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI201" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AJ201" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK201" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM201" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN201" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO201" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP201" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ201" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS201" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT201" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU201" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AV201" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AW201" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AX201" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY201" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ201" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BA201" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB201" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BC201" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BD201" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BE201" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BF201" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG201" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH201" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI201" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ201" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK201" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK201"/>
+  <dimension ref="A1:BK205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT3" t="n">
         <v>1.23</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT10" t="n">
         <v>0.62</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT11" t="n">
         <v>0.33</v>
@@ -3136,7 +3136,7 @@
         <v>1.23</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>1.25</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>3</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>1.23</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU18" t="n">
         <v>2.04</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT20" t="n">
         <v>1.23</v>
@@ -6178,7 +6178,7 @@
         <v>3</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT28" t="n">
         <v>1.08</v>
@@ -6587,7 +6587,7 @@
         <v>1.23</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU30" t="n">
         <v>1.34</v>
@@ -6993,7 +6993,7 @@
         <v>1.23</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU32" t="n">
         <v>2.04</v>
@@ -7602,7 +7602,7 @@
         <v>1.46</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU35" t="n">
         <v>1.67</v>
@@ -7805,7 +7805,7 @@
         <v>1.54</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU36" t="n">
         <v>1.17</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT38" t="n">
         <v>1.08</v>
@@ -8614,7 +8614,7 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT40" t="n">
         <v>1.5</v>
@@ -9426,7 +9426,7 @@
         <v>1.67</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT44" t="n">
         <v>1.23</v>
@@ -9835,7 +9835,7 @@
         <v>1.25</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU46" t="n">
         <v>1.33</v>
@@ -10444,7 +10444,7 @@
         <v>1.54</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU49" t="n">
         <v>1.15</v>
@@ -10644,7 +10644,7 @@
         <v>2.33</v>
       </c>
       <c r="AS50" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT50" t="n">
         <v>1.92</v>
@@ -11053,7 +11053,7 @@
         <v>2.31</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU52" t="n">
         <v>1.92</v>
@@ -11256,7 +11256,7 @@
         <v>1.08</v>
       </c>
       <c r="AT53" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU53" t="n">
         <v>1.2</v>
@@ -11659,7 +11659,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT55" t="n">
         <v>2.08</v>
@@ -11862,7 +11862,7 @@
         <v>2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT56" t="n">
         <v>1.5</v>
@@ -13286,7 +13286,7 @@
         <v>1.46</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU63" t="n">
         <v>1.45</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT65" t="n">
         <v>0.33</v>
@@ -14095,7 +14095,7 @@
         <v>1.75</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT67" t="n">
         <v>1.23</v>
@@ -14301,7 +14301,7 @@
         <v>2.31</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU68" t="n">
         <v>2.01</v>
@@ -14504,7 +14504,7 @@
         <v>1.08</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU69" t="n">
         <v>1.24</v>
@@ -14907,10 +14907,10 @@
         <v>0.67</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU71" t="n">
         <v>1.88</v>
@@ -15110,7 +15110,7 @@
         <v>1.75</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT72" t="n">
         <v>1.5</v>
@@ -15925,7 +15925,7 @@
         <v>2.31</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU76" t="n">
         <v>2.06</v>
@@ -17143,7 +17143,7 @@
         <v>1.17</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU82" t="n">
         <v>1.41</v>
@@ -17343,7 +17343,7 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT83" t="n">
         <v>2.25</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT84" t="n">
         <v>1.23</v>
@@ -17752,7 +17752,7 @@
         <v>1.17</v>
       </c>
       <c r="AT85" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU85" t="n">
         <v>1.06</v>
@@ -17952,7 +17952,7 @@
         <v>2.6</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT86" t="n">
         <v>2.08</v>
@@ -18155,10 +18155,10 @@
         <v>1</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU87" t="n">
         <v>1.96</v>
@@ -20188,7 +20188,7 @@
         <v>1.58</v>
       </c>
       <c r="AT97" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU97" t="n">
         <v>1.5</v>
@@ -20388,10 +20388,10 @@
         <v>1</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU98" t="n">
         <v>1.93</v>
@@ -20794,10 +20794,10 @@
         <v>1</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU100" t="n">
         <v>1.72</v>
@@ -21000,7 +21000,7 @@
         <v>1.17</v>
       </c>
       <c r="AT101" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU101" t="n">
         <v>1.17</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT103" t="n">
         <v>0.33</v>
@@ -22824,7 +22824,7 @@
         <v>1.43</v>
       </c>
       <c r="AS110" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT110" t="n">
         <v>1.08</v>
@@ -23233,7 +23233,7 @@
         <v>1.23</v>
       </c>
       <c r="AT112" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU112" t="n">
         <v>1.89</v>
@@ -23639,7 +23639,7 @@
         <v>1.58</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU114" t="n">
         <v>1.57</v>
@@ -23839,7 +23839,7 @@
         <v>1.83</v>
       </c>
       <c r="AS115" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT115" t="n">
         <v>2.25</v>
@@ -24042,10 +24042,10 @@
         <v>1.5</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU116" t="n">
         <v>1.88</v>
@@ -24245,7 +24245,7 @@
         <v>0.43</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT117" t="n">
         <v>0.62</v>
@@ -24654,7 +24654,7 @@
         <v>3</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU119" t="n">
         <v>2.15</v>
@@ -24854,7 +24854,7 @@
         <v>1.71</v>
       </c>
       <c r="AS120" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT120" t="n">
         <v>1.15</v>
@@ -26478,7 +26478,7 @@
         <v>1.38</v>
       </c>
       <c r="AS128" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT128" t="n">
         <v>1.31</v>
@@ -26884,7 +26884,7 @@
         <v>1.63</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT130" t="n">
         <v>1.08</v>
@@ -27290,10 +27290,10 @@
         <v>1.29</v>
       </c>
       <c r="AS132" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU132" t="n">
         <v>1.87</v>
@@ -27696,7 +27696,7 @@
         <v>0.38</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT134" t="n">
         <v>0.62</v>
@@ -28105,7 +28105,7 @@
         <v>3</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU136" t="n">
         <v>2.19</v>
@@ -28308,7 +28308,7 @@
         <v>1.23</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU137" t="n">
         <v>1.64</v>
@@ -28511,7 +28511,7 @@
         <v>1.46</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU138" t="n">
         <v>1.6</v>
@@ -28714,7 +28714,7 @@
         <v>1.54</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU139" t="n">
         <v>1.59</v>
@@ -28914,7 +28914,7 @@
         <v>1.56</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT140" t="n">
         <v>1.31</v>
@@ -29523,7 +29523,7 @@
         <v>2.33</v>
       </c>
       <c r="AS143" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT143" t="n">
         <v>1.92</v>
@@ -30132,7 +30132,7 @@
         <v>1.33</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT146" t="n">
         <v>1.23</v>
@@ -30338,7 +30338,7 @@
         <v>1.23</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU147" t="n">
         <v>1.85</v>
@@ -30944,7 +30944,7 @@
         <v>1.44</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT150" t="n">
         <v>1.08</v>
@@ -31150,7 +31150,7 @@
         <v>1.58</v>
       </c>
       <c r="AT151" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU151" t="n">
         <v>1.61</v>
@@ -31959,10 +31959,10 @@
         <v>1</v>
       </c>
       <c r="AS155" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT155" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU155" t="n">
         <v>1.5</v>
@@ -32162,7 +32162,7 @@
         <v>1.5</v>
       </c>
       <c r="AS156" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT156" t="n">
         <v>1.31</v>
@@ -32571,7 +32571,7 @@
         <v>1.17</v>
       </c>
       <c r="AT158" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU158" t="n">
         <v>1.38</v>
@@ -32974,7 +32974,7 @@
         <v>2.4</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT160" t="n">
         <v>1.92</v>
@@ -33180,7 +33180,7 @@
         <v>2.31</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU161" t="n">
         <v>2.16</v>
@@ -33989,7 +33989,7 @@
         <v>1.3</v>
       </c>
       <c r="AS165" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT165" t="n">
         <v>1.08</v>
@@ -34804,7 +34804,7 @@
         <v>1.23</v>
       </c>
       <c r="AT169" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU169" t="n">
         <v>1.92</v>
@@ -35004,10 +35004,10 @@
         <v>0.5</v>
       </c>
       <c r="AS170" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU170" t="n">
         <v>1.49</v>
@@ -35210,7 +35210,7 @@
         <v>1.17</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU171" t="n">
         <v>1.32</v>
@@ -35413,7 +35413,7 @@
         <v>1.08</v>
       </c>
       <c r="AT172" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU172" t="n">
         <v>1.62</v>
@@ -35613,7 +35613,7 @@
         <v>1.45</v>
       </c>
       <c r="AS173" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT173" t="n">
         <v>1.31</v>
@@ -36019,7 +36019,7 @@
         <v>1.9</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT175" t="n">
         <v>2.08</v>
@@ -36222,7 +36222,7 @@
         <v>1.45</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT176" t="n">
         <v>1.23</v>
@@ -36834,7 +36834,7 @@
         <v>1.23</v>
       </c>
       <c r="AT179" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU179" t="n">
         <v>1.62</v>
@@ -38255,7 +38255,7 @@
         <v>1.17</v>
       </c>
       <c r="AT186" t="n">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AU186" t="n">
         <v>1.28</v>
@@ -38658,7 +38658,7 @@
         <v>1.55</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AT188" t="n">
         <v>1.5</v>
@@ -38861,10 +38861,10 @@
         <v>1</v>
       </c>
       <c r="AS189" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AU189" t="n">
         <v>1.48</v>
@@ -39267,10 +39267,10 @@
         <v>0.55</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AU191" t="n">
         <v>1.73</v>
@@ -39470,7 +39470,7 @@
         <v>2</v>
       </c>
       <c r="AS192" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="AT192" t="n">
         <v>2.08</v>
@@ -40488,7 +40488,7 @@
         <v>1.54</v>
       </c>
       <c r="AT197" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AU197" t="n">
         <v>1.47</v>
@@ -41352,6 +41352,818 @@
       </c>
       <c r="BK201" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>2595333</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F202" t="n">
+        <v>26</v>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="n">
+        <v>1</v>
+      </c>
+      <c r="N202" t="n">
+        <v>3</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>['71', '86']</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q202" t="n">
+        <v>2</v>
+      </c>
+      <c r="R202" t="n">
+        <v>6</v>
+      </c>
+      <c r="S202" t="n">
+        <v>8</v>
+      </c>
+      <c r="T202" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U202" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V202" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W202" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB202" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD202" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE202" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF202" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG202" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH202" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI202" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ202" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK202" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL202" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM202" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN202" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AO202" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP202" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ202" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR202" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS202" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT202" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="AU202" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AV202" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW202" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AX202" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY202" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ202" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="BA202" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BB202" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BC202" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BD202" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE202" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BF202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG202" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH202" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI202" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ202" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK202" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>2595334</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F203" t="n">
+        <v>26</v>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>1</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>1</v>
+      </c>
+      <c r="N203" t="n">
+        <v>1</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="Q203" t="n">
+        <v>5</v>
+      </c>
+      <c r="R203" t="n">
+        <v>12</v>
+      </c>
+      <c r="S203" t="n">
+        <v>17</v>
+      </c>
+      <c r="T203" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U203" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V203" t="n">
+        <v>4</v>
+      </c>
+      <c r="W203" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X203" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB203" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC203" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD203" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE203" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF203" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG203" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AH203" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI203" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK203" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL203" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN203" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AO203" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP203" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ203" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR203" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS203" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AT203" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU203" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AV203" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AW203" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AX203" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY203" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ203" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA203" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB203" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC203" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BD203" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE203" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BF203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG203" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH203" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI203" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ203" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK203" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>2595338</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F204" t="n">
+        <v>26</v>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>Zbrojovka Brno</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>1</v>
+      </c>
+      <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2</v>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="n">
+        <v>2</v>
+      </c>
+      <c r="N204" t="n">
+        <v>3</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>['40', '52']</t>
+        </is>
+      </c>
+      <c r="Q204" t="n">
+        <v>3</v>
+      </c>
+      <c r="R204" t="n">
+        <v>5</v>
+      </c>
+      <c r="S204" t="n">
+        <v>8</v>
+      </c>
+      <c r="T204" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U204" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V204" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W204" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X204" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB204" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC204" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD204" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE204" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF204" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG204" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI204" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ204" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK204" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL204" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM204" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN204" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO204" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP204" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR204" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS204" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AT204" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AU204" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV204" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AW204" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX204" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY204" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ204" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA204" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB204" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BC204" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BD204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE204" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF204" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG204" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH204" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI204" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ204" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK204" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>2595335</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45024.58333333334</v>
+      </c>
+      <c r="F205" t="n">
+        <v>26</v>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>1</v>
+      </c>
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>3</v>
+      </c>
+      <c r="M205" t="n">
+        <v>2</v>
+      </c>
+      <c r="N205" t="n">
+        <v>5</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>['45+3', '77', '82']</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>['66', '74']</t>
+        </is>
+      </c>
+      <c r="Q205" t="n">
+        <v>7</v>
+      </c>
+      <c r="R205" t="n">
+        <v>3</v>
+      </c>
+      <c r="S205" t="n">
+        <v>10</v>
+      </c>
+      <c r="T205" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U205" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V205" t="n">
+        <v>5</v>
+      </c>
+      <c r="W205" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X205" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB205" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC205" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD205" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE205" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF205" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG205" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH205" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ205" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK205" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL205" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM205" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN205" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO205" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP205" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ205" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR205" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS205" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT205" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU205" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV205" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW205" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="AX205" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY205" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ205" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA205" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB205" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC205" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD205" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BE205" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BF205" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH205" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI205" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ205" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK205" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK205"/>
+  <dimension ref="A1:BK209"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT6" t="n">
         <v>1.08</v>
@@ -1918,7 +1918,7 @@
         <v>1.08</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>1.46</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.31</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT12" t="n">
         <v>1.15</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU14" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT15" t="n">
         <v>1.08</v>
@@ -4354,7 +4354,7 @@
         <v>1.54</v>
       </c>
       <c r="AT19" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU19" t="n">
         <v>1.2</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT22" t="n">
         <v>1.23</v>
@@ -5166,7 +5166,7 @@
         <v>1.46</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU23" t="n">
         <v>2.02</v>
@@ -5366,7 +5366,7 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT24" t="n">
         <v>1.08</v>
@@ -5775,7 +5775,7 @@
         <v>1.23</v>
       </c>
       <c r="AT26" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU26" t="n">
         <v>1.64</v>
@@ -5975,10 +5975,10 @@
         <v>3</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT27" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU27" t="n">
         <v>1.89</v>
@@ -6381,7 +6381,7 @@
         <v>1</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT29" t="n">
         <v>1.23</v>
@@ -7193,7 +7193,7 @@
         <v>2</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT33" t="n">
         <v>1.92</v>
@@ -7396,7 +7396,7 @@
         <v>0.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT34" t="n">
         <v>1.23</v>
@@ -8008,7 +8008,7 @@
         <v>2.31</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU37" t="n">
         <v>1.94</v>
@@ -8617,7 +8617,7 @@
         <v>0.92</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU40" t="n">
         <v>1.51</v>
@@ -9226,7 +9226,7 @@
         <v>1.46</v>
       </c>
       <c r="AT43" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU43" t="n">
         <v>1.48</v>
@@ -9629,7 +9629,7 @@
         <v>2</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT45" t="n">
         <v>1.08</v>
@@ -9832,7 +9832,7 @@
         <v>1.5</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT46" t="n">
         <v>1.54</v>
@@ -10241,7 +10241,7 @@
         <v>3</v>
       </c>
       <c r="AT48" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU48" t="n">
         <v>2.41</v>
@@ -10847,7 +10847,7 @@
         <v>1.33</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT51" t="n">
         <v>1.23</v>
@@ -11456,7 +11456,7 @@
         <v>1</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT54" t="n">
         <v>1.31</v>
@@ -11662,7 +11662,7 @@
         <v>0.92</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU55" t="n">
         <v>1.36</v>
@@ -11865,7 +11865,7 @@
         <v>1.77</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU56" t="n">
         <v>2.12</v>
@@ -12065,7 +12065,7 @@
         <v>2.5</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT57" t="n">
         <v>1.92</v>
@@ -12474,7 +12474,7 @@
         <v>1.54</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU59" t="n">
         <v>1.29</v>
@@ -12877,7 +12877,7 @@
         <v>1.25</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT61" t="n">
         <v>1.23</v>
@@ -13692,7 +13692,7 @@
         <v>0.92</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU65" t="n">
         <v>1.34</v>
@@ -13892,7 +13892,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT66" t="n">
         <v>1.31</v>
@@ -14704,10 +14704,10 @@
         <v>2.5</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU70" t="n">
         <v>1.45</v>
@@ -15113,7 +15113,7 @@
         <v>2.15</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU72" t="n">
         <v>1.59</v>
@@ -15516,7 +15516,7 @@
         <v>1.8</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT74" t="n">
         <v>1.31</v>
@@ -16940,7 +16940,7 @@
         <v>1.08</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU81" t="n">
         <v>1.29</v>
@@ -17140,7 +17140,7 @@
         <v>1.25</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT82" t="n">
         <v>1.08</v>
@@ -17346,7 +17346,7 @@
         <v>0.92</v>
       </c>
       <c r="AT83" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU83" t="n">
         <v>1.54</v>
@@ -17749,7 +17749,7 @@
         <v>0.6</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT85" t="n">
         <v>0.46</v>
@@ -17955,7 +17955,7 @@
         <v>1.77</v>
       </c>
       <c r="AT86" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU86" t="n">
         <v>1.88</v>
@@ -18358,10 +18358,10 @@
         <v>1.4</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU88" t="n">
         <v>1.58</v>
@@ -20185,7 +20185,7 @@
         <v>0.67</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT97" t="n">
         <v>0.46</v>
@@ -20591,7 +20591,7 @@
         <v>1.8</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT99" t="n">
         <v>1.15</v>
@@ -20997,7 +20997,7 @@
         <v>1.2</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT101" t="n">
         <v>1.54</v>
@@ -21200,10 +21200,10 @@
         <v>2.67</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT102" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21406,7 +21406,7 @@
         <v>1.77</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU103" t="n">
         <v>1.76</v>
@@ -21609,7 +21609,7 @@
         <v>3</v>
       </c>
       <c r="AT104" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU104" t="n">
         <v>2.29</v>
@@ -22624,7 +22624,7 @@
         <v>1.23</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU109" t="n">
         <v>1.97</v>
@@ -23433,7 +23433,7 @@
         <v>2</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT113" t="n">
         <v>1.15</v>
@@ -23636,7 +23636,7 @@
         <v>0.83</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT114" t="n">
         <v>1.08</v>
@@ -23842,7 +23842,7 @@
         <v>2.15</v>
       </c>
       <c r="AT115" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU115" t="n">
         <v>1.76</v>
@@ -24448,10 +24448,10 @@
         <v>0.67</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU118" t="n">
         <v>1.6</v>
@@ -25669,7 +25669,7 @@
         <v>1.23</v>
       </c>
       <c r="AT124" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU124" t="n">
         <v>1.89</v>
@@ -26275,7 +26275,7 @@
         <v>2.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT127" t="n">
         <v>1.92</v>
@@ -26684,7 +26684,7 @@
         <v>1.23</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU129" t="n">
         <v>1.64</v>
@@ -27090,7 +27090,7 @@
         <v>1.23</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU131" t="n">
         <v>1.88</v>
@@ -27493,10 +27493,10 @@
         <v>2</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT133" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU133" t="n">
         <v>1.68</v>
@@ -27899,7 +27899,7 @@
         <v>1.5</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT135" t="n">
         <v>1.15</v>
@@ -29117,10 +29117,10 @@
         <v>1.63</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU141" t="n">
         <v>1.4</v>
@@ -29320,7 +29320,7 @@
         <v>1.11</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT142" t="n">
         <v>1.08</v>
@@ -29729,7 +29729,7 @@
         <v>1.08</v>
       </c>
       <c r="AT144" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU144" t="n">
         <v>1.53</v>
@@ -30541,7 +30541,7 @@
         <v>1.23</v>
       </c>
       <c r="AT148" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU148" t="n">
         <v>1.63</v>
@@ -31147,7 +31147,7 @@
         <v>1.5</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT151" t="n">
         <v>1.54</v>
@@ -31350,7 +31350,7 @@
         <v>0.44</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT152" t="n">
         <v>0.62</v>
@@ -31556,7 +31556,7 @@
         <v>1.23</v>
       </c>
       <c r="AT153" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU153" t="n">
         <v>1.9</v>
@@ -32368,7 +32368,7 @@
         <v>1.54</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU157" t="n">
         <v>1.6</v>
@@ -32568,7 +32568,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS158" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT158" t="n">
         <v>0.46</v>
@@ -32771,10 +32771,10 @@
         <v>2.11</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT159" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU159" t="n">
         <v>1.26</v>
@@ -33586,7 +33586,7 @@
         <v>1.23</v>
       </c>
       <c r="AT163" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33786,7 +33786,7 @@
         <v>1.3</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT164" t="n">
         <v>1.08</v>
@@ -34192,7 +34192,7 @@
         <v>0.7</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT166" t="n">
         <v>0.62</v>
@@ -34601,7 +34601,7 @@
         <v>1.46</v>
       </c>
       <c r="AT168" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU168" t="n">
         <v>1.72</v>
@@ -35207,7 +35207,7 @@
         <v>0.9</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT171" t="n">
         <v>1</v>
@@ -35819,7 +35819,7 @@
         <v>2.31</v>
       </c>
       <c r="AT174" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU174" t="n">
         <v>2.22</v>
@@ -36022,7 +36022,7 @@
         <v>1.31</v>
       </c>
       <c r="AT175" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU175" t="n">
         <v>1.75</v>
@@ -36425,10 +36425,10 @@
         <v>1.7</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU177" t="n">
         <v>1.32</v>
@@ -36631,7 +36631,7 @@
         <v>1.23</v>
       </c>
       <c r="AT178" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU178" t="n">
         <v>1.93</v>
@@ -37034,7 +37034,7 @@
         <v>1.27</v>
       </c>
       <c r="AS180" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT180" t="n">
         <v>1.08</v>
@@ -37643,7 +37643,7 @@
         <v>1.18</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT183" t="n">
         <v>1.08</v>
@@ -38049,7 +38049,7 @@
         <v>1.33</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AT185" t="n">
         <v>1.23</v>
@@ -38252,7 +38252,7 @@
         <v>0.91</v>
       </c>
       <c r="AS186" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT186" t="n">
         <v>1</v>
@@ -38458,7 +38458,7 @@
         <v>1.08</v>
       </c>
       <c r="AT187" t="n">
-        <v>2.25</v>
+        <v>2.31</v>
       </c>
       <c r="AU187" t="n">
         <v>1.6</v>
@@ -38661,7 +38661,7 @@
         <v>1.31</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AU188" t="n">
         <v>1.76</v>
@@ -39064,10 +39064,10 @@
         <v>0.36</v>
       </c>
       <c r="AS190" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT190" t="n">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU190" t="n">
         <v>1.33</v>
@@ -39473,7 +39473,7 @@
         <v>2.15</v>
       </c>
       <c r="AT192" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AU192" t="n">
         <v>1.9</v>
@@ -39673,7 +39673,7 @@
         <v>2</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AT193" t="n">
         <v>1.92</v>
@@ -42164,6 +42164,818 @@
       </c>
       <c r="BK205" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>2595336</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45025.45833333334</v>
+      </c>
+      <c r="F206" t="n">
+        <v>26</v>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>0</v>
+      </c>
+      <c r="J206" t="n">
+        <v>1</v>
+      </c>
+      <c r="K206" t="n">
+        <v>1</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0</v>
+      </c>
+      <c r="M206" t="n">
+        <v>3</v>
+      </c>
+      <c r="N206" t="n">
+        <v>3</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>['22', '48', '73']</t>
+        </is>
+      </c>
+      <c r="Q206" t="n">
+        <v>6</v>
+      </c>
+      <c r="R206" t="n">
+        <v>1</v>
+      </c>
+      <c r="S206" t="n">
+        <v>7</v>
+      </c>
+      <c r="T206" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U206" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V206" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W206" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X206" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB206" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC206" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AD206" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AE206" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AF206" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG206" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH206" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI206" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ206" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK206" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL206" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM206" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO206" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP206" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ206" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR206" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS206" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT206" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU206" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV206" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW206" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX206" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY206" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ206" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BA206" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB206" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC206" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD206" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE206" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG206" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH206" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI206" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ206" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK206" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>2595339</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45025.45833333334</v>
+      </c>
+      <c r="F207" t="n">
+        <v>26</v>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1</v>
+      </c>
+      <c r="K207" t="n">
+        <v>2</v>
+      </c>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="n">
+        <v>1</v>
+      </c>
+      <c r="N207" t="n">
+        <v>2</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>['17']</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q207" t="n">
+        <v>2</v>
+      </c>
+      <c r="R207" t="n">
+        <v>12</v>
+      </c>
+      <c r="S207" t="n">
+        <v>14</v>
+      </c>
+      <c r="T207" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U207" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="V207" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="W207" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X207" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB207" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC207" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AD207" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE207" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF207" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG207" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI207" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ207" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK207" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL207" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM207" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN207" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AO207" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP207" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR207" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS207" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT207" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU207" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV207" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AW207" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AX207" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AY207" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ207" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BA207" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BC207" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BD207" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE207" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BF207" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG207" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH207" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ207" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK207" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>2595340</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45025.45833333334</v>
+      </c>
+      <c r="F208" t="n">
+        <v>26</v>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>1</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1</v>
+      </c>
+      <c r="K208" t="n">
+        <v>2</v>
+      </c>
+      <c r="L208" t="n">
+        <v>2</v>
+      </c>
+      <c r="M208" t="n">
+        <v>2</v>
+      </c>
+      <c r="N208" t="n">
+        <v>4</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>['37', '51']</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>['25', '54']</t>
+        </is>
+      </c>
+      <c r="Q208" t="n">
+        <v>3</v>
+      </c>
+      <c r="R208" t="n">
+        <v>1</v>
+      </c>
+      <c r="S208" t="n">
+        <v>4</v>
+      </c>
+      <c r="T208" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U208" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V208" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="W208" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="X208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB208" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC208" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AD208" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AE208" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AF208" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG208" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH208" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI208" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ208" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL208" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN208" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO208" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP208" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ208" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR208" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AS208" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AT208" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU208" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AV208" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW208" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AX208" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AY208" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ208" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BA208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB208" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC208" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD208" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE208" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BF208" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG208" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH208" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI208" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ208" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK208" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>2595337</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45025.58333333334</v>
+      </c>
+      <c r="F209" t="n">
+        <v>26</v>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>2</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0</v>
+      </c>
+      <c r="M209" t="n">
+        <v>2</v>
+      </c>
+      <c r="N209" t="n">
+        <v>2</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>['20', '37']</t>
+        </is>
+      </c>
+      <c r="Q209" t="n">
+        <v>2</v>
+      </c>
+      <c r="R209" t="n">
+        <v>10</v>
+      </c>
+      <c r="S209" t="n">
+        <v>12</v>
+      </c>
+      <c r="T209" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="U209" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="V209" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W209" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="X209" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB209" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC209" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD209" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AE209" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AF209" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG209" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH209" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI209" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ209" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL209" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AM209" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN209" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AO209" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AP209" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ209" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR209" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS209" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT209" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU209" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV209" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW209" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX209" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AY209" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ209" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BA209" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB209" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC209" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD209" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE209" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BF209" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG209" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH209" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI209" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ209" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK209" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Czech Republic First League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK209"/>
+  <dimension ref="A1:BK217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT4" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.08</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT8" t="n">
         <v>2</v>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>2.15</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT18" t="n">
         <v>0.46</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT19" t="n">
         <v>2</v>
@@ -4554,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU20" t="n">
         <v>1.13</v>
@@ -4757,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU21" t="n">
         <v>0.68</v>
@@ -4963,7 +4963,7 @@
         <v>1.08</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU22" t="n">
         <v>1.15</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU23" t="n">
         <v>2.02</v>
@@ -5369,7 +5369,7 @@
         <v>1.08</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU24" t="n">
         <v>2.34</v>
@@ -5569,10 +5569,10 @@
         <v>3</v>
       </c>
       <c r="AS25" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU25" t="n">
         <v>2.13</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT26" t="n">
         <v>0.54</v>
@@ -6181,7 +6181,7 @@
         <v>1.31</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.75</v>
@@ -6384,7 +6384,7 @@
         <v>1.54</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU29" t="n">
         <v>1.51</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT30" t="n">
         <v>1.08</v>
@@ -6790,7 +6790,7 @@
         <v>3</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU31" t="n">
         <v>1.66</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT32" t="n">
         <v>1.54</v>
@@ -7196,7 +7196,7 @@
         <v>1.08</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU33" t="n">
         <v>1.23</v>
@@ -7399,7 +7399,7 @@
         <v>1.08</v>
       </c>
       <c r="AT34" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU34" t="n">
         <v>1.94</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT36" t="n">
         <v>0.46</v>
@@ -8005,7 +8005,7 @@
         <v>3</v>
       </c>
       <c r="AS37" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT37" t="n">
         <v>2</v>
@@ -8211,7 +8211,7 @@
         <v>1.77</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU38" t="n">
         <v>2.21</v>
@@ -8411,10 +8411,10 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU39" t="n">
         <v>1.07</v>
@@ -8614,10 +8614,10 @@
         <v>1.5</v>
       </c>
       <c r="AS40" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU40" t="n">
         <v>1.51</v>
@@ -8817,10 +8817,10 @@
         <v>2</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU41" t="n">
         <v>1.79</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU42" t="n">
         <v>1.81</v>
@@ -9223,7 +9223,7 @@
         <v>3</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT43" t="n">
         <v>2.31</v>
@@ -9429,7 +9429,7 @@
         <v>2.15</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU44" t="n">
         <v>1.69</v>
@@ -9632,7 +9632,7 @@
         <v>1.54</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU45" t="n">
         <v>1.07</v>
@@ -10035,7 +10035,7 @@
         <v>3</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT47" t="n">
         <v>1.15</v>
@@ -10441,7 +10441,7 @@
         <v>1</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT49" t="n">
         <v>1.08</v>
@@ -10647,7 +10647,7 @@
         <v>1.31</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU50" t="n">
         <v>2.23</v>
@@ -10850,7 +10850,7 @@
         <v>1.08</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU51" t="n">
         <v>1.11</v>
@@ -11050,7 +11050,7 @@
         <v>0.33</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT52" t="n">
         <v>0.46</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -11459,7 +11459,7 @@
         <v>1.08</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU54" t="n">
         <v>1.62</v>
@@ -11659,7 +11659,7 @@
         <v>2.33</v>
       </c>
       <c r="AS55" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT55" t="n">
         <v>2</v>
@@ -11865,7 +11865,7 @@
         <v>1.77</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU56" t="n">
         <v>2.12</v>
@@ -12068,7 +12068,7 @@
         <v>1.54</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU57" t="n">
         <v>1.57</v>
@@ -12268,7 +12268,7 @@
         <v>3</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT58" t="n">
         <v>1.15</v>
@@ -12471,7 +12471,7 @@
         <v>2.33</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT59" t="n">
         <v>2.31</v>
@@ -12674,10 +12674,10 @@
         <v>1.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU60" t="n">
         <v>1.82</v>
@@ -12880,7 +12880,7 @@
         <v>1.23</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU61" t="n">
         <v>1.42</v>
@@ -13080,10 +13080,10 @@
         <v>0</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU62" t="n">
         <v>1.64</v>
@@ -13283,7 +13283,7 @@
         <v>2</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT63" t="n">
         <v>1.54</v>
@@ -13489,7 +13489,7 @@
         <v>3</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU64" t="n">
         <v>2.42</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="AS65" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT65" t="n">
         <v>0.54</v>
@@ -13895,7 +13895,7 @@
         <v>1.08</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU66" t="n">
         <v>0.97</v>
@@ -14098,7 +14098,7 @@
         <v>1.31</v>
       </c>
       <c r="AT67" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU67" t="n">
         <v>2.14</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT68" t="n">
         <v>1</v>
@@ -14501,7 +14501,7 @@
         <v>0.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT69" t="n">
         <v>0.46</v>
@@ -15113,7 +15113,7 @@
         <v>2.15</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU72" t="n">
         <v>1.59</v>
@@ -15313,10 +15313,10 @@
         <v>2.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU73" t="n">
         <v>1.96</v>
@@ -15519,7 +15519,7 @@
         <v>1.23</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU74" t="n">
         <v>1.6</v>
@@ -15719,10 +15719,10 @@
         <v>1.75</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.64</v>
@@ -15922,7 +15922,7 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT76" t="n">
         <v>1.54</v>
@@ -16125,7 +16125,7 @@
         <v>3</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT77" t="n">
         <v>1.15</v>
@@ -16328,10 +16328,10 @@
         <v>0</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU78" t="n">
         <v>1.3</v>
@@ -16531,10 +16531,10 @@
         <v>1.2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU79" t="n">
         <v>1.79</v>
@@ -16737,7 +16737,7 @@
         <v>3</v>
       </c>
       <c r="AT80" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU80" t="n">
         <v>2.47</v>
@@ -16937,7 +16937,7 @@
         <v>1</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT81" t="n">
         <v>0.54</v>
@@ -17343,7 +17343,7 @@
         <v>2</v>
       </c>
       <c r="AS83" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT83" t="n">
         <v>2.31</v>
@@ -17549,7 +17549,7 @@
         <v>2.15</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU84" t="n">
         <v>1.55</v>
@@ -18361,7 +18361,7 @@
         <v>1.54</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU88" t="n">
         <v>1.58</v>
@@ -18561,10 +18561,10 @@
         <v>2</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU89" t="n">
         <v>1.48</v>
@@ -18764,7 +18764,7 @@
         <v>2.25</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT90" t="n">
         <v>1.15</v>
@@ -18967,10 +18967,10 @@
         <v>1.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT91" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU91" t="n">
         <v>1.91</v>
@@ -19170,10 +19170,10 @@
         <v>0</v>
       </c>
       <c r="AS92" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU92" t="n">
         <v>2.01</v>
@@ -19373,10 +19373,10 @@
         <v>1.5</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU93" t="n">
         <v>1.87</v>
@@ -19576,10 +19576,10 @@
         <v>1.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU94" t="n">
         <v>1.73</v>
@@ -19779,10 +19779,10 @@
         <v>2.33</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT95" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU95" t="n">
         <v>1.58</v>
@@ -19985,7 +19985,7 @@
         <v>3</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU96" t="n">
         <v>2.42</v>
@@ -21809,10 +21809,10 @@
         <v>0</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU105" t="n">
         <v>1.44</v>
@@ -22012,10 +22012,10 @@
         <v>2.17</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU106" t="n">
         <v>1.63</v>
@@ -22215,10 +22215,10 @@
         <v>1.43</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU107" t="n">
         <v>1.83</v>
@@ -22418,10 +22418,10 @@
         <v>2.43</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU108" t="n">
         <v>1.72</v>
@@ -22621,10 +22621,10 @@
         <v>1.17</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU109" t="n">
         <v>1.97</v>
@@ -22824,10 +22824,10 @@
         <v>1.43</v>
       </c>
       <c r="AS110" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU110" t="n">
         <v>1.47</v>
@@ -23027,10 +23027,10 @@
         <v>1.57</v>
       </c>
       <c r="AS111" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU111" t="n">
         <v>1.56</v>
@@ -23230,7 +23230,7 @@
         <v>0.57</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT112" t="n">
         <v>0.46</v>
@@ -24248,7 +24248,7 @@
         <v>1.77</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU117" t="n">
         <v>1.93</v>
@@ -25057,10 +25057,10 @@
         <v>1.29</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU121" t="n">
         <v>2.16</v>
@@ -25260,10 +25260,10 @@
         <v>1.25</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU122" t="n">
         <v>1.58</v>
@@ -25463,10 +25463,10 @@
         <v>1.25</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT123" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU123" t="n">
         <v>1.66</v>
@@ -25666,7 +25666,7 @@
         <v>2.29</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT124" t="n">
         <v>2</v>
@@ -25869,10 +25869,10 @@
         <v>1.86</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU125" t="n">
         <v>2.11</v>
@@ -26072,10 +26072,10 @@
         <v>1.13</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT126" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU126" t="n">
         <v>1.46</v>
@@ -26278,7 +26278,7 @@
         <v>1.08</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU127" t="n">
         <v>1.43</v>
@@ -26478,10 +26478,10 @@
         <v>1.38</v>
       </c>
       <c r="AS128" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT128" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU128" t="n">
         <v>1.51</v>
@@ -26681,10 +26681,10 @@
         <v>1.43</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU129" t="n">
         <v>1.64</v>
@@ -26887,7 +26887,7 @@
         <v>1.77</v>
       </c>
       <c r="AT130" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU130" t="n">
         <v>1.94</v>
@@ -27087,7 +27087,7 @@
         <v>0.57</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT131" t="n">
         <v>0.54</v>
@@ -27699,7 +27699,7 @@
         <v>1.31</v>
       </c>
       <c r="AT134" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU134" t="n">
         <v>1.77</v>
@@ -28305,7 +28305,7 @@
         <v>0.71</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT137" t="n">
         <v>1</v>
@@ -28508,7 +28508,7 @@
         <v>0.5</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT138" t="n">
         <v>0.46</v>
@@ -28711,7 +28711,7 @@
         <v>0.75</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT139" t="n">
         <v>1</v>
@@ -28917,7 +28917,7 @@
         <v>1.77</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU140" t="n">
         <v>1.88</v>
@@ -29120,7 +29120,7 @@
         <v>1.08</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU141" t="n">
         <v>1.4</v>
@@ -29323,7 +29323,7 @@
         <v>1.08</v>
       </c>
       <c r="AT142" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU142" t="n">
         <v>1.26</v>
@@ -29523,10 +29523,10 @@
         <v>2.33</v>
       </c>
       <c r="AS143" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU143" t="n">
         <v>1.59</v>
@@ -29726,7 +29726,7 @@
         <v>2</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT144" t="n">
         <v>2</v>
@@ -29929,10 +29929,10 @@
         <v>1.44</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU145" t="n">
         <v>2.11</v>
@@ -30135,7 +30135,7 @@
         <v>1.31</v>
       </c>
       <c r="AT146" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU146" t="n">
         <v>1.78</v>
@@ -30335,7 +30335,7 @@
         <v>0.63</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT147" t="n">
         <v>1.08</v>
@@ -30538,7 +30538,7 @@
         <v>0.5</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT148" t="n">
         <v>0.54</v>
@@ -30947,7 +30947,7 @@
         <v>2.15</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU150" t="n">
         <v>1.87</v>
@@ -31353,7 +31353,7 @@
         <v>1.23</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU152" t="n">
         <v>1.59</v>
@@ -31553,7 +31553,7 @@
         <v>1.88</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT153" t="n">
         <v>2.31</v>
@@ -31756,10 +31756,10 @@
         <v>1.3</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU154" t="n">
         <v>1.66</v>
@@ -31959,7 +31959,7 @@
         <v>1</v>
       </c>
       <c r="AS155" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT155" t="n">
         <v>1</v>
@@ -32165,7 +32165,7 @@
         <v>1.31</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU156" t="n">
         <v>1.78</v>
@@ -32365,10 +32365,10 @@
         <v>1.78</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT157" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU157" t="n">
         <v>1.6</v>
@@ -32977,7 +32977,7 @@
         <v>1.77</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU160" t="n">
         <v>1.82</v>
@@ -33177,7 +33177,7 @@
         <v>0.89</v>
       </c>
       <c r="AS161" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT161" t="n">
         <v>1.08</v>
@@ -33380,7 +33380,7 @@
         <v>1.3</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT162" t="n">
         <v>1.15</v>
@@ -33583,7 +33583,7 @@
         <v>2</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT163" t="n">
         <v>2.31</v>
@@ -33789,7 +33789,7 @@
         <v>1.23</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU164" t="n">
         <v>1.64</v>
@@ -33992,7 +33992,7 @@
         <v>2.15</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU165" t="n">
         <v>1.93</v>
@@ -34195,7 +34195,7 @@
         <v>1.54</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU166" t="n">
         <v>1.66</v>
@@ -34398,7 +34398,7 @@
         <v>3</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU167" t="n">
         <v>2.35</v>
@@ -34598,7 +34598,7 @@
         <v>0.44</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT168" t="n">
         <v>0.54</v>
@@ -34801,7 +34801,7 @@
         <v>1.44</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT169" t="n">
         <v>1.54</v>
@@ -35004,7 +35004,7 @@
         <v>0.5</v>
       </c>
       <c r="AS170" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT170" t="n">
         <v>0.46</v>
@@ -35410,7 +35410,7 @@
         <v>0.8</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT172" t="n">
         <v>1.08</v>
@@ -35616,7 +35616,7 @@
         <v>2.15</v>
       </c>
       <c r="AT173" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU173" t="n">
         <v>1.85</v>
@@ -35816,7 +35816,7 @@
         <v>0.4</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT174" t="n">
         <v>0.54</v>
@@ -36225,7 +36225,7 @@
         <v>1.77</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU176" t="n">
         <v>1.77</v>
@@ -36428,7 +36428,7 @@
         <v>1.08</v>
       </c>
       <c r="AT177" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU177" t="n">
         <v>1.32</v>
@@ -36628,7 +36628,7 @@
         <v>2.1</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT178" t="n">
         <v>2.31</v>
@@ -36831,7 +36831,7 @@
         <v>1.6</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT179" t="n">
         <v>1.54</v>
@@ -37037,7 +37037,7 @@
         <v>1.54</v>
       </c>
       <c r="AT180" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU180" t="n">
         <v>1.74</v>
@@ -37240,7 +37240,7 @@
         <v>3</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU181" t="n">
         <v>2.32</v>
@@ -37440,7 +37440,7 @@
         <v>1.27</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT182" t="n">
         <v>1.15</v>
@@ -37646,7 +37646,7 @@
         <v>1.23</v>
       </c>
       <c r="AT183" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU183" t="n">
         <v>1.65</v>
@@ -37846,10 +37846,10 @@
         <v>0.73</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT184" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU184" t="n">
         <v>1.89</v>
@@ -38052,7 +38052,7 @@
         <v>1.54</v>
       </c>
       <c r="AT185" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AU185" t="n">
         <v>1.82</v>
@@ -38455,7 +38455,7 @@
         <v>2.18</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
       <c r="AT187" t="n">
         <v>2.31</v>
@@ -38661,7 +38661,7 @@
         <v>1.31</v>
       </c>
       <c r="AT188" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU188" t="n">
         <v>1.76</v>
@@ -38861,7 +38861,7 @@
         <v>1</v>
       </c>
       <c r="AS189" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT189" t="n">
         <v>1.08</v>
@@ -39676,7 +39676,7 @@
         <v>1.23</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="AU193" t="n">
         <v>1.67</v>
@@ -39876,10 +39876,10 @@
         <v>1.17</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.23</v>
+        <v>1.14</v>
       </c>
       <c r="AT194" t="n">
-        <v>1.08</v>
+        <v>1</v>
       </c>
       <c r="AU194" t="n">
         <v>1.56</v>
@@ -40079,10 +40079,10 @@
         <v>1.08</v>
       </c>
       <c r="AS195" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT195" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AU195" t="n">
         <v>1.87</v>
@@ -40285,7 +40285,7 @@
         <v>3</v>
       </c>
       <c r="AT196" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU196" t="n">
         <v>2.29</v>
@@ -40485,7 +40485,7 @@
         <v>1.55</v>
       </c>
       <c r="AS197" t="n">
-        <v>1.54</v>
+        <v>1.43</v>
       </c>
       <c r="AT197" t="n">
         <v>1.54</v>
@@ -40688,7 +40688,7 @@
         <v>1.25</v>
       </c>
       <c r="AS198" t="n">
-        <v>2.31</v>
+        <v>2.21</v>
       </c>
       <c r="AT198" t="n">
         <v>1.15</v>
@@ -40891,10 +40891,10 @@
         <v>0.67</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT199" t="n">
-        <v>0.62</v>
+        <v>0.57</v>
       </c>
       <c r="AU199" t="n">
         <v>1.72</v>
@@ -41094,10 +41094,10 @@
         <v>1.36</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AT200" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU200" t="n">
         <v>1.88</v>
@@ -41297,10 +41297,10 @@
         <v>1.25</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AU201" t="n">
         <v>1.69</v>
@@ -41906,7 +41906,7 @@
         <v>1.42</v>
       </c>
       <c r="AS204" t="n">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AT204" t="n">
         <v>1.54</v>
@@ -42518,7 +42518,7 @@
         <v>1.23</v>
       </c>
       <c r="AT207" t="n">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="AU207" t="n">
         <v>1.68</v>
@@ -42976,6 +42976,1630 @@
       </c>
       <c r="BK209" t="n">
         <v>20</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>2595341</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45031.45833333334</v>
+      </c>
+      <c r="F210" t="n">
+        <v>27</v>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>Zlín</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Sigma Olomouc</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0</v>
+      </c>
+      <c r="M210" t="n">
+        <v>1</v>
+      </c>
+      <c r="N210" t="n">
+        <v>1</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>['18']</t>
+        </is>
+      </c>
+      <c r="Q210" t="n">
+        <v>3</v>
+      </c>
+      <c r="R210" t="n">
+        <v>8</v>
+      </c>
+      <c r="S210" t="n">
+        <v>11</v>
+      </c>
+      <c r="T210" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U210" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="V210" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="W210" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X210" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AB210" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC210" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AD210" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE210" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AF210" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG210" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH210" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AI210" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AJ210" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK210" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL210" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN210" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AO210" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP210" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ210" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR210" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS210" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AT210" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU210" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV210" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AW210" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX210" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY210" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ210" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA210" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB210" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC210" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD210" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE210" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BF210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH210" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI210" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ210" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK210" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>2595344</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45031.45833333334</v>
+      </c>
+      <c r="F211" t="n">
+        <v>27</v>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>Teplice</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Slovácko</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>1</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="n">
+        <v>3</v>
+      </c>
+      <c r="N211" t="n">
+        <v>4</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>['26', '49', '84']</t>
+        </is>
+      </c>
+      <c r="Q211" t="n">
+        <v>4</v>
+      </c>
+      <c r="R211" t="n">
+        <v>6</v>
+      </c>
+      <c r="S211" t="n">
+        <v>10</v>
+      </c>
+      <c r="T211" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U211" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V211" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="W211" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X211" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AB211" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AC211" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AD211" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE211" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AF211" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG211" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH211" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI211" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ211" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK211" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL211" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM211" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN211" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO211" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP211" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ211" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR211" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS211" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT211" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU211" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AV211" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW211" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AX211" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AY211" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ211" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BA211" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB211" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC211" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD211" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE211" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BF211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG211" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH211" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI211" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ211" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK211" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2595347</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45031.45833333334</v>
+      </c>
+      <c r="F212" t="n">
+        <v>27</v>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>Jablonec</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Slovan Liberec</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="n">
+        <v>1</v>
+      </c>
+      <c r="N212" t="n">
+        <v>2</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>['81']</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q212" t="n">
+        <v>5</v>
+      </c>
+      <c r="R212" t="n">
+        <v>5</v>
+      </c>
+      <c r="S212" t="n">
+        <v>10</v>
+      </c>
+      <c r="T212" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U212" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V212" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W212" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X212" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB212" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC212" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD212" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE212" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AF212" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG212" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH212" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI212" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ212" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK212" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL212" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AM212" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO212" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP212" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ212" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AR212" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS212" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT212" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AU212" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV212" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW212" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX212" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY212" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ212" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BA212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB212" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BC212" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BD212" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BE212" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BF212" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG212" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH212" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI212" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ212" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK212" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>2595345</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45031.58333333334</v>
+      </c>
+      <c r="F213" t="n">
+        <v>27</v>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>Sparta Praha</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Slavia Praha</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>1</v>
+      </c>
+      <c r="K213" t="n">
+        <v>1</v>
+      </c>
+      <c r="L213" t="n">
+        <v>3</v>
+      </c>
+      <c r="M213" t="n">
+        <v>3</v>
+      </c>
+      <c r="N213" t="n">
+        <v>6</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>['59', '71', '90+3']</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>['40', '54', '85']</t>
+        </is>
+      </c>
+      <c r="Q213" t="n">
+        <v>3</v>
+      </c>
+      <c r="R213" t="n">
+        <v>5</v>
+      </c>
+      <c r="S213" t="n">
+        <v>8</v>
+      </c>
+      <c r="T213" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U213" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V213" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X213" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="AB213" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC213" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AD213" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE213" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AF213" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG213" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI213" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AJ213" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AK213" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL213" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AM213" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN213" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AO213" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP213" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ213" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AR213" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS213" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT213" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU213" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AV213" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AW213" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="AX213" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY213" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ213" t="n">
+        <v>2</v>
+      </c>
+      <c r="BA213" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BB213" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BC213" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BD213" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE213" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="BF213" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG213" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH213" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI213" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ213" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK213" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>2595348</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45032.45833333334</v>
+      </c>
+      <c r="F214" t="n">
+        <v>27</v>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>Bohemians 1905</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Mladá Boleslav</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>4</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0</v>
+      </c>
+      <c r="N214" t="n">
+        <v>4</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>['40', '62', '74', '90+1']</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q214" t="n">
+        <v>3</v>
+      </c>
+      <c r="R214" t="n">
+        <v>8</v>
+      </c>
+      <c r="S214" t="n">
+        <v>11</v>
+      </c>
+      <c r="T214" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U214" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V214" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X214" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="AB214" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC214" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD214" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE214" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF214" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG214" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH214" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI214" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ214" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK214" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL214" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM214" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN214" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO214" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP214" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ214" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR214" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS214" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT214" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AU214" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AV214" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW214" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AX214" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY214" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ214" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA214" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB214" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BC214" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD214" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE214" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BF214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG214" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH214" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI214" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ214" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK214" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2595343</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45032.45833333334</v>
+      </c>
+      <c r="F215" t="n">
+        <v>27</v>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>Hradec Králové</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>České Budějovice</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>2</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>2</v>
+      </c>
+      <c r="L215" t="n">
+        <v>2</v>
+      </c>
+      <c r="M215" t="n">
+        <v>1</v>
+      </c>
+      <c r="N215" t="n">
+        <v>3</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>['32', '34']</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>['84']</t>
+        </is>
+      </c>
+      <c r="Q215" t="n">
+        <v>7</v>
+      </c>
+      <c r="R215" t="n">
+        <v>2</v>
+      </c>
+      <c r="S215" t="n">
+        <v>9</v>
+      </c>
+      <c r="T215" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U215" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V215" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W215" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X215" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB215" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC215" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AD215" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE215" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AF215" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG215" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AH215" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI215" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ215" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK215" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AL215" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM215" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO215" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP215" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AR215" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS215" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AT215" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU215" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AV215" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW215" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AX215" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY215" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ215" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BA215" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="BB215" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BC215" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD215" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE215" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BF215" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI215" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ215" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK215" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>2595346</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45032.45833333334</v>
+      </c>
+      <c r="F216" t="n">
+        <v>27</v>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>Zbrojovka Brno</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Pardubice</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>2</v>
+      </c>
+      <c r="M216" t="n">
+        <v>1</v>
+      </c>
+      <c r="N216" t="n">
+        <v>3</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>['47', '76']</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>['90+3']</t>
+        </is>
+      </c>
+      <c r="Q216" t="n">
+        <v>4</v>
+      </c>
+      <c r="R216" t="n">
+        <v>9</v>
+      </c>
+      <c r="S216" t="n">
+        <v>13</v>
+      </c>
+      <c r="T216" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="U216" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="V216" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="W216" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X216" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB216" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC216" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD216" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AE216" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF216" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG216" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH216" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI216" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ216" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK216" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AL216" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM216" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO216" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP216" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AQ216" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR216" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="AS216" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT216" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU216" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AV216" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW216" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX216" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AY216" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ216" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="BA216" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BB216" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BC216" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BD216" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE216" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BF216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG216" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH216" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI216" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ216" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK216" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2595342</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Czech Republic First League</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45032.58333333334</v>
+      </c>
+      <c r="F217" t="n">
+        <v>27</v>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>Baník Ostrava</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Viktoria Plzeň</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>1</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="n">
+        <v>1</v>
+      </c>
+      <c r="L217" t="n">
+        <v>2</v>
+      </c>
+      <c r="M217" t="n">
+        <v>1</v>
+      </c>
+      <c r="N217" t="n">
+        <v>3</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>['7', '58']</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q217" t="n">
+        <v>3</v>
+      </c>
+      <c r="R217" t="n">
+        <v>6</v>
+      </c>
+      <c r="S217" t="n">
+        <v>9</v>
+      </c>
+      <c r="T217" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U217" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V217" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W217" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X217" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AB217" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC217" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD217" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF217" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG217" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AH217" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI217" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ217" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK217" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL217" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM217" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN217" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO217" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ217" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AR217" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT217" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AU217" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV217" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AW217" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX217" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AY217" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BA217" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB217" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BC217" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BD217" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE217" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BF217" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG217" t="n">
+        <v>11</v>
+      </c>
+      <c r="BH217" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI217" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ217" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK217" t="n">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
